--- a/controle.xlsx
+++ b/controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD4C7748-3DB3-4969-9DB3-1CD39291B13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C69D9E4-28EC-4815-9567-B94843D3DB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57CD794E-46A1-4A47-A79C-B88E2BC5459E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{787B5987-E10C-4047-A33E-108C31443747}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7668" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7665" uniqueCount="882">
   <si>
     <t>Backoffice</t>
   </si>
@@ -320,18 +320,18 @@
     <t>Ana Beatriz Dupré Silva</t>
   </si>
   <si>
+    <t xml:space="preserve">Ana Clara Costa Alves     </t>
+  </si>
+  <si>
+    <t>Ana Clara Montanini Rezende</t>
+  </si>
+  <si>
+    <t>Felipe Rios</t>
+  </si>
+  <si>
     <t>Pode Operar</t>
   </si>
   <si>
-    <t xml:space="preserve">Ana Clara Costa Alves     </t>
-  </si>
-  <si>
-    <t>Ana Clara Montanini Rezende</t>
-  </si>
-  <si>
-    <t>Felipe Rios</t>
-  </si>
-  <si>
     <t>20% -&gt; Fundo BMTX RF Ativa</t>
   </si>
   <si>
@@ -374,6 +374,9 @@
     <t>Ana Maria Costa Campos</t>
   </si>
   <si>
+    <t xml:space="preserve">Aplicar em Stellantis </t>
+  </si>
+  <si>
     <t>STVM da GUIDE finalizada 10/10/2023</t>
   </si>
   <si>
@@ -542,595 +545,595 @@
     <t>Início da STVM vinda da XP dia 30/08/2023 e concluída dia 04/09/2023</t>
   </si>
   <si>
+    <t>Beatriz Roveri de Abreu</t>
+  </si>
+  <si>
+    <t>Mudança de carteira da MOD para CON dia 20/10/2023</t>
+  </si>
+  <si>
+    <t>Benedito de Almeida Neto</t>
+  </si>
+  <si>
+    <t>Pedro Vinicius Pereira De Andrade</t>
+  </si>
+  <si>
+    <t>30K CDB diário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bento Rodrigo Fernandes Bueno       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alteração de conta/ Conta inativa devido a saída de estratégia mas com possível retorno </t>
+  </si>
+  <si>
+    <t>PREV ARR</t>
+  </si>
+  <si>
+    <t>SMLL</t>
+  </si>
+  <si>
+    <t>Bloco Construções e Comércio LTDA</t>
+  </si>
+  <si>
+    <t>Brasfort Empresa de Segurança LTDA</t>
+  </si>
+  <si>
+    <t>Alexandre Moraes Xavier</t>
+  </si>
+  <si>
+    <t>Brenner Participações Ltda</t>
+  </si>
+  <si>
+    <t>Bruna Thomé Rassi e Leiser Franco de Moares Filho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mudar conta para "Fundos". </t>
+  </si>
+  <si>
+    <t>Bruno de Azevedo Oliveira</t>
+  </si>
+  <si>
+    <t>Bruno Henrique Borges Silva</t>
+  </si>
+  <si>
+    <t>Monitoramento</t>
+  </si>
+  <si>
+    <t>Bruno Menezes Karner</t>
+  </si>
+  <si>
+    <t>Bruno Montenegro Sacani</t>
+  </si>
+  <si>
+    <t>Bruno Sacani Sobrinho</t>
+  </si>
+  <si>
+    <t>Início da STVM da GUIDE dia 04/09/2023</t>
+  </si>
+  <si>
+    <t>Bruno Tedesco Rosa</t>
+  </si>
+  <si>
+    <t>Caio Augusto Costa Campos e Leticia Castello Branco Nascimento</t>
+  </si>
+  <si>
+    <t>Caio Cesar Damitto Rosa</t>
+  </si>
+  <si>
+    <t>Mudandança de carteira da INC para CON dia 23/10/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caio de Almeida Leite </t>
+  </si>
+  <si>
+    <t>Caio Tocchio Aleixo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camilla Pedrosa Vieira Lima	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carla Ameloti Galvão </t>
+  </si>
+  <si>
+    <t>18,2k  Renda Fixa Ativo</t>
+  </si>
+  <si>
+    <t>Carla de Barros e Azevedo Chastinet</t>
+  </si>
+  <si>
+    <t>20k Renda Fixa Ativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Alberto de Carvalho     </t>
+  </si>
+  <si>
+    <t>Carlos André de Barros e Azevedo Chastinet</t>
+  </si>
+  <si>
+    <t>Carlos Augusto Simonian Dos Santos</t>
+  </si>
+  <si>
+    <t>30k Renda Fixa Ativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Edebrando Martini    </t>
+  </si>
+  <si>
+    <t>51k Renda Fixa Ativo</t>
+  </si>
+  <si>
+    <t>Carlos Humberto Fauaze Filho</t>
+  </si>
+  <si>
+    <t>Carlos Humberto Miguel</t>
+  </si>
+  <si>
+    <t>Flavio Miguel</t>
+  </si>
+  <si>
+    <t>Carolina Caribé Negócios Digitais LTDA</t>
+  </si>
+  <si>
+    <t>FUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caroline Bastos de Souza </t>
+  </si>
+  <si>
+    <t>Carollina Pedrosa Vieira Lima</t>
+  </si>
+  <si>
+    <t>Cassio Kaminagakura</t>
+  </si>
+  <si>
+    <t>Ateração de carteira de INC p/ MOD dia 15/09/2023 / STVM finalizada dia 02/10/2023</t>
+  </si>
+  <si>
+    <t>Catarine Tempest Calijuri</t>
+  </si>
+  <si>
+    <t>Cecília Tocchio Aleixo</t>
+  </si>
+  <si>
+    <t>Célia Maria Marinho Martins Amaral de Souza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Célia Rios Guercio   </t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Guilherme Rios Guercio</t>
+  </si>
+  <si>
+    <t>Cesar Augusto Gastaldon Rios</t>
+  </si>
+  <si>
+    <t>Cesar Eduardo Castro Ferreira Martins</t>
+  </si>
+  <si>
+    <t>Conta encerrada dia 14/08/2023</t>
+  </si>
+  <si>
+    <t>Cesar Eduardo Castro Ferreira Martins/ Leticia Navarro Gordan Ferreira Martins</t>
+  </si>
+  <si>
+    <t>Início da STVM iniciada dia 22/08/2023</t>
+  </si>
+  <si>
+    <t>Cezar Falavigna Silva</t>
+  </si>
+  <si>
+    <t>Cezar Falavigna Silva e Ana Maria Falavigna Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Kleber Rosa Lisboa    </t>
+  </si>
+  <si>
+    <t>Não comprar ações</t>
+  </si>
+  <si>
+    <t>Mudar carteira para Income</t>
+  </si>
+  <si>
+    <t>Cinco Dois Apoio Administrativo</t>
+  </si>
+  <si>
+    <t>Cintia Taís Polizer Zanin</t>
+  </si>
+  <si>
+    <t>Início da STVM da GUIDE dia 16/08/2023 e concluída 13/09/2023 / Alt de carteira finalizada dia 22/12/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cintia Uchida Rodrigues     </t>
+  </si>
+  <si>
+    <t>Ciria Coelho Ribeiro</t>
+  </si>
+  <si>
+    <t>Clarice de Meneses Costa Moura Lagares</t>
+  </si>
+  <si>
+    <t>Claudia de Barros e Azevedo Ramos</t>
+  </si>
+  <si>
+    <t>INC/ PREV MOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia Dias Prado	</t>
+  </si>
+  <si>
+    <t>Claudia Dias Prado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia Marques de Barros Rodrigues	</t>
+  </si>
+  <si>
+    <t>Cliente alterou da carteira Income para Moderada dia 24/08/2023</t>
+  </si>
+  <si>
+    <t>Claudio Humberto de Ameida Gomes</t>
+  </si>
+  <si>
+    <t>Rafael Pagnan</t>
+  </si>
+  <si>
+    <t>Alocar tudo no Renda Fixa Ativo. Mudar carteira para fundos</t>
+  </si>
+  <si>
+    <t>Cléria Lúcia Abreu de Siqueira</t>
+  </si>
+  <si>
+    <t>Clisia Mara Carrera</t>
+  </si>
+  <si>
+    <t>Início da STVM da GUIDE dia 22/08/2023 e concluída 04/09/2023</t>
+  </si>
+  <si>
+    <t>Clovis Tadeu Rodrigues</t>
+  </si>
+  <si>
+    <t>Clovis Tadeu Rodrigues / Miriam Cristina Da Silva</t>
+  </si>
+  <si>
+    <t>Alt da carteira de MOD/ CON dia 06/09/2023 / STVM GUIDE finalizada dia 30/10/2023</t>
+  </si>
+  <si>
+    <t>Contel Obras e Serviços LTDA</t>
+  </si>
+  <si>
+    <t>30% RF Ativo; 20% vencimentos de no máximo 1 ano / Em processo de STVM</t>
+  </si>
+  <si>
+    <t>Cristiano Augusto Andrade de Resende</t>
+  </si>
+  <si>
+    <t>Cliente não pode sair de ONCO3 devido ser sócio da instituição, favor incluir a venda desse ativo nas restrições desse cliente.</t>
+  </si>
+  <si>
+    <t>Cristina Flavia Silva Andrada Batista</t>
+  </si>
+  <si>
+    <t>Cristina Vieira de Souza</t>
+  </si>
+  <si>
+    <t>Daianne Gonçalves Pinheiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daisy Eni Morais dos Santos    </t>
+  </si>
+  <si>
+    <t>Cecilia Arcoverde Bezerra Pires</t>
+  </si>
+  <si>
+    <t>Daniel Cambraia Danzig</t>
+  </si>
+  <si>
+    <t>Daniel Darlen Corrêa Ribeiro</t>
+  </si>
+  <si>
+    <t>Não vender mais de 20k RV / Mês</t>
+  </si>
+  <si>
+    <t>Daniel Sindeaux Braga</t>
+  </si>
+  <si>
+    <t>Daniela Ferreira Salomão</t>
+  </si>
+  <si>
+    <t>Gabriel Bicalho Fontes Raydan</t>
+  </si>
+  <si>
+    <t>Daniela Ferreira Salomão Pontes</t>
+  </si>
+  <si>
+    <t>Trocou de assessor de Thiago Canabrava para Gabriel Raydan em 03/02/2023</t>
+  </si>
+  <si>
+    <t>Daniela Jaime Smith</t>
+  </si>
+  <si>
+    <t>Bruno Jaime</t>
+  </si>
+  <si>
+    <t>Daniela Marques Krohn</t>
+  </si>
+  <si>
+    <t>100k fundo RF ativo</t>
+  </si>
+  <si>
+    <t>Daniela Marques Krohn e/ou Paulo Roberto Rocha Krohn</t>
+  </si>
+  <si>
+    <t>Daniele Capiotto Garcia Maciel</t>
+  </si>
+  <si>
+    <t>Daniely Marcal Silvino de Brito</t>
+  </si>
+  <si>
+    <t>Bloqueado</t>
+  </si>
+  <si>
+    <t>Danilo da Silva</t>
+  </si>
+  <si>
+    <t>Danilo Reis de Souza</t>
+  </si>
+  <si>
+    <t>MOD/ GR</t>
+  </si>
+  <si>
+    <t>Proporção em renda variável deverá possuir a carteira de FII e Equities</t>
+  </si>
+  <si>
+    <t>Danilo Viana Rabelo</t>
+  </si>
+  <si>
+    <t>30% do PL -&gt; BMTX RF Ativo</t>
+  </si>
+  <si>
+    <t>Daura de Campos Mendes Filpo</t>
+  </si>
+  <si>
+    <t>David Nunes Ferraz</t>
+  </si>
+  <si>
+    <t>Denise Yendo Inada</t>
+  </si>
+  <si>
+    <t>Diego Aquino Pelagio Gondim</t>
+  </si>
+  <si>
+    <t>Diego Fraga Rezende</t>
+  </si>
+  <si>
+    <t>Diego Franco Noronha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego Perillo Navarrete Lavers </t>
+  </si>
+  <si>
+    <t>Dig Barbearia e Salão De Beleza LTDA</t>
+  </si>
+  <si>
+    <t>Dilson Manoel Catarino</t>
+  </si>
+  <si>
+    <t>Diogo Salomão Pontes</t>
+  </si>
+  <si>
+    <t>Dirceu Alves do Nascimento</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>Dunas Construções LTDA</t>
+  </si>
+  <si>
+    <t>Doracy Vieira da Paixão</t>
+  </si>
+  <si>
+    <t>PREV</t>
+  </si>
+  <si>
+    <t>Dorival Tavela Ramos</t>
+  </si>
+  <si>
+    <t>PREV MOD</t>
+  </si>
+  <si>
+    <t>E3 Serviços de Instalções Fotovaltaicos Eireli</t>
+  </si>
+  <si>
+    <t>30% Fundo RF Ativo - prazo máx - 3 meses</t>
+  </si>
+  <si>
+    <t>Edinardo Dutra Magalhães</t>
+  </si>
+  <si>
+    <t>Edmundo Starling Loureiro Franca</t>
+  </si>
+  <si>
+    <t>BDR</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Alteração de carteira Income para Previdenciaria Conservadora 07/12/2023</t>
+  </si>
+  <si>
+    <t>Edoardo Coutinho Lazzaretti</t>
+  </si>
+  <si>
+    <t>Caio Cesar Da Rocha Valente Araujo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduarda Gabriella Santos Borges </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40% em liquidez </t>
+  </si>
+  <si>
+    <t>Eduarda Sebastiani van Lieshout</t>
+  </si>
+  <si>
+    <t>Eduardo Augusto Rosa</t>
+  </si>
+  <si>
+    <t>Eduardo Guerzoni</t>
+  </si>
+  <si>
+    <t>Mudou da carteira Income para a Conservadora dia 27/07/2023</t>
+  </si>
+  <si>
+    <t>Eduardo Henrique Gomes Martinez</t>
+  </si>
+  <si>
+    <t>Eduardo Leopoldino Gonçalves</t>
+  </si>
+  <si>
+    <t>Eduardo Leopoldino</t>
+  </si>
+  <si>
+    <t>Eduardo Mendes da Silva</t>
+  </si>
+  <si>
+    <t>Eduardo Rios da Costa Carvalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edward Lucio Vieira Borba       </t>
+  </si>
+  <si>
+    <t>Leandro Soares Lemos De Sousa</t>
+  </si>
+  <si>
+    <t>Eike Jefferson Galdino Pereira</t>
+  </si>
+  <si>
+    <t>Elaine Aparecida Ferreira dos Santos</t>
+  </si>
+  <si>
+    <t>Manter R$ 350.000,00 no CDB de liquidez</t>
+  </si>
+  <si>
+    <t>Elaine Leal Luz Boiteux</t>
+  </si>
+  <si>
+    <t>Breno Lemes</t>
+  </si>
+  <si>
+    <t>Elena Guedes Cardoso</t>
+  </si>
+  <si>
+    <t>Elene Mendonça Motta Tipple/ Marcondes José da Motta Junior</t>
+  </si>
+  <si>
+    <t>Eleni Esmeraldino Amorim e/ou Adriana Berford Leão Amorim</t>
+  </si>
+  <si>
+    <t>Eleuse Cardoso Machado Cavalcanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliane Medeiros Leopoldino Gonçalves </t>
+  </si>
+  <si>
+    <t>Elisa Faical Valim</t>
+  </si>
+  <si>
+    <t>Elisandra Correia Fleury</t>
+  </si>
+  <si>
+    <t>Elsi Maria Auxiliadora Leal dos Santos</t>
+  </si>
+  <si>
+    <t>CON/ PREV CON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanuelle Alkmim de Castro Branco  </t>
+  </si>
+  <si>
+    <t>ENENGE URBANISMO LTDA</t>
+  </si>
+  <si>
+    <t>Erika Muniz</t>
+  </si>
+  <si>
+    <t>Guilherme Marques</t>
+  </si>
+  <si>
+    <t>Ester Zambrin Henrique Bomansour</t>
+  </si>
+  <si>
+    <t>Será feita a troca para RF Ativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eugenia Chirata Nunes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Euler Nunes de Oliveira </t>
+  </si>
+  <si>
+    <t>Taxa de gestão a ser enviada para a Guide devido a erro operacional na XP</t>
+  </si>
+  <si>
+    <t>Fabiana Saab Alves de Souza</t>
+  </si>
+  <si>
+    <t>Fabiano Luis de Oliveira</t>
+  </si>
+  <si>
+    <t>Inicio de STVM da guide dia 15/12/2023</t>
+  </si>
+  <si>
+    <t>Fabiola Simões Rodrigues da Fonseca</t>
+  </si>
+  <si>
+    <t>Fabrício Massula Dutra</t>
+  </si>
+  <si>
+    <t>Victor Caldeira</t>
+  </si>
+  <si>
+    <t>Taxa de performance negociada para reduzir 0.2% a cada novo milhão investido, reduzindo até 1.9%</t>
+  </si>
+  <si>
+    <t>Fausto Siqueira Ferreira</t>
+  </si>
+  <si>
+    <t>Fabricio Parra Garcia</t>
+  </si>
+  <si>
+    <t>Início de STVM 29/08/2023</t>
+  </si>
+  <si>
+    <t>Felipe Alves Dias</t>
+  </si>
+  <si>
+    <t>Felipe Costa Tamer</t>
+  </si>
+  <si>
+    <t>Troca de carteira finalizada dia 27/11/2023</t>
+  </si>
+  <si>
+    <t>Felipe Faria Zuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felipe Faria Zuba    </t>
+  </si>
+  <si>
+    <t>Felipe Menezes Jacomo</t>
+  </si>
+  <si>
+    <t>VcInvest</t>
+  </si>
+  <si>
+    <t>Bruno Ribeiro</t>
+  </si>
+  <si>
     <t>Carteira Monitoramento - Não Operar</t>
-  </si>
-  <si>
-    <t>Beatriz Roveri de Abreu</t>
-  </si>
-  <si>
-    <t>Mudança de carteira da MOD para CON dia 20/10/2023</t>
-  </si>
-  <si>
-    <t>Benedito de Almeida Neto</t>
-  </si>
-  <si>
-    <t>Pedro Vinicius Pereira De Andrade</t>
-  </si>
-  <si>
-    <t>30K CDB diário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bento Rodrigo Fernandes Bueno       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alteração de conta/ Conta inativa devido a saída de estratégia mas com possível retorno </t>
-  </si>
-  <si>
-    <t>PREV ARR</t>
-  </si>
-  <si>
-    <t>SMLL</t>
-  </si>
-  <si>
-    <t>Bloco Construções e Comércio LTDA</t>
-  </si>
-  <si>
-    <t>Brasfort Empresa de Segurança LTDA</t>
-  </si>
-  <si>
-    <t>Alexandre Moraes Xavier</t>
-  </si>
-  <si>
-    <t>Brenner Participações Ltda</t>
-  </si>
-  <si>
-    <t>Bloqueado</t>
-  </si>
-  <si>
-    <t>Bruna Thomé Rassi e Leiser Franco de Moares Filho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mudar conta para "Fundos". </t>
-  </si>
-  <si>
-    <t>Bruno de Azevedo Oliveira</t>
-  </si>
-  <si>
-    <t>Bruno Henrique Borges Silva</t>
-  </si>
-  <si>
-    <t>Monitoramento</t>
-  </si>
-  <si>
-    <t>Bruno Menezes Karner</t>
-  </si>
-  <si>
-    <t>Bruno Montenegro Sacani</t>
-  </si>
-  <si>
-    <t>Bruno Sacani Sobrinho</t>
-  </si>
-  <si>
-    <t>Início da STVM da GUIDE dia 04/09/2023</t>
-  </si>
-  <si>
-    <t>Bruno Tedesco Rosa</t>
-  </si>
-  <si>
-    <t>Caio Augusto Costa Campos e Leticia Castello Branco Nascimento</t>
-  </si>
-  <si>
-    <t>Caio Cesar Damitto Rosa</t>
-  </si>
-  <si>
-    <t>Mudandança de carteira da INC para CON dia 23/10/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caio de Almeida Leite </t>
-  </si>
-  <si>
-    <t>Caio Tocchio Aleixo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camilla Pedrosa Vieira Lima	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carla Ameloti Galvão </t>
-  </si>
-  <si>
-    <t>18,2k  Renda Fixa Ativo</t>
-  </si>
-  <si>
-    <t>Carla de Barros e Azevedo Chastinet</t>
-  </si>
-  <si>
-    <t>20k Renda Fixa Ativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Alberto de Carvalho     </t>
-  </si>
-  <si>
-    <t>Carlos André de Barros e Azevedo Chastinet</t>
-  </si>
-  <si>
-    <t>Carlos Augusto Simonian Dos Santos</t>
-  </si>
-  <si>
-    <t>30k Renda Fixa Ativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Edebrando Martini    </t>
-  </si>
-  <si>
-    <t>51k Renda Fixa Ativo</t>
-  </si>
-  <si>
-    <t>Carlos Humberto Fauaze Filho</t>
-  </si>
-  <si>
-    <t>Carlos Humberto Miguel</t>
-  </si>
-  <si>
-    <t>Flavio Miguel</t>
-  </si>
-  <si>
-    <t>Carolina Caribé Negócios Digitais LTDA</t>
-  </si>
-  <si>
-    <t>FUND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caroline Bastos de Souza </t>
-  </si>
-  <si>
-    <t>Carollina Pedrosa Vieira Lima</t>
-  </si>
-  <si>
-    <t>Cassio Kaminagakura</t>
-  </si>
-  <si>
-    <t>Ateração de carteira de INC p/ MOD dia 15/09/2023 / STVM finalizada dia 02/10/2023</t>
-  </si>
-  <si>
-    <t>Catarine Tempest Calijuri</t>
-  </si>
-  <si>
-    <t>Cecília Tocchio Aleixo</t>
-  </si>
-  <si>
-    <t>Célia Maria Marinho Martins Amaral de Souza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Célia Rios Guercio   </t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>Guilherme Rios Guercio</t>
-  </si>
-  <si>
-    <t>Cesar Augusto Gastaldon Rios</t>
-  </si>
-  <si>
-    <t>Cesar Eduardo Castro Ferreira Martins</t>
-  </si>
-  <si>
-    <t>Conta encerrada dia 14/08/2023</t>
-  </si>
-  <si>
-    <t>Cesar Eduardo Castro Ferreira Martins/ Leticia Navarro Gordan Ferreira Martins</t>
-  </si>
-  <si>
-    <t>Início da STVM iniciada dia 22/08/2023</t>
-  </si>
-  <si>
-    <t>Cezar Falavigna Silva</t>
-  </si>
-  <si>
-    <t>Cezar Falavigna Silva e Ana Maria Falavigna Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian Kleber Rosa Lisboa    </t>
-  </si>
-  <si>
-    <t>Não comprar ações</t>
-  </si>
-  <si>
-    <t>Mudar carteira para Income</t>
-  </si>
-  <si>
-    <t>Cinco Dois Apoio Administrativo</t>
-  </si>
-  <si>
-    <t>Cintia Taís Polizer Zanin</t>
-  </si>
-  <si>
-    <t>Início da STVM da GUIDE dia 16/08/2023 e concluída 13/09/2023 / Alt de carteira finalizada dia 22/12/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cintia Uchida Rodrigues     </t>
-  </si>
-  <si>
-    <t>Ciria Coelho Ribeiro</t>
-  </si>
-  <si>
-    <t>Clarice de Meneses Costa Moura Lagares</t>
-  </si>
-  <si>
-    <t>Claudia de Barros e Azevedo Ramos</t>
-  </si>
-  <si>
-    <t>INC/ PREV MOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia Dias Prado	</t>
-  </si>
-  <si>
-    <t>Claudia Dias Prado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia Marques de Barros Rodrigues	</t>
-  </si>
-  <si>
-    <t>Cliente alterou da carteira Income para Moderada dia 24/08/2023</t>
-  </si>
-  <si>
-    <t>Claudio Humberto de Ameida Gomes</t>
-  </si>
-  <si>
-    <t>Rafael Pagnan</t>
-  </si>
-  <si>
-    <t>Alocar tudo no Renda Fixa Ativo. Mudar carteira para fundos</t>
-  </si>
-  <si>
-    <t>Cléria Lúcia Abreu de Siqueira</t>
-  </si>
-  <si>
-    <t>Clisia Mara Carrera</t>
-  </si>
-  <si>
-    <t>Início da STVM da GUIDE dia 22/08/2023 e concluída 04/09/2023</t>
-  </si>
-  <si>
-    <t>Clovis Tadeu Rodrigues</t>
-  </si>
-  <si>
-    <t>Clovis Tadeu Rodrigues / Miriam Cristina Da Silva</t>
-  </si>
-  <si>
-    <t>Alt da carteira de MOD/ CON dia 06/09/2023 / STVM GUIDE finalizada dia 30/10/2023</t>
-  </si>
-  <si>
-    <t>Contel Obras e Serviços LTDA</t>
-  </si>
-  <si>
-    <t>30% RF Ativo; 20% vencimentos de no máximo 1 ano</t>
-  </si>
-  <si>
-    <t>Cristiano Augusto Andrade de Resende</t>
-  </si>
-  <si>
-    <t>Cliente não pode sair de ONCO3 devido ser sócio da instituição, favor incluir a venda desse ativo nas restrições desse cliente.</t>
-  </si>
-  <si>
-    <t>Cristina Flavia Silva Andrada Batista</t>
-  </si>
-  <si>
-    <t>Cristina Vieira de Souza</t>
-  </si>
-  <si>
-    <t>Daianne Gonçalves Pinheiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daisy Eni Morais dos Santos    </t>
-  </si>
-  <si>
-    <t>Cecilia Arcoverde Bezerra Pires</t>
-  </si>
-  <si>
-    <t>Daniel Cambraia Danzig</t>
-  </si>
-  <si>
-    <t>Daniel Darlen Corrêa Ribeiro</t>
-  </si>
-  <si>
-    <t>Não vender mais de 20k RV / Mês</t>
-  </si>
-  <si>
-    <t>Daniel Sindeaux Braga</t>
-  </si>
-  <si>
-    <t>Daniela Ferreira Salomão</t>
-  </si>
-  <si>
-    <t>Gabriel Bicalho Fontes Raydan</t>
-  </si>
-  <si>
-    <t>Daniela Ferreira Salomão Pontes</t>
-  </si>
-  <si>
-    <t>Trocou de assessor de Thiago Canabrava para Gabriel Raydan em 03/02/2023</t>
-  </si>
-  <si>
-    <t>Daniela Jaime Smith</t>
-  </si>
-  <si>
-    <t>Bruno Jaime</t>
-  </si>
-  <si>
-    <t>Daniela Marques Krohn</t>
-  </si>
-  <si>
-    <t>100k fundo RF ativo</t>
-  </si>
-  <si>
-    <t>Daniela Marques Krohn e/ou Paulo Roberto Rocha Krohn</t>
-  </si>
-  <si>
-    <t>Daniele Capiotto Garcia Maciel</t>
-  </si>
-  <si>
-    <t>Daniely Marcal Silvino de Brito</t>
-  </si>
-  <si>
-    <t>Danilo da Silva</t>
-  </si>
-  <si>
-    <t>Danilo Reis de Souza</t>
-  </si>
-  <si>
-    <t>MOD/ GR</t>
-  </si>
-  <si>
-    <t>Proporção em renda variável deverá possuir a carteira de FII e Equities</t>
-  </si>
-  <si>
-    <t>Danilo Viana Rabelo</t>
-  </si>
-  <si>
-    <t>30% do PL -&gt; BMTX RF Ativo</t>
-  </si>
-  <si>
-    <t>Daura de Campos Mendes Filpo</t>
-  </si>
-  <si>
-    <t>David Nunes Ferraz</t>
-  </si>
-  <si>
-    <t>Denise Yendo Inada</t>
-  </si>
-  <si>
-    <t>Diego Aquino Pelagio Gondim</t>
-  </si>
-  <si>
-    <t>Diego Fraga Rezende</t>
-  </si>
-  <si>
-    <t>Diego Franco Noronha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Perillo Navarrete Lavers </t>
-  </si>
-  <si>
-    <t>Dig Barbearia e Salão De Beleza LTDA</t>
-  </si>
-  <si>
-    <t>Dilson Manoel Catarino</t>
-  </si>
-  <si>
-    <t>Diogo Salomão Pontes</t>
-  </si>
-  <si>
-    <t>Dirceu Alves do Nascimento</t>
-  </si>
-  <si>
-    <t>DIV</t>
-  </si>
-  <si>
-    <t>Dunas Construções LTDA</t>
-  </si>
-  <si>
-    <t>Doracy Vieira da Paixão</t>
-  </si>
-  <si>
-    <t>PREV</t>
-  </si>
-  <si>
-    <t>Dorival Tavela Ramos</t>
-  </si>
-  <si>
-    <t>PREV MOD</t>
-  </si>
-  <si>
-    <t>E3 Serviços de Instalções Fotovaltaicos Eireli</t>
-  </si>
-  <si>
-    <t>30% Fundo RF Ativo - prazo máx - 3 meses</t>
-  </si>
-  <si>
-    <t>Edinardo Dutra Magalhães</t>
-  </si>
-  <si>
-    <t>Edmundo Starling Loureiro Franca</t>
-  </si>
-  <si>
-    <t>BDR</t>
-  </si>
-  <si>
-    <t>S&amp;P 500</t>
-  </si>
-  <si>
-    <t>Alteração de carteira Income para Previdenciaria Conservadora 07/12/2023</t>
-  </si>
-  <si>
-    <t>Edoardo Coutinho Lazzaretti</t>
-  </si>
-  <si>
-    <t>Caio Cesar Da Rocha Valente Araujo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduarda Gabriella Santos Borges </t>
-  </si>
-  <si>
-    <t xml:space="preserve">40% em liquidez </t>
-  </si>
-  <si>
-    <t>Eduarda Sebastiani van Lieshout</t>
-  </si>
-  <si>
-    <t>Eduardo Augusto Rosa</t>
-  </si>
-  <si>
-    <t>Eduardo Guerzoni</t>
-  </si>
-  <si>
-    <t>Mudou da carteira Income para a Conservadora dia 27/07/2023</t>
-  </si>
-  <si>
-    <t>Eduardo Henrique Gomes Martinez</t>
-  </si>
-  <si>
-    <t>Eduardo Leopoldino Gonçalves</t>
-  </si>
-  <si>
-    <t>Eduardo Leopoldino</t>
-  </si>
-  <si>
-    <t>Eduardo Mendes da Silva</t>
-  </si>
-  <si>
-    <t>Eduardo Rios da Costa Carvalho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edward Lucio Vieira Borba       </t>
-  </si>
-  <si>
-    <t>Leandro Soares Lemos De Sousa</t>
-  </si>
-  <si>
-    <t>Eike Jefferson Galdino Pereira</t>
-  </si>
-  <si>
-    <t>Elaine Aparecida Ferreira dos Santos</t>
-  </si>
-  <si>
-    <t>Manter R$ 350.000,00 no CDB de liquidez</t>
-  </si>
-  <si>
-    <t>Elaine Leal Luz Boiteux</t>
-  </si>
-  <si>
-    <t>Breno Lemes</t>
-  </si>
-  <si>
-    <t>Elena Guedes Cardoso</t>
-  </si>
-  <si>
-    <t>Elene Mendonça Motta Tipple/ Marcondes José da Motta Junior</t>
-  </si>
-  <si>
-    <t>Eleni Esmeraldino Amorim e/ou Adriana Berford Leão Amorim</t>
-  </si>
-  <si>
-    <t>Eleuse Cardoso Machado Cavalcanti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliane Medeiros Leopoldino Gonçalves </t>
-  </si>
-  <si>
-    <t>Elisa Faical Valim</t>
-  </si>
-  <si>
-    <t>Elisandra Correia Fleury</t>
-  </si>
-  <si>
-    <t>Elsi Maria Auxiliadora Leal dos Santos</t>
-  </si>
-  <si>
-    <t>CON/ PREV CON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmanuelle Alkmim de Castro Branco  </t>
-  </si>
-  <si>
-    <t>ENENGE URBANISMO LTDA</t>
-  </si>
-  <si>
-    <t>Erika Muniz</t>
-  </si>
-  <si>
-    <t>Guilherme Marques</t>
-  </si>
-  <si>
-    <t>Ester Zambrin Henrique Bomansour</t>
-  </si>
-  <si>
-    <t>Será feita a troca para RF Ativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eugenia Chirata Nunes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euler Nunes de Oliveira </t>
-  </si>
-  <si>
-    <t>Taxa de gestão a ser enviada para a Guide devido a erro operacional na XP</t>
-  </si>
-  <si>
-    <t>Fabiana Saab Alves de Souza</t>
-  </si>
-  <si>
-    <t>Fabiano Luis de Oliveira</t>
-  </si>
-  <si>
-    <t>Inicio de STVM da guide dia 15/12/2023</t>
-  </si>
-  <si>
-    <t>Fabiola Simões Rodrigues da Fonseca</t>
-  </si>
-  <si>
-    <t>Fabrício Massula Dutra</t>
-  </si>
-  <si>
-    <t>Victor Caldeira</t>
-  </si>
-  <si>
-    <t>Taxa de performance negociada para reduzir 0.2% a cada novo milhão investido, reduzindo até 1.9%</t>
-  </si>
-  <si>
-    <t>Fausto Siqueira Ferreira</t>
-  </si>
-  <si>
-    <t>Fabricio Parra Garcia</t>
-  </si>
-  <si>
-    <t>Início de STVM 29/08/2023</t>
-  </si>
-  <si>
-    <t>Felipe Alves Dias</t>
-  </si>
-  <si>
-    <t>Felipe Costa Tamer</t>
-  </si>
-  <si>
-    <t>Troca de carteira finalizada dia 27/11/2023</t>
-  </si>
-  <si>
-    <t>Felipe Faria Zuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felipe Faria Zuba    </t>
-  </si>
-  <si>
-    <t>Felipe Menezes Jacomo</t>
-  </si>
-  <si>
-    <t>VcInvest</t>
-  </si>
-  <si>
-    <t>Bruno Ribeiro</t>
   </si>
   <si>
     <t>10% Fundo RF Ativo</t>
@@ -1992,9 +1995,6 @@
     <t>Rodolfo Gomes</t>
   </si>
   <si>
-    <t>Cliente sumiu da base.</t>
-  </si>
-  <si>
     <t>Mario Capp Filho e/ou Silvia Regina Andrade Capp</t>
   </si>
   <si>
@@ -2358,7 +2358,7 @@
     <t>Ricardo José Lacerda Prudencio</t>
   </si>
   <si>
-    <t>Cliente solicitou a venda de toda RV 04/23</t>
+    <t>Cliente solicitou a venda de toda RV 04/23 / RV: 50% Fiis</t>
   </si>
   <si>
     <t>Ricardo Jose Rodrigues</t>
@@ -2430,9 +2430,6 @@
     <t>Romulo Teixeira Cavalcante</t>
   </si>
   <si>
-    <t>Cliente não está na base</t>
-  </si>
-  <si>
     <t>Rosana de Fátima Moreira Fernandes</t>
   </si>
   <si>
@@ -2509,9 +2506,6 @@
   </si>
   <si>
     <t>Início da STVM dia 30/08/2023 da XP e finalizada dia 04/09/2023</t>
-  </si>
-  <si>
-    <t>Não operar - MONITORAMENTO</t>
   </si>
   <si>
     <t>Stella Vieira Jesuino Parreira</t>
@@ -3049,11 +3043,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124365A1-648A-45EE-BD1B-6CAE45A6C940}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4116966B-2BB4-4181-A373-DE3AAAE1F2D3}">
   <dimension ref="A1:AL620"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:AL620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4608,7 +4602,7 @@
         <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="I22" t="s">
         <v>36</v>
@@ -4640,7 +4634,7 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23">
         <v>4267119</v>
@@ -4726,7 +4720,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24">
         <v>5110894</v>
@@ -4738,13 +4732,13 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
         <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I24" t="s">
         <v>74</v>
@@ -5359,8 +5353,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
+      <c r="Q32" t="s">
+        <v>112</v>
+      </c>
       <c r="S32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T32" t="s">
         <v>40</v>
@@ -5383,7 +5380,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C33">
         <v>4432579</v>
@@ -5466,7 +5463,7 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C34">
         <v>989247</v>
@@ -5496,7 +5493,7 @@
         <v>45098</v>
       </c>
       <c r="M34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N34" s="2">
         <v>6.0000000000000001E-3</v>
@@ -5508,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="T34" t="s">
         <v>40</v>
@@ -5540,7 +5537,7 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C35">
         <v>5190138</v>
@@ -5558,7 +5555,7 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I35" t="s">
         <v>36</v>
@@ -5590,7 +5587,7 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C36">
         <v>5192625</v>
@@ -5608,7 +5605,7 @@
         <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J36" t="s">
         <v>37</v>
@@ -5617,7 +5614,7 @@
         <v>45296</v>
       </c>
       <c r="M36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N36" s="2">
         <v>7.0000000000000001E-3</v>
@@ -5637,7 +5634,7 @@
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C37">
         <v>5040864</v>
@@ -5649,7 +5646,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G37" t="s">
         <v>34</v>
@@ -5679,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T37" t="s">
         <v>40</v>
@@ -5702,7 +5699,7 @@
         <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C38">
         <v>4392055</v>
@@ -5788,7 +5785,7 @@
         <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C39">
         <v>5003629</v>
@@ -5830,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T39" t="s">
         <v>40</v>
@@ -5877,7 +5874,7 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C40">
         <v>4384131</v>
@@ -5919,7 +5916,7 @@
         <v>0.2</v>
       </c>
       <c r="S40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T40" t="s">
         <v>40</v>
@@ -5966,7 +5963,7 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C41">
         <v>4514241</v>
@@ -6008,7 +6005,7 @@
         <v>0.1</v>
       </c>
       <c r="S41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T41" t="s">
         <v>40</v>
@@ -6046,7 +6043,7 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C42">
         <v>3894173</v>
@@ -6058,7 +6055,7 @@
         <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G42" t="s">
         <v>71</v>
@@ -6088,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T42" t="s">
         <v>40</v>
@@ -6108,7 +6105,7 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43">
         <v>5186167</v>
@@ -6120,7 +6117,7 @@
         <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G43" t="s">
         <v>71</v>
@@ -6147,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T43" t="s">
         <v>40</v>
@@ -6161,7 +6158,7 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C44">
         <v>4181486</v>
@@ -6223,7 +6220,7 @@
         <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C45">
         <v>4377415</v>
@@ -6235,7 +6232,7 @@
         <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G45" t="s">
         <v>71</v>
@@ -6265,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T45" t="s">
         <v>40</v>
@@ -6312,7 +6309,7 @@
         <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C46">
         <v>4207374</v>
@@ -6398,7 +6395,7 @@
         <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C47">
         <v>4380501</v>
@@ -6443,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="T47" t="s">
         <v>40</v>
@@ -6490,7 +6487,7 @@
         <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C48">
         <v>4385806</v>
@@ -6532,10 +6529,10 @@
         <v>0.1</v>
       </c>
       <c r="Q48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T48" t="s">
         <v>40</v>
@@ -6579,7 +6576,7 @@
         <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C49">
         <v>4691225</v>
@@ -6591,7 +6588,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
@@ -6650,7 +6647,7 @@
         <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C50">
         <v>4328511</v>
@@ -6662,7 +6659,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G50" t="s">
         <v>34</v>
@@ -6733,7 +6730,7 @@
         <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C51">
         <v>4451978</v>
@@ -6775,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T51" t="s">
         <v>40</v>
@@ -6816,7 +6813,7 @@
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C52">
         <v>4241147</v>
@@ -6899,7 +6896,7 @@
         <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C53">
         <v>4582648</v>
@@ -6976,7 +6973,7 @@
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C54">
         <v>4724018</v>
@@ -7018,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF54" s="4">
         <v>319471.34000000003</v>
@@ -7047,7 +7044,7 @@
         <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C55">
         <v>4890544</v>
@@ -7115,7 +7112,7 @@
         <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C56">
         <v>4958578</v>
@@ -7157,10 +7154,10 @@
         <v>0</v>
       </c>
       <c r="Q56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S56" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T56" t="s">
         <v>40</v>
@@ -7186,7 +7183,7 @@
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C57">
         <v>4450724</v>
@@ -7228,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T57" t="s">
         <v>40</v>
@@ -7269,7 +7266,7 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C58">
         <v>4461526</v>
@@ -7311,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="T58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AC58" s="4">
         <v>140275.53</v>
@@ -7349,7 +7346,7 @@
         <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C59">
         <v>4279859</v>
@@ -7361,7 +7358,7 @@
         <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G59" t="s">
         <v>50</v>
@@ -7391,10 +7388,10 @@
         <v>0</v>
       </c>
       <c r="Q59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AC59" s="4">
         <v>10067355.42</v>
@@ -7432,7 +7429,7 @@
         <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C60">
         <v>4357848</v>
@@ -7518,7 +7515,7 @@
         <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C61">
         <v>1000882</v>
@@ -7604,7 +7601,7 @@
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C62">
         <v>4994036</v>
@@ -7646,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T62" t="s">
         <v>40</v>
@@ -7669,7 +7666,7 @@
         <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C63">
         <v>938440</v>
@@ -7681,7 +7678,7 @@
         <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G63" t="s">
         <v>47</v>
@@ -7699,7 +7696,7 @@
         <v>45191</v>
       </c>
       <c r="M63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N63" s="2">
         <v>7.0000000000000001E-3</v>
@@ -7711,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="T63" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AI63" s="4">
         <v>3001534.49</v>
@@ -7731,7 +7728,7 @@
         <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C64">
         <v>4958539</v>
@@ -7773,10 +7770,10 @@
         <v>0.2</v>
       </c>
       <c r="R64" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S64" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T64" t="s">
         <v>40</v>
@@ -7802,7 +7799,7 @@
         <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C65">
         <v>4956636</v>
@@ -7844,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T65" t="s">
         <v>40</v>
@@ -7870,7 +7867,7 @@
         <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C66">
         <v>5020439</v>
@@ -7894,7 +7891,7 @@
         <v>36</v>
       </c>
       <c r="J66" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="K66" s="1">
         <v>45197</v>
@@ -7911,9 +7908,6 @@
       <c r="P66" s="3">
         <v>0</v>
       </c>
-      <c r="Q66" t="s">
-        <v>168</v>
-      </c>
       <c r="T66" t="s">
         <v>40</v>
       </c>
@@ -8083,7 +8077,7 @@
         <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G69" t="s">
         <v>50</v>
@@ -8172,7 +8166,7 @@
         <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G70" t="s">
         <v>71</v>
@@ -8261,7 +8255,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G71" t="s">
         <v>71</v>
@@ -8347,7 +8341,7 @@
         <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G72" t="s">
         <v>50</v>
@@ -8436,7 +8430,7 @@
         <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G73" t="s">
         <v>71</v>
@@ -8552,7 +8546,7 @@
         <v>0.1</v>
       </c>
       <c r="T74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA74" s="4">
         <v>0</v>
@@ -8626,7 +8620,7 @@
         <v>44993</v>
       </c>
       <c r="M75" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N75" s="2">
         <v>0.02</v>
@@ -8638,7 +8632,7 @@
         <v>0.2</v>
       </c>
       <c r="T75" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AC75" s="4">
         <v>2346598.11</v>
@@ -8697,7 +8691,7 @@
         <v>35</v>
       </c>
       <c r="I76" t="s">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="J76" t="s">
         <v>37</v>
@@ -8718,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="T76" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK76" s="4">
         <v>0</v>
@@ -8732,7 +8726,7 @@
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C77">
         <v>4223502</v>
@@ -8774,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="R77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T77" t="s">
         <v>40</v>
@@ -8821,7 +8815,7 @@
         <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C78">
         <v>4584982</v>
@@ -8898,7 +8892,7 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C79">
         <v>5171652</v>
@@ -8910,7 +8904,7 @@
         <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G79" t="s">
         <v>71</v>
@@ -8940,7 +8934,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T79" t="s">
         <v>40</v>
@@ -8954,7 +8948,7 @@
         <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C80">
         <v>5061124</v>
@@ -8984,7 +8978,7 @@
         <v>45222</v>
       </c>
       <c r="M80" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N80" s="2">
         <v>0.02</v>
@@ -9013,7 +9007,7 @@
         <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C81">
         <v>4453132</v>
@@ -9093,7 +9087,7 @@
         <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C82">
         <v>4452912</v>
@@ -9135,7 +9129,7 @@
         <v>0.1</v>
       </c>
       <c r="S82" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T82" t="s">
         <v>40</v>
@@ -9176,7 +9170,7 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C83">
         <v>5092207</v>
@@ -9232,7 +9226,7 @@
         <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C84">
         <v>4754056</v>
@@ -9303,7 +9297,7 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C85">
         <v>4515341</v>
@@ -9383,7 +9377,7 @@
         <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C86">
         <v>4584517</v>
@@ -9460,7 +9454,7 @@
         <v>29</v>
       </c>
       <c r="B87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C87">
         <v>4512434</v>
@@ -9502,7 +9496,7 @@
         <v>0.1</v>
       </c>
       <c r="S87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T87" t="s">
         <v>40</v>
@@ -9543,7 +9537,7 @@
         <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C88">
         <v>4972351</v>
@@ -9555,7 +9549,7 @@
         <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G88" t="s">
         <v>50</v>
@@ -9608,7 +9602,7 @@
         <v>29</v>
       </c>
       <c r="B89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C89">
         <v>5140608</v>
@@ -9626,7 +9620,7 @@
         <v>71</v>
       </c>
       <c r="H89" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I89" t="s">
         <v>74</v>
@@ -9638,7 +9632,7 @@
         <v>45264</v>
       </c>
       <c r="M89" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N89" s="2">
         <v>7.0000000000000001E-3</v>
@@ -9664,7 +9658,7 @@
         <v>29</v>
       </c>
       <c r="B90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C90">
         <v>4388490</v>
@@ -9676,7 +9670,7 @@
         <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G90" t="s">
         <v>71</v>
@@ -9747,7 +9741,7 @@
         <v>29</v>
       </c>
       <c r="B91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C91">
         <v>4643153</v>
@@ -9789,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="R91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T91" t="s">
         <v>40</v>
@@ -9821,7 +9815,7 @@
         <v>29</v>
       </c>
       <c r="B92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C92">
         <v>4806244</v>
@@ -9851,7 +9845,7 @@
         <v>45104</v>
       </c>
       <c r="M92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N92" s="2">
         <v>7.0000000000000001E-3</v>
@@ -9863,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="R92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T92" t="s">
         <v>40</v>
@@ -9895,7 +9889,7 @@
         <v>29</v>
       </c>
       <c r="B93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C93">
         <v>4211922</v>
@@ -9981,7 +9975,7 @@
         <v>29</v>
       </c>
       <c r="B94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C94">
         <v>4752534</v>
@@ -10052,7 +10046,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C95">
         <v>4587511</v>
@@ -10094,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="R95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T95" t="s">
         <v>40</v>
@@ -10126,7 +10120,7 @@
         <v>29</v>
       </c>
       <c r="B96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C96">
         <v>4360431</v>
@@ -10168,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="R96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T96" t="s">
         <v>40</v>
@@ -10215,7 +10209,7 @@
         <v>29</v>
       </c>
       <c r="B97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C97">
         <v>4386464</v>
@@ -10227,7 +10221,7 @@
         <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G97" t="s">
         <v>71</v>
@@ -10301,7 +10295,7 @@
         <v>29</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C98">
         <v>4488571</v>
@@ -10313,7 +10307,7 @@
         <v>69</v>
       </c>
       <c r="F98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G98" t="s">
         <v>50</v>
@@ -10381,7 +10375,7 @@
         <v>29</v>
       </c>
       <c r="B99" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C99">
         <v>4215217</v>
@@ -10393,7 +10387,7 @@
         <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G99" t="s">
         <v>71</v>
@@ -10411,7 +10405,7 @@
         <v>45099</v>
       </c>
       <c r="M99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N99" s="2">
         <v>0</v>
@@ -10452,7 +10446,7 @@
         <v>29</v>
       </c>
       <c r="B100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C100">
         <v>4221638</v>
@@ -10541,7 +10535,7 @@
         <v>29</v>
       </c>
       <c r="B101" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C101">
         <v>4425965</v>
@@ -10621,7 +10615,7 @@
         <v>29</v>
       </c>
       <c r="B102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C102">
         <v>4508526</v>
@@ -10663,7 +10657,7 @@
         <v>0.1</v>
       </c>
       <c r="S102" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T102" t="s">
         <v>40</v>
@@ -10701,7 +10695,7 @@
         <v>29</v>
       </c>
       <c r="B103" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C103">
         <v>4751154</v>
@@ -10772,7 +10766,7 @@
         <v>29</v>
       </c>
       <c r="B104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C104">
         <v>4693349</v>
@@ -10843,7 +10837,7 @@
         <v>29</v>
       </c>
       <c r="B105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C105">
         <v>5140580</v>
@@ -10861,7 +10855,7 @@
         <v>71</v>
       </c>
       <c r="H105" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I105" t="s">
         <v>74</v>
@@ -10873,7 +10867,7 @@
         <v>45264</v>
       </c>
       <c r="M105" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N105" s="2">
         <v>7.0000000000000001E-3</v>
@@ -10899,7 +10893,7 @@
         <v>29</v>
       </c>
       <c r="B106" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C106">
         <v>4974089</v>
@@ -10961,7 +10955,7 @@
         <v>29</v>
       </c>
       <c r="B107" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C107">
         <v>4332544</v>
@@ -10970,10 +10964,10 @@
         <v>42</v>
       </c>
       <c r="E107" t="s">
+        <v>221</v>
+      </c>
+      <c r="F107" t="s">
         <v>222</v>
-      </c>
-      <c r="F107" t="s">
-        <v>223</v>
       </c>
       <c r="G107" t="s">
         <v>34</v>
@@ -11047,7 +11041,7 @@
         <v>29</v>
       </c>
       <c r="B108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C108">
         <v>4207278</v>
@@ -11059,7 +11053,7 @@
         <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G108" t="s">
         <v>34</v>
@@ -11133,7 +11127,7 @@
         <v>29</v>
       </c>
       <c r="B109" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C109">
         <v>4570869</v>
@@ -11178,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="S109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T109" t="s">
         <v>40</v>
@@ -11216,7 +11210,7 @@
         <v>29</v>
       </c>
       <c r="B110" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C110">
         <v>4862746</v>
@@ -11258,7 +11252,7 @@
         <v>0.1</v>
       </c>
       <c r="S110" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T110" t="s">
         <v>40</v>
@@ -11287,7 +11281,7 @@
         <v>29</v>
       </c>
       <c r="B111" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C111">
         <v>4482090</v>
@@ -11367,7 +11361,7 @@
         <v>29</v>
       </c>
       <c r="B112" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C112">
         <v>4479395</v>
@@ -11453,7 +11447,7 @@
         <v>29</v>
       </c>
       <c r="B113" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C113">
         <v>4420763</v>
@@ -11495,10 +11489,10 @@
         <v>0.1</v>
       </c>
       <c r="Q113" t="s">
+        <v>231</v>
+      </c>
+      <c r="R113" t="s">
         <v>232</v>
-      </c>
-      <c r="R113" t="s">
-        <v>233</v>
       </c>
       <c r="T113" t="s">
         <v>40</v>
@@ -11539,7 +11533,7 @@
         <v>29</v>
       </c>
       <c r="B114" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C114">
         <v>4581652</v>
@@ -11581,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="T114" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD114" s="4">
         <v>0</v>
@@ -11616,7 +11610,7 @@
         <v>29</v>
       </c>
       <c r="B115" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C115">
         <v>4862804</v>
@@ -11658,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="T115" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG115" s="4">
         <v>0</v>
@@ -11684,7 +11678,7 @@
         <v>29</v>
       </c>
       <c r="B116" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C116">
         <v>4927044</v>
@@ -11726,7 +11720,7 @@
         <v>0.1</v>
       </c>
       <c r="S116" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T116" t="s">
         <v>40</v>
@@ -11752,7 +11746,7 @@
         <v>29</v>
       </c>
       <c r="B117" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C117">
         <v>4336585</v>
@@ -11838,7 +11832,7 @@
         <v>29</v>
       </c>
       <c r="B118" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C118">
         <v>4482163</v>
@@ -11868,7 +11862,7 @@
         <v>45135</v>
       </c>
       <c r="M118" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N118" s="2">
         <v>0.02</v>
@@ -11918,7 +11912,7 @@
         <v>29</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C119">
         <v>4589311</v>
@@ -11948,7 +11942,7 @@
         <v>45125</v>
       </c>
       <c r="M119" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N119" s="2">
         <v>8.5000000000000006E-3</v>
@@ -11986,7 +11980,7 @@
         <v>29</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C120">
         <v>4693697</v>
@@ -12016,7 +12010,7 @@
         <v>45091</v>
       </c>
       <c r="M120" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N120" s="2">
         <v>8.0000000000000002E-3</v>
@@ -12057,7 +12051,7 @@
         <v>29</v>
       </c>
       <c r="B121" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C121">
         <v>2697806</v>
@@ -12137,7 +12131,7 @@
         <v>29</v>
       </c>
       <c r="B122" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C122">
         <v>5044389</v>
@@ -12196,7 +12190,7 @@
         <v>29</v>
       </c>
       <c r="B123" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C123">
         <v>4413537</v>
@@ -12208,7 +12202,7 @@
         <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G123" t="s">
         <v>71</v>
@@ -12238,7 +12232,7 @@
         <v>0.1</v>
       </c>
       <c r="S123" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T123" t="s">
         <v>40</v>
@@ -12282,7 +12276,7 @@
         <v>29</v>
       </c>
       <c r="B124" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C124">
         <v>4465263</v>
@@ -12294,7 +12288,7 @@
         <v>43</v>
       </c>
       <c r="F124" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G124" t="s">
         <v>34</v>
@@ -12324,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="R124" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T124" t="s">
         <v>40</v>
@@ -12365,7 +12359,7 @@
         <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C125">
         <v>4855960</v>
@@ -12395,7 +12389,7 @@
         <v>45117</v>
       </c>
       <c r="M125" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N125" s="2">
         <v>4.0000000000000001E-3</v>
@@ -12433,7 +12427,7 @@
         <v>29</v>
       </c>
       <c r="B126" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C126">
         <v>4805269</v>
@@ -12475,7 +12469,7 @@
         <v>0.1</v>
       </c>
       <c r="S126" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T126" t="s">
         <v>40</v>
@@ -12507,7 +12501,7 @@
         <v>29</v>
       </c>
       <c r="B127" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C127">
         <v>4805273</v>
@@ -12549,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="S127" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T127" t="s">
         <v>40</v>
@@ -12581,7 +12575,7 @@
         <v>29</v>
       </c>
       <c r="B128" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C128">
         <v>4486097</v>
@@ -12664,7 +12658,7 @@
         <v>29</v>
       </c>
       <c r="B129" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C129">
         <v>4486000</v>
@@ -12747,7 +12741,7 @@
         <v>29</v>
       </c>
       <c r="B130" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C130">
         <v>4971448</v>
@@ -12789,7 +12783,7 @@
         <v>0.1</v>
       </c>
       <c r="S130" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T130" t="s">
         <v>40</v>
@@ -12815,7 +12809,7 @@
         <v>29</v>
       </c>
       <c r="B131" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C131">
         <v>4589191</v>
@@ -12845,7 +12839,7 @@
         <v>45121</v>
       </c>
       <c r="M131" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N131" s="2">
         <v>8.0000000000000002E-3</v>
@@ -12857,10 +12851,10 @@
         <v>0</v>
       </c>
       <c r="Q131" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T131" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD131" s="4">
         <v>0</v>
@@ -12895,7 +12889,7 @@
         <v>29</v>
       </c>
       <c r="B132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C132">
         <v>4940560</v>
@@ -12937,7 +12931,7 @@
         <v>0.1</v>
       </c>
       <c r="Q132" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T132" t="s">
         <v>40</v>
@@ -12963,7 +12957,7 @@
         <v>29</v>
       </c>
       <c r="B133" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C133">
         <v>4853901</v>
@@ -13028,7 +13022,7 @@
         <v>29</v>
       </c>
       <c r="B134" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C134">
         <v>4368994</v>
@@ -13114,7 +13108,7 @@
         <v>29</v>
       </c>
       <c r="B135" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C135">
         <v>4473942</v>
@@ -13194,7 +13188,7 @@
         <v>29</v>
       </c>
       <c r="B136" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C136">
         <v>4278033</v>
@@ -13206,7 +13200,7 @@
         <v>32</v>
       </c>
       <c r="F136" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G136" t="s">
         <v>47</v>
@@ -13283,7 +13277,7 @@
         <v>29</v>
       </c>
       <c r="B137" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C137">
         <v>4321092</v>
@@ -13295,7 +13289,7 @@
         <v>32</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G137" t="s">
         <v>34</v>
@@ -13313,7 +13307,7 @@
         <v>45000</v>
       </c>
       <c r="M137" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N137" s="2">
         <v>0.02</v>
@@ -13369,7 +13363,7 @@
         <v>29</v>
       </c>
       <c r="B138" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C138">
         <v>4273239</v>
@@ -13381,7 +13375,7 @@
         <v>32</v>
       </c>
       <c r="F138" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G138" t="s">
         <v>71</v>
@@ -13411,7 +13405,7 @@
         <v>0.1</v>
       </c>
       <c r="Q138" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T138" t="s">
         <v>40</v>
@@ -13461,7 +13455,7 @@
         <v>29</v>
       </c>
       <c r="B139" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C139">
         <v>4493324</v>
@@ -13538,7 +13532,7 @@
         <v>29</v>
       </c>
       <c r="B140" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C140">
         <v>4329030</v>
@@ -13550,7 +13544,7 @@
         <v>32</v>
       </c>
       <c r="F140" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G140" t="s">
         <v>47</v>
@@ -13624,7 +13618,7 @@
         <v>29</v>
       </c>
       <c r="B141" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C141">
         <v>4001621</v>
@@ -13636,7 +13630,7 @@
         <v>32</v>
       </c>
       <c r="F141" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G141" t="s">
         <v>47</v>
@@ -13666,7 +13660,7 @@
         <v>0</v>
       </c>
       <c r="S141" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T141" t="s">
         <v>40</v>
@@ -13716,7 +13710,7 @@
         <v>29</v>
       </c>
       <c r="B142" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C142">
         <v>4452507</v>
@@ -13728,7 +13722,7 @@
         <v>32</v>
       </c>
       <c r="F142" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G142" t="s">
         <v>34</v>
@@ -13766,7 +13760,7 @@
         <v>29</v>
       </c>
       <c r="B143" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C143">
         <v>4186541</v>
@@ -13808,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="R143" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T143" t="s">
         <v>40</v>
@@ -13858,7 +13852,7 @@
         <v>29</v>
       </c>
       <c r="B144" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C144">
         <v>4238164</v>
@@ -13947,7 +13941,7 @@
         <v>29</v>
       </c>
       <c r="B145" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C145">
         <v>4398174</v>
@@ -14030,7 +14024,7 @@
         <v>29</v>
       </c>
       <c r="B146" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C146">
         <v>4756968</v>
@@ -14042,7 +14036,7 @@
         <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G146" t="s">
         <v>34</v>
@@ -14051,7 +14045,7 @@
         <v>54</v>
       </c>
       <c r="I146" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="J146" t="s">
         <v>37</v>
@@ -14119,7 +14113,7 @@
         <v>71</v>
       </c>
       <c r="H147" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I147" t="s">
         <v>74</v>
@@ -14240,7 +14234,7 @@
         <v>43</v>
       </c>
       <c r="F149" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G149" t="s">
         <v>34</v>
@@ -14382,7 +14376,7 @@
         <v>43</v>
       </c>
       <c r="F151" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G151" t="s">
         <v>34</v>
@@ -14951,7 +14945,7 @@
         <v>32</v>
       </c>
       <c r="F158" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G158" t="s">
         <v>71</v>
@@ -14969,7 +14963,7 @@
         <v>45250</v>
       </c>
       <c r="M158" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N158" s="2">
         <v>0</v>
@@ -14981,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="T158" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK158" s="4">
         <v>0</v>
@@ -15401,13 +15395,13 @@
         <v>43</v>
       </c>
       <c r="F164" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G164" t="s">
         <v>34</v>
       </c>
       <c r="H164" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I164" t="s">
         <v>74</v>
@@ -15419,7 +15413,7 @@
         <v>45229</v>
       </c>
       <c r="M164" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N164" s="2">
         <v>7.0000000000000001E-3</v>
@@ -15431,7 +15425,7 @@
         <v>0</v>
       </c>
       <c r="T164" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AJ164" s="4">
         <v>0</v>
@@ -15644,7 +15638,7 @@
         <v>303</v>
       </c>
       <c r="T167" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA167" s="4">
         <v>0</v>
@@ -15970,7 +15964,7 @@
         <v>44972</v>
       </c>
       <c r="M171" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N171" s="2">
         <v>7.0000000000000001E-3</v>
@@ -16204,7 +16198,7 @@
         <v>34</v>
       </c>
       <c r="H174" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I174" t="s">
         <v>74</v>
@@ -16263,7 +16257,7 @@
         <v>43</v>
       </c>
       <c r="F175" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G175" t="s">
         <v>34</v>
@@ -16512,7 +16506,7 @@
         <v>45042</v>
       </c>
       <c r="M178" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N178" s="2">
         <v>0.02</v>
@@ -16692,10 +16686,10 @@
         <v>42</v>
       </c>
       <c r="E181" t="s">
+        <v>221</v>
+      </c>
+      <c r="F181" t="s">
         <v>222</v>
-      </c>
-      <c r="F181" t="s">
-        <v>223</v>
       </c>
       <c r="G181" t="s">
         <v>34</v>
@@ -16855,7 +16849,7 @@
         <v>71</v>
       </c>
       <c r="H183" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I183" t="s">
         <v>74</v>
@@ -16867,7 +16861,7 @@
         <v>45222</v>
       </c>
       <c r="M183" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N183" s="2">
         <v>0</v>
@@ -17186,7 +17180,7 @@
         <v>32</v>
       </c>
       <c r="F188" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G188" t="s">
         <v>50</v>
@@ -17752,7 +17746,7 @@
         <v>0.1</v>
       </c>
       <c r="T195" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG195" s="4">
         <v>0</v>
@@ -17917,7 +17911,7 @@
         <v>71</v>
       </c>
       <c r="H198" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I198" t="s">
         <v>74</v>
@@ -18669,7 +18663,7 @@
         <v>45049</v>
       </c>
       <c r="M208" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N208" s="2">
         <v>0.02</v>
@@ -18927,7 +18921,7 @@
         <v>0</v>
       </c>
       <c r="Q211" t="s">
-        <v>168</v>
+        <v>365</v>
       </c>
       <c r="T211" t="s">
         <v>40</v>
@@ -18986,7 +18980,7 @@
         <v>0</v>
       </c>
       <c r="Q212" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T212" t="s">
         <v>40</v>
@@ -19003,7 +18997,7 @@
         <v>29</v>
       </c>
       <c r="B213" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C213">
         <v>4895776</v>
@@ -19056,7 +19050,7 @@
         <v>29</v>
       </c>
       <c r="B214" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C214">
         <v>4508504</v>
@@ -19098,7 +19092,7 @@
         <v>0</v>
       </c>
       <c r="S214" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T214" t="s">
         <v>40</v>
@@ -19139,7 +19133,7 @@
         <v>29</v>
       </c>
       <c r="B215" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C215">
         <v>4563252</v>
@@ -19181,7 +19175,7 @@
         <v>0</v>
       </c>
       <c r="Q215" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T215" t="s">
         <v>40</v>
@@ -19219,7 +19213,7 @@
         <v>29</v>
       </c>
       <c r="B216" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C216">
         <v>4563237</v>
@@ -19261,7 +19255,7 @@
         <v>0</v>
       </c>
       <c r="S216" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="T216" t="s">
         <v>40</v>
@@ -19299,7 +19293,7 @@
         <v>29</v>
       </c>
       <c r="B217" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C217">
         <v>4415557</v>
@@ -19341,7 +19335,7 @@
         <v>0</v>
       </c>
       <c r="Q217" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="T217" t="s">
         <v>40</v>
@@ -19385,7 +19379,7 @@
         <v>29</v>
       </c>
       <c r="B218" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C218">
         <v>4228456</v>
@@ -19427,10 +19421,10 @@
         <v>0</v>
       </c>
       <c r="S218" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="T218" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA218" s="4">
         <v>166812.44</v>
@@ -19474,7 +19468,7 @@
         <v>29</v>
       </c>
       <c r="B219" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C219">
         <v>4515548</v>
@@ -19516,7 +19510,7 @@
         <v>0.1</v>
       </c>
       <c r="S219" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="T219" t="s">
         <v>40</v>
@@ -19554,7 +19548,7 @@
         <v>29</v>
       </c>
       <c r="B220" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C220">
         <v>4484207</v>
@@ -19596,7 +19590,7 @@
         <v>0.1</v>
       </c>
       <c r="S220" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T220" t="s">
         <v>40</v>
@@ -19637,7 +19631,7 @@
         <v>29</v>
       </c>
       <c r="B221" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C221">
         <v>4216298</v>
@@ -19726,7 +19720,7 @@
         <v>29</v>
       </c>
       <c r="B222" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C222">
         <v>4104365</v>
@@ -19815,7 +19809,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C223">
         <v>4281300</v>
@@ -19904,7 +19898,7 @@
         <v>29</v>
       </c>
       <c r="B224" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C224">
         <v>4503381</v>
@@ -19916,7 +19910,7 @@
         <v>69</v>
       </c>
       <c r="F224" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G224" t="s">
         <v>71</v>
@@ -19946,7 +19940,7 @@
         <v>0</v>
       </c>
       <c r="S224" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T224" t="s">
         <v>40</v>
@@ -19984,7 +19978,7 @@
         <v>29</v>
       </c>
       <c r="B225" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C225">
         <v>4329229</v>
@@ -20067,7 +20061,7 @@
         <v>29</v>
       </c>
       <c r="B226" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C226">
         <v>4638738</v>
@@ -20079,7 +20073,7 @@
         <v>32</v>
       </c>
       <c r="F226" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G226" t="s">
         <v>71</v>
@@ -20097,7 +20091,7 @@
         <v>45086</v>
       </c>
       <c r="M226" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N226" s="2">
         <v>1.4999999999999999E-2</v>
@@ -20109,7 +20103,7 @@
         <v>0.1</v>
       </c>
       <c r="S226" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="T226" t="s">
         <v>40</v>
@@ -20144,7 +20138,7 @@
         <v>29</v>
       </c>
       <c r="B227" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C227">
         <v>5047946</v>
@@ -20174,7 +20168,7 @@
         <v>45212</v>
       </c>
       <c r="M227" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N227" s="2">
         <v>0</v>
@@ -20203,7 +20197,7 @@
         <v>29</v>
       </c>
       <c r="B228" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C228">
         <v>4643880</v>
@@ -20215,7 +20209,7 @@
         <v>43</v>
       </c>
       <c r="F228" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G228" t="s">
         <v>34</v>
@@ -20274,7 +20268,7 @@
         <v>29</v>
       </c>
       <c r="B229" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C229">
         <v>4950193</v>
@@ -20339,7 +20333,7 @@
         <v>29</v>
       </c>
       <c r="B230" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C230">
         <v>4431546</v>
@@ -20419,7 +20413,7 @@
         <v>29</v>
       </c>
       <c r="B231" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C231">
         <v>5143579</v>
@@ -20475,7 +20469,7 @@
         <v>29</v>
       </c>
       <c r="B232" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C232">
         <v>4472386</v>
@@ -20555,7 +20549,7 @@
         <v>29</v>
       </c>
       <c r="B233" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C233">
         <v>4426743</v>
@@ -20567,7 +20561,7 @@
         <v>32</v>
       </c>
       <c r="F233" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G233" t="s">
         <v>71</v>
@@ -20635,7 +20629,7 @@
         <v>29</v>
       </c>
       <c r="B234" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C234">
         <v>3921139</v>
@@ -20691,7 +20685,7 @@
         <v>29</v>
       </c>
       <c r="B235" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C235">
         <v>4866753</v>
@@ -20759,7 +20753,7 @@
         <v>29</v>
       </c>
       <c r="B236" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C236">
         <v>4839302</v>
@@ -20801,7 +20795,7 @@
         <v>0.1</v>
       </c>
       <c r="S236" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T236" t="s">
         <v>40</v>
@@ -20830,7 +20824,7 @@
         <v>29</v>
       </c>
       <c r="B237" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C237">
         <v>4474776</v>
@@ -20872,7 +20866,7 @@
         <v>0</v>
       </c>
       <c r="Q237" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="T237" t="s">
         <v>40</v>
@@ -20913,7 +20907,7 @@
         <v>29</v>
       </c>
       <c r="B238" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C238">
         <v>4827315</v>
@@ -20931,7 +20925,7 @@
         <v>34</v>
       </c>
       <c r="H238" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I238" t="s">
         <v>36</v>
@@ -20963,7 +20957,7 @@
         <v>29</v>
       </c>
       <c r="B239" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C239">
         <v>4998717</v>
@@ -21005,7 +20999,7 @@
         <v>0</v>
       </c>
       <c r="S239" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T239" t="s">
         <v>40</v>
@@ -21028,7 +21022,7 @@
         <v>29</v>
       </c>
       <c r="B240" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C240">
         <v>4350197</v>
@@ -21040,7 +21034,7 @@
         <v>32</v>
       </c>
       <c r="F240" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G240" t="s">
         <v>71</v>
@@ -21114,7 +21108,7 @@
         <v>29</v>
       </c>
       <c r="B241" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C241">
         <v>5056185</v>
@@ -21132,7 +21126,7 @@
         <v>34</v>
       </c>
       <c r="H241" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I241" t="s">
         <v>74</v>
@@ -21156,7 +21150,7 @@
         <v>0</v>
       </c>
       <c r="Q241" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="T241" t="s">
         <v>40</v>
@@ -21176,7 +21170,7 @@
         <v>29</v>
       </c>
       <c r="B242" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C242">
         <v>4224815</v>
@@ -21262,7 +21256,7 @@
         <v>29</v>
       </c>
       <c r="B243" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C243">
         <v>1731007</v>
@@ -21339,7 +21333,7 @@
         <v>29</v>
       </c>
       <c r="B244" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C244">
         <v>4948033</v>
@@ -21351,7 +21345,7 @@
         <v>43</v>
       </c>
       <c r="F244" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G244" t="s">
         <v>34</v>
@@ -21401,7 +21395,7 @@
         <v>29</v>
       </c>
       <c r="B245" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C245">
         <v>5142611</v>
@@ -21457,7 +21451,7 @@
         <v>29</v>
       </c>
       <c r="B246" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C246">
         <v>5087681</v>
@@ -21469,7 +21463,7 @@
         <v>69</v>
       </c>
       <c r="F246" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G246" t="s">
         <v>50</v>
@@ -21487,7 +21481,7 @@
         <v>45236</v>
       </c>
       <c r="M246" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N246" s="2">
         <v>0</v>
@@ -21499,7 +21493,7 @@
         <v>0</v>
       </c>
       <c r="S246" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="T246" t="s">
         <v>40</v>
@@ -21516,7 +21510,7 @@
         <v>29</v>
       </c>
       <c r="B247" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C247">
         <v>4574428</v>
@@ -21558,7 +21552,7 @@
         <v>0.1</v>
       </c>
       <c r="R247" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="T247" t="s">
         <v>40</v>
@@ -21587,7 +21581,7 @@
         <v>29</v>
       </c>
       <c r="B248" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C248">
         <v>2878817</v>
@@ -21596,10 +21590,10 @@
         <v>42</v>
       </c>
       <c r="E248" t="s">
+        <v>221</v>
+      </c>
+      <c r="F248" t="s">
         <v>222</v>
-      </c>
-      <c r="F248" t="s">
-        <v>223</v>
       </c>
       <c r="G248" t="s">
         <v>34</v>
@@ -21673,7 +21667,7 @@
         <v>29</v>
       </c>
       <c r="B249" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C249">
         <v>2350362</v>
@@ -21682,10 +21676,10 @@
         <v>42</v>
       </c>
       <c r="E249" t="s">
+        <v>221</v>
+      </c>
+      <c r="F249" t="s">
         <v>222</v>
-      </c>
-      <c r="F249" t="s">
-        <v>223</v>
       </c>
       <c r="G249" t="s">
         <v>34</v>
@@ -21759,7 +21753,7 @@
         <v>29</v>
       </c>
       <c r="B250" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C250">
         <v>4452790</v>
@@ -21842,7 +21836,7 @@
         <v>29</v>
       </c>
       <c r="B251" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C251">
         <v>4444605</v>
@@ -21922,7 +21916,7 @@
         <v>29</v>
       </c>
       <c r="B252" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C252">
         <v>4565146</v>
@@ -22002,7 +21996,7 @@
         <v>29</v>
       </c>
       <c r="B253" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C253">
         <v>4565108</v>
@@ -22079,7 +22073,7 @@
         <v>29</v>
       </c>
       <c r="B254" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C254">
         <v>4830355</v>
@@ -22150,7 +22144,7 @@
         <v>29</v>
       </c>
       <c r="B255" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C255">
         <v>5055865</v>
@@ -22168,7 +22162,7 @@
         <v>34</v>
       </c>
       <c r="H255" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I255" t="s">
         <v>74</v>
@@ -22192,7 +22186,7 @@
         <v>0</v>
       </c>
       <c r="T255" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AJ255" s="4">
         <v>0</v>
@@ -22209,7 +22203,7 @@
         <v>29</v>
       </c>
       <c r="B256" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C256">
         <v>4115403</v>
@@ -22251,7 +22245,7 @@
         <v>0</v>
       </c>
       <c r="Q256" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="T256" t="s">
         <v>40</v>
@@ -22301,7 +22295,7 @@
         <v>29</v>
       </c>
       <c r="B257" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C257">
         <v>3435941</v>
@@ -22381,7 +22375,7 @@
         <v>29</v>
       </c>
       <c r="B258" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C258">
         <v>4907688</v>
@@ -22449,7 +22443,7 @@
         <v>29</v>
       </c>
       <c r="B259" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C259">
         <v>4329441</v>
@@ -22491,7 +22485,7 @@
         <v>0</v>
       </c>
       <c r="R259" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T259" t="s">
         <v>40</v>
@@ -22538,7 +22532,7 @@
         <v>29</v>
       </c>
       <c r="B260" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C260">
         <v>4363250</v>
@@ -22624,7 +22618,7 @@
         <v>29</v>
       </c>
       <c r="B261" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C261">
         <v>4468717</v>
@@ -22704,7 +22698,7 @@
         <v>29</v>
       </c>
       <c r="B262" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C262">
         <v>4459875</v>
@@ -22716,7 +22710,7 @@
         <v>32</v>
       </c>
       <c r="F262" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G262" t="s">
         <v>50</v>
@@ -22784,7 +22778,7 @@
         <v>29</v>
       </c>
       <c r="B263" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C263">
         <v>4119016</v>
@@ -22826,7 +22820,7 @@
         <v>0</v>
       </c>
       <c r="T263" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z263" s="4">
         <v>1200247.58</v>
@@ -22873,7 +22867,7 @@
         <v>29</v>
       </c>
       <c r="B264" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C264">
         <v>4479464</v>
@@ -22956,7 +22950,7 @@
         <v>29</v>
       </c>
       <c r="B265" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C265">
         <v>4497875</v>
@@ -23036,7 +23030,7 @@
         <v>29</v>
       </c>
       <c r="B266" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C266">
         <v>4479463</v>
@@ -23116,7 +23110,7 @@
         <v>29</v>
       </c>
       <c r="B267" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C267">
         <v>4359408</v>
@@ -23158,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="T267" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD267" s="4">
         <v>0</v>
@@ -23193,7 +23187,7 @@
         <v>29</v>
       </c>
       <c r="B268" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C268">
         <v>4870976</v>
@@ -23214,7 +23208,7 @@
         <v>35</v>
       </c>
       <c r="I268" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J268" t="s">
         <v>55</v>
@@ -23235,10 +23229,10 @@
         <v>0</v>
       </c>
       <c r="Q268" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="T268" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG268" s="4">
         <v>0</v>
@@ -23264,7 +23258,7 @@
         <v>29</v>
       </c>
       <c r="B269" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C269">
         <v>4361159</v>
@@ -23306,10 +23300,10 @@
         <v>0</v>
       </c>
       <c r="Q269" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="T269" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA269" s="4">
         <v>0</v>
@@ -23353,7 +23347,7 @@
         <v>29</v>
       </c>
       <c r="B270" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C270">
         <v>4381180</v>
@@ -23395,7 +23389,7 @@
         <v>0</v>
       </c>
       <c r="T270" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA270" s="4">
         <v>0</v>
@@ -23439,7 +23433,7 @@
         <v>29</v>
       </c>
       <c r="B271" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C271">
         <v>4996634</v>
@@ -23498,7 +23492,7 @@
         <v>29</v>
       </c>
       <c r="B272" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C272">
         <v>4211368</v>
@@ -23528,7 +23522,7 @@
         <v>44607</v>
       </c>
       <c r="M272" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N272" s="2">
         <v>1.2E-2</v>
@@ -23540,10 +23534,10 @@
         <v>0.1</v>
       </c>
       <c r="Q272" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="S272" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="T272" t="s">
         <v>40</v>
@@ -23590,7 +23584,7 @@
         <v>29</v>
       </c>
       <c r="B273" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C273">
         <v>4459461</v>
@@ -23620,7 +23614,7 @@
         <v>45036</v>
       </c>
       <c r="M273" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N273" s="2">
         <v>3.0000000000000001E-3</v>
@@ -23632,7 +23626,7 @@
         <v>0</v>
       </c>
       <c r="T273" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AC273" s="4">
         <v>0</v>
@@ -23670,7 +23664,7 @@
         <v>29</v>
       </c>
       <c r="B274" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C274">
         <v>4332207</v>
@@ -23756,7 +23750,7 @@
         <v>29</v>
       </c>
       <c r="B275" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C275">
         <v>4332783</v>
@@ -23768,7 +23762,7 @@
         <v>43</v>
       </c>
       <c r="F275" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G275" t="s">
         <v>34</v>
@@ -23842,7 +23836,7 @@
         <v>29</v>
       </c>
       <c r="B276" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C276">
         <v>4467016</v>
@@ -23922,7 +23916,7 @@
         <v>29</v>
       </c>
       <c r="B277" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C277">
         <v>4240014</v>
@@ -24011,7 +24005,7 @@
         <v>29</v>
       </c>
       <c r="B278" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C278">
         <v>4767746</v>
@@ -24082,7 +24076,7 @@
         <v>29</v>
       </c>
       <c r="B279" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C279">
         <v>4453302</v>
@@ -24094,7 +24088,7 @@
         <v>32</v>
       </c>
       <c r="F279" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G279" t="s">
         <v>71</v>
@@ -24124,7 +24118,7 @@
         <v>0.1</v>
       </c>
       <c r="Q279" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="T279" t="s">
         <v>40</v>
@@ -24165,7 +24159,7 @@
         <v>29</v>
       </c>
       <c r="B280" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C280">
         <v>4973881</v>
@@ -24183,7 +24177,7 @@
         <v>34</v>
       </c>
       <c r="H280" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I280" t="s">
         <v>36</v>
@@ -24218,7 +24212,7 @@
         <v>29</v>
       </c>
       <c r="B281" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C281">
         <v>3836362</v>
@@ -24260,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S281" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="T281" t="s">
         <v>40</v>
@@ -24298,7 +24292,7 @@
         <v>29</v>
       </c>
       <c r="B282" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C282">
         <v>4452476</v>
@@ -24378,7 +24372,7 @@
         <v>29</v>
       </c>
       <c r="B283" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C283">
         <v>4245232</v>
@@ -24390,7 +24384,7 @@
         <v>32</v>
       </c>
       <c r="F283" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G283" t="s">
         <v>71</v>
@@ -24420,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S283" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="T283" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA283" s="4">
         <v>0</v>
@@ -24467,7 +24461,7 @@
         <v>29</v>
       </c>
       <c r="B284" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C284">
         <v>4587525</v>
@@ -24509,7 +24503,7 @@
         <v>0.1</v>
       </c>
       <c r="R284" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="T284" t="s">
         <v>40</v>
@@ -24538,7 +24532,7 @@
         <v>29</v>
       </c>
       <c r="B285" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C285">
         <v>4216434</v>
@@ -24550,7 +24544,7 @@
         <v>43</v>
       </c>
       <c r="F285" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G285" t="s">
         <v>34</v>
@@ -24624,7 +24618,7 @@
         <v>29</v>
       </c>
       <c r="B286" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C286">
         <v>4339183</v>
@@ -24654,7 +24648,7 @@
         <v>45082</v>
       </c>
       <c r="M286" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N286" s="2">
         <v>0.02</v>
@@ -24666,7 +24660,7 @@
         <v>0.2</v>
       </c>
       <c r="S286" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="T286" t="s">
         <v>40</v>
@@ -24713,7 +24707,7 @@
         <v>29</v>
       </c>
       <c r="B287" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C287">
         <v>4500087</v>
@@ -24793,7 +24787,7 @@
         <v>29</v>
       </c>
       <c r="B288" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C288">
         <v>4212132</v>
@@ -24835,7 +24829,7 @@
         <v>0</v>
       </c>
       <c r="R288" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="T288" t="s">
         <v>40</v>
@@ -24882,7 +24876,7 @@
         <v>29</v>
       </c>
       <c r="B289" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C289">
         <v>4381415</v>
@@ -24924,7 +24918,7 @@
         <v>0.2</v>
       </c>
       <c r="Q289" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="T289" t="s">
         <v>40</v>
@@ -24971,7 +24965,7 @@
         <v>29</v>
       </c>
       <c r="B290" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C290">
         <v>4381328</v>
@@ -25057,7 +25051,7 @@
         <v>29</v>
       </c>
       <c r="B291" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C291">
         <v>4357159</v>
@@ -25069,7 +25063,7 @@
         <v>32</v>
       </c>
       <c r="F291" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G291" t="s">
         <v>71</v>
@@ -25087,7 +25081,7 @@
         <v>44959</v>
       </c>
       <c r="M291" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N291" s="2">
         <v>0</v>
@@ -25099,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="S291" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="T291" t="s">
         <v>40</v>
@@ -25146,7 +25140,7 @@
         <v>29</v>
       </c>
       <c r="B292" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C292">
         <v>4216657</v>
@@ -25158,7 +25152,7 @@
         <v>43</v>
       </c>
       <c r="F292" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G292" t="s">
         <v>34</v>
@@ -25232,7 +25226,7 @@
         <v>29</v>
       </c>
       <c r="B293" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C293">
         <v>4448501</v>
@@ -25244,7 +25238,7 @@
         <v>32</v>
       </c>
       <c r="F293" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G293" t="s">
         <v>71</v>
@@ -25274,7 +25268,7 @@
         <v>0</v>
       </c>
       <c r="S293" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="T293" t="s">
         <v>40</v>
@@ -25315,7 +25309,7 @@
         <v>29</v>
       </c>
       <c r="B294" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C294">
         <v>4321016</v>
@@ -25345,7 +25339,7 @@
         <v>44998</v>
       </c>
       <c r="M294" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N294" s="2">
         <v>0.02</v>
@@ -25401,7 +25395,7 @@
         <v>29</v>
       </c>
       <c r="B295" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C295">
         <v>5079458</v>
@@ -25460,7 +25454,7 @@
         <v>29</v>
       </c>
       <c r="B296" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C296">
         <v>4532148</v>
@@ -25481,7 +25475,7 @@
         <v>54</v>
       </c>
       <c r="I296" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="J296" t="s">
         <v>37</v>
@@ -25537,7 +25531,7 @@
         <v>29</v>
       </c>
       <c r="B297" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C297">
         <v>5121919</v>
@@ -25593,7 +25587,7 @@
         <v>29</v>
       </c>
       <c r="B298" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C298">
         <v>4432935</v>
@@ -25673,7 +25667,7 @@
         <v>29</v>
       </c>
       <c r="B299" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C299">
         <v>4212933</v>
@@ -25685,7 +25679,7 @@
         <v>32</v>
       </c>
       <c r="F299" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G299" t="s">
         <v>47</v>
@@ -25715,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="Q299" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="T299" t="s">
         <v>40</v>
@@ -25765,7 +25759,7 @@
         <v>29</v>
       </c>
       <c r="B300" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C300">
         <v>4480134</v>
@@ -25842,7 +25836,7 @@
         <v>29</v>
       </c>
       <c r="B301" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C301">
         <v>4854496</v>
@@ -25907,7 +25901,7 @@
         <v>29</v>
       </c>
       <c r="B302" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C302">
         <v>5146441</v>
@@ -25919,16 +25913,16 @@
         <v>32</v>
       </c>
       <c r="F302" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G302" t="s">
         <v>71</v>
       </c>
       <c r="H302" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I302" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="J302" t="s">
         <v>37</v>
@@ -25937,7 +25931,7 @@
         <v>45267</v>
       </c>
       <c r="M302" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N302" s="2">
         <v>0</v>
@@ -25949,7 +25943,7 @@
         <v>0</v>
       </c>
       <c r="T302" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL302" s="4">
         <v>0</v>
@@ -25960,7 +25954,7 @@
         <v>29</v>
       </c>
       <c r="B303" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C303">
         <v>4639776</v>
@@ -26037,7 +26031,7 @@
         <v>29</v>
       </c>
       <c r="B304" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C304">
         <v>2687737</v>
@@ -26046,10 +26040,10 @@
         <v>42</v>
       </c>
       <c r="E304" t="s">
+        <v>221</v>
+      </c>
+      <c r="F304" t="s">
         <v>222</v>
-      </c>
-      <c r="F304" t="s">
-        <v>223</v>
       </c>
       <c r="G304" t="s">
         <v>47</v>
@@ -26120,7 +26114,7 @@
         <v>29</v>
       </c>
       <c r="B305" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C305">
         <v>4218542</v>
@@ -26206,7 +26200,7 @@
         <v>29</v>
       </c>
       <c r="B306" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C306">
         <v>4453157</v>
@@ -26286,7 +26280,7 @@
         <v>29</v>
       </c>
       <c r="B307" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C307">
         <v>5035754</v>
@@ -26328,7 +26322,7 @@
         <v>0</v>
       </c>
       <c r="Q307" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T307" t="s">
         <v>40</v>
@@ -26351,7 +26345,7 @@
         <v>29</v>
       </c>
       <c r="B308" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C308">
         <v>4332237</v>
@@ -26437,7 +26431,7 @@
         <v>29</v>
       </c>
       <c r="B309" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C309">
         <v>4332103</v>
@@ -26479,7 +26473,7 @@
         <v>0</v>
       </c>
       <c r="R309" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="T309" t="s">
         <v>40</v>
@@ -26526,7 +26520,7 @@
         <v>29</v>
       </c>
       <c r="B310" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C310">
         <v>5079311</v>
@@ -26568,7 +26562,7 @@
         <v>0</v>
       </c>
       <c r="S310" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T310" t="s">
         <v>40</v>
@@ -26588,7 +26582,7 @@
         <v>29</v>
       </c>
       <c r="B311" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C311">
         <v>4265173</v>
@@ -26630,7 +26624,7 @@
         <v>0</v>
       </c>
       <c r="S311" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="T311" t="s">
         <v>40</v>
@@ -26680,7 +26674,7 @@
         <v>29</v>
       </c>
       <c r="B312" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C312">
         <v>4453045</v>
@@ -26760,7 +26754,7 @@
         <v>29</v>
       </c>
       <c r="B313" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C313">
         <v>4813088</v>
@@ -26772,7 +26766,7 @@
         <v>32</v>
       </c>
       <c r="F313" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G313" t="s">
         <v>47</v>
@@ -26790,7 +26784,7 @@
         <v>45121</v>
       </c>
       <c r="M313" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N313" s="2">
         <v>0.01</v>
@@ -26828,7 +26822,7 @@
         <v>29</v>
       </c>
       <c r="B314" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C314">
         <v>4803348</v>
@@ -26893,7 +26887,7 @@
         <v>29</v>
       </c>
       <c r="B315" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C315">
         <v>2401479</v>
@@ -26976,7 +26970,7 @@
         <v>29</v>
       </c>
       <c r="B316" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C316">
         <v>4405234</v>
@@ -27059,7 +27053,7 @@
         <v>29</v>
       </c>
       <c r="B317" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C317">
         <v>5210220</v>
@@ -27071,13 +27065,13 @@
         <v>43</v>
       </c>
       <c r="F317" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G317" t="s">
         <v>34</v>
       </c>
       <c r="H317" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I317" t="s">
         <v>36</v>
@@ -27101,7 +27095,7 @@
         <v>0</v>
       </c>
       <c r="Q317" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T317" t="s">
         <v>40</v>
@@ -27112,7 +27106,7 @@
         <v>29</v>
       </c>
       <c r="B318" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C318">
         <v>4208869</v>
@@ -27157,10 +27151,10 @@
         <v>0.1</v>
       </c>
       <c r="Q318" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="R318" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="T318" t="s">
         <v>40</v>
@@ -27207,7 +27201,7 @@
         <v>29</v>
       </c>
       <c r="B319" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C319">
         <v>4342617</v>
@@ -27219,7 +27213,7 @@
         <v>32</v>
       </c>
       <c r="F319" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G319" t="s">
         <v>47</v>
@@ -27287,7 +27281,7 @@
         <v>29</v>
       </c>
       <c r="B320" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C320">
         <v>5070742</v>
@@ -27305,10 +27299,10 @@
         <v>34</v>
       </c>
       <c r="H320" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I320" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="J320" t="s">
         <v>55</v>
@@ -27329,7 +27323,7 @@
         <v>0</v>
       </c>
       <c r="Q320" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="T320" t="s">
         <v>40</v>
@@ -27349,7 +27343,7 @@
         <v>29</v>
       </c>
       <c r="B321" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C321">
         <v>5141215</v>
@@ -27402,7 +27396,7 @@
         <v>29</v>
       </c>
       <c r="B322" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C322">
         <v>4527497</v>
@@ -27476,7 +27470,7 @@
         <v>29</v>
       </c>
       <c r="B323" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C323">
         <v>4556974</v>
@@ -27556,7 +27550,7 @@
         <v>29</v>
       </c>
       <c r="B324" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C324">
         <v>4504449</v>
@@ -27598,7 +27592,7 @@
         <v>0</v>
       </c>
       <c r="S324" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T324" t="s">
         <v>40</v>
@@ -27624,7 +27618,7 @@
         <v>29</v>
       </c>
       <c r="B325" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C325">
         <v>4212438</v>
@@ -27636,7 +27630,7 @@
         <v>43</v>
       </c>
       <c r="F325" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G325" t="s">
         <v>47</v>
@@ -27666,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q325" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="R325" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="T325" t="s">
         <v>40</v>
@@ -27716,7 +27710,7 @@
         <v>29</v>
       </c>
       <c r="B326" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C326">
         <v>4505257</v>
@@ -27758,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="S326" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="T326" t="s">
         <v>40</v>
@@ -27796,7 +27790,7 @@
         <v>29</v>
       </c>
       <c r="B327" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C327">
         <v>4511696</v>
@@ -27838,7 +27832,7 @@
         <v>0</v>
       </c>
       <c r="S327" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T327" t="s">
         <v>40</v>
@@ -27876,7 +27870,7 @@
         <v>29</v>
       </c>
       <c r="B328" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C328">
         <v>1882235</v>
@@ -27888,7 +27882,7 @@
         <v>32</v>
       </c>
       <c r="F328" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G328" t="s">
         <v>47</v>
@@ -27918,10 +27912,10 @@
         <v>0</v>
       </c>
       <c r="S328" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="T328" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD328" s="4">
         <v>1071917.6399999999</v>
@@ -27956,7 +27950,7 @@
         <v>29</v>
       </c>
       <c r="B329" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C329">
         <v>4641487</v>
@@ -27998,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="R329" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T329" t="s">
         <v>40</v>
@@ -28027,7 +28021,7 @@
         <v>29</v>
       </c>
       <c r="B330" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C330">
         <v>4230529</v>
@@ -28116,7 +28110,7 @@
         <v>29</v>
       </c>
       <c r="B331" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C331">
         <v>4452597</v>
@@ -28158,7 +28152,7 @@
         <v>0.1</v>
       </c>
       <c r="Q331" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="S331" t="s">
         <v>100</v>
@@ -28202,7 +28196,7 @@
         <v>29</v>
       </c>
       <c r="B332" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C332">
         <v>4450405</v>
@@ -28282,7 +28276,7 @@
         <v>29</v>
       </c>
       <c r="B333" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C333">
         <v>4643737</v>
@@ -28324,10 +28318,10 @@
         <v>0</v>
       </c>
       <c r="Q333" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="R333" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T333" t="s">
         <v>40</v>
@@ -28356,7 +28350,7 @@
         <v>29</v>
       </c>
       <c r="B334" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C334">
         <v>4277637</v>
@@ -28368,7 +28362,7 @@
         <v>32</v>
       </c>
       <c r="F334" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G334" t="s">
         <v>71</v>
@@ -28398,10 +28392,10 @@
         <v>0</v>
       </c>
       <c r="Q334" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="R334" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T334" t="s">
         <v>40</v>
@@ -28451,7 +28445,7 @@
         <v>29</v>
       </c>
       <c r="B335" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C335">
         <v>4846293</v>
@@ -28516,7 +28510,7 @@
         <v>29</v>
       </c>
       <c r="B336" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C336">
         <v>4290978</v>
@@ -28528,7 +28522,7 @@
         <v>32</v>
       </c>
       <c r="F336" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G336" t="s">
         <v>71</v>
@@ -28602,7 +28596,7 @@
         <v>29</v>
       </c>
       <c r="B337" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C337">
         <v>4289402</v>
@@ -28614,7 +28608,7 @@
         <v>32</v>
       </c>
       <c r="F337" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G337" t="s">
         <v>71</v>
@@ -28688,7 +28682,7 @@
         <v>29</v>
       </c>
       <c r="B338" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C338">
         <v>4580355</v>
@@ -28730,10 +28724,10 @@
         <v>0</v>
       </c>
       <c r="Q338" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="R338" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T338" t="s">
         <v>40</v>
@@ -28762,7 +28756,7 @@
         <v>29</v>
       </c>
       <c r="B339" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C339">
         <v>4363260</v>
@@ -28774,7 +28768,7 @@
         <v>43</v>
       </c>
       <c r="F339" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G339" t="s">
         <v>47</v>
@@ -28848,7 +28842,7 @@
         <v>29</v>
       </c>
       <c r="B340" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C340">
         <v>4693308</v>
@@ -28922,7 +28916,7 @@
         <v>29</v>
       </c>
       <c r="B341" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C341">
         <v>4404724</v>
@@ -29005,7 +28999,7 @@
         <v>29</v>
       </c>
       <c r="B342" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C342">
         <v>4382902</v>
@@ -29047,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="Q342" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="T342" t="s">
         <v>40</v>
@@ -29094,7 +29088,7 @@
         <v>29</v>
       </c>
       <c r="B343" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C343">
         <v>4848279</v>
@@ -29162,7 +29156,7 @@
         <v>29</v>
       </c>
       <c r="B344" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C344">
         <v>5076418</v>
@@ -29174,7 +29168,7 @@
         <v>32</v>
       </c>
       <c r="F344" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G344" t="s">
         <v>34</v>
@@ -29221,7 +29215,7 @@
         <v>29</v>
       </c>
       <c r="B345" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C345">
         <v>4221506</v>
@@ -29233,7 +29227,7 @@
         <v>43</v>
       </c>
       <c r="F345" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G345" t="s">
         <v>34</v>
@@ -29266,7 +29260,7 @@
         <v>0</v>
       </c>
       <c r="S345" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="T345" t="s">
         <v>40</v>
@@ -29313,7 +29307,7 @@
         <v>29</v>
       </c>
       <c r="B346" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C346">
         <v>4221536</v>
@@ -29325,7 +29319,7 @@
         <v>43</v>
       </c>
       <c r="F346" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G346" t="s">
         <v>34</v>
@@ -29358,7 +29352,7 @@
         <v>0</v>
       </c>
       <c r="S346" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="T346" t="s">
         <v>40</v>
@@ -29405,7 +29399,7 @@
         <v>29</v>
       </c>
       <c r="B347" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C347">
         <v>4936634</v>
@@ -29470,7 +29464,7 @@
         <v>29</v>
       </c>
       <c r="B348" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C348">
         <v>4374943</v>
@@ -29482,7 +29476,7 @@
         <v>32</v>
       </c>
       <c r="F348" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G348" t="s">
         <v>71</v>
@@ -29556,7 +29550,7 @@
         <v>29</v>
       </c>
       <c r="B349" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C349">
         <v>4278212</v>
@@ -29642,7 +29636,7 @@
         <v>29</v>
       </c>
       <c r="B350" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C350">
         <v>4334158</v>
@@ -29728,7 +29722,7 @@
         <v>29</v>
       </c>
       <c r="B351" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C351">
         <v>4403674</v>
@@ -29808,7 +29802,7 @@
         <v>29</v>
       </c>
       <c r="B352" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C352">
         <v>4332747</v>
@@ -29894,7 +29888,7 @@
         <v>29</v>
       </c>
       <c r="B353" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C353">
         <v>4547073</v>
@@ -29971,7 +29965,7 @@
         <v>29</v>
       </c>
       <c r="B354" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C354">
         <v>4766708</v>
@@ -29992,7 +29986,7 @@
         <v>54</v>
       </c>
       <c r="I354" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="J354" t="s">
         <v>37</v>
@@ -30042,7 +30036,7 @@
         <v>29</v>
       </c>
       <c r="B355" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C355">
         <v>4567880</v>
@@ -30119,7 +30113,7 @@
         <v>29</v>
       </c>
       <c r="B356" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C356">
         <v>4431689</v>
@@ -30131,7 +30125,7 @@
         <v>32</v>
       </c>
       <c r="F356" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G356" t="s">
         <v>71</v>
@@ -30149,7 +30143,7 @@
         <v>44994</v>
       </c>
       <c r="M356" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N356" s="2">
         <v>7.0000000000000001E-3</v>
@@ -30199,7 +30193,7 @@
         <v>29</v>
       </c>
       <c r="B357" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C357">
         <v>4914070</v>
@@ -30241,7 +30235,7 @@
         <v>0.1</v>
       </c>
       <c r="S357" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="T357" t="s">
         <v>40</v>
@@ -30267,7 +30261,7 @@
         <v>29</v>
       </c>
       <c r="B358" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C358">
         <v>4473829</v>
@@ -30347,7 +30341,7 @@
         <v>29</v>
       </c>
       <c r="B359" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C359">
         <v>5122672</v>
@@ -30374,7 +30368,7 @@
         <v>45254</v>
       </c>
       <c r="M359" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N359" s="2">
         <v>0</v>
@@ -30400,7 +30394,7 @@
         <v>29</v>
       </c>
       <c r="B360" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C360">
         <v>4490955</v>
@@ -30412,7 +30406,7 @@
         <v>69</v>
       </c>
       <c r="F360" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G360" t="s">
         <v>50</v>
@@ -30480,7 +30474,7 @@
         <v>29</v>
       </c>
       <c r="B361" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C361">
         <v>4432455</v>
@@ -30522,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="Q361" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="T361" t="s">
         <v>40</v>
@@ -30563,7 +30557,7 @@
         <v>29</v>
       </c>
       <c r="B362" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C362">
         <v>4804036</v>
@@ -30634,7 +30628,7 @@
         <v>29</v>
       </c>
       <c r="B363" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C363">
         <v>827730</v>
@@ -30676,7 +30670,7 @@
         <v>0</v>
       </c>
       <c r="R363" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="T363" t="s">
         <v>40</v>
@@ -30708,7 +30702,7 @@
         <v>29</v>
       </c>
       <c r="B364" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C364">
         <v>4544289</v>
@@ -30779,7 +30773,7 @@
         <v>29</v>
       </c>
       <c r="B365" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C365">
         <v>5002390</v>
@@ -30821,7 +30815,7 @@
         <v>0.1</v>
       </c>
       <c r="S365" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="T365" t="s">
         <v>40</v>
@@ -30844,7 +30838,7 @@
         <v>29</v>
       </c>
       <c r="B366" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C366">
         <v>4376145</v>
@@ -30930,7 +30924,7 @@
         <v>29</v>
       </c>
       <c r="B367" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C367">
         <v>1719494</v>
@@ -30942,7 +30936,7 @@
         <v>43</v>
       </c>
       <c r="F367" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G367" t="s">
         <v>34</v>
@@ -31016,7 +31010,7 @@
         <v>29</v>
       </c>
       <c r="B368" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C368">
         <v>4754920</v>
@@ -31087,7 +31081,7 @@
         <v>29</v>
       </c>
       <c r="B369" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C369">
         <v>4472431</v>
@@ -31167,7 +31161,7 @@
         <v>29</v>
       </c>
       <c r="B370" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C370">
         <v>4546050</v>
@@ -31179,7 +31173,7 @@
         <v>32</v>
       </c>
       <c r="F370" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G370" t="s">
         <v>71</v>
@@ -31209,7 +31203,7 @@
         <v>0</v>
       </c>
       <c r="S370" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T370" t="s">
         <v>40</v>
@@ -31247,7 +31241,7 @@
         <v>29</v>
       </c>
       <c r="B371" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C371">
         <v>4568300</v>
@@ -31259,7 +31253,7 @@
         <v>32</v>
       </c>
       <c r="F371" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G371" t="s">
         <v>71</v>
@@ -31289,7 +31283,7 @@
         <v>0.1</v>
       </c>
       <c r="S371" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T371" t="s">
         <v>40</v>
@@ -31327,7 +31321,7 @@
         <v>29</v>
       </c>
       <c r="B372" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C372">
         <v>4380948</v>
@@ -31339,7 +31333,7 @@
         <v>32</v>
       </c>
       <c r="F372" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G372" t="s">
         <v>71</v>
@@ -31357,7 +31351,7 @@
         <v>44973</v>
       </c>
       <c r="M372" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N372" s="2">
         <v>0</v>
@@ -31369,7 +31363,7 @@
         <v>0</v>
       </c>
       <c r="S372" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="T372" t="s">
         <v>40</v>
@@ -31413,7 +31407,7 @@
         <v>29</v>
       </c>
       <c r="B373" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C373">
         <v>4298042</v>
@@ -31425,7 +31419,7 @@
         <v>32</v>
       </c>
       <c r="F373" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G373" t="s">
         <v>71</v>
@@ -31455,10 +31449,10 @@
         <v>0.1</v>
       </c>
       <c r="Q373" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="R373" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="T373" t="s">
         <v>40</v>
@@ -31505,7 +31499,7 @@
         <v>29</v>
       </c>
       <c r="B374" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C374">
         <v>4239387</v>
@@ -31582,7 +31576,7 @@
         <v>29</v>
       </c>
       <c r="B375" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C375">
         <v>4458563</v>
@@ -31662,7 +31656,7 @@
         <v>29</v>
       </c>
       <c r="B376" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C376">
         <v>4348479</v>
@@ -31739,7 +31733,7 @@
         <v>29</v>
       </c>
       <c r="B377" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C377">
         <v>4877741</v>
@@ -31804,7 +31798,7 @@
         <v>29</v>
       </c>
       <c r="B378" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C378">
         <v>4554411</v>
@@ -31872,7 +31866,7 @@
         <v>29</v>
       </c>
       <c r="B379" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C379">
         <v>4517506</v>
@@ -31884,7 +31878,7 @@
         <v>32</v>
       </c>
       <c r="F379" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G379" t="s">
         <v>71</v>
@@ -31949,7 +31943,7 @@
         <v>29</v>
       </c>
       <c r="B380" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C380">
         <v>4369172</v>
@@ -31958,10 +31952,10 @@
         <v>42</v>
       </c>
       <c r="E380" t="s">
+        <v>221</v>
+      </c>
+      <c r="F380" t="s">
         <v>222</v>
-      </c>
-      <c r="F380" t="s">
-        <v>223</v>
       </c>
       <c r="G380" t="s">
         <v>34</v>
@@ -32035,7 +32029,7 @@
         <v>29</v>
       </c>
       <c r="B381" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C381">
         <v>5121756</v>
@@ -32053,10 +32047,10 @@
         <v>34</v>
       </c>
       <c r="H381" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I381" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="J381" t="s">
         <v>37</v>
@@ -32091,7 +32085,7 @@
         <v>29</v>
       </c>
       <c r="B382" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C382">
         <v>4752615</v>
@@ -32162,7 +32156,7 @@
         <v>29</v>
       </c>
       <c r="B383" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C383">
         <v>4383190</v>
@@ -32174,7 +32168,7 @@
         <v>32</v>
       </c>
       <c r="F383" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G383" t="s">
         <v>47</v>
@@ -32204,7 +32198,7 @@
         <v>0</v>
       </c>
       <c r="Q383" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="T383" t="s">
         <v>40</v>
@@ -32251,7 +32245,7 @@
         <v>29</v>
       </c>
       <c r="B384" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C384">
         <v>4481463</v>
@@ -32331,7 +32325,7 @@
         <v>29</v>
       </c>
       <c r="B385" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C385">
         <v>4556853</v>
@@ -32373,10 +32367,10 @@
         <v>0.2</v>
       </c>
       <c r="Q385" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="R385" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="T385" t="s">
         <v>40</v>
@@ -32414,7 +32408,7 @@
         <v>29</v>
       </c>
       <c r="B386" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C386">
         <v>4264780</v>
@@ -32426,7 +32420,7 @@
         <v>32</v>
       </c>
       <c r="F386" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G386" t="s">
         <v>71</v>
@@ -32456,7 +32450,7 @@
         <v>0.2</v>
       </c>
       <c r="R386" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="T386" t="s">
         <v>40</v>
@@ -32506,7 +32500,7 @@
         <v>29</v>
       </c>
       <c r="B387" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C387">
         <v>772433</v>
@@ -32518,7 +32512,7 @@
         <v>32</v>
       </c>
       <c r="F387" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G387" t="s">
         <v>71</v>
@@ -32548,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="Q387" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="T387" t="s">
         <v>40</v>
@@ -32598,7 +32592,7 @@
         <v>29</v>
       </c>
       <c r="B388" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C388">
         <v>4983378</v>
@@ -32610,16 +32604,16 @@
         <v>32</v>
       </c>
       <c r="F388" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G388" t="s">
         <v>34</v>
       </c>
       <c r="H388" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I388" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="J388" t="s">
         <v>37</v>
@@ -32663,7 +32657,7 @@
         <v>29</v>
       </c>
       <c r="B389" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C389">
         <v>4983395</v>
@@ -32675,16 +32669,16 @@
         <v>32</v>
       </c>
       <c r="F389" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G389" t="s">
         <v>34</v>
       </c>
       <c r="H389" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I389" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="J389" t="s">
         <v>37</v>
@@ -32728,7 +32722,7 @@
         <v>29</v>
       </c>
       <c r="B390" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C390">
         <v>4455356</v>
@@ -32808,7 +32802,7 @@
         <v>29</v>
       </c>
       <c r="B391" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C391">
         <v>4444380</v>
@@ -32888,7 +32882,7 @@
         <v>29</v>
       </c>
       <c r="B392" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C392">
         <v>4748761</v>
@@ -32918,7 +32912,7 @@
         <v>45104</v>
       </c>
       <c r="M392" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N392" s="2">
         <v>1.2E-2</v>
@@ -32959,7 +32953,7 @@
         <v>29</v>
       </c>
       <c r="B393" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C393">
         <v>2950732</v>
@@ -33001,7 +32995,7 @@
         <v>0.1</v>
       </c>
       <c r="S393" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="T393" t="s">
         <v>40</v>
@@ -33039,7 +33033,7 @@
         <v>29</v>
       </c>
       <c r="B394" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C394">
         <v>4502767</v>
@@ -33069,7 +33063,7 @@
         <v>45163</v>
       </c>
       <c r="M394" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N394" s="2">
         <v>0.02</v>
@@ -33119,7 +33113,7 @@
         <v>29</v>
       </c>
       <c r="B395" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C395">
         <v>4854514</v>
@@ -33184,7 +33178,7 @@
         <v>29</v>
       </c>
       <c r="B396" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C396">
         <v>4547722</v>
@@ -33226,7 +33220,7 @@
         <v>0</v>
       </c>
       <c r="Q396" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="T396" t="s">
         <v>40</v>
@@ -33264,7 +33258,7 @@
         <v>29</v>
       </c>
       <c r="B397" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C397">
         <v>4527606</v>
@@ -33341,7 +33335,7 @@
         <v>29</v>
       </c>
       <c r="B398" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C398">
         <v>4415248</v>
@@ -33424,7 +33418,7 @@
         <v>29</v>
       </c>
       <c r="B399" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C399">
         <v>4463586</v>
@@ -33504,7 +33498,7 @@
         <v>29</v>
       </c>
       <c r="B400" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C400">
         <v>5042222</v>
@@ -33522,10 +33516,10 @@
         <v>71</v>
       </c>
       <c r="H400" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I400" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="J400" t="s">
         <v>37</v>
@@ -33566,7 +33560,7 @@
         <v>29</v>
       </c>
       <c r="B401" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C401">
         <v>4240292</v>
@@ -33652,7 +33646,7 @@
         <v>29</v>
       </c>
       <c r="B402" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C402">
         <v>4435987</v>
@@ -33732,7 +33726,7 @@
         <v>29</v>
       </c>
       <c r="B403" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C403">
         <v>4436055</v>
@@ -33812,7 +33806,7 @@
         <v>29</v>
       </c>
       <c r="B404" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C404">
         <v>4454491</v>
@@ -33892,7 +33886,7 @@
         <v>29</v>
       </c>
       <c r="B405" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C405">
         <v>4254210</v>
@@ -33904,7 +33898,7 @@
         <v>32</v>
       </c>
       <c r="F405" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G405" t="s">
         <v>50</v>
@@ -33922,7 +33916,7 @@
         <v>44908</v>
       </c>
       <c r="M405" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N405" s="2">
         <v>1.4999999999999999E-2</v>
@@ -33934,13 +33928,13 @@
         <v>0.2</v>
       </c>
       <c r="Q405" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="R405" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="S405" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="T405" t="s">
         <v>40</v>
@@ -33990,7 +33984,7 @@
         <v>29</v>
       </c>
       <c r="B406" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C406">
         <v>4853111</v>
@@ -34061,7 +34055,7 @@
         <v>29</v>
       </c>
       <c r="B407" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C407">
         <v>4752519</v>
@@ -34132,7 +34126,7 @@
         <v>29</v>
       </c>
       <c r="B408" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C408">
         <v>834301</v>
@@ -34212,7 +34206,7 @@
         <v>29</v>
       </c>
       <c r="B409" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C409">
         <v>4575621</v>
@@ -34254,7 +34248,7 @@
         <v>0.1</v>
       </c>
       <c r="Q409" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="T409" t="s">
         <v>40</v>
@@ -34286,7 +34280,7 @@
         <v>29</v>
       </c>
       <c r="B410" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C410">
         <v>2738211</v>
@@ -34328,7 +34322,7 @@
         <v>0</v>
       </c>
       <c r="R410" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T410" t="s">
         <v>40</v>
@@ -34357,7 +34351,7 @@
         <v>29</v>
       </c>
       <c r="B411" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C411">
         <v>4811224</v>
@@ -34399,7 +34393,7 @@
         <v>0</v>
       </c>
       <c r="R411" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T411" t="s">
         <v>40</v>
@@ -34428,7 +34422,7 @@
         <v>29</v>
       </c>
       <c r="B412" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C412">
         <v>4807944</v>
@@ -34440,7 +34434,7 @@
         <v>32</v>
       </c>
       <c r="F412" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G412" t="s">
         <v>71</v>
@@ -34470,10 +34464,10 @@
         <v>0</v>
       </c>
       <c r="R412" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="S412" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="T412" t="s">
         <v>40</v>
@@ -34505,7 +34499,7 @@
         <v>29</v>
       </c>
       <c r="B413" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C413">
         <v>4552021</v>
@@ -34517,7 +34511,7 @@
         <v>32</v>
       </c>
       <c r="F413" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G413" t="s">
         <v>50</v>
@@ -34582,7 +34576,7 @@
         <v>29</v>
       </c>
       <c r="B414" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C414">
         <v>4212476</v>
@@ -34594,7 +34588,7 @@
         <v>43</v>
       </c>
       <c r="F414" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G414" t="s">
         <v>47</v>
@@ -34624,7 +34618,7 @@
         <v>0</v>
       </c>
       <c r="S414" s="5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="T414" t="s">
         <v>40</v>
@@ -34671,7 +34665,7 @@
         <v>29</v>
       </c>
       <c r="B415" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C415">
         <v>4214460</v>
@@ -34683,7 +34677,7 @@
         <v>43</v>
       </c>
       <c r="F415" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G415" t="s">
         <v>34</v>
@@ -34701,7 +34695,7 @@
         <v>44957</v>
       </c>
       <c r="M415" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N415" s="2">
         <v>0.01</v>
@@ -34757,7 +34751,7 @@
         <v>29</v>
       </c>
       <c r="B416" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C416">
         <v>4893523</v>
@@ -34799,7 +34793,7 @@
         <v>0</v>
       </c>
       <c r="Q416" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="T416" t="s">
         <v>40</v>
@@ -34828,7 +34822,7 @@
         <v>29</v>
       </c>
       <c r="B417" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C417">
         <v>4541022</v>
@@ -34870,7 +34864,7 @@
         <v>0</v>
       </c>
       <c r="S417" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="T417" t="s">
         <v>40</v>
@@ -34908,7 +34902,7 @@
         <v>29</v>
       </c>
       <c r="B418" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C418">
         <v>4972070</v>
@@ -34973,7 +34967,7 @@
         <v>29</v>
       </c>
       <c r="B419" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C419">
         <v>4870019</v>
@@ -35035,7 +35029,7 @@
         <v>29</v>
       </c>
       <c r="B420" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C420">
         <v>4395314</v>
@@ -35047,7 +35041,7 @@
         <v>32</v>
       </c>
       <c r="F420" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G420" t="s">
         <v>47</v>
@@ -35118,7 +35112,7 @@
         <v>29</v>
       </c>
       <c r="B421" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C421">
         <v>4214604</v>
@@ -35130,7 +35124,7 @@
         <v>43</v>
       </c>
       <c r="F421" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G421" t="s">
         <v>34</v>
@@ -35204,7 +35198,7 @@
         <v>29</v>
       </c>
       <c r="B422" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C422">
         <v>4212581</v>
@@ -35216,7 +35210,7 @@
         <v>43</v>
       </c>
       <c r="F422" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G422" t="s">
         <v>47</v>
@@ -35246,7 +35240,7 @@
         <v>0</v>
       </c>
       <c r="S422" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="T422" t="s">
         <v>40</v>
@@ -35293,7 +35287,7 @@
         <v>29</v>
       </c>
       <c r="B423" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C423">
         <v>4242237</v>
@@ -35335,7 +35329,7 @@
         <v>0</v>
       </c>
       <c r="Q423" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="T423" t="s">
         <v>40</v>
@@ -35382,7 +35376,7 @@
         <v>29</v>
       </c>
       <c r="B424" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C424">
         <v>4525587</v>
@@ -35394,7 +35388,7 @@
         <v>69</v>
       </c>
       <c r="F424" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G424" t="s">
         <v>71</v>
@@ -35424,7 +35418,7 @@
         <v>0</v>
       </c>
       <c r="S424" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T424" t="s">
         <v>40</v>
@@ -35462,7 +35456,7 @@
         <v>29</v>
       </c>
       <c r="B425" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C425">
         <v>4920447</v>
@@ -35527,7 +35521,7 @@
         <v>29</v>
       </c>
       <c r="B426" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C426">
         <v>5000460</v>
@@ -35589,7 +35583,7 @@
         <v>29</v>
       </c>
       <c r="B427" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C427">
         <v>5046919</v>
@@ -35648,7 +35642,7 @@
         <v>29</v>
       </c>
       <c r="B428" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C428">
         <v>4371913</v>
@@ -35737,7 +35731,7 @@
         <v>29</v>
       </c>
       <c r="B429" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C429">
         <v>4556150</v>
@@ -35749,7 +35743,7 @@
         <v>43</v>
       </c>
       <c r="F429" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G429" t="s">
         <v>34</v>
@@ -35814,7 +35808,7 @@
         <v>29</v>
       </c>
       <c r="B430" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C430">
         <v>3249855</v>
@@ -35826,7 +35820,7 @@
         <v>43</v>
       </c>
       <c r="F430" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G430" t="s">
         <v>34</v>
@@ -35885,7 +35879,7 @@
         <v>29</v>
       </c>
       <c r="B431" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C431">
         <v>4405702</v>
@@ -35897,7 +35891,7 @@
         <v>43</v>
       </c>
       <c r="F431" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H431" t="s">
         <v>54</v>
@@ -35923,9 +35917,6 @@
       <c r="P431" s="3">
         <v>0.1</v>
       </c>
-      <c r="S431" t="s">
-        <v>651</v>
-      </c>
       <c r="T431" t="s">
         <v>40</v>
       </c>
@@ -36309,16 +36300,16 @@
         <v>43</v>
       </c>
       <c r="F436" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G436" t="s">
         <v>34</v>
       </c>
       <c r="H436" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I436" t="s">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="J436" t="s">
         <v>37</v>
@@ -36445,7 +36436,7 @@
         <v>43</v>
       </c>
       <c r="F438" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G438" t="s">
         <v>47</v>
@@ -36700,7 +36691,7 @@
         <v>54</v>
       </c>
       <c r="I441" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="J441" t="s">
         <v>37</v>
@@ -37165,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="T447" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD447" s="4">
         <v>0</v>
@@ -38098,7 +38089,7 @@
         <v>32</v>
       </c>
       <c r="F459" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G459" t="s">
         <v>71</v>
@@ -38116,7 +38107,7 @@
         <v>45240</v>
       </c>
       <c r="M459" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N459" s="2">
         <v>0</v>
@@ -38154,7 +38145,7 @@
         <v>43</v>
       </c>
       <c r="F460" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G460" t="s">
         <v>34</v>
@@ -38258,7 +38249,7 @@
         <v>45117</v>
       </c>
       <c r="M461" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N461" s="2">
         <v>7.0000000000000001E-3</v>
@@ -38344,7 +38335,7 @@
         <v>690</v>
       </c>
       <c r="T462" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AJ462" s="4">
         <v>0</v>
@@ -38373,7 +38364,7 @@
         <v>43</v>
       </c>
       <c r="F463" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G463" t="s">
         <v>47</v>
@@ -38468,10 +38459,10 @@
         <v>71</v>
       </c>
       <c r="H464" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I464" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="J464" t="s">
         <v>37</v>
@@ -38619,7 +38610,7 @@
         <v>0</v>
       </c>
       <c r="T466" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AC466" s="4">
         <v>0</v>
@@ -38699,7 +38690,7 @@
         <v>0</v>
       </c>
       <c r="T467" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA467" s="4">
         <v>0</v>
@@ -38785,7 +38776,7 @@
         <v>0</v>
       </c>
       <c r="T468" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA468" s="4">
         <v>0</v>
@@ -38989,7 +38980,7 @@
         <v>32</v>
       </c>
       <c r="F471" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G471" t="s">
         <v>71</v>
@@ -39007,7 +38998,7 @@
         <v>45001</v>
       </c>
       <c r="M471" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N471" s="2">
         <v>0</v>
@@ -39573,7 +39564,7 @@
         <v>69</v>
       </c>
       <c r="F478" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G478" t="s">
         <v>71</v>
@@ -39603,7 +39594,7 @@
         <v>0</v>
       </c>
       <c r="S478" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T478" t="s">
         <v>40</v>
@@ -39754,7 +39745,7 @@
         <v>45082</v>
       </c>
       <c r="M480" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N480" s="2">
         <v>1.7999999999999999E-2</v>
@@ -39917,7 +39908,7 @@
         <v>45089</v>
       </c>
       <c r="M482" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N482" s="2">
         <v>8.0000000000000002E-3</v>
@@ -40148,7 +40139,7 @@
         <v>32</v>
       </c>
       <c r="F485" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G485" t="s">
         <v>71</v>
@@ -40222,7 +40213,7 @@
         <v>45111</v>
       </c>
       <c r="M486" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N486" s="2">
         <v>0.02</v>
@@ -40933,7 +40924,7 @@
         <v>0.2</v>
       </c>
       <c r="T495" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD495" s="4">
         <v>0</v>
@@ -41010,7 +41001,7 @@
         <v>0</v>
       </c>
       <c r="T496" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AH496" s="4">
         <v>450929.66</v>
@@ -41128,7 +41119,7 @@
         <v>32</v>
       </c>
       <c r="F498" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G498" t="s">
         <v>34</v>
@@ -41214,7 +41205,7 @@
         <v>43</v>
       </c>
       <c r="F499" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G499" t="s">
         <v>47</v>
@@ -41300,7 +41291,7 @@
         <v>43</v>
       </c>
       <c r="F500" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G500" t="s">
         <v>34</v>
@@ -41700,7 +41691,7 @@
         <v>44951</v>
       </c>
       <c r="M505" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N505" s="2">
         <v>2.5000000000000001E-2</v>
@@ -41789,7 +41780,7 @@
         <v>45042</v>
       </c>
       <c r="M506" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N506" s="2">
         <v>0.02</v>
@@ -42008,16 +41999,16 @@
         <v>32</v>
       </c>
       <c r="F509" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G509" t="s">
         <v>71</v>
       </c>
       <c r="H509" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I509" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="J509" t="s">
         <v>37</v>
@@ -42026,7 +42017,7 @@
         <v>45218</v>
       </c>
       <c r="M509" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N509" s="2">
         <v>0</v>
@@ -42038,7 +42029,7 @@
         <v>0</v>
       </c>
       <c r="T509" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AJ509" s="4">
         <v>0</v>
@@ -42150,7 +42141,7 @@
         <v>32</v>
       </c>
       <c r="F511" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G511" t="s">
         <v>71</v>
@@ -42168,7 +42159,7 @@
         <v>45159</v>
       </c>
       <c r="M511" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N511" s="2">
         <v>0</v>
@@ -42183,7 +42174,7 @@
         <v>758</v>
       </c>
       <c r="T511" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG511" s="4">
         <v>0</v>
@@ -42565,7 +42556,7 @@
         <v>32</v>
       </c>
       <c r="F516" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G516" t="s">
         <v>71</v>
@@ -42719,7 +42710,7 @@
         <v>32</v>
       </c>
       <c r="F518" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G518" t="s">
         <v>71</v>
@@ -42790,7 +42781,7 @@
         <v>32</v>
       </c>
       <c r="F519" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G519" t="s">
         <v>71</v>
@@ -42858,7 +42849,7 @@
         <v>32</v>
       </c>
       <c r="F520" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G520" t="s">
         <v>50</v>
@@ -42926,7 +42917,7 @@
         <v>69</v>
       </c>
       <c r="F521" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G521" t="s">
         <v>71</v>
@@ -43012,7 +43003,7 @@
         <v>44949</v>
       </c>
       <c r="M522" t="s">
-        <v>51</v>
+        <v>281</v>
       </c>
       <c r="N522" s="2">
         <v>1.4999999999999999E-2</v>
@@ -43809,7 +43800,7 @@
         <v>54</v>
       </c>
       <c r="I532" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="J532" t="s">
         <v>37</v>
@@ -43930,7 +43921,7 @@
         <v>32</v>
       </c>
       <c r="F534" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G534" t="s">
         <v>71</v>
@@ -44010,7 +44001,7 @@
         <v>32</v>
       </c>
       <c r="F535" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G535" t="s">
         <v>71</v>
@@ -44028,7 +44019,7 @@
         <v>45163</v>
       </c>
       <c r="M535" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N535" s="2">
         <v>0</v>
@@ -44087,7 +44078,7 @@
         <v>32</v>
       </c>
       <c r="F536" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G536" t="s">
         <v>71</v>
@@ -44105,7 +44096,7 @@
         <v>45163</v>
       </c>
       <c r="M536" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N536" s="2">
         <v>0</v>
@@ -44164,7 +44155,7 @@
         <v>32</v>
       </c>
       <c r="F537" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G537" t="s">
         <v>71</v>
@@ -44404,7 +44395,7 @@
         <v>44998</v>
       </c>
       <c r="M540" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N540" s="2">
         <v>1.9E-2</v>
@@ -44649,9 +44640,6 @@
       <c r="P543" s="3">
         <v>0</v>
       </c>
-      <c r="S543" t="s">
-        <v>797</v>
-      </c>
       <c r="T543" t="s">
         <v>40</v>
       </c>
@@ -44691,7 +44679,7 @@
         <v>29</v>
       </c>
       <c r="B544" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C544">
         <v>4805333</v>
@@ -44733,7 +44721,7 @@
         <v>0</v>
       </c>
       <c r="Q544" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="T544" t="s">
         <v>40</v>
@@ -44765,7 +44753,7 @@
         <v>29</v>
       </c>
       <c r="B545" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C545">
         <v>4392004</v>
@@ -44777,7 +44765,7 @@
         <v>32</v>
       </c>
       <c r="F545" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G545" t="s">
         <v>71</v>
@@ -44848,7 +44836,7 @@
         <v>29</v>
       </c>
       <c r="B546" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C546">
         <v>4924222</v>
@@ -44913,7 +44901,7 @@
         <v>29</v>
       </c>
       <c r="B547" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C547">
         <v>4413523</v>
@@ -44925,7 +44913,7 @@
         <v>32</v>
       </c>
       <c r="F547" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G547" t="s">
         <v>34</v>
@@ -44993,7 +44981,7 @@
         <v>29</v>
       </c>
       <c r="B548" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C548">
         <v>5002457</v>
@@ -45035,7 +45023,7 @@
         <v>0.1</v>
       </c>
       <c r="S548" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="T548" t="s">
         <v>40</v>
@@ -45058,7 +45046,7 @@
         <v>29</v>
       </c>
       <c r="B549" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C549">
         <v>4530494</v>
@@ -45135,7 +45123,7 @@
         <v>29</v>
       </c>
       <c r="B550" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C550">
         <v>4472076</v>
@@ -45215,7 +45203,7 @@
         <v>29</v>
       </c>
       <c r="B551" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C551">
         <v>5142661</v>
@@ -45271,7 +45259,7 @@
         <v>29</v>
       </c>
       <c r="B552" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C552">
         <v>4560107</v>
@@ -45348,7 +45336,7 @@
         <v>29</v>
       </c>
       <c r="B553" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C553">
         <v>4472760</v>
@@ -45360,7 +45348,7 @@
         <v>32</v>
       </c>
       <c r="F553" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G553" t="s">
         <v>71</v>
@@ -45428,7 +45416,7 @@
         <v>29</v>
       </c>
       <c r="B554" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C554">
         <v>5147664</v>
@@ -45478,7 +45466,7 @@
         <v>29</v>
       </c>
       <c r="B555" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C555">
         <v>4752494</v>
@@ -45549,7 +45537,7 @@
         <v>29</v>
       </c>
       <c r="B556" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C556">
         <v>4975924</v>
@@ -45591,7 +45579,7 @@
         <v>0.1</v>
       </c>
       <c r="Q556" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="T556" t="s">
         <v>40</v>
@@ -45617,7 +45605,7 @@
         <v>29</v>
       </c>
       <c r="B557" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C557">
         <v>4752461</v>
@@ -45688,7 +45676,7 @@
         <v>29</v>
       </c>
       <c r="B558" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C558">
         <v>4207955</v>
@@ -45700,7 +45688,7 @@
         <v>43</v>
       </c>
       <c r="F558" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G558" t="s">
         <v>47</v>
@@ -45774,7 +45762,7 @@
         <v>29</v>
       </c>
       <c r="B559" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C559">
         <v>4450760</v>
@@ -45804,7 +45792,7 @@
         <v>45028</v>
       </c>
       <c r="M559" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N559" s="2">
         <v>0.02</v>
@@ -45854,7 +45842,7 @@
         <v>29</v>
       </c>
       <c r="B560" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C560">
         <v>4322549</v>
@@ -45940,7 +45928,7 @@
         <v>29</v>
       </c>
       <c r="B561" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C561">
         <v>2823185</v>
@@ -46023,7 +46011,7 @@
         <v>29</v>
       </c>
       <c r="B562" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C562">
         <v>4315417</v>
@@ -46035,7 +46023,7 @@
         <v>32</v>
       </c>
       <c r="F562" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G562" t="s">
         <v>47</v>
@@ -46053,7 +46041,7 @@
         <v>45013</v>
       </c>
       <c r="M562" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N562" s="2">
         <v>0.02</v>
@@ -46103,7 +46091,7 @@
         <v>29</v>
       </c>
       <c r="B563" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C563">
         <v>4455489</v>
@@ -46145,7 +46133,7 @@
         <v>0.1</v>
       </c>
       <c r="R563" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="T563" t="s">
         <v>40</v>
@@ -46186,7 +46174,7 @@
         <v>29</v>
       </c>
       <c r="B564" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C564">
         <v>1922009</v>
@@ -46228,7 +46216,7 @@
         <v>0</v>
       </c>
       <c r="Q564" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="T564" t="s">
         <v>40</v>
@@ -46248,7 +46236,7 @@
         <v>29</v>
       </c>
       <c r="B565" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C565">
         <v>4945203</v>
@@ -46290,10 +46278,10 @@
         <v>0.2</v>
       </c>
       <c r="Q565" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S565" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="T565" t="s">
         <v>40</v>
@@ -46319,7 +46307,7 @@
         <v>29</v>
       </c>
       <c r="B566" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C566">
         <v>4945161</v>
@@ -46361,7 +46349,7 @@
         <v>0</v>
       </c>
       <c r="S566" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="T566" t="s">
         <v>40</v>
@@ -46387,7 +46375,7 @@
         <v>29</v>
       </c>
       <c r="B567" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C567">
         <v>4999410</v>
@@ -46411,7 +46399,7 @@
         <v>36</v>
       </c>
       <c r="J567" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="K567" s="1">
         <v>45187</v>
@@ -46428,9 +46416,6 @@
       <c r="P567" s="3">
         <v>0</v>
       </c>
-      <c r="Q567" t="s">
-        <v>824</v>
-      </c>
       <c r="T567" t="s">
         <v>40</v>
       </c>
@@ -46452,7 +46437,7 @@
         <v>29</v>
       </c>
       <c r="B568" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C568">
         <v>5007114</v>
@@ -46494,7 +46479,7 @@
         <v>0</v>
       </c>
       <c r="S568" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="T568" t="s">
         <v>40</v>
@@ -46517,7 +46502,7 @@
         <v>29</v>
       </c>
       <c r="B569" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C569">
         <v>5145205</v>
@@ -46535,10 +46520,10 @@
         <v>34</v>
       </c>
       <c r="H569" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I569" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="J569" t="s">
         <v>37</v>
@@ -46570,7 +46555,7 @@
         <v>29</v>
       </c>
       <c r="B570" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C570">
         <v>4243043</v>
@@ -46650,7 +46635,7 @@
         <v>29</v>
       </c>
       <c r="B571" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C571">
         <v>4216401</v>
@@ -46662,7 +46647,7 @@
         <v>32</v>
       </c>
       <c r="F571" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G571" t="s">
         <v>47</v>
@@ -46733,7 +46718,7 @@
         <v>29</v>
       </c>
       <c r="B572" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C572">
         <v>4331477</v>
@@ -46819,7 +46804,7 @@
         <v>29</v>
       </c>
       <c r="B573" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C573">
         <v>4350101</v>
@@ -46896,7 +46881,7 @@
         <v>29</v>
       </c>
       <c r="B574" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C574">
         <v>4517080</v>
@@ -46908,7 +46893,7 @@
         <v>69</v>
       </c>
       <c r="F574" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G574" t="s">
         <v>71</v>
@@ -46973,7 +46958,7 @@
         <v>29</v>
       </c>
       <c r="B575" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C575">
         <v>4202332</v>
@@ -47059,7 +47044,7 @@
         <v>29</v>
       </c>
       <c r="B576" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C576">
         <v>4536602</v>
@@ -47136,7 +47121,7 @@
         <v>29</v>
       </c>
       <c r="B577" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C577">
         <v>4260040</v>
@@ -47225,7 +47210,7 @@
         <v>29</v>
       </c>
       <c r="B578" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C578">
         <v>1879977</v>
@@ -47237,7 +47222,7 @@
         <v>43</v>
       </c>
       <c r="F578" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G578" t="s">
         <v>34</v>
@@ -47314,7 +47299,7 @@
         <v>29</v>
       </c>
       <c r="B579" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C579">
         <v>4550289</v>
@@ -47326,7 +47311,7 @@
         <v>43</v>
       </c>
       <c r="F579" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G579" t="s">
         <v>34</v>
@@ -47335,7 +47320,7 @@
         <v>54</v>
       </c>
       <c r="I579" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="J579" t="s">
         <v>37</v>
@@ -47391,7 +47376,7 @@
         <v>29</v>
       </c>
       <c r="B580" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C580">
         <v>4425261</v>
@@ -47539,7 +47524,7 @@
         <v>29</v>
       </c>
       <c r="B582" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C582">
         <v>4382374</v>
@@ -47569,7 +47554,7 @@
         <v>45042</v>
       </c>
       <c r="M582" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N582" s="2">
         <v>0.02</v>
@@ -47619,7 +47604,7 @@
         <v>29</v>
       </c>
       <c r="B583" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C583">
         <v>3189818</v>
@@ -47661,7 +47646,7 @@
         <v>0</v>
       </c>
       <c r="S583" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="T583" t="s">
         <v>40</v>
@@ -47711,7 +47696,7 @@
         <v>29</v>
       </c>
       <c r="B584" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C584">
         <v>1368670</v>
@@ -47753,7 +47738,7 @@
         <v>0</v>
       </c>
       <c r="S584" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="T584" t="s">
         <v>40</v>
@@ -47803,7 +47788,7 @@
         <v>29</v>
       </c>
       <c r="B585" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C585">
         <v>5064129</v>
@@ -47862,7 +47847,7 @@
         <v>29</v>
       </c>
       <c r="B586" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C586">
         <v>4381095</v>
@@ -47874,7 +47859,7 @@
         <v>32</v>
       </c>
       <c r="F586" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G586" t="s">
         <v>50</v>
@@ -47948,7 +47933,7 @@
         <v>29</v>
       </c>
       <c r="B587" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C587">
         <v>4224011</v>
@@ -47960,7 +47945,7 @@
         <v>43</v>
       </c>
       <c r="F587" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G587" t="s">
         <v>34</v>
@@ -48034,7 +48019,7 @@
         <v>29</v>
       </c>
       <c r="B588" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C588">
         <v>4346716</v>
@@ -48046,7 +48031,7 @@
         <v>32</v>
       </c>
       <c r="F588" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G588" t="s">
         <v>47</v>
@@ -48120,7 +48105,7 @@
         <v>29</v>
       </c>
       <c r="B589" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C589">
         <v>4498637</v>
@@ -48197,7 +48182,7 @@
         <v>29</v>
       </c>
       <c r="B590" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C590">
         <v>4911541</v>
@@ -48280,7 +48265,7 @@
         <v>29</v>
       </c>
       <c r="B591" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C591">
         <v>4848927</v>
@@ -48310,7 +48295,7 @@
         <v>45168</v>
       </c>
       <c r="M591" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N591" s="2">
         <v>5.0000000000000001E-3</v>
@@ -48345,7 +48330,7 @@
         <v>29</v>
       </c>
       <c r="B592" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C592">
         <v>4238126</v>
@@ -48375,7 +48360,7 @@
         <v>45163</v>
       </c>
       <c r="M592" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N592" s="2">
         <v>5.0000000000000001E-3</v>
@@ -48387,10 +48372,10 @@
         <v>0</v>
       </c>
       <c r="S592" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="T592" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA592" s="4">
         <v>0</v>
@@ -48434,7 +48419,7 @@
         <v>29</v>
       </c>
       <c r="B593" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C593">
         <v>5105172</v>
@@ -48490,7 +48475,7 @@
         <v>29</v>
       </c>
       <c r="B594" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C594">
         <v>4328934</v>
@@ -48532,7 +48517,7 @@
         <v>0</v>
       </c>
       <c r="Q594" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="T594" t="s">
         <v>40</v>
@@ -48579,7 +48564,7 @@
         <v>29</v>
       </c>
       <c r="B595" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C595">
         <v>4487140</v>
@@ -48659,7 +48644,7 @@
         <v>29</v>
       </c>
       <c r="B596" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C596">
         <v>4918709</v>
@@ -48724,7 +48709,7 @@
         <v>29</v>
       </c>
       <c r="B597" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C597">
         <v>5000090</v>
@@ -48786,7 +48771,7 @@
         <v>29</v>
       </c>
       <c r="B598" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C598">
         <v>4813166</v>
@@ -48798,7 +48783,7 @@
         <v>43</v>
       </c>
       <c r="F598" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G598" t="s">
         <v>47</v>
@@ -48828,7 +48813,7 @@
         <v>0</v>
       </c>
       <c r="Q598" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="T598" t="s">
         <v>40</v>
@@ -48860,7 +48845,7 @@
         <v>29</v>
       </c>
       <c r="B599" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C599">
         <v>5173958</v>
@@ -48872,7 +48857,7 @@
         <v>43</v>
       </c>
       <c r="F599" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G599" t="s">
         <v>34</v>
@@ -48887,7 +48872,7 @@
         <v>45282</v>
       </c>
       <c r="M599" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N599" s="2">
         <v>7.0000000000000001E-3</v>
@@ -48910,7 +48895,7 @@
         <v>29</v>
       </c>
       <c r="B600" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C600">
         <v>5105970</v>
@@ -48931,7 +48916,7 @@
         <v>35</v>
       </c>
       <c r="I600" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J600" t="s">
         <v>37</v>
@@ -48952,7 +48937,7 @@
         <v>0.1</v>
       </c>
       <c r="S600" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="T600" t="s">
         <v>40</v>
@@ -48969,7 +48954,7 @@
         <v>29</v>
       </c>
       <c r="B601" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C601">
         <v>4806286</v>
@@ -49040,7 +49025,7 @@
         <v>29</v>
       </c>
       <c r="B602" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C602">
         <v>5009947</v>
@@ -49102,7 +49087,7 @@
         <v>29</v>
       </c>
       <c r="B603" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C603">
         <v>3115072</v>
@@ -49179,7 +49164,7 @@
         <v>29</v>
       </c>
       <c r="B604" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C604">
         <v>4400000</v>
@@ -49191,7 +49176,7 @@
         <v>43</v>
       </c>
       <c r="F604" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H604" t="s">
         <v>83</v>
@@ -49259,7 +49244,7 @@
         <v>29</v>
       </c>
       <c r="B605" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C605">
         <v>4967702</v>
@@ -49324,7 +49309,7 @@
         <v>29</v>
       </c>
       <c r="B606" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C606">
         <v>4360430</v>
@@ -49410,7 +49395,7 @@
         <v>29</v>
       </c>
       <c r="B607" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C607">
         <v>2694089</v>
@@ -49496,7 +49481,7 @@
         <v>29</v>
       </c>
       <c r="B608" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C608">
         <v>1294033</v>
@@ -49564,7 +49549,7 @@
         <v>29</v>
       </c>
       <c r="B609" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C609">
         <v>1804114</v>
@@ -49573,10 +49558,10 @@
         <v>42</v>
       </c>
       <c r="E609" t="s">
+        <v>221</v>
+      </c>
+      <c r="F609" t="s">
         <v>222</v>
-      </c>
-      <c r="F609" t="s">
-        <v>223</v>
       </c>
       <c r="G609" t="s">
         <v>34</v>
@@ -49647,7 +49632,7 @@
         <v>29</v>
       </c>
       <c r="B610" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C610">
         <v>5103059</v>
@@ -49703,7 +49688,7 @@
         <v>29</v>
       </c>
       <c r="B611" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C611">
         <v>4462930</v>
@@ -49745,7 +49730,7 @@
         <v>0.2</v>
       </c>
       <c r="Q611" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="T611" t="s">
         <v>40</v>
@@ -49786,7 +49771,7 @@
         <v>29</v>
       </c>
       <c r="B612" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C612">
         <v>4466221</v>
@@ -49828,7 +49813,7 @@
         <v>0.1</v>
       </c>
       <c r="Q612" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="T612" t="s">
         <v>40</v>
@@ -49869,7 +49854,7 @@
         <v>29</v>
       </c>
       <c r="B613" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C613">
         <v>4419765</v>
@@ -49911,7 +49896,7 @@
         <v>0</v>
       </c>
       <c r="Q613" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="T613" t="s">
         <v>40</v>
@@ -49952,7 +49937,7 @@
         <v>29</v>
       </c>
       <c r="B614" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C614">
         <v>4216504</v>
@@ -49994,7 +49979,7 @@
         <v>0</v>
       </c>
       <c r="S614" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="T614" t="s">
         <v>40</v>
@@ -50041,7 +50026,7 @@
         <v>29</v>
       </c>
       <c r="B615" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C615">
         <v>4422594</v>
@@ -50124,7 +50109,7 @@
         <v>29</v>
       </c>
       <c r="B616" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C616">
         <v>4981655</v>
@@ -50186,7 +50171,7 @@
         <v>29</v>
       </c>
       <c r="B617" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C617">
         <v>2886520</v>
@@ -50263,7 +50248,7 @@
         <v>29</v>
       </c>
       <c r="B618" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C618">
         <v>4388077</v>
@@ -50346,7 +50331,7 @@
         <v>29</v>
       </c>
       <c r="B619" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C619">
         <v>4223226</v>
@@ -50376,7 +50361,7 @@
         <v>44894</v>
       </c>
       <c r="M619" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N619" s="2">
         <v>7.0000000000000001E-3</v>
@@ -50388,7 +50373,7 @@
         <v>0</v>
       </c>
       <c r="T619" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z619" s="4">
         <v>2655155.41</v>
@@ -50435,7 +50420,7 @@
         <v>29</v>
       </c>
       <c r="B620" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C620">
         <v>4552944</v>

--- a/controle.xlsx
+++ b/controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F2FFFBC-92FB-4E16-94DA-53E0198282C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D584298-3BAB-4857-8D25-F136FFEB48B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{565D2FEB-9383-4C8C-A24D-027887024137}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2910A17-5F11-4D59-B613-1F94C1EE9466}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7779" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7781" uniqueCount="903">
   <si>
     <t>Backoffice</t>
   </si>
@@ -1250,7 +1250,13 @@
     <t>Gilson Apolinario Alencar</t>
   </si>
   <si>
-    <t xml:space="preserve">Alocação RV: 100k somente em FIIs / Alt de carteira iniciada dia 09/01/2024 </t>
+    <t>CON/ GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alocação RV: 100k somente em FIIs </t>
+  </si>
+  <si>
+    <t>Alt de carteira iniciada dia 09/01/2024 - 24/01/2024</t>
   </si>
   <si>
     <t>Gilton de Carvalho</t>
@@ -1643,6 +1649,9 @@
     <t>Lais Loureiro Braga Donzelli</t>
   </si>
   <si>
+    <t>Alt de carteira iniciada dia 24/01/2024</t>
+  </si>
+  <si>
     <t>Lara Falavigna Guilherme</t>
   </si>
   <si>
@@ -1868,10 +1877,13 @@
     <t xml:space="preserve">Marcelo Frossard Pincinato  </t>
   </si>
   <si>
+    <t>STVM de saida será iniciada dia 24/01/2024</t>
+  </si>
+  <si>
     <t>Mudar para BMTX Fundos</t>
   </si>
   <si>
-    <t>Deixar R$15.000 com LD</t>
+    <t>Deixar R$15.000 com LD/ STVM DE ENTRADA 24/01/2024</t>
   </si>
   <si>
     <t>Marcelo Jaime Ferreira</t>
@@ -2100,9 +2112,6 @@
     <t>Nassim Taleb</t>
   </si>
   <si>
-    <t>CON/ GR</t>
-  </si>
-  <si>
     <t>Alocação RV: utilizar somente FIIs</t>
   </si>
   <si>
@@ -2160,7 +2169,7 @@
     <t>Odilon Alexandre Silveira Marques Pereira</t>
   </si>
   <si>
-    <t>60K RF Ativo - prazo venc. max - 3 meses</t>
+    <t>Milanez dia 24/01/2024 via pipe: 30% em liquidez, 50% em renda fixa com vencimento de ate 3 meses e 20 em renda variavel =&gt;60K RF Ativo - prazo venc. max - 3 meses</t>
   </si>
   <si>
     <t xml:space="preserve">Oliveira Administração Eireli </t>
@@ -2554,9 +2563,6 @@
   </si>
   <si>
     <t>Sonia Regina Martiolli Sudo</t>
-  </si>
-  <si>
-    <t>Falar com Canabrava</t>
   </si>
   <si>
     <t>Início da STVM dia 30/08/2023 da XP e finalizada dia 04/09/2023</t>
@@ -3100,11 +3106,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8495869-B599-400D-9FCE-CA041882DB55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494319B1-89B8-4D00-B0E9-554BA9F1A9C5}">
   <dimension ref="A1:AL629"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection sqref="A1:AL629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21064,19 +21070,22 @@
         <v>45013</v>
       </c>
       <c r="M240" t="s">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="N240" s="2">
         <v>1.2E-2</v>
       </c>
       <c r="O240" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P240" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q240" t="s">
-        <v>404</v>
+        <v>405</v>
+      </c>
+      <c r="S240" t="s">
+        <v>406</v>
       </c>
       <c r="T240" t="s">
         <v>40</v>
@@ -21117,7 +21126,7 @@
         <v>29</v>
       </c>
       <c r="B241" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C241">
         <v>4827315</v>
@@ -21167,7 +21176,7 @@
         <v>29</v>
       </c>
       <c r="B242" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C242">
         <v>4998717</v>
@@ -21232,7 +21241,7 @@
         <v>29</v>
       </c>
       <c r="B243" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C243">
         <v>4350197</v>
@@ -21318,7 +21327,7 @@
         <v>29</v>
       </c>
       <c r="B244" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C244">
         <v>5056185</v>
@@ -21360,7 +21369,7 @@
         <v>0</v>
       </c>
       <c r="Q244" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="T244" t="s">
         <v>40</v>
@@ -21380,7 +21389,7 @@
         <v>29</v>
       </c>
       <c r="B245" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C245">
         <v>5221565</v>
@@ -21427,7 +21436,7 @@
         <v>29</v>
       </c>
       <c r="B246" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C246">
         <v>4224815</v>
@@ -21513,7 +21522,7 @@
         <v>29</v>
       </c>
       <c r="B247" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C247">
         <v>1731007</v>
@@ -21590,7 +21599,7 @@
         <v>29</v>
       </c>
       <c r="B248" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C248">
         <v>4948033</v>
@@ -21652,7 +21661,7 @@
         <v>29</v>
       </c>
       <c r="B249" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C249">
         <v>5142611</v>
@@ -21708,7 +21717,7 @@
         <v>29</v>
       </c>
       <c r="B250" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C250">
         <v>5087681</v>
@@ -21750,7 +21759,7 @@
         <v>0</v>
       </c>
       <c r="S250" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="T250" t="s">
         <v>40</v>
@@ -21767,7 +21776,7 @@
         <v>29</v>
       </c>
       <c r="B251" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C251">
         <v>4574428</v>
@@ -21809,7 +21818,7 @@
         <v>0.1</v>
       </c>
       <c r="R251" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="T251" t="s">
         <v>40</v>
@@ -21924,7 +21933,7 @@
         <v>29</v>
       </c>
       <c r="B253" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C253">
         <v>2350362</v>
@@ -22010,7 +22019,7 @@
         <v>29</v>
       </c>
       <c r="B254" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C254">
         <v>4452790</v>
@@ -22093,7 +22102,7 @@
         <v>29</v>
       </c>
       <c r="B255" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C255">
         <v>4444605</v>
@@ -22173,7 +22182,7 @@
         <v>29</v>
       </c>
       <c r="B256" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C256">
         <v>4565146</v>
@@ -22253,7 +22262,7 @@
         <v>29</v>
       </c>
       <c r="B257" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C257">
         <v>4565108</v>
@@ -22330,7 +22339,7 @@
         <v>29</v>
       </c>
       <c r="B258" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C258">
         <v>4830355</v>
@@ -22401,7 +22410,7 @@
         <v>29</v>
       </c>
       <c r="B259" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C259">
         <v>5055865</v>
@@ -22460,7 +22469,7 @@
         <v>29</v>
       </c>
       <c r="B260" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C260">
         <v>4115403</v>
@@ -22502,7 +22511,7 @@
         <v>0</v>
       </c>
       <c r="Q260" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="T260" t="s">
         <v>40</v>
@@ -22552,7 +22561,7 @@
         <v>29</v>
       </c>
       <c r="B261" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C261">
         <v>3435941</v>
@@ -22632,7 +22641,7 @@
         <v>29</v>
       </c>
       <c r="B262" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C262">
         <v>4907688</v>
@@ -22700,7 +22709,7 @@
         <v>29</v>
       </c>
       <c r="B263" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C263">
         <v>4329441</v>
@@ -22742,10 +22751,10 @@
         <v>0</v>
       </c>
       <c r="Q263" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="R263" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="T263" t="s">
         <v>40</v>
@@ -22792,7 +22801,7 @@
         <v>29</v>
       </c>
       <c r="B264" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C264">
         <v>4363250</v>
@@ -22878,7 +22887,7 @@
         <v>29</v>
       </c>
       <c r="B265" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C265">
         <v>4468717</v>
@@ -22958,7 +22967,7 @@
         <v>29</v>
       </c>
       <c r="B266" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C266">
         <v>4459875</v>
@@ -23038,7 +23047,7 @@
         <v>29</v>
       </c>
       <c r="B267" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C267">
         <v>4119016</v>
@@ -23127,7 +23136,7 @@
         <v>29</v>
       </c>
       <c r="B268" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C268">
         <v>4479464</v>
@@ -23210,7 +23219,7 @@
         <v>29</v>
       </c>
       <c r="B269" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C269">
         <v>4497875</v>
@@ -23290,7 +23299,7 @@
         <v>29</v>
       </c>
       <c r="B270" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C270">
         <v>4479463</v>
@@ -23370,7 +23379,7 @@
         <v>29</v>
       </c>
       <c r="B271" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C271">
         <v>4359408</v>
@@ -23447,7 +23456,7 @@
         <v>29</v>
       </c>
       <c r="B272" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C272">
         <v>4870976</v>
@@ -23489,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="Q272" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="T272" t="s">
         <v>154</v>
@@ -23518,7 +23527,7 @@
         <v>29</v>
       </c>
       <c r="B273" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C273">
         <v>4361159</v>
@@ -23560,7 +23569,7 @@
         <v>0</v>
       </c>
       <c r="Q273" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="T273" t="s">
         <v>154</v>
@@ -23607,7 +23616,7 @@
         <v>29</v>
       </c>
       <c r="B274" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C274">
         <v>4381180</v>
@@ -23693,7 +23702,7 @@
         <v>29</v>
       </c>
       <c r="B275" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C275">
         <v>4996634</v>
@@ -23752,7 +23761,7 @@
         <v>29</v>
       </c>
       <c r="B276" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C276">
         <v>4211368</v>
@@ -23782,7 +23791,7 @@
         <v>44607</v>
       </c>
       <c r="M276" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N276" s="2">
         <v>1.2E-2</v>
@@ -23794,10 +23803,10 @@
         <v>0.1</v>
       </c>
       <c r="Q276" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="S276" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="T276" t="s">
         <v>40</v>
@@ -23844,7 +23853,7 @@
         <v>29</v>
       </c>
       <c r="B277" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C277">
         <v>4459461</v>
@@ -23924,7 +23933,7 @@
         <v>29</v>
       </c>
       <c r="B278" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C278">
         <v>4332207</v>
@@ -24010,7 +24019,7 @@
         <v>29</v>
       </c>
       <c r="B279" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C279">
         <v>4332783</v>
@@ -24096,7 +24105,7 @@
         <v>29</v>
       </c>
       <c r="B280" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C280">
         <v>4467016</v>
@@ -24176,7 +24185,7 @@
         <v>29</v>
       </c>
       <c r="B281" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C281">
         <v>4240014</v>
@@ -24265,7 +24274,7 @@
         <v>29</v>
       </c>
       <c r="B282" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C282">
         <v>4767746</v>
@@ -24336,7 +24345,7 @@
         <v>29</v>
       </c>
       <c r="B283" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C283">
         <v>4453302</v>
@@ -24378,7 +24387,7 @@
         <v>0.1</v>
       </c>
       <c r="Q283" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="T283" t="s">
         <v>40</v>
@@ -24419,7 +24428,7 @@
         <v>29</v>
       </c>
       <c r="B284" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C284">
         <v>4973881</v>
@@ -24472,7 +24481,7 @@
         <v>29</v>
       </c>
       <c r="B285" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C285">
         <v>3836362</v>
@@ -24514,7 +24523,7 @@
         <v>0</v>
       </c>
       <c r="S285" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="T285" t="s">
         <v>40</v>
@@ -24552,7 +24561,7 @@
         <v>29</v>
       </c>
       <c r="B286" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C286">
         <v>4452476</v>
@@ -24632,7 +24641,7 @@
         <v>29</v>
       </c>
       <c r="B287" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C287">
         <v>4245232</v>
@@ -24674,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="S287" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="T287" t="s">
         <v>154</v>
@@ -24721,7 +24730,7 @@
         <v>29</v>
       </c>
       <c r="B288" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C288">
         <v>4587525</v>
@@ -24763,7 +24772,7 @@
         <v>0.1</v>
       </c>
       <c r="R288" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="T288" t="s">
         <v>40</v>
@@ -24792,7 +24801,7 @@
         <v>29</v>
       </c>
       <c r="B289" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C289">
         <v>4216434</v>
@@ -24878,7 +24887,7 @@
         <v>29</v>
       </c>
       <c r="B290" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C290">
         <v>5224125</v>
@@ -24925,7 +24934,7 @@
         <v>29</v>
       </c>
       <c r="B291" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C291">
         <v>4339183</v>
@@ -24967,7 +24976,7 @@
         <v>0.2</v>
       </c>
       <c r="S291" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="T291" t="s">
         <v>40</v>
@@ -25014,7 +25023,7 @@
         <v>29</v>
       </c>
       <c r="B292" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C292">
         <v>4500087</v>
@@ -25094,7 +25103,7 @@
         <v>29</v>
       </c>
       <c r="B293" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C293">
         <v>4212132</v>
@@ -25136,7 +25145,7 @@
         <v>0</v>
       </c>
       <c r="R293" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="T293" t="s">
         <v>40</v>
@@ -25183,7 +25192,7 @@
         <v>29</v>
       </c>
       <c r="B294" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C294">
         <v>4381415</v>
@@ -25225,7 +25234,7 @@
         <v>0.2</v>
       </c>
       <c r="Q294" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="T294" t="s">
         <v>40</v>
@@ -25272,7 +25281,7 @@
         <v>29</v>
       </c>
       <c r="B295" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C295">
         <v>4381328</v>
@@ -25358,7 +25367,7 @@
         <v>29</v>
       </c>
       <c r="B296" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C296">
         <v>4357159</v>
@@ -25400,7 +25409,7 @@
         <v>0</v>
       </c>
       <c r="S296" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T296" t="s">
         <v>40</v>
@@ -25447,7 +25456,7 @@
         <v>29</v>
       </c>
       <c r="B297" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C297">
         <v>4216657</v>
@@ -25533,7 +25542,7 @@
         <v>29</v>
       </c>
       <c r="B298" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C298">
         <v>4448501</v>
@@ -25575,7 +25584,7 @@
         <v>0</v>
       </c>
       <c r="S298" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="T298" t="s">
         <v>40</v>
@@ -25616,7 +25625,7 @@
         <v>29</v>
       </c>
       <c r="B299" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C299">
         <v>4321016</v>
@@ -25702,7 +25711,7 @@
         <v>29</v>
       </c>
       <c r="B300" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C300">
         <v>5079458</v>
@@ -25761,7 +25770,7 @@
         <v>29</v>
       </c>
       <c r="B301" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C301">
         <v>4532148</v>
@@ -25782,7 +25791,7 @@
         <v>59</v>
       </c>
       <c r="I301" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J301" t="s">
         <v>37</v>
@@ -25838,7 +25847,7 @@
         <v>29</v>
       </c>
       <c r="B302" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C302">
         <v>5121919</v>
@@ -25894,7 +25903,7 @@
         <v>29</v>
       </c>
       <c r="B303" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C303">
         <v>4432935</v>
@@ -25974,7 +25983,7 @@
         <v>29</v>
       </c>
       <c r="B304" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C304">
         <v>4212933</v>
@@ -26016,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="Q304" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="T304" t="s">
         <v>40</v>
@@ -26066,7 +26075,7 @@
         <v>29</v>
       </c>
       <c r="B305" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C305">
         <v>4480134</v>
@@ -26143,7 +26152,7 @@
         <v>29</v>
       </c>
       <c r="B306" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C306">
         <v>4854496</v>
@@ -26208,7 +26217,7 @@
         <v>29</v>
       </c>
       <c r="B307" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C307">
         <v>5146441</v>
@@ -26229,7 +26238,7 @@
         <v>49</v>
       </c>
       <c r="I307" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J307" t="s">
         <v>37</v>
@@ -26261,7 +26270,7 @@
         <v>29</v>
       </c>
       <c r="B308" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C308">
         <v>4639776</v>
@@ -26338,7 +26347,7 @@
         <v>29</v>
       </c>
       <c r="B309" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C309">
         <v>2687737</v>
@@ -26421,7 +26430,7 @@
         <v>29</v>
       </c>
       <c r="B310" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C310">
         <v>4218542</v>
@@ -26463,7 +26472,7 @@
         <v>0</v>
       </c>
       <c r="S310" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="T310" t="s">
         <v>40</v>
@@ -26510,7 +26519,7 @@
         <v>29</v>
       </c>
       <c r="B311" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C311">
         <v>4453157</v>
@@ -26590,7 +26599,7 @@
         <v>29</v>
       </c>
       <c r="B312" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C312">
         <v>5035754</v>
@@ -26632,7 +26641,7 @@
         <v>0</v>
       </c>
       <c r="Q312" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="T312" t="s">
         <v>40</v>
@@ -26655,7 +26664,7 @@
         <v>29</v>
       </c>
       <c r="B313" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C313">
         <v>4332237</v>
@@ -26741,7 +26750,7 @@
         <v>29</v>
       </c>
       <c r="B314" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C314">
         <v>4332103</v>
@@ -26783,7 +26792,7 @@
         <v>0</v>
       </c>
       <c r="R314" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="T314" t="s">
         <v>40</v>
@@ -26830,7 +26839,7 @@
         <v>29</v>
       </c>
       <c r="B315" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C315">
         <v>5079311</v>
@@ -26872,7 +26881,7 @@
         <v>0</v>
       </c>
       <c r="S315" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="T315" t="s">
         <v>40</v>
@@ -26892,7 +26901,7 @@
         <v>29</v>
       </c>
       <c r="B316" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C316">
         <v>4265173</v>
@@ -26934,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="S316" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="T316" t="s">
         <v>40</v>
@@ -26984,7 +26993,7 @@
         <v>29</v>
       </c>
       <c r="B317" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C317">
         <v>4453045</v>
@@ -27064,7 +27073,7 @@
         <v>29</v>
       </c>
       <c r="B318" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C318">
         <v>4813088</v>
@@ -27076,7 +27085,7 @@
         <v>32</v>
       </c>
       <c r="F318" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G318" t="s">
         <v>52</v>
@@ -27094,7 +27103,7 @@
         <v>45121</v>
       </c>
       <c r="M318" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="N318" s="2">
         <v>0.01</v>
@@ -27132,7 +27141,7 @@
         <v>29</v>
       </c>
       <c r="B319" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C319">
         <v>4803348</v>
@@ -27197,7 +27206,7 @@
         <v>29</v>
       </c>
       <c r="B320" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C320">
         <v>2401479</v>
@@ -27280,7 +27289,7 @@
         <v>29</v>
       </c>
       <c r="B321" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C321">
         <v>4405234</v>
@@ -27363,7 +27372,7 @@
         <v>29</v>
       </c>
       <c r="B322" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C322">
         <v>5210220</v>
@@ -27405,7 +27414,7 @@
         <v>0</v>
       </c>
       <c r="Q322" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="T322" t="s">
         <v>40</v>
@@ -27416,7 +27425,7 @@
         <v>29</v>
       </c>
       <c r="B323" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C323">
         <v>4208869</v>
@@ -27461,10 +27470,10 @@
         <v>0.1</v>
       </c>
       <c r="Q323" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="R323" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="T323" t="s">
         <v>40</v>
@@ -27511,7 +27520,7 @@
         <v>29</v>
       </c>
       <c r="B324" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C324">
         <v>4342617</v>
@@ -27523,7 +27532,7 @@
         <v>32</v>
       </c>
       <c r="F324" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G324" t="s">
         <v>52</v>
@@ -27591,7 +27600,7 @@
         <v>29</v>
       </c>
       <c r="B325" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C325">
         <v>5070742</v>
@@ -27612,7 +27621,7 @@
         <v>49</v>
       </c>
       <c r="I325" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J325" t="s">
         <v>60</v>
@@ -27633,7 +27642,7 @@
         <v>0</v>
       </c>
       <c r="Q325" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="T325" t="s">
         <v>40</v>
@@ -27653,7 +27662,7 @@
         <v>29</v>
       </c>
       <c r="B326" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C326">
         <v>5141215</v>
@@ -27706,7 +27715,7 @@
         <v>29</v>
       </c>
       <c r="B327" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C327">
         <v>4527497</v>
@@ -27780,7 +27789,7 @@
         <v>29</v>
       </c>
       <c r="B328" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C328">
         <v>4556974</v>
@@ -27860,7 +27869,7 @@
         <v>29</v>
       </c>
       <c r="B329" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C329">
         <v>4504449</v>
@@ -27902,7 +27911,7 @@
         <v>0</v>
       </c>
       <c r="S329" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="T329" t="s">
         <v>40</v>
@@ -27928,7 +27937,7 @@
         <v>29</v>
       </c>
       <c r="B330" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C330">
         <v>4212438</v>
@@ -27970,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="Q330" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="R330" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="T330" t="s">
         <v>40</v>
@@ -28020,7 +28029,7 @@
         <v>29</v>
       </c>
       <c r="B331" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C331">
         <v>4505257</v>
@@ -28062,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="S331" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="T331" t="s">
         <v>40</v>
@@ -28100,7 +28109,7 @@
         <v>29</v>
       </c>
       <c r="B332" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C332">
         <v>4511696</v>
@@ -28142,7 +28151,7 @@
         <v>0</v>
       </c>
       <c r="S332" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="T332" t="s">
         <v>40</v>
@@ -28180,7 +28189,7 @@
         <v>29</v>
       </c>
       <c r="B333" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C333">
         <v>1882235</v>
@@ -28192,7 +28201,7 @@
         <v>32</v>
       </c>
       <c r="F333" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G333" t="s">
         <v>52</v>
@@ -28222,7 +28231,7 @@
         <v>0</v>
       </c>
       <c r="S333" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="T333" t="s">
         <v>154</v>
@@ -28260,7 +28269,7 @@
         <v>29</v>
       </c>
       <c r="B334" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C334">
         <v>4641487</v>
@@ -28302,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="R334" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="T334" t="s">
         <v>40</v>
@@ -28331,7 +28340,7 @@
         <v>29</v>
       </c>
       <c r="B335" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C335">
         <v>4230529</v>
@@ -28355,7 +28364,7 @@
         <v>36</v>
       </c>
       <c r="J335" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="K335" s="1">
         <v>44896</v>
@@ -28372,6 +28381,9 @@
       <c r="P335" s="3">
         <v>0</v>
       </c>
+      <c r="Q335" t="s">
+        <v>537</v>
+      </c>
       <c r="T335" t="s">
         <v>40</v>
       </c>
@@ -28420,7 +28432,7 @@
         <v>29</v>
       </c>
       <c r="B336" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C336">
         <v>4452597</v>
@@ -28462,7 +28474,7 @@
         <v>0.1</v>
       </c>
       <c r="Q336" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="S336" t="s">
         <v>103</v>
@@ -28506,7 +28518,7 @@
         <v>29</v>
       </c>
       <c r="B337" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C337">
         <v>4450405</v>
@@ -28586,7 +28598,7 @@
         <v>29</v>
       </c>
       <c r="B338" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C338">
         <v>4643737</v>
@@ -28628,10 +28640,10 @@
         <v>0</v>
       </c>
       <c r="Q338" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="R338" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="T338" t="s">
         <v>40</v>
@@ -28660,7 +28672,7 @@
         <v>29</v>
       </c>
       <c r="B339" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C339">
         <v>4277637</v>
@@ -28702,10 +28714,10 @@
         <v>0</v>
       </c>
       <c r="Q339" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="R339" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="T339" t="s">
         <v>40</v>
@@ -28755,7 +28767,7 @@
         <v>29</v>
       </c>
       <c r="B340" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C340">
         <v>4846293</v>
@@ -28820,7 +28832,7 @@
         <v>29</v>
       </c>
       <c r="B341" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C341">
         <v>4290978</v>
@@ -28906,7 +28918,7 @@
         <v>29</v>
       </c>
       <c r="B342" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C342">
         <v>4289402</v>
@@ -28992,7 +29004,7 @@
         <v>29</v>
       </c>
       <c r="B343" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C343">
         <v>4580355</v>
@@ -29034,10 +29046,10 @@
         <v>0</v>
       </c>
       <c r="Q343" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="R343" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="T343" t="s">
         <v>40</v>
@@ -29066,7 +29078,7 @@
         <v>29</v>
       </c>
       <c r="B344" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C344">
         <v>4363260</v>
@@ -29152,7 +29164,7 @@
         <v>29</v>
       </c>
       <c r="B345" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C345">
         <v>4693308</v>
@@ -29226,7 +29238,7 @@
         <v>29</v>
       </c>
       <c r="B346" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C346">
         <v>4404724</v>
@@ -29309,7 +29321,7 @@
         <v>29</v>
       </c>
       <c r="B347" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C347">
         <v>4382902</v>
@@ -29351,7 +29363,7 @@
         <v>0</v>
       </c>
       <c r="Q347" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="T347" t="s">
         <v>40</v>
@@ -29398,7 +29410,7 @@
         <v>29</v>
       </c>
       <c r="B348" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C348">
         <v>4848279</v>
@@ -29466,7 +29478,7 @@
         <v>29</v>
       </c>
       <c r="B349" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C349">
         <v>5076418</v>
@@ -29525,7 +29537,7 @@
         <v>29</v>
       </c>
       <c r="B350" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C350">
         <v>4221506</v>
@@ -29570,7 +29582,7 @@
         <v>0</v>
       </c>
       <c r="S350" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="T350" t="s">
         <v>40</v>
@@ -29617,7 +29629,7 @@
         <v>29</v>
       </c>
       <c r="B351" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C351">
         <v>4221536</v>
@@ -29662,7 +29674,7 @@
         <v>0</v>
       </c>
       <c r="S351" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="T351" t="s">
         <v>40</v>
@@ -29709,7 +29721,7 @@
         <v>29</v>
       </c>
       <c r="B352" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C352">
         <v>4936634</v>
@@ -29774,7 +29786,7 @@
         <v>29</v>
       </c>
       <c r="B353" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C353">
         <v>4374943</v>
@@ -29860,7 +29872,7 @@
         <v>29</v>
       </c>
       <c r="B354" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C354">
         <v>4278212</v>
@@ -29946,7 +29958,7 @@
         <v>29</v>
       </c>
       <c r="B355" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C355">
         <v>4334158</v>
@@ -30032,7 +30044,7 @@
         <v>29</v>
       </c>
       <c r="B356" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C356">
         <v>5206566</v>
@@ -30082,7 +30094,7 @@
         <v>29</v>
       </c>
       <c r="B357" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C357">
         <v>4403674</v>
@@ -30162,7 +30174,7 @@
         <v>29</v>
       </c>
       <c r="B358" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C358">
         <v>4332747</v>
@@ -30248,7 +30260,7 @@
         <v>29</v>
       </c>
       <c r="B359" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C359">
         <v>4547073</v>
@@ -30325,7 +30337,7 @@
         <v>29</v>
       </c>
       <c r="B360" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C360">
         <v>4766708</v>
@@ -30346,7 +30358,7 @@
         <v>59</v>
       </c>
       <c r="I360" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J360" t="s">
         <v>37</v>
@@ -30367,7 +30379,7 @@
         <v>0</v>
       </c>
       <c r="S360" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="T360" t="s">
         <v>40</v>
@@ -30399,7 +30411,7 @@
         <v>29</v>
       </c>
       <c r="B361" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C361">
         <v>4567880</v>
@@ -30476,7 +30488,7 @@
         <v>29</v>
       </c>
       <c r="B362" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C362">
         <v>4431689</v>
@@ -30556,7 +30568,7 @@
         <v>29</v>
       </c>
       <c r="B363" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C363">
         <v>4914070</v>
@@ -30598,7 +30610,7 @@
         <v>0.1</v>
       </c>
       <c r="S363" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="T363" t="s">
         <v>40</v>
@@ -30624,7 +30636,7 @@
         <v>29</v>
       </c>
       <c r="B364" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C364">
         <v>4473829</v>
@@ -30704,7 +30716,7 @@
         <v>29</v>
       </c>
       <c r="B365" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C365">
         <v>5122672</v>
@@ -30757,7 +30769,7 @@
         <v>29</v>
       </c>
       <c r="B366" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C366">
         <v>4490955</v>
@@ -30837,7 +30849,7 @@
         <v>29</v>
       </c>
       <c r="B367" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C367">
         <v>4432455</v>
@@ -30879,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="Q367" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="T367" t="s">
         <v>40</v>
@@ -30920,7 +30932,7 @@
         <v>29</v>
       </c>
       <c r="B368" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C368">
         <v>4804036</v>
@@ -30991,7 +31003,7 @@
         <v>29</v>
       </c>
       <c r="B369" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C369">
         <v>827730</v>
@@ -31033,7 +31045,7 @@
         <v>0</v>
       </c>
       <c r="R369" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="T369" t="s">
         <v>40</v>
@@ -31065,7 +31077,7 @@
         <v>29</v>
       </c>
       <c r="B370" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C370">
         <v>4544289</v>
@@ -31136,7 +31148,7 @@
         <v>29</v>
       </c>
       <c r="B371" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C371">
         <v>5002390</v>
@@ -31178,7 +31190,7 @@
         <v>0.1</v>
       </c>
       <c r="S371" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="T371" t="s">
         <v>40</v>
@@ -31201,7 +31213,7 @@
         <v>29</v>
       </c>
       <c r="B372" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C372">
         <v>4376145</v>
@@ -31287,7 +31299,7 @@
         <v>29</v>
       </c>
       <c r="B373" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C373">
         <v>1719494</v>
@@ -31373,7 +31385,7 @@
         <v>29</v>
       </c>
       <c r="B374" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C374">
         <v>4754920</v>
@@ -31444,7 +31456,7 @@
         <v>29</v>
       </c>
       <c r="B375" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C375">
         <v>4472431</v>
@@ -31524,7 +31536,7 @@
         <v>29</v>
       </c>
       <c r="B376" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C376">
         <v>4546050</v>
@@ -31566,7 +31578,7 @@
         <v>0</v>
       </c>
       <c r="S376" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="T376" t="s">
         <v>40</v>
@@ -31604,7 +31616,7 @@
         <v>29</v>
       </c>
       <c r="B377" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C377">
         <v>4568300</v>
@@ -31646,7 +31658,7 @@
         <v>0.1</v>
       </c>
       <c r="S377" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="T377" t="s">
         <v>40</v>
@@ -31684,7 +31696,7 @@
         <v>29</v>
       </c>
       <c r="B378" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C378">
         <v>4380948</v>
@@ -31726,7 +31738,7 @@
         <v>0</v>
       </c>
       <c r="S378" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="T378" t="s">
         <v>40</v>
@@ -31770,7 +31782,7 @@
         <v>29</v>
       </c>
       <c r="B379" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C379">
         <v>4298042</v>
@@ -31812,7 +31824,7 @@
         <v>0.1</v>
       </c>
       <c r="R379" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="T379" t="s">
         <v>40</v>
@@ -31859,7 +31871,7 @@
         <v>29</v>
       </c>
       <c r="B380" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C380">
         <v>4239387</v>
@@ -31936,7 +31948,7 @@
         <v>29</v>
       </c>
       <c r="B381" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C381">
         <v>4458563</v>
@@ -32016,7 +32028,7 @@
         <v>29</v>
       </c>
       <c r="B382" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C382">
         <v>4348479</v>
@@ -32093,7 +32105,7 @@
         <v>29</v>
       </c>
       <c r="B383" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C383">
         <v>4877741</v>
@@ -32158,7 +32170,7 @@
         <v>29</v>
       </c>
       <c r="B384" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C384">
         <v>4554411</v>
@@ -32226,7 +32238,7 @@
         <v>29</v>
       </c>
       <c r="B385" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C385">
         <v>4517506</v>
@@ -32303,7 +32315,7 @@
         <v>29</v>
       </c>
       <c r="B386" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C386">
         <v>4369172</v>
@@ -32389,7 +32401,7 @@
         <v>29</v>
       </c>
       <c r="B387" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C387">
         <v>5121756</v>
@@ -32410,7 +32422,7 @@
         <v>49</v>
       </c>
       <c r="I387" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J387" t="s">
         <v>37</v>
@@ -32445,7 +32457,7 @@
         <v>29</v>
       </c>
       <c r="B388" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C388">
         <v>4752615</v>
@@ -32516,7 +32528,7 @@
         <v>29</v>
       </c>
       <c r="B389" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C389">
         <v>4383190</v>
@@ -32528,7 +32540,7 @@
         <v>32</v>
       </c>
       <c r="F389" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="G389" t="s">
         <v>52</v>
@@ -32558,7 +32570,7 @@
         <v>0</v>
       </c>
       <c r="Q389" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="T389" t="s">
         <v>40</v>
@@ -32605,7 +32617,7 @@
         <v>29</v>
       </c>
       <c r="B390" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C390">
         <v>4481463</v>
@@ -32685,7 +32697,7 @@
         <v>29</v>
       </c>
       <c r="B391" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C391">
         <v>4556853</v>
@@ -32727,10 +32739,10 @@
         <v>0.2</v>
       </c>
       <c r="Q391" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="R391" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="T391" t="s">
         <v>40</v>
@@ -32768,7 +32780,7 @@
         <v>29</v>
       </c>
       <c r="B392" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C392">
         <v>4264780</v>
@@ -32786,13 +32798,13 @@
         <v>48</v>
       </c>
       <c r="H392" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I392" t="s">
         <v>36</v>
       </c>
       <c r="J392" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="K392" s="1">
         <v>44911</v>
@@ -32809,8 +32821,11 @@
       <c r="P392" s="3">
         <v>0.2</v>
       </c>
+      <c r="Q392" t="s">
+        <v>613</v>
+      </c>
       <c r="R392" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="T392" t="s">
         <v>40</v>
@@ -32860,7 +32875,7 @@
         <v>29</v>
       </c>
       <c r="B393" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C393">
         <v>772433</v>
@@ -32878,7 +32893,7 @@
         <v>48</v>
       </c>
       <c r="H393" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I393" t="s">
         <v>36</v>
@@ -32902,7 +32917,7 @@
         <v>0.1</v>
       </c>
       <c r="Q393" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="T393" t="s">
         <v>40</v>
@@ -32952,7 +32967,7 @@
         <v>29</v>
       </c>
       <c r="B394" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C394">
         <v>4983378</v>
@@ -32973,7 +32988,7 @@
         <v>49</v>
       </c>
       <c r="I394" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J394" t="s">
         <v>37</v>
@@ -33017,7 +33032,7 @@
         <v>29</v>
       </c>
       <c r="B395" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C395">
         <v>4983395</v>
@@ -33038,7 +33053,7 @@
         <v>49</v>
       </c>
       <c r="I395" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J395" t="s">
         <v>37</v>
@@ -33082,7 +33097,7 @@
         <v>29</v>
       </c>
       <c r="B396" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C396">
         <v>4455356</v>
@@ -33162,7 +33177,7 @@
         <v>29</v>
       </c>
       <c r="B397" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C397">
         <v>4444380</v>
@@ -33242,7 +33257,7 @@
         <v>29</v>
       </c>
       <c r="B398" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C398">
         <v>4748761</v>
@@ -33272,7 +33287,7 @@
         <v>45104</v>
       </c>
       <c r="M398" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="N398" s="2">
         <v>1.2E-2</v>
@@ -33313,7 +33328,7 @@
         <v>29</v>
       </c>
       <c r="B399" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C399">
         <v>2950732</v>
@@ -33355,7 +33370,7 @@
         <v>0.1</v>
       </c>
       <c r="S399" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="T399" t="s">
         <v>40</v>
@@ -33393,7 +33408,7 @@
         <v>29</v>
       </c>
       <c r="B400" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C400">
         <v>4502767</v>
@@ -33473,7 +33488,7 @@
         <v>29</v>
       </c>
       <c r="B401" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C401">
         <v>4854514</v>
@@ -33538,7 +33553,7 @@
         <v>29</v>
       </c>
       <c r="B402" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C402">
         <v>4547722</v>
@@ -33580,7 +33595,7 @@
         <v>0</v>
       </c>
       <c r="Q402" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="T402" t="s">
         <v>40</v>
@@ -33618,7 +33633,7 @@
         <v>29</v>
       </c>
       <c r="B403" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C403">
         <v>4527606</v>
@@ -33660,7 +33675,7 @@
         <v>0</v>
       </c>
       <c r="Q403" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="T403" t="s">
         <v>40</v>
@@ -33698,7 +33713,7 @@
         <v>29</v>
       </c>
       <c r="B404" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C404">
         <v>4415248</v>
@@ -33781,7 +33796,7 @@
         <v>29</v>
       </c>
       <c r="B405" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C405">
         <v>4463586</v>
@@ -33861,7 +33876,7 @@
         <v>29</v>
       </c>
       <c r="B406" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C406">
         <v>5042222</v>
@@ -33923,7 +33938,7 @@
         <v>29</v>
       </c>
       <c r="B407" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C407">
         <v>4240292</v>
@@ -34009,7 +34024,7 @@
         <v>29</v>
       </c>
       <c r="B408" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C408">
         <v>4435987</v>
@@ -34089,7 +34104,7 @@
         <v>29</v>
       </c>
       <c r="B409" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C409">
         <v>4436055</v>
@@ -34169,7 +34184,7 @@
         <v>29</v>
       </c>
       <c r="B410" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C410">
         <v>4454491</v>
@@ -34249,7 +34264,7 @@
         <v>29</v>
       </c>
       <c r="B411" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C411">
         <v>4254210</v>
@@ -34291,13 +34306,13 @@
         <v>0.2</v>
       </c>
       <c r="Q411" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="R411" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="S411" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="T411" t="s">
         <v>40</v>
@@ -34347,7 +34362,7 @@
         <v>29</v>
       </c>
       <c r="B412" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C412">
         <v>4853111</v>
@@ -34418,7 +34433,7 @@
         <v>29</v>
       </c>
       <c r="B413" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C413">
         <v>4752519</v>
@@ -34489,7 +34504,7 @@
         <v>29</v>
       </c>
       <c r="B414" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C414">
         <v>834301</v>
@@ -34569,7 +34584,7 @@
         <v>29</v>
       </c>
       <c r="B415" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C415">
         <v>4575621</v>
@@ -34611,7 +34626,7 @@
         <v>0.1</v>
       </c>
       <c r="Q415" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="T415" t="s">
         <v>40</v>
@@ -34643,7 +34658,7 @@
         <v>29</v>
       </c>
       <c r="B416" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C416">
         <v>2738211</v>
@@ -34685,7 +34700,7 @@
         <v>0</v>
       </c>
       <c r="R416" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="T416" t="s">
         <v>40</v>
@@ -34714,7 +34729,7 @@
         <v>29</v>
       </c>
       <c r="B417" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C417">
         <v>4811224</v>
@@ -34756,7 +34771,7 @@
         <v>0</v>
       </c>
       <c r="R417" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="T417" t="s">
         <v>40</v>
@@ -34785,7 +34800,7 @@
         <v>29</v>
       </c>
       <c r="B418" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C418">
         <v>4807944</v>
@@ -34827,10 +34842,10 @@
         <v>0</v>
       </c>
       <c r="R418" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="S418" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="T418" t="s">
         <v>40</v>
@@ -34862,7 +34877,7 @@
         <v>29</v>
       </c>
       <c r="B419" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C419">
         <v>4552021</v>
@@ -34939,7 +34954,7 @@
         <v>29</v>
       </c>
       <c r="B420" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C420">
         <v>4212476</v>
@@ -34981,7 +34996,7 @@
         <v>0</v>
       </c>
       <c r="S420" s="5" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="T420" t="s">
         <v>40</v>
@@ -35028,7 +35043,7 @@
         <v>29</v>
       </c>
       <c r="B421" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C421">
         <v>4214460</v>
@@ -35058,7 +35073,7 @@
         <v>44957</v>
       </c>
       <c r="M421" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="N421" s="2">
         <v>0.01</v>
@@ -35114,7 +35129,7 @@
         <v>29</v>
       </c>
       <c r="B422" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C422">
         <v>4893523</v>
@@ -35156,7 +35171,7 @@
         <v>0</v>
       </c>
       <c r="Q422" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="T422" t="s">
         <v>40</v>
@@ -35185,7 +35200,7 @@
         <v>29</v>
       </c>
       <c r="B423" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C423">
         <v>4541022</v>
@@ -35227,7 +35242,7 @@
         <v>0</v>
       </c>
       <c r="S423" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="T423" t="s">
         <v>40</v>
@@ -35265,7 +35280,7 @@
         <v>29</v>
       </c>
       <c r="B424" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C424">
         <v>4972070</v>
@@ -35307,7 +35322,7 @@
         <v>0</v>
       </c>
       <c r="S424" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="T424" t="s">
         <v>40</v>
@@ -35333,7 +35348,7 @@
         <v>29</v>
       </c>
       <c r="B425" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C425">
         <v>4870019</v>
@@ -35395,7 +35410,7 @@
         <v>29</v>
       </c>
       <c r="B426" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C426">
         <v>4395314</v>
@@ -35478,7 +35493,7 @@
         <v>29</v>
       </c>
       <c r="B427" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C427">
         <v>4214604</v>
@@ -35564,7 +35579,7 @@
         <v>29</v>
       </c>
       <c r="B428" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C428">
         <v>4212581</v>
@@ -35606,7 +35621,7 @@
         <v>0</v>
       </c>
       <c r="S428" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="T428" t="s">
         <v>40</v>
@@ -35653,7 +35668,7 @@
         <v>29</v>
       </c>
       <c r="B429" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C429">
         <v>4242237</v>
@@ -35695,7 +35710,7 @@
         <v>0</v>
       </c>
       <c r="Q429" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="T429" t="s">
         <v>40</v>
@@ -35742,7 +35757,7 @@
         <v>29</v>
       </c>
       <c r="B430" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C430">
         <v>4525587</v>
@@ -35822,7 +35837,7 @@
         <v>29</v>
       </c>
       <c r="B431" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C431">
         <v>4920447</v>
@@ -35887,7 +35902,7 @@
         <v>29</v>
       </c>
       <c r="B432" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C432">
         <v>5000460</v>
@@ -35949,7 +35964,7 @@
         <v>29</v>
       </c>
       <c r="B433" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C433">
         <v>5046919</v>
@@ -36008,7 +36023,7 @@
         <v>29</v>
       </c>
       <c r="B434" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C434">
         <v>4371913</v>
@@ -36097,7 +36112,7 @@
         <v>29</v>
       </c>
       <c r="B435" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C435">
         <v>4556150</v>
@@ -36174,7 +36189,7 @@
         <v>29</v>
       </c>
       <c r="B436" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C436">
         <v>3249855</v>
@@ -36245,7 +36260,7 @@
         <v>29</v>
       </c>
       <c r="B437" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C437">
         <v>4405702</v>
@@ -36257,7 +36272,7 @@
         <v>43</v>
       </c>
       <c r="F437" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="H437" t="s">
         <v>59</v>
@@ -36325,7 +36340,7 @@
         <v>29</v>
       </c>
       <c r="B438" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C438">
         <v>4428935</v>
@@ -36405,7 +36420,7 @@
         <v>29</v>
       </c>
       <c r="B439" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C439">
         <v>4431591</v>
@@ -36447,7 +36462,7 @@
         <v>0</v>
       </c>
       <c r="S439" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="T439" t="s">
         <v>40</v>
@@ -36488,7 +36503,7 @@
         <v>29</v>
       </c>
       <c r="B440" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C440">
         <v>4643746</v>
@@ -36530,10 +36545,10 @@
         <v>0.1</v>
       </c>
       <c r="Q440" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="R440" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="T440" t="s">
         <v>40</v>
@@ -36571,7 +36586,7 @@
         <v>29</v>
       </c>
       <c r="B441" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C441">
         <v>4395599</v>
@@ -36654,7 +36669,7 @@
         <v>29</v>
       </c>
       <c r="B442" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C442">
         <v>5140667</v>
@@ -36710,7 +36725,7 @@
         <v>29</v>
       </c>
       <c r="B443" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C443">
         <v>4451652</v>
@@ -36790,7 +36805,7 @@
         <v>29</v>
       </c>
       <c r="B444" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C444">
         <v>4756981</v>
@@ -36861,7 +36876,7 @@
         <v>29</v>
       </c>
       <c r="B445" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C445">
         <v>4115381</v>
@@ -36950,7 +36965,7 @@
         <v>29</v>
       </c>
       <c r="B446" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C446">
         <v>4255049</v>
@@ -37036,7 +37051,7 @@
         <v>29</v>
       </c>
       <c r="B447" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C447">
         <v>4472459</v>
@@ -37057,7 +37072,7 @@
         <v>59</v>
       </c>
       <c r="I447" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J447" t="s">
         <v>37</v>
@@ -37116,7 +37131,7 @@
         <v>29</v>
       </c>
       <c r="B448" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C448">
         <v>4165515</v>
@@ -37196,7 +37211,7 @@
         <v>29</v>
       </c>
       <c r="B449" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C449">
         <v>4355790</v>
@@ -37273,7 +37288,7 @@
         <v>29</v>
       </c>
       <c r="B450" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C450">
         <v>5170415</v>
@@ -37326,7 +37341,7 @@
         <v>29</v>
       </c>
       <c r="B451" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C451">
         <v>4813134</v>
@@ -37397,7 +37412,7 @@
         <v>29</v>
       </c>
       <c r="B452" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C452">
         <v>4387250</v>
@@ -37480,7 +37495,7 @@
         <v>29</v>
       </c>
       <c r="B453" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C453">
         <v>4526450</v>
@@ -37557,7 +37572,7 @@
         <v>29</v>
       </c>
       <c r="B454" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C454">
         <v>4397124</v>
@@ -37599,7 +37614,7 @@
         <v>0</v>
       </c>
       <c r="Q454" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="T454" t="s">
         <v>40</v>
@@ -37643,7 +37658,7 @@
         <v>29</v>
       </c>
       <c r="B455" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C455">
         <v>4630773</v>
@@ -37685,7 +37700,7 @@
         <v>0.1</v>
       </c>
       <c r="S455" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="T455" t="s">
         <v>40</v>
@@ -37723,7 +37738,7 @@
         <v>29</v>
       </c>
       <c r="B456" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C456">
         <v>4419782</v>
@@ -37803,7 +37818,7 @@
         <v>29</v>
       </c>
       <c r="B457" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C457">
         <v>4749928</v>
@@ -37874,7 +37889,7 @@
         <v>29</v>
       </c>
       <c r="B458" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C458">
         <v>4448303</v>
@@ -37904,7 +37919,7 @@
         <v>45022</v>
       </c>
       <c r="M458" t="s">
-        <v>687</v>
+        <v>404</v>
       </c>
       <c r="N458" s="2">
         <v>1.2E-2</v>
@@ -37916,10 +37931,10 @@
         <v>0.1</v>
       </c>
       <c r="Q458" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="S458" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="T458" t="s">
         <v>40</v>
@@ -37960,7 +37975,7 @@
         <v>29</v>
       </c>
       <c r="B459" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C459">
         <v>1759765</v>
@@ -38040,7 +38055,7 @@
         <v>29</v>
       </c>
       <c r="B460" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C460">
         <v>4320840</v>
@@ -38082,10 +38097,10 @@
         <v>0</v>
       </c>
       <c r="Q460" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="R460" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="T460" t="s">
         <v>40</v>
@@ -38132,7 +38147,7 @@
         <v>29</v>
       </c>
       <c r="B461" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C461">
         <v>4327758</v>
@@ -38218,7 +38233,7 @@
         <v>29</v>
       </c>
       <c r="B462" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C462">
         <v>4482102</v>
@@ -38260,7 +38275,7 @@
         <v>0.1</v>
       </c>
       <c r="S462" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="T462" t="s">
         <v>40</v>
@@ -38301,7 +38316,7 @@
         <v>29</v>
       </c>
       <c r="B463" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C463">
         <v>4479450</v>
@@ -38384,7 +38399,7 @@
         <v>29</v>
       </c>
       <c r="B464" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C464">
         <v>5063749</v>
@@ -38443,7 +38458,7 @@
         <v>29</v>
       </c>
       <c r="B465" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C465">
         <v>5075382</v>
@@ -38499,7 +38514,7 @@
         <v>29</v>
       </c>
       <c r="B466" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C466">
         <v>4371857</v>
@@ -38585,7 +38600,7 @@
         <v>29</v>
       </c>
       <c r="B467" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C467">
         <v>4693631</v>
@@ -38656,7 +38671,7 @@
         <v>29</v>
       </c>
       <c r="B468" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C468">
         <v>5073033</v>
@@ -38698,7 +38713,7 @@
         <v>0</v>
       </c>
       <c r="S468" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="T468" t="s">
         <v>154</v>
@@ -38718,7 +38733,7 @@
         <v>29</v>
       </c>
       <c r="B469" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C469">
         <v>4239624</v>
@@ -38760,7 +38775,7 @@
         <v>0</v>
       </c>
       <c r="Q469" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="T469" t="s">
         <v>40</v>
@@ -38807,7 +38822,7 @@
         <v>29</v>
       </c>
       <c r="B470" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C470">
         <v>5055239</v>
@@ -38828,7 +38843,7 @@
         <v>49</v>
       </c>
       <c r="I470" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J470" t="s">
         <v>37</v>
@@ -38866,7 +38881,7 @@
         <v>29</v>
       </c>
       <c r="B471" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C471">
         <v>4935287</v>
@@ -38908,7 +38923,7 @@
         <v>0</v>
       </c>
       <c r="Q471" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="T471" t="s">
         <v>40</v>
@@ -38934,7 +38949,7 @@
         <v>29</v>
       </c>
       <c r="B472" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C472">
         <v>4010232</v>
@@ -39014,7 +39029,7 @@
         <v>29</v>
       </c>
       <c r="B473" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C473">
         <v>4214592</v>
@@ -39100,7 +39115,7 @@
         <v>29</v>
       </c>
       <c r="B474" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C474">
         <v>4334062</v>
@@ -39186,7 +39201,7 @@
         <v>29</v>
       </c>
       <c r="B475" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C475">
         <v>4749680</v>
@@ -39216,7 +39231,7 @@
         <v>45097</v>
       </c>
       <c r="M475" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="N475" s="2">
         <v>0.01</v>
@@ -39254,7 +39269,7 @@
         <v>29</v>
       </c>
       <c r="B476" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C476">
         <v>4452946</v>
@@ -39334,7 +39349,7 @@
         <v>29</v>
       </c>
       <c r="B477" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C477">
         <v>4451725</v>
@@ -39414,7 +39429,7 @@
         <v>29</v>
       </c>
       <c r="B478" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C478">
         <v>4268684</v>
@@ -39426,7 +39441,7 @@
         <v>32</v>
       </c>
       <c r="F478" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="G478" t="s">
         <v>52</v>
@@ -39500,7 +39515,7 @@
         <v>29</v>
       </c>
       <c r="B479" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C479">
         <v>4421636</v>
@@ -39512,7 +39527,7 @@
         <v>32</v>
       </c>
       <c r="F479" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="G479" t="s">
         <v>34</v>
@@ -39583,7 +39598,7 @@
         <v>29</v>
       </c>
       <c r="B480" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C480">
         <v>4805133</v>
@@ -39625,7 +39640,7 @@
         <v>0</v>
       </c>
       <c r="R480" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="T480" t="s">
         <v>40</v>
@@ -39657,7 +39672,7 @@
         <v>29</v>
       </c>
       <c r="B481" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C481">
         <v>4267044</v>
@@ -39746,7 +39761,7 @@
         <v>29</v>
       </c>
       <c r="B482" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C482">
         <v>4471893</v>
@@ -39788,7 +39803,7 @@
         <v>0.1</v>
       </c>
       <c r="S482" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="T482" t="s">
         <v>40</v>
@@ -39829,7 +39844,7 @@
         <v>29</v>
       </c>
       <c r="B483" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C483">
         <v>4479429</v>
@@ -39874,10 +39889,10 @@
         <v>0</v>
       </c>
       <c r="Q483" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="S483" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="T483" t="s">
         <v>40</v>
@@ -39918,7 +39933,7 @@
         <v>29</v>
       </c>
       <c r="B484" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C484">
         <v>4503374</v>
@@ -39998,7 +40013,7 @@
         <v>29</v>
       </c>
       <c r="B485" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C485">
         <v>4500057</v>
@@ -40040,7 +40055,7 @@
         <v>0</v>
       </c>
       <c r="S485" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="T485" t="s">
         <v>40</v>
@@ -40081,7 +40096,7 @@
         <v>29</v>
       </c>
       <c r="B486" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C486">
         <v>4572740</v>
@@ -40158,7 +40173,7 @@
         <v>29</v>
       </c>
       <c r="B487" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C487">
         <v>4419141</v>
@@ -40200,7 +40215,7 @@
         <v>0.1</v>
       </c>
       <c r="Q487" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="T487" t="s">
         <v>40</v>
@@ -40244,7 +40259,7 @@
         <v>29</v>
       </c>
       <c r="B488" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C488">
         <v>4644524</v>
@@ -40286,7 +40301,7 @@
         <v>0</v>
       </c>
       <c r="R488" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="T488" t="s">
         <v>40</v>
@@ -40324,7 +40339,7 @@
         <v>29</v>
       </c>
       <c r="B489" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C489">
         <v>4404248</v>
@@ -40407,7 +40422,7 @@
         <v>29</v>
       </c>
       <c r="B490" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C490">
         <v>2786022</v>
@@ -40493,7 +40508,7 @@
         <v>29</v>
       </c>
       <c r="B491" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C491">
         <v>5133039</v>
@@ -40532,7 +40547,7 @@
         <v>0</v>
       </c>
       <c r="S491" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="T491" t="s">
         <v>40</v>
@@ -40549,7 +40564,7 @@
         <v>29</v>
       </c>
       <c r="B492" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C492">
         <v>4482439</v>
@@ -40591,7 +40606,7 @@
         <v>0.2</v>
       </c>
       <c r="Q492" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="T492" t="s">
         <v>40</v>
@@ -40632,7 +40647,7 @@
         <v>29</v>
       </c>
       <c r="B493" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C493">
         <v>4480336</v>
@@ -40712,7 +40727,7 @@
         <v>29</v>
       </c>
       <c r="B494" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C494">
         <v>4809902</v>
@@ -40783,7 +40798,7 @@
         <v>29</v>
       </c>
       <c r="B495" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C495">
         <v>5232019</v>
@@ -40830,7 +40845,7 @@
         <v>29</v>
       </c>
       <c r="B496" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C496">
         <v>5081833</v>
@@ -40872,7 +40887,7 @@
         <v>0</v>
       </c>
       <c r="Q496" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="T496" t="s">
         <v>40</v>
@@ -40892,7 +40907,7 @@
         <v>29</v>
       </c>
       <c r="B497" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C497">
         <v>4460491</v>
@@ -40972,7 +40987,7 @@
         <v>29</v>
       </c>
       <c r="B498" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C498">
         <v>4458624</v>
@@ -41014,7 +41029,7 @@
         <v>0</v>
       </c>
       <c r="Q498" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="T498" t="s">
         <v>40</v>
@@ -41055,7 +41070,7 @@
         <v>29</v>
       </c>
       <c r="B499" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C499">
         <v>4460487</v>
@@ -41097,7 +41112,7 @@
         <v>0</v>
       </c>
       <c r="S499" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="T499" t="s">
         <v>40</v>
@@ -41138,7 +41153,7 @@
         <v>29</v>
       </c>
       <c r="B500" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C500">
         <v>4381359</v>
@@ -41180,7 +41195,7 @@
         <v>0.1</v>
       </c>
       <c r="S500" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="T500" t="s">
         <v>40</v>
@@ -41227,7 +41242,7 @@
         <v>29</v>
       </c>
       <c r="B501" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C501">
         <v>4561369</v>
@@ -41269,7 +41284,7 @@
         <v>0</v>
       </c>
       <c r="Q501" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="T501" t="s">
         <v>40</v>
@@ -41295,7 +41310,7 @@
         <v>29</v>
       </c>
       <c r="B502" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C502">
         <v>4690692</v>
@@ -41372,7 +41387,7 @@
         <v>29</v>
       </c>
       <c r="B503" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C503">
         <v>4915243</v>
@@ -41437,7 +41452,7 @@
         <v>29</v>
       </c>
       <c r="B504" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C504">
         <v>4389994</v>
@@ -41479,7 +41494,7 @@
         <v>0.1</v>
       </c>
       <c r="Q504" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="T504" t="s">
         <v>40</v>
@@ -41520,7 +41535,7 @@
         <v>29</v>
       </c>
       <c r="B505" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C505">
         <v>4224771</v>
@@ -41532,7 +41547,7 @@
         <v>32</v>
       </c>
       <c r="F505" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G505" t="s">
         <v>34</v>
@@ -41606,7 +41621,7 @@
         <v>29</v>
       </c>
       <c r="B506" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C506">
         <v>4224284</v>
@@ -41692,7 +41707,7 @@
         <v>29</v>
       </c>
       <c r="B507" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C507">
         <v>4497825</v>
@@ -41772,7 +41787,7 @@
         <v>29</v>
       </c>
       <c r="B508" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C508">
         <v>4588677</v>
@@ -41849,7 +41864,7 @@
         <v>29</v>
       </c>
       <c r="B509" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="C509">
         <v>4222784</v>
@@ -41891,7 +41906,7 @@
         <v>0</v>
       </c>
       <c r="Q509" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="T509" t="s">
         <v>40</v>
@@ -41935,7 +41950,7 @@
         <v>29</v>
       </c>
       <c r="B510" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C510">
         <v>4500804</v>
@@ -41977,7 +41992,7 @@
         <v>0</v>
       </c>
       <c r="S510" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="T510" t="s">
         <v>40</v>
@@ -42018,7 +42033,7 @@
         <v>29</v>
       </c>
       <c r="B511" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C511">
         <v>5135281</v>
@@ -42074,7 +42089,7 @@
         <v>29</v>
       </c>
       <c r="B512" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C512">
         <v>4212409</v>
@@ -42163,7 +42178,7 @@
         <v>29</v>
       </c>
       <c r="B513" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C513">
         <v>4457389</v>
@@ -42240,7 +42255,7 @@
         <v>29</v>
       </c>
       <c r="B514" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C514">
         <v>4454365</v>
@@ -42252,7 +42267,7 @@
         <v>32</v>
       </c>
       <c r="F514" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="G514" t="s">
         <v>34</v>
@@ -42320,7 +42335,7 @@
         <v>29</v>
       </c>
       <c r="B515" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C515">
         <v>2064834</v>
@@ -42400,7 +42415,7 @@
         <v>29</v>
       </c>
       <c r="B516" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C516">
         <v>5058141</v>
@@ -42421,7 +42436,7 @@
         <v>35</v>
       </c>
       <c r="I516" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J516" t="s">
         <v>37</v>
@@ -42459,7 +42474,7 @@
         <v>29</v>
       </c>
       <c r="B517" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C517">
         <v>4466350</v>
@@ -42501,7 +42516,7 @@
         <v>0</v>
       </c>
       <c r="S517" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="T517" t="s">
         <v>40</v>
@@ -42542,7 +42557,7 @@
         <v>29</v>
       </c>
       <c r="B518" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C518">
         <v>4879113</v>
@@ -42584,7 +42599,7 @@
         <v>0</v>
       </c>
       <c r="S518" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="T518" t="s">
         <v>154</v>
@@ -42613,7 +42628,7 @@
         <v>29</v>
       </c>
       <c r="B519" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C519">
         <v>4208733</v>
@@ -42655,7 +42670,7 @@
         <v>0</v>
       </c>
       <c r="S519" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="T519" t="s">
         <v>40</v>
@@ -42702,7 +42717,7 @@
         <v>29</v>
       </c>
       <c r="B520" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C520">
         <v>4550605</v>
@@ -42782,7 +42797,7 @@
         <v>29</v>
       </c>
       <c r="B521" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C521">
         <v>5216881</v>
@@ -42832,7 +42847,7 @@
         <v>29</v>
       </c>
       <c r="B522" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C522">
         <v>2828327</v>
@@ -42918,7 +42933,7 @@
         <v>29</v>
       </c>
       <c r="B523" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C523">
         <v>4318604</v>
@@ -42960,7 +42975,7 @@
         <v>0.1</v>
       </c>
       <c r="S523" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="T523" t="s">
         <v>40</v>
@@ -43007,7 +43022,7 @@
         <v>29</v>
       </c>
       <c r="B524" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="C524">
         <v>4340984</v>
@@ -43049,7 +43064,7 @@
         <v>0.1</v>
       </c>
       <c r="Q524" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="T524" t="s">
         <v>40</v>
@@ -43096,7 +43111,7 @@
         <v>29</v>
       </c>
       <c r="B525" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C525">
         <v>4646727</v>
@@ -43161,7 +43176,7 @@
         <v>29</v>
       </c>
       <c r="B526" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C526">
         <v>4850070</v>
@@ -43203,7 +43218,7 @@
         <v>0</v>
       </c>
       <c r="Q526" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="T526" t="s">
         <v>40</v>
@@ -43232,7 +43247,7 @@
         <v>29</v>
       </c>
       <c r="B527" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C527">
         <v>4862677</v>
@@ -43300,7 +43315,7 @@
         <v>29</v>
       </c>
       <c r="B528" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C528">
         <v>4862672</v>
@@ -43368,7 +43383,7 @@
         <v>29</v>
       </c>
       <c r="B529" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C529">
         <v>4886366</v>
@@ -43436,7 +43451,7 @@
         <v>29</v>
       </c>
       <c r="B530" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="C530">
         <v>4237325</v>
@@ -43478,10 +43493,10 @@
         <v>0.1</v>
       </c>
       <c r="Q530" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="S530" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="T530" t="s">
         <v>40</v>
@@ -43528,7 +43543,7 @@
         <v>29</v>
       </c>
       <c r="B531" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C531">
         <v>4539779</v>
@@ -43605,7 +43620,7 @@
         <v>29</v>
       </c>
       <c r="B532" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C532">
         <v>4505474</v>
@@ -43682,7 +43697,7 @@
         <v>29</v>
       </c>
       <c r="B533" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C533">
         <v>4497963</v>
@@ -43724,7 +43739,7 @@
         <v>0</v>
       </c>
       <c r="S533" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="T533" t="s">
         <v>40</v>
@@ -43765,7 +43780,7 @@
         <v>29</v>
       </c>
       <c r="B534" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C534">
         <v>4482262</v>
@@ -43845,7 +43860,7 @@
         <v>29</v>
       </c>
       <c r="B535" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C535">
         <v>4586209</v>
@@ -43875,7 +43890,7 @@
         <v>45124</v>
       </c>
       <c r="M535" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="N535" s="2">
         <v>1.4E-2</v>
@@ -43916,7 +43931,7 @@
         <v>29</v>
       </c>
       <c r="B536" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C536">
         <v>4207658</v>
@@ -44002,7 +44017,7 @@
         <v>29</v>
       </c>
       <c r="B537" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C537">
         <v>4462543</v>
@@ -44082,7 +44097,7 @@
         <v>29</v>
       </c>
       <c r="B538" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C538">
         <v>4470679</v>
@@ -44124,7 +44139,7 @@
         <v>0</v>
       </c>
       <c r="S538" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="T538" t="s">
         <v>40</v>
@@ -44165,7 +44180,7 @@
         <v>29</v>
       </c>
       <c r="B539" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C539">
         <v>4472538</v>
@@ -44207,7 +44222,7 @@
         <v>0.1</v>
       </c>
       <c r="S539" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="T539" t="s">
         <v>40</v>
@@ -44248,7 +44263,7 @@
         <v>29</v>
       </c>
       <c r="B540" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C540">
         <v>4465646</v>
@@ -44269,7 +44284,7 @@
         <v>59</v>
       </c>
       <c r="I540" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J540" t="s">
         <v>37</v>
@@ -44328,7 +44343,7 @@
         <v>29</v>
       </c>
       <c r="B541" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C541">
         <v>5152037</v>
@@ -44378,7 +44393,7 @@
         <v>29</v>
       </c>
       <c r="B542" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C542">
         <v>4532856</v>
@@ -44420,7 +44435,7 @@
         <v>0</v>
       </c>
       <c r="Q542" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="T542" t="s">
         <v>40</v>
@@ -44458,7 +44473,7 @@
         <v>29</v>
       </c>
       <c r="B543" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C543">
         <v>4538384</v>
@@ -44535,7 +44550,7 @@
         <v>29</v>
       </c>
       <c r="B544" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C544">
         <v>4541149</v>
@@ -44612,7 +44627,7 @@
         <v>29</v>
       </c>
       <c r="B545" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C545">
         <v>4374891</v>
@@ -44698,7 +44713,7 @@
         <v>29</v>
       </c>
       <c r="B546" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C546">
         <v>4479734</v>
@@ -44778,7 +44793,7 @@
         <v>29</v>
       </c>
       <c r="B547" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C547">
         <v>5142624</v>
@@ -44834,7 +44849,7 @@
         <v>29</v>
       </c>
       <c r="B548" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C548">
         <v>4392159</v>
@@ -44846,7 +44861,7 @@
         <v>32</v>
       </c>
       <c r="F548" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="G548" t="s">
         <v>34</v>
@@ -44917,7 +44932,7 @@
         <v>29</v>
       </c>
       <c r="B549" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C549">
         <v>1813259</v>
@@ -44988,7 +45003,7 @@
         <v>29</v>
       </c>
       <c r="B550" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="C550">
         <v>4487016</v>
@@ -45068,7 +45083,7 @@
         <v>29</v>
       </c>
       <c r="B551" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C551">
         <v>4475145</v>
@@ -45110,7 +45125,7 @@
         <v>0</v>
       </c>
       <c r="S551" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="T551" t="s">
         <v>40</v>
@@ -45151,7 +45166,7 @@
         <v>29</v>
       </c>
       <c r="B552" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C552">
         <v>4805333</v>
@@ -45193,7 +45208,7 @@
         <v>0</v>
       </c>
       <c r="Q552" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="T552" t="s">
         <v>40</v>
@@ -45225,7 +45240,7 @@
         <v>29</v>
       </c>
       <c r="B553" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C553">
         <v>4392004</v>
@@ -45308,7 +45323,7 @@
         <v>29</v>
       </c>
       <c r="B554" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C554">
         <v>4924222</v>
@@ -45373,7 +45388,7 @@
         <v>29</v>
       </c>
       <c r="B555" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C555">
         <v>4413523</v>
@@ -45453,7 +45468,7 @@
         <v>29</v>
       </c>
       <c r="B556" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C556">
         <v>5002457</v>
@@ -45495,7 +45510,7 @@
         <v>0.1</v>
       </c>
       <c r="S556" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="T556" t="s">
         <v>40</v>
@@ -45518,7 +45533,7 @@
         <v>29</v>
       </c>
       <c r="B557" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C557">
         <v>4530494</v>
@@ -45560,7 +45575,7 @@
         <v>0</v>
       </c>
       <c r="Q557" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="T557" t="s">
         <v>40</v>
@@ -45598,7 +45613,7 @@
         <v>29</v>
       </c>
       <c r="B558" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C558">
         <v>4472076</v>
@@ -45678,7 +45693,7 @@
         <v>29</v>
       </c>
       <c r="B559" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C559">
         <v>5142661</v>
@@ -45734,7 +45749,7 @@
         <v>29</v>
       </c>
       <c r="B560" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C560">
         <v>4560107</v>
@@ -45811,7 +45826,7 @@
         <v>29</v>
       </c>
       <c r="B561" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C561">
         <v>4472760</v>
@@ -45891,7 +45906,7 @@
         <v>29</v>
       </c>
       <c r="B562" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C562">
         <v>5147664</v>
@@ -45941,7 +45956,7 @@
         <v>29</v>
       </c>
       <c r="B563" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C563">
         <v>4752494</v>
@@ -46012,7 +46027,7 @@
         <v>29</v>
       </c>
       <c r="B564" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C564">
         <v>4975924</v>
@@ -46054,7 +46069,7 @@
         <v>0.1</v>
       </c>
       <c r="Q564" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="T564" t="s">
         <v>40</v>
@@ -46080,7 +46095,7 @@
         <v>29</v>
       </c>
       <c r="B565" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C565">
         <v>4752461</v>
@@ -46151,7 +46166,7 @@
         <v>29</v>
       </c>
       <c r="B566" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C566">
         <v>4207955</v>
@@ -46237,7 +46252,7 @@
         <v>29</v>
       </c>
       <c r="B567" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C567">
         <v>4450760</v>
@@ -46317,7 +46332,7 @@
         <v>29</v>
       </c>
       <c r="B568" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C568">
         <v>4322549</v>
@@ -46403,7 +46418,7 @@
         <v>29</v>
       </c>
       <c r="B569" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C569">
         <v>2823185</v>
@@ -46486,7 +46501,7 @@
         <v>29</v>
       </c>
       <c r="B570" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C570">
         <v>4315417</v>
@@ -46498,7 +46513,7 @@
         <v>32</v>
       </c>
       <c r="F570" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G570" t="s">
         <v>52</v>
@@ -46566,7 +46581,7 @@
         <v>29</v>
       </c>
       <c r="B571" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C571">
         <v>4455489</v>
@@ -46608,7 +46623,7 @@
         <v>0.1</v>
       </c>
       <c r="R571" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="T571" t="s">
         <v>40</v>
@@ -46649,7 +46664,7 @@
         <v>29</v>
       </c>
       <c r="B572" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C572">
         <v>1922009</v>
@@ -46691,7 +46706,7 @@
         <v>0.1</v>
       </c>
       <c r="S572" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="T572" t="s">
         <v>40</v>
@@ -46711,7 +46726,7 @@
         <v>29</v>
       </c>
       <c r="B573" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C573">
         <v>4945203</v>
@@ -46735,7 +46750,7 @@
         <v>36</v>
       </c>
       <c r="J573" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K573" s="1">
         <v>45163</v>
@@ -46752,11 +46767,8 @@
       <c r="P573" s="3">
         <v>0.2</v>
       </c>
-      <c r="Q573" t="s">
-        <v>839</v>
-      </c>
       <c r="S573" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="T573" t="s">
         <v>40</v>
@@ -46782,7 +46794,7 @@
         <v>29</v>
       </c>
       <c r="B574" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C574">
         <v>4945161</v>
@@ -46824,7 +46836,7 @@
         <v>0</v>
       </c>
       <c r="S574" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="T574" t="s">
         <v>40</v>
@@ -46850,7 +46862,7 @@
         <v>29</v>
       </c>
       <c r="B575" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C575">
         <v>4999410</v>
@@ -46912,7 +46924,7 @@
         <v>29</v>
       </c>
       <c r="B576" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C576">
         <v>5007114</v>
@@ -46954,7 +46966,7 @@
         <v>0</v>
       </c>
       <c r="S576" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="T576" t="s">
         <v>40</v>
@@ -46977,7 +46989,7 @@
         <v>29</v>
       </c>
       <c r="B577" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C577">
         <v>5145205</v>
@@ -46998,7 +47010,7 @@
         <v>49</v>
       </c>
       <c r="I577" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J577" t="s">
         <v>37</v>
@@ -47030,7 +47042,7 @@
         <v>29</v>
       </c>
       <c r="B578" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C578">
         <v>4243043</v>
@@ -47110,7 +47122,7 @@
         <v>29</v>
       </c>
       <c r="B579" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C579">
         <v>4216401</v>
@@ -47122,7 +47134,7 @@
         <v>32</v>
       </c>
       <c r="F579" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G579" t="s">
         <v>52</v>
@@ -47193,7 +47205,7 @@
         <v>29</v>
       </c>
       <c r="B580" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C580">
         <v>4331477</v>
@@ -47279,7 +47291,7 @@
         <v>29</v>
       </c>
       <c r="B581" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C581">
         <v>4350101</v>
@@ -47356,7 +47368,7 @@
         <v>29</v>
       </c>
       <c r="B582" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C582">
         <v>4517080</v>
@@ -47433,7 +47445,7 @@
         <v>29</v>
       </c>
       <c r="B583" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C583">
         <v>4202332</v>
@@ -47519,7 +47531,7 @@
         <v>29</v>
       </c>
       <c r="B584" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C584">
         <v>4536602</v>
@@ -47596,7 +47608,7 @@
         <v>29</v>
       </c>
       <c r="B585" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C585">
         <v>4260040</v>
@@ -47685,7 +47697,7 @@
         <v>29</v>
       </c>
       <c r="B586" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C586">
         <v>1879977</v>
@@ -47774,7 +47786,7 @@
         <v>29</v>
       </c>
       <c r="B587" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C587">
         <v>4550289</v>
@@ -47795,7 +47807,7 @@
         <v>59</v>
       </c>
       <c r="I587" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J587" t="s">
         <v>37</v>
@@ -47851,7 +47863,7 @@
         <v>29</v>
       </c>
       <c r="B588" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C588">
         <v>4425261</v>
@@ -47999,7 +48011,7 @@
         <v>29</v>
       </c>
       <c r="B590" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C590">
         <v>4382374</v>
@@ -48079,7 +48091,7 @@
         <v>29</v>
       </c>
       <c r="B591" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C591">
         <v>3189818</v>
@@ -48121,7 +48133,7 @@
         <v>0</v>
       </c>
       <c r="S591" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="T591" t="s">
         <v>40</v>
@@ -48171,7 +48183,7 @@
         <v>29</v>
       </c>
       <c r="B592" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C592">
         <v>1368670</v>
@@ -48213,7 +48225,7 @@
         <v>0</v>
       </c>
       <c r="S592" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="T592" t="s">
         <v>40</v>
@@ -48263,7 +48275,7 @@
         <v>29</v>
       </c>
       <c r="B593" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C593">
         <v>5064129</v>
@@ -48322,7 +48334,7 @@
         <v>29</v>
       </c>
       <c r="B594" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C594">
         <v>4381095</v>
@@ -48408,7 +48420,7 @@
         <v>29</v>
       </c>
       <c r="B595" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C595">
         <v>4224011</v>
@@ -48494,7 +48506,7 @@
         <v>29</v>
       </c>
       <c r="B596" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C596">
         <v>4346716</v>
@@ -48506,7 +48518,7 @@
         <v>32</v>
       </c>
       <c r="F596" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="G596" t="s">
         <v>52</v>
@@ -48580,7 +48592,7 @@
         <v>29</v>
       </c>
       <c r="B597" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C597">
         <v>4498637</v>
@@ -48657,7 +48669,7 @@
         <v>29</v>
       </c>
       <c r="B598" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C598">
         <v>4911541</v>
@@ -48740,7 +48752,7 @@
         <v>29</v>
       </c>
       <c r="B599" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C599">
         <v>4848927</v>
@@ -48805,7 +48817,7 @@
         <v>29</v>
       </c>
       <c r="B600" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C600">
         <v>4238126</v>
@@ -48847,7 +48859,7 @@
         <v>0</v>
       </c>
       <c r="S600" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="T600" t="s">
         <v>154</v>
@@ -48894,7 +48906,7 @@
         <v>29</v>
       </c>
       <c r="B601" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C601">
         <v>5105172</v>
@@ -48950,7 +48962,7 @@
         <v>29</v>
       </c>
       <c r="B602" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C602">
         <v>4328934</v>
@@ -48992,7 +49004,7 @@
         <v>0</v>
       </c>
       <c r="Q602" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="T602" t="s">
         <v>40</v>
@@ -49039,7 +49051,7 @@
         <v>29</v>
       </c>
       <c r="B603" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C603">
         <v>4487140</v>
@@ -49119,7 +49131,7 @@
         <v>29</v>
       </c>
       <c r="B604" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C604">
         <v>4918709</v>
@@ -49184,7 +49196,7 @@
         <v>29</v>
       </c>
       <c r="B605" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C605">
         <v>5000090</v>
@@ -49246,7 +49258,7 @@
         <v>29</v>
       </c>
       <c r="B606" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C606">
         <v>4813166</v>
@@ -49288,7 +49300,7 @@
         <v>0</v>
       </c>
       <c r="Q606" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="T606" t="s">
         <v>40</v>
@@ -49320,7 +49332,7 @@
         <v>29</v>
       </c>
       <c r="B607" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C607">
         <v>5173958</v>
@@ -49370,7 +49382,7 @@
         <v>29</v>
       </c>
       <c r="B608" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C608">
         <v>5105970</v>
@@ -49412,7 +49424,7 @@
         <v>0.1</v>
       </c>
       <c r="S608" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="T608" t="s">
         <v>40</v>
@@ -49429,7 +49441,7 @@
         <v>29</v>
       </c>
       <c r="B609" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C609">
         <v>4806286</v>
@@ -49500,7 +49512,7 @@
         <v>29</v>
       </c>
       <c r="B610" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C610">
         <v>5009947</v>
@@ -49562,7 +49574,7 @@
         <v>29</v>
       </c>
       <c r="B611" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C611">
         <v>3115072</v>
@@ -49639,7 +49651,7 @@
         <v>29</v>
       </c>
       <c r="B612" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C612">
         <v>4400000</v>
@@ -49651,7 +49663,7 @@
         <v>43</v>
       </c>
       <c r="F612" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="H612" t="s">
         <v>87</v>
@@ -49719,7 +49731,7 @@
         <v>29</v>
       </c>
       <c r="B613" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C613">
         <v>4967702</v>
@@ -49784,7 +49796,7 @@
         <v>29</v>
       </c>
       <c r="B614" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C614">
         <v>4360430</v>
@@ -49870,7 +49882,7 @@
         <v>29</v>
       </c>
       <c r="B615" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C615">
         <v>2694089</v>
@@ -49956,7 +49968,7 @@
         <v>29</v>
       </c>
       <c r="B616" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C616">
         <v>1294033</v>
@@ -50024,7 +50036,7 @@
         <v>29</v>
       </c>
       <c r="B617" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C617">
         <v>1804114</v>
@@ -50107,7 +50119,7 @@
         <v>29</v>
       </c>
       <c r="B618" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C618">
         <v>5103059</v>
@@ -50163,7 +50175,7 @@
         <v>29</v>
       </c>
       <c r="B619" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C619">
         <v>4462930</v>
@@ -50205,7 +50217,7 @@
         <v>0.2</v>
       </c>
       <c r="Q619" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="T619" t="s">
         <v>40</v>
@@ -50246,7 +50258,7 @@
         <v>29</v>
       </c>
       <c r="B620" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C620">
         <v>4466221</v>
@@ -50288,7 +50300,7 @@
         <v>0.1</v>
       </c>
       <c r="Q620" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="T620" t="s">
         <v>40</v>
@@ -50329,7 +50341,7 @@
         <v>29</v>
       </c>
       <c r="B621" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C621">
         <v>4419765</v>
@@ -50371,7 +50383,7 @@
         <v>0</v>
       </c>
       <c r="Q621" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="T621" t="s">
         <v>40</v>
@@ -50412,7 +50424,7 @@
         <v>29</v>
       </c>
       <c r="B622" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C622">
         <v>4216504</v>
@@ -50454,7 +50466,7 @@
         <v>0</v>
       </c>
       <c r="S622" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="T622" t="s">
         <v>40</v>
@@ -50501,7 +50513,7 @@
         <v>29</v>
       </c>
       <c r="B623" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C623">
         <v>4422594</v>
@@ -50584,7 +50596,7 @@
         <v>29</v>
       </c>
       <c r="B624" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C624">
         <v>5231126</v>
@@ -50634,7 +50646,7 @@
         <v>29</v>
       </c>
       <c r="B625" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C625">
         <v>4981655</v>
@@ -50696,7 +50708,7 @@
         <v>29</v>
       </c>
       <c r="B626" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C626">
         <v>2886520</v>
@@ -50773,7 +50785,7 @@
         <v>29</v>
       </c>
       <c r="B627" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C627">
         <v>4388077</v>
@@ -50856,7 +50868,7 @@
         <v>29</v>
       </c>
       <c r="B628" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C628">
         <v>4223226</v>
@@ -50945,7 +50957,7 @@
         <v>29</v>
       </c>
       <c r="B629" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C629">
         <v>4552944</v>
@@ -50987,7 +50999,7 @@
         <v>0</v>
       </c>
       <c r="S629" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="T629" t="s">
         <v>40</v>

--- a/controle.xlsx
+++ b/controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D584298-3BAB-4857-8D25-F136FFEB48B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{817C6437-05C1-4A7E-AAA0-00233DF4B74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2910A17-5F11-4D59-B613-1F94C1EE9466}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0317EA7-0981-4D6F-8D35-911050C49EB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -3106,11 +3106,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494319B1-89B8-4D00-B0E9-554BA9F1A9C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB4C6C4-BD0A-4512-A4FF-9A1517ECBB1E}">
   <dimension ref="A1:AL629"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AL629"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5191,7 +5191,7 @@
         <v>75</v>
       </c>
       <c r="G30" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s">
         <v>35</v>
@@ -7107,7 +7107,7 @@
         <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H55" t="s">
         <v>35</v>
@@ -7649,7 +7649,7 @@
         <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H62" t="s">
         <v>35</v>
@@ -8507,7 +8507,7 @@
         <v>139</v>
       </c>
       <c r="G74" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H74" t="s">
         <v>35</v>
@@ -9123,7 +9123,7 @@
         <v>75</v>
       </c>
       <c r="G82" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H82" t="s">
         <v>35</v>
@@ -9552,7 +9552,7 @@
         <v>86</v>
       </c>
       <c r="G88" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H88" t="s">
         <v>35</v>
@@ -10618,7 +10618,7 @@
         <v>113</v>
       </c>
       <c r="G102" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H102" t="s">
         <v>35</v>
@@ -10938,7 +10938,7 @@
         <v>75</v>
       </c>
       <c r="G106" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H106" t="s">
         <v>35</v>
@@ -11382,7 +11382,7 @@
         <v>86</v>
       </c>
       <c r="G112" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H112" t="s">
         <v>35</v>
@@ -11453,7 +11453,7 @@
         <v>75</v>
       </c>
       <c r="G113" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H113" t="s">
         <v>35</v>
@@ -12676,7 +12676,7 @@
         <v>75</v>
       </c>
       <c r="G129" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H129" t="s">
         <v>35</v>
@@ -13197,7 +13197,7 @@
         <v>69</v>
       </c>
       <c r="G136" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H136" t="s">
         <v>35</v>
@@ -13363,7 +13363,7 @@
         <v>264</v>
       </c>
       <c r="G138" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H138" t="s">
         <v>35</v>
@@ -13630,7 +13630,7 @@
         <v>54</v>
       </c>
       <c r="G141" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H141" t="s">
         <v>35</v>
@@ -14459,7 +14459,7 @@
         <v>91</v>
       </c>
       <c r="G152" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H152" t="s">
         <v>35</v>
@@ -14666,7 +14666,7 @@
         <v>75</v>
       </c>
       <c r="G155" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H155" t="s">
         <v>35</v>
@@ -15818,7 +15818,7 @@
         <v>44</v>
       </c>
       <c r="G170" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H170" t="s">
         <v>35</v>
@@ -16781,7 +16781,7 @@
         <v>321</v>
       </c>
       <c r="G182" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H182" t="s">
         <v>35</v>
@@ -17600,7 +17600,7 @@
         <v>86</v>
       </c>
       <c r="G194" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H194" t="s">
         <v>35</v>
@@ -19166,7 +19166,7 @@
         <v>367</v>
       </c>
       <c r="G215" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H215" t="s">
         <v>35</v>
@@ -19696,7 +19696,7 @@
         <v>86</v>
       </c>
       <c r="G222" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H222" t="s">
         <v>35</v>
@@ -20916,7 +20916,7 @@
         <v>93</v>
       </c>
       <c r="G238" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H238" t="s">
         <v>35</v>
@@ -22576,7 +22576,7 @@
         <v>64</v>
       </c>
       <c r="G261" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H261" t="s">
         <v>35</v>
@@ -25038,7 +25038,7 @@
         <v>75</v>
       </c>
       <c r="G292" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H292" t="s">
         <v>35</v>
@@ -25918,7 +25918,7 @@
         <v>69</v>
       </c>
       <c r="G303" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H303" t="s">
         <v>35</v>
@@ -26235,10 +26235,10 @@
         <v>48</v>
       </c>
       <c r="H307" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I307" t="s">
-        <v>483</v>
+        <v>36</v>
       </c>
       <c r="J307" t="s">
         <v>37</v>
@@ -27156,7 +27156,7 @@
         <v>33</v>
       </c>
       <c r="G319" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H319" t="s">
         <v>35</v>
@@ -27440,7 +27440,7 @@
         <v>44</v>
       </c>
       <c r="G323" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H323" t="s">
         <v>87</v>
@@ -27535,7 +27535,7 @@
         <v>517</v>
       </c>
       <c r="G324" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H324" t="s">
         <v>35</v>
@@ -28358,7 +28358,7 @@
         <v>34</v>
       </c>
       <c r="H335" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I335" t="s">
         <v>36</v>
@@ -30062,7 +30062,7 @@
         <v>34</v>
       </c>
       <c r="H356" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I356" t="s">
         <v>36</v>
@@ -30426,7 +30426,7 @@
         <v>54</v>
       </c>
       <c r="G361" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H361" t="s">
         <v>35</v>
@@ -30651,7 +30651,7 @@
         <v>54</v>
       </c>
       <c r="G364" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H364" t="s">
         <v>35</v>
@@ -31163,7 +31163,7 @@
         <v>75</v>
       </c>
       <c r="G371" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H371" t="s">
         <v>35</v>
@@ -33953,7 +33953,7 @@
         <v>93</v>
       </c>
       <c r="G407" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H407" t="s">
         <v>35</v>
@@ -34377,7 +34377,7 @@
         <v>93</v>
       </c>
       <c r="G412" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H412" t="s">
         <v>35</v>
@@ -36820,7 +36820,7 @@
         <v>100</v>
       </c>
       <c r="G444" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H444" t="s">
         <v>35</v>
@@ -37356,7 +37356,7 @@
         <v>69</v>
       </c>
       <c r="G451" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H451" t="s">
         <v>35</v>
@@ -38748,7 +38748,7 @@
         <v>100</v>
       </c>
       <c r="G469" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H469" t="s">
         <v>35</v>
@@ -38896,7 +38896,7 @@
         <v>75</v>
       </c>
       <c r="G471" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H471" t="s">
         <v>35</v>
@@ -42732,7 +42732,7 @@
         <v>86</v>
       </c>
       <c r="G520" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H520" t="s">
         <v>35</v>
@@ -45628,7 +45628,7 @@
         <v>69</v>
       </c>
       <c r="G558" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H558" t="s">
         <v>35</v>
@@ -46741,7 +46741,7 @@
         <v>75</v>
       </c>
       <c r="G573" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H573" t="s">
         <v>35</v>
@@ -46809,7 +46809,7 @@
         <v>75</v>
       </c>
       <c r="G574" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H574" t="s">
         <v>35</v>
@@ -46877,7 +46877,7 @@
         <v>75</v>
       </c>
       <c r="G575" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H575" t="s">
         <v>59</v>

--- a/controle.xlsx
+++ b/controle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRUNO.SILVA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{817C6437-05C1-4A7E-AAA0-00233DF4B74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B98E681-8385-463C-A3BF-A65E3919349E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0317EA7-0981-4D6F-8D35-911050C49EB3}"/>
+    <workbookView xWindow="28740" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{ADFD5083-CC8E-4C88-A8B0-5AD34F1495E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7781" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7785" uniqueCount="907">
   <si>
     <t>Backoffice</t>
   </si>
@@ -2169,7 +2169,7 @@
     <t>Odilon Alexandre Silveira Marques Pereira</t>
   </si>
   <si>
-    <t>Milanez dia 24/01/2024 via pipe: 30% em liquidez, 50% em renda fixa com vencimento de ate 3 meses e 20 em renda variavel =&gt;60K RF Ativo - prazo venc. max - 3 meses</t>
+    <t>30% Fundo RF Ativo. RF: prazo máx (90 dias).</t>
   </si>
   <si>
     <t xml:space="preserve">Oliveira Administração Eireli </t>
@@ -2746,6 +2746,18 @@
   </si>
   <si>
     <t>Yuri David Lechineswski</t>
+  </si>
+  <si>
+    <t>Contas Ativas</t>
+  </si>
+  <si>
+    <t>Contas Invativas</t>
+  </si>
+  <si>
+    <t>Contas Encerradas</t>
+  </si>
+  <si>
+    <t>Contas Pode Operar</t>
   </si>
 </sst>
 </file>
@@ -3106,11 +3118,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB4C6C4-BD0A-4512-A4FF-9A1517ECBB1E}">
-  <dimension ref="A1:AL629"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C910C81-16E9-45B1-A2F5-A6D3B7A013E8}">
+  <dimension ref="A1:AL634"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:AL1025"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51032,6 +51044,83 @@
         <v>234755.16</v>
       </c>
     </row>
+    <row r="631" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B631" t="s">
+        <v>903</v>
+      </c>
+      <c r="C631">
+        <v>497</v>
+      </c>
+      <c r="X631" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y631" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z631" s="4">
+        <v>11487265.99</v>
+      </c>
+      <c r="AA631" s="4">
+        <v>27095720.27</v>
+      </c>
+      <c r="AB631" s="4">
+        <v>67316998.840000004</v>
+      </c>
+      <c r="AC631" s="4">
+        <v>121282813.76000001</v>
+      </c>
+      <c r="AD631" s="4">
+        <v>158453126.59</v>
+      </c>
+      <c r="AE631" s="4">
+        <v>176485810.25</v>
+      </c>
+      <c r="AF631" s="4">
+        <v>202593773.99000001</v>
+      </c>
+      <c r="AG631" s="4">
+        <v>228180045.97</v>
+      </c>
+      <c r="AH631" s="4">
+        <v>259049544</v>
+      </c>
+      <c r="AI631" s="4">
+        <v>265467295.56</v>
+      </c>
+      <c r="AJ631" s="4">
+        <v>275948183.42000002</v>
+      </c>
+      <c r="AK631" s="4">
+        <v>284547379.31</v>
+      </c>
+      <c r="AL631" s="4">
+        <v>293007518.69999999</v>
+      </c>
+    </row>
+    <row r="632" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B632" t="s">
+        <v>904</v>
+      </c>
+      <c r="C632">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="633" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B633" t="s">
+        <v>905</v>
+      </c>
+      <c r="C633">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="634" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B634" t="s">
+        <v>906</v>
+      </c>
+      <c r="C634">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/controle.xlsx
+++ b/controle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRUNO.SILVA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B98E681-8385-463C-A3BF-A65E3919349E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD3F2FC5-7545-47DE-9B1D-C45DAA272FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{ADFD5083-CC8E-4C88-A8B0-5AD34F1495E4}"/>
+    <workbookView xWindow="31140" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{B115454E-D4CA-4D42-8714-28FFBE4D4D69}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7785" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7781" uniqueCount="903">
   <si>
     <t>Backoffice</t>
   </si>
@@ -2746,18 +2746,6 @@
   </si>
   <si>
     <t>Yuri David Lechineswski</t>
-  </si>
-  <si>
-    <t>Contas Ativas</t>
-  </si>
-  <si>
-    <t>Contas Invativas</t>
-  </si>
-  <si>
-    <t>Contas Encerradas</t>
-  </si>
-  <si>
-    <t>Contas Pode Operar</t>
   </si>
 </sst>
 </file>
@@ -3118,11 +3106,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C910C81-16E9-45B1-A2F5-A6D3B7A013E8}">
-  <dimension ref="A1:AL634"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7A1864-E5CA-4876-ADC3-95B632F6A988}">
+  <dimension ref="A1:AL629"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AL1025"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51044,83 +51032,6 @@
         <v>234755.16</v>
       </c>
     </row>
-    <row r="631" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B631" t="s">
-        <v>903</v>
-      </c>
-      <c r="C631">
-        <v>497</v>
-      </c>
-      <c r="X631" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y631" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z631" s="4">
-        <v>11487265.99</v>
-      </c>
-      <c r="AA631" s="4">
-        <v>27095720.27</v>
-      </c>
-      <c r="AB631" s="4">
-        <v>67316998.840000004</v>
-      </c>
-      <c r="AC631" s="4">
-        <v>121282813.76000001</v>
-      </c>
-      <c r="AD631" s="4">
-        <v>158453126.59</v>
-      </c>
-      <c r="AE631" s="4">
-        <v>176485810.25</v>
-      </c>
-      <c r="AF631" s="4">
-        <v>202593773.99000001</v>
-      </c>
-      <c r="AG631" s="4">
-        <v>228180045.97</v>
-      </c>
-      <c r="AH631" s="4">
-        <v>259049544</v>
-      </c>
-      <c r="AI631" s="4">
-        <v>265467295.56</v>
-      </c>
-      <c r="AJ631" s="4">
-        <v>275948183.42000002</v>
-      </c>
-      <c r="AK631" s="4">
-        <v>284547379.31</v>
-      </c>
-      <c r="AL631" s="4">
-        <v>293007518.69999999</v>
-      </c>
-    </row>
-    <row r="632" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B632" t="s">
-        <v>904</v>
-      </c>
-      <c r="C632">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="633" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B633" t="s">
-        <v>905</v>
-      </c>
-      <c r="C633">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="634" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B634" t="s">
-        <v>906</v>
-      </c>
-      <c r="C634">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/controle.xlsx
+++ b/controle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRUNO.SILVA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AC45868-7CA4-4C4C-A4DC-BE0AAB160618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93A2D48A-15E9-4F0D-8FFF-A6EA0A55B390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C8A359-713F-47AB-97F4-6B6F89378D04}"/>
+    <workbookView xWindow="28845" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B0BB174-B0D2-4FC1-9568-147B71E716A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7791" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7806" uniqueCount="909">
   <si>
     <t>Backoffice</t>
   </si>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">Christian Kleber Rosa Lisboa    </t>
   </si>
   <si>
-    <t>Não comprar ações</t>
+    <t>Não comprar ações / Alt de carteira 30/01/2024</t>
   </si>
   <si>
     <t>Mudar carteira para Income - email enviado Vivivan 23/01</t>
@@ -1334,7 +1334,7 @@
     <t>Helena Brenner Da Rocha E Silva</t>
   </si>
   <si>
-    <t>Inicio de STVM de saida dia 17/01/2024</t>
+    <t xml:space="preserve">Não operar, será realizado um resgate total e passado para a PJ da cliente. </t>
   </si>
   <si>
     <t>270k Renda Fixa Ativo</t>
@@ -2241,7 +2241,7 @@
     <t xml:space="preserve">Paulo Henrique de Freitas Miranda     </t>
   </si>
   <si>
-    <t>Assessora solicitou que fosse vendido toda a RV</t>
+    <t>Assessora solicitou que fosse vendido toda a RV/ Alt. de carteira inic. 30/01/2024</t>
   </si>
   <si>
     <t>Paulo Roberto de Souza Moutinho</t>
@@ -2310,6 +2310,9 @@
     <t>Polyanna Rezende Milhomem Marinho</t>
   </si>
   <si>
+    <t>Assessora solicitou que fosse vendido toda a RV/ Alt de carteira inic. 30/01/2024</t>
+  </si>
+  <si>
     <t>Priscilla Fernandes Chaves Pereira</t>
   </si>
   <si>
@@ -2487,6 +2490,9 @@
     <t xml:space="preserve">Possivel retorno futuro </t>
   </si>
   <si>
+    <t>Rosa Maria Donzelli Borges</t>
+  </si>
+  <si>
     <t>Rosana de Fátima Moreira Fernandes</t>
   </si>
   <si>
@@ -2746,6 +2752,18 @@
   </si>
   <si>
     <t>Yuri David Lechineswski</t>
+  </si>
+  <si>
+    <t>Contas Ativas</t>
+  </si>
+  <si>
+    <t>Contas Invativas</t>
+  </si>
+  <si>
+    <t>Contas Encerradas</t>
+  </si>
+  <si>
+    <t>Contas Pode Operar</t>
   </si>
 </sst>
 </file>
@@ -3106,10 +3124,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC917A5D-EFDA-4A3A-B511-EE8A589B37E2}">
-  <dimension ref="A1:AL630"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F88246-18CD-4586-9B52-AA006BB5DCA2}">
+  <dimension ref="A1:AL636"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AL1027"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -11620,7 +11640,7 @@
         <v>34</v>
       </c>
       <c r="H115" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I115" t="s">
         <v>36</v>
@@ -36767,10 +36787,10 @@
         <v>29</v>
       </c>
       <c r="B444" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C444">
-        <v>4451652</v>
+        <v>4756981</v>
       </c>
       <c r="D444" t="s">
         <v>42</v>
@@ -36779,10 +36799,10 @@
         <v>43</v>
       </c>
       <c r="F444" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="G444" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H444" t="s">
         <v>35</v>
@@ -36794,52 +36814,43 @@
         <v>37</v>
       </c>
       <c r="K444" s="1">
-        <v>45005</v>
+        <v>45103</v>
       </c>
       <c r="M444" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N444" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O444" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P444" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T444" t="s">
         <v>40</v>
       </c>
-      <c r="AC444" s="4">
-        <v>108824.42</v>
-      </c>
-      <c r="AD444" s="4">
-        <v>47556.19</v>
-      </c>
-      <c r="AE444" s="4">
-        <v>64503.79</v>
-      </c>
       <c r="AF444" s="4">
-        <v>66263.149999999994</v>
+        <v>200323.08</v>
       </c>
       <c r="AG444" s="4">
-        <v>76565.75</v>
+        <v>202185.21</v>
       </c>
       <c r="AH444" s="4">
-        <v>89589.62</v>
+        <v>254401.12</v>
       </c>
       <c r="AI444" s="4">
-        <v>103189.25</v>
+        <v>256470.23</v>
       </c>
       <c r="AJ444" s="4">
-        <v>93072.73</v>
+        <v>258614.98</v>
       </c>
       <c r="AK444" s="4">
-        <v>389160.11</v>
+        <v>310396.68</v>
       </c>
       <c r="AL444" s="4">
-        <v>342594.29</v>
+        <v>312685.08</v>
       </c>
     </row>
     <row r="445" spans="1:38" x14ac:dyDescent="0.25">
@@ -36847,10 +36858,10 @@
         <v>29</v>
       </c>
       <c r="B445" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C445">
-        <v>4756981</v>
+        <v>4451652</v>
       </c>
       <c r="D445" t="s">
         <v>42</v>
@@ -36859,10 +36870,10 @@
         <v>43</v>
       </c>
       <c r="F445" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="G445" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H445" t="s">
         <v>35</v>
@@ -36874,43 +36885,52 @@
         <v>37</v>
       </c>
       <c r="K445" s="1">
-        <v>45103</v>
+        <v>45005</v>
       </c>
       <c r="M445" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N445" s="2">
-        <v>1.2E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O445" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P445" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T445" t="s">
         <v>40</v>
       </c>
+      <c r="AC445" s="4">
+        <v>108824.42</v>
+      </c>
+      <c r="AD445" s="4">
+        <v>47556.19</v>
+      </c>
+      <c r="AE445" s="4">
+        <v>64503.79</v>
+      </c>
       <c r="AF445" s="4">
-        <v>200323.08</v>
+        <v>66263.149999999994</v>
       </c>
       <c r="AG445" s="4">
-        <v>202185.21</v>
+        <v>76565.75</v>
       </c>
       <c r="AH445" s="4">
-        <v>254401.12</v>
+        <v>89589.62</v>
       </c>
       <c r="AI445" s="4">
-        <v>256470.23</v>
+        <v>103189.25</v>
       </c>
       <c r="AJ445" s="4">
-        <v>258614.98</v>
+        <v>93072.73</v>
       </c>
       <c r="AK445" s="4">
-        <v>310396.68</v>
+        <v>389160.11</v>
       </c>
       <c r="AL445" s="4">
-        <v>312685.08</v>
+        <v>342594.29</v>
       </c>
     </row>
     <row r="446" spans="1:38" x14ac:dyDescent="0.25">
@@ -40233,7 +40253,7 @@
         <v>34</v>
       </c>
       <c r="H488" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I488" t="s">
         <v>36</v>
@@ -41512,7 +41532,7 @@
         <v>34</v>
       </c>
       <c r="H505" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I505" t="s">
         <v>36</v>
@@ -41536,7 +41556,7 @@
         <v>0.1</v>
       </c>
       <c r="Q505" t="s">
-        <v>734</v>
+        <v>757</v>
       </c>
       <c r="T505" t="s">
         <v>40</v>
@@ -41577,7 +41597,7 @@
         <v>29</v>
       </c>
       <c r="B506" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C506">
         <v>4224771</v>
@@ -41663,7 +41683,7 @@
         <v>29</v>
       </c>
       <c r="B507" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C507">
         <v>4224284</v>
@@ -41749,7 +41769,7 @@
         <v>29</v>
       </c>
       <c r="B508" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C508">
         <v>4497825</v>
@@ -41829,7 +41849,7 @@
         <v>29</v>
       </c>
       <c r="B509" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C509">
         <v>4588677</v>
@@ -41906,7 +41926,7 @@
         <v>29</v>
       </c>
       <c r="B510" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C510">
         <v>4222784</v>
@@ -41948,7 +41968,7 @@
         <v>0</v>
       </c>
       <c r="Q510" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="T510" t="s">
         <v>40</v>
@@ -41992,7 +42012,7 @@
         <v>29</v>
       </c>
       <c r="B511" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C511">
         <v>4500804</v>
@@ -42034,7 +42054,7 @@
         <v>0</v>
       </c>
       <c r="S511" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="T511" t="s">
         <v>40</v>
@@ -42075,7 +42095,7 @@
         <v>29</v>
       </c>
       <c r="B512" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C512">
         <v>5135281</v>
@@ -42131,7 +42151,7 @@
         <v>29</v>
       </c>
       <c r="B513" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C513">
         <v>4212409</v>
@@ -42220,7 +42240,7 @@
         <v>29</v>
       </c>
       <c r="B514" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C514">
         <v>4457389</v>
@@ -42297,7 +42317,7 @@
         <v>29</v>
       </c>
       <c r="B515" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C515">
         <v>4454365</v>
@@ -42309,7 +42329,7 @@
         <v>32</v>
       </c>
       <c r="F515" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G515" t="s">
         <v>34</v>
@@ -42377,7 +42397,7 @@
         <v>29</v>
       </c>
       <c r="B516" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C516">
         <v>2064834</v>
@@ -42457,7 +42477,7 @@
         <v>29</v>
       </c>
       <c r="B517" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C517">
         <v>5058141</v>
@@ -42516,7 +42536,7 @@
         <v>29</v>
       </c>
       <c r="B518" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C518">
         <v>4466350</v>
@@ -42558,7 +42578,7 @@
         <v>0</v>
       </c>
       <c r="S518" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="T518" t="s">
         <v>40</v>
@@ -42599,7 +42619,7 @@
         <v>29</v>
       </c>
       <c r="B519" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C519">
         <v>4879113</v>
@@ -42641,7 +42661,7 @@
         <v>0</v>
       </c>
       <c r="S519" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="T519" t="s">
         <v>154</v>
@@ -42670,7 +42690,7 @@
         <v>29</v>
       </c>
       <c r="B520" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C520">
         <v>4208733</v>
@@ -42712,7 +42732,7 @@
         <v>0</v>
       </c>
       <c r="S520" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="T520" t="s">
         <v>40</v>
@@ -42759,7 +42779,7 @@
         <v>29</v>
       </c>
       <c r="B521" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C521">
         <v>4550605</v>
@@ -42839,7 +42859,7 @@
         <v>29</v>
       </c>
       <c r="B522" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C522">
         <v>5216881</v>
@@ -42889,7 +42909,7 @@
         <v>29</v>
       </c>
       <c r="B523" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C523">
         <v>2828327</v>
@@ -42975,7 +42995,7 @@
         <v>29</v>
       </c>
       <c r="B524" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C524">
         <v>4318604</v>
@@ -43017,7 +43037,7 @@
         <v>0.1</v>
       </c>
       <c r="S524" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="T524" t="s">
         <v>40</v>
@@ -43064,7 +43084,7 @@
         <v>29</v>
       </c>
       <c r="B525" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C525">
         <v>4340984</v>
@@ -43106,7 +43126,7 @@
         <v>0.1</v>
       </c>
       <c r="Q525" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="T525" t="s">
         <v>40</v>
@@ -43153,7 +43173,7 @@
         <v>29</v>
       </c>
       <c r="B526" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C526">
         <v>4646727</v>
@@ -43218,7 +43238,7 @@
         <v>29</v>
       </c>
       <c r="B527" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C527">
         <v>4850070</v>
@@ -43260,7 +43280,7 @@
         <v>0</v>
       </c>
       <c r="Q527" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="T527" t="s">
         <v>40</v>
@@ -43289,7 +43309,7 @@
         <v>29</v>
       </c>
       <c r="B528" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C528">
         <v>4862677</v>
@@ -43357,7 +43377,7 @@
         <v>29</v>
       </c>
       <c r="B529" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C529">
         <v>4862672</v>
@@ -43425,7 +43445,7 @@
         <v>29</v>
       </c>
       <c r="B530" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C530">
         <v>4886366</v>
@@ -43493,7 +43513,7 @@
         <v>29</v>
       </c>
       <c r="B531" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C531">
         <v>4237325</v>
@@ -43535,10 +43555,10 @@
         <v>0.1</v>
       </c>
       <c r="Q531" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="S531" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="T531" t="s">
         <v>40</v>
@@ -43585,7 +43605,7 @@
         <v>29</v>
       </c>
       <c r="B532" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C532">
         <v>4539779</v>
@@ -43662,7 +43682,7 @@
         <v>29</v>
       </c>
       <c r="B533" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C533">
         <v>4505474</v>
@@ -43739,7 +43759,7 @@
         <v>29</v>
       </c>
       <c r="B534" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C534">
         <v>4497963</v>
@@ -43822,7 +43842,7 @@
         <v>29</v>
       </c>
       <c r="B535" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C535">
         <v>4482262</v>
@@ -43902,7 +43922,7 @@
         <v>29</v>
       </c>
       <c r="B536" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C536">
         <v>4586209</v>
@@ -43932,7 +43952,7 @@
         <v>45124</v>
       </c>
       <c r="M536" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N536" s="2">
         <v>1.4E-2</v>
@@ -43973,7 +43993,7 @@
         <v>29</v>
       </c>
       <c r="B537" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C537">
         <v>4207658</v>
@@ -44059,7 +44079,7 @@
         <v>29</v>
       </c>
       <c r="B538" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C538">
         <v>4462543</v>
@@ -44139,7 +44159,7 @@
         <v>29</v>
       </c>
       <c r="B539" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C539">
         <v>4470679</v>
@@ -44181,7 +44201,7 @@
         <v>0</v>
       </c>
       <c r="S539" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="T539" t="s">
         <v>40</v>
@@ -44222,7 +44242,7 @@
         <v>29</v>
       </c>
       <c r="B540" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C540">
         <v>4472538</v>
@@ -44264,7 +44284,7 @@
         <v>0.1</v>
       </c>
       <c r="S540" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="T540" t="s">
         <v>40</v>
@@ -44305,7 +44325,7 @@
         <v>29</v>
       </c>
       <c r="B541" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C541">
         <v>4465646</v>
@@ -44385,7 +44405,7 @@
         <v>29</v>
       </c>
       <c r="B542" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C542">
         <v>5152037</v>
@@ -44435,7 +44455,7 @@
         <v>29</v>
       </c>
       <c r="B543" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C543">
         <v>4532856</v>
@@ -44477,7 +44497,7 @@
         <v>0</v>
       </c>
       <c r="Q543" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="T543" t="s">
         <v>40</v>
@@ -44515,7 +44535,7 @@
         <v>29</v>
       </c>
       <c r="B544" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C544">
         <v>4538384</v>
@@ -44592,7 +44612,7 @@
         <v>29</v>
       </c>
       <c r="B545" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C545">
         <v>4541149</v>
@@ -44669,7 +44689,7 @@
         <v>29</v>
       </c>
       <c r="B546" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C546">
         <v>4374891</v>
@@ -44755,7 +44775,7 @@
         <v>29</v>
       </c>
       <c r="B547" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C547">
         <v>4479734</v>
@@ -44835,7 +44855,7 @@
         <v>29</v>
       </c>
       <c r="B548" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C548">
         <v>5142624</v>
@@ -44891,7 +44911,7 @@
         <v>29</v>
       </c>
       <c r="B549" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C549">
         <v>4392159</v>
@@ -44903,7 +44923,7 @@
         <v>32</v>
       </c>
       <c r="F549" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G549" t="s">
         <v>34</v>
@@ -44974,7 +44994,7 @@
         <v>29</v>
       </c>
       <c r="B550" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C550">
         <v>1813259</v>
@@ -45045,7 +45065,7 @@
         <v>29</v>
       </c>
       <c r="B551" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C551">
         <v>4487016</v>
@@ -45125,7 +45145,7 @@
         <v>29</v>
       </c>
       <c r="B552" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C552">
         <v>4475145</v>
@@ -45167,7 +45187,7 @@
         <v>0</v>
       </c>
       <c r="S552" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="T552" t="s">
         <v>40</v>
@@ -45208,10 +45228,10 @@
         <v>29</v>
       </c>
       <c r="B553" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C553">
-        <v>4805333</v>
+        <v>5245032</v>
       </c>
       <c r="D553" t="s">
         <v>42</v>
@@ -45220,22 +45240,19 @@
         <v>43</v>
       </c>
       <c r="F553" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="G553" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H553" t="s">
-        <v>35</v>
-      </c>
-      <c r="I553" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J553" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K553" s="1">
-        <v>45105</v>
+        <v>45321</v>
       </c>
       <c r="M553" t="s">
         <v>45</v>
@@ -45249,32 +45266,8 @@
       <c r="P553" s="3">
         <v>0</v>
       </c>
-      <c r="Q553" t="s">
-        <v>817</v>
-      </c>
       <c r="T553" t="s">
         <v>40</v>
-      </c>
-      <c r="AF553" s="4">
-        <v>41342.639999999999</v>
-      </c>
-      <c r="AG553" s="4">
-        <v>353197.08</v>
-      </c>
-      <c r="AH553" s="4">
-        <v>356698.92</v>
-      </c>
-      <c r="AI553" s="4">
-        <v>359344.38</v>
-      </c>
-      <c r="AJ553" s="4">
-        <v>362677.22</v>
-      </c>
-      <c r="AK553" s="4">
-        <v>365512.31</v>
-      </c>
-      <c r="AL553" s="4">
-        <v>368420.65</v>
       </c>
     </row>
     <row r="554" spans="1:38" x14ac:dyDescent="0.25">
@@ -45285,31 +45278,31 @@
         <v>818</v>
       </c>
       <c r="C554">
-        <v>4392004</v>
+        <v>4805333</v>
       </c>
       <c r="D554" t="s">
         <v>42</v>
       </c>
       <c r="E554" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F554" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="G554" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H554" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I554" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="J554" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="K554" s="1">
-        <v>45166</v>
+        <v>45105</v>
       </c>
       <c r="M554" t="s">
         <v>45</v>
@@ -45323,41 +45316,32 @@
       <c r="P554" s="3">
         <v>0</v>
       </c>
+      <c r="Q554" t="s">
+        <v>819</v>
+      </c>
       <c r="T554" t="s">
         <v>40</v>
       </c>
-      <c r="AB554" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC554" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD554" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE554" s="4">
-        <v>0</v>
-      </c>
       <c r="AF554" s="4">
-        <v>0</v>
+        <v>41342.639999999999</v>
       </c>
       <c r="AG554" s="4">
-        <v>0</v>
+        <v>353197.08</v>
       </c>
       <c r="AH554" s="4">
-        <v>0</v>
+        <v>356698.92</v>
       </c>
       <c r="AI554" s="4">
-        <v>0</v>
+        <v>359344.38</v>
       </c>
       <c r="AJ554" s="4">
-        <v>0</v>
+        <v>362677.22</v>
       </c>
       <c r="AK554" s="4">
-        <v>0</v>
+        <v>365512.31</v>
       </c>
       <c r="AL554" s="4">
-        <v>0</v>
+        <v>368420.65</v>
       </c>
     </row>
     <row r="555" spans="1:38" x14ac:dyDescent="0.25">
@@ -45365,34 +45349,34 @@
         <v>29</v>
       </c>
       <c r="B555" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C555">
-        <v>4924222</v>
+        <v>4392004</v>
       </c>
       <c r="D555" t="s">
         <v>42</v>
       </c>
       <c r="E555" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F555" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="G555" t="s">
         <v>48</v>
       </c>
       <c r="H555" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I555" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="J555" t="s">
         <v>37</v>
       </c>
       <c r="K555" s="1">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="M555" t="s">
         <v>45</v>
@@ -45409,20 +45393,38 @@
       <c r="T555" t="s">
         <v>40</v>
       </c>
+      <c r="AB555" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC555" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD555" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE555" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF555" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG555" s="4">
+        <v>0</v>
+      </c>
       <c r="AH555" s="4">
-        <v>212285.51</v>
+        <v>0</v>
       </c>
       <c r="AI555" s="4">
-        <v>213887.99</v>
+        <v>0</v>
       </c>
       <c r="AJ555" s="4">
-        <v>215498.84</v>
+        <v>0</v>
       </c>
       <c r="AK555" s="4">
-        <v>217365.1</v>
+        <v>0</v>
       </c>
       <c r="AL555" s="4">
-        <v>219164.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:38" x14ac:dyDescent="0.25">
@@ -45430,22 +45432,22 @@
         <v>29</v>
       </c>
       <c r="B556" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C556">
-        <v>4413523</v>
+        <v>4924222</v>
       </c>
       <c r="D556" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E556" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F556" t="s">
-        <v>270</v>
+        <v>86</v>
       </c>
       <c r="G556" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H556" t="s">
         <v>35</v>
@@ -45457,52 +45459,37 @@
         <v>37</v>
       </c>
       <c r="K556" s="1">
-        <v>44995</v>
+        <v>45163</v>
       </c>
       <c r="M556" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N556" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O556" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P556" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T556" t="s">
         <v>40</v>
       </c>
-      <c r="AC556" s="4">
-        <v>60571.25</v>
-      </c>
-      <c r="AD556" s="4">
-        <v>94101.27</v>
-      </c>
-      <c r="AE556" s="4">
-        <v>95641.04</v>
-      </c>
-      <c r="AF556" s="4">
-        <v>97219.44</v>
-      </c>
-      <c r="AG556" s="4">
-        <v>98019.24</v>
-      </c>
       <c r="AH556" s="4">
-        <v>98214.51</v>
+        <v>212285.51</v>
       </c>
       <c r="AI556" s="4">
-        <v>98658</v>
+        <v>213887.99</v>
       </c>
       <c r="AJ556" s="4">
-        <v>98603.27</v>
+        <v>215498.84</v>
       </c>
       <c r="AK556" s="4">
-        <v>101156.98</v>
+        <v>217365.1</v>
       </c>
       <c r="AL556" s="4">
-        <v>103107.47</v>
+        <v>219164.85</v>
       </c>
     </row>
     <row r="557" spans="1:38" x14ac:dyDescent="0.25">
@@ -45510,22 +45497,22 @@
         <v>29</v>
       </c>
       <c r="B557" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C557">
-        <v>5002457</v>
+        <v>4413523</v>
       </c>
       <c r="D557" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E557" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F557" t="s">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="G557" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H557" t="s">
         <v>35</v>
@@ -45534,16 +45521,16 @@
         <v>36</v>
       </c>
       <c r="J557" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K557" s="1">
-        <v>45188</v>
+        <v>44995</v>
       </c>
       <c r="M557" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N557" s="2">
-        <v>1.2E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O557" t="s">
         <v>39</v>
@@ -45551,23 +45538,38 @@
       <c r="P557" s="3">
         <v>0.1</v>
       </c>
-      <c r="S557" t="s">
-        <v>822</v>
-      </c>
       <c r="T557" t="s">
         <v>40</v>
       </c>
+      <c r="AC557" s="4">
+        <v>60571.25</v>
+      </c>
+      <c r="AD557" s="4">
+        <v>94101.27</v>
+      </c>
+      <c r="AE557" s="4">
+        <v>95641.04</v>
+      </c>
+      <c r="AF557" s="4">
+        <v>97219.44</v>
+      </c>
+      <c r="AG557" s="4">
+        <v>98019.24</v>
+      </c>
+      <c r="AH557" s="4">
+        <v>98214.51</v>
+      </c>
       <c r="AI557" s="4">
-        <v>0</v>
+        <v>98658</v>
       </c>
       <c r="AJ557" s="4">
-        <v>559522.29</v>
+        <v>98603.27</v>
       </c>
       <c r="AK557" s="4">
-        <v>569804.07999999996</v>
+        <v>101156.98</v>
       </c>
       <c r="AL557" s="4">
-        <v>578461.05000000005</v>
+        <v>103107.47</v>
       </c>
     </row>
     <row r="558" spans="1:38" x14ac:dyDescent="0.25">
@@ -45578,22 +45580,22 @@
         <v>823</v>
       </c>
       <c r="C558">
-        <v>4530494</v>
+        <v>5002457</v>
       </c>
       <c r="D558" t="s">
         <v>42</v>
       </c>
       <c r="E558" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F558" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G558" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H558" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I558" t="s">
         <v>36</v>
@@ -45602,52 +45604,37 @@
         <v>60</v>
       </c>
       <c r="K558" s="1">
-        <v>45051</v>
+        <v>45188</v>
       </c>
       <c r="M558" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N558" s="2">
         <v>1.2E-2</v>
       </c>
       <c r="O558" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P558" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q558" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="S558" t="s">
         <v>824</v>
       </c>
       <c r="T558" t="s">
         <v>40</v>
       </c>
-      <c r="AD558" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE558" s="4">
-        <v>407252.56</v>
-      </c>
-      <c r="AF558" s="4">
-        <v>409394.24</v>
-      </c>
-      <c r="AG558" s="4">
-        <v>411428.94</v>
-      </c>
-      <c r="AH558" s="4">
-        <v>413918.55</v>
-      </c>
       <c r="AI558" s="4">
-        <v>416019.16</v>
+        <v>0</v>
       </c>
       <c r="AJ558" s="4">
-        <v>418518.76</v>
+        <v>559522.29</v>
       </c>
       <c r="AK558" s="4">
-        <v>420990.81</v>
+        <v>569804.07999999996</v>
       </c>
       <c r="AL558" s="4">
-        <v>423670.52</v>
+        <v>578461.05000000005</v>
       </c>
     </row>
     <row r="559" spans="1:38" x14ac:dyDescent="0.25">
@@ -45658,76 +45645,76 @@
         <v>825</v>
       </c>
       <c r="C559">
-        <v>4472076</v>
+        <v>4530494</v>
       </c>
       <c r="D559" t="s">
         <v>42</v>
       </c>
       <c r="E559" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F559" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G559" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H559" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I559" t="s">
         <v>36</v>
       </c>
       <c r="J559" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="K559" s="1">
-        <v>45029</v>
+        <v>45051</v>
       </c>
       <c r="M559" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N559" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O559" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P559" s="3">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="Q559" t="s">
+        <v>826</v>
       </c>
       <c r="T559" t="s">
         <v>40</v>
       </c>
-      <c r="AC559" s="4">
-        <v>0</v>
-      </c>
       <c r="AD559" s="4">
-        <v>240346.35</v>
+        <v>0</v>
       </c>
       <c r="AE559" s="4">
-        <v>244022.86</v>
+        <v>407252.56</v>
       </c>
       <c r="AF559" s="4">
-        <v>251230.62</v>
+        <v>409394.24</v>
       </c>
       <c r="AG559" s="4">
-        <v>257944.56</v>
+        <v>411428.94</v>
       </c>
       <c r="AH559" s="4">
-        <v>254460.35</v>
+        <v>413918.55</v>
       </c>
       <c r="AI559" s="4">
-        <v>254995.54</v>
+        <v>416019.16</v>
       </c>
       <c r="AJ559" s="4">
-        <v>254915.89</v>
+        <v>418518.76</v>
       </c>
       <c r="AK559" s="4">
-        <v>260097.34</v>
+        <v>420990.81</v>
       </c>
       <c r="AL559" s="4">
-        <v>265236.71999999997</v>
+        <v>423670.52</v>
       </c>
     </row>
     <row r="560" spans="1:38" x14ac:dyDescent="0.25">
@@ -45735,55 +45722,79 @@
         <v>29</v>
       </c>
       <c r="B560" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C560">
-        <v>5142661</v>
+        <v>4472076</v>
       </c>
       <c r="D560" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E560" t="s">
         <v>32</v>
       </c>
       <c r="F560" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G560" t="s">
         <v>34</v>
       </c>
       <c r="H560" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I560" t="s">
         <v>36</v>
       </c>
       <c r="J560" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K560" s="1">
-        <v>45279</v>
+        <v>45029</v>
       </c>
       <c r="M560" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N560" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O560" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P560" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q560" t="s">
-        <v>62</v>
+        <v>0.1</v>
       </c>
       <c r="T560" t="s">
         <v>40</v>
       </c>
+      <c r="AC560" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD560" s="4">
+        <v>240346.35</v>
+      </c>
+      <c r="AE560" s="4">
+        <v>244022.86</v>
+      </c>
+      <c r="AF560" s="4">
+        <v>251230.62</v>
+      </c>
+      <c r="AG560" s="4">
+        <v>257944.56</v>
+      </c>
+      <c r="AH560" s="4">
+        <v>254460.35</v>
+      </c>
+      <c r="AI560" s="4">
+        <v>254995.54</v>
+      </c>
+      <c r="AJ560" s="4">
+        <v>254915.89</v>
+      </c>
+      <c r="AK560" s="4">
+        <v>260097.34</v>
+      </c>
       <c r="AL560" s="4">
-        <v>157507.54999999999</v>
+        <v>265236.71999999997</v>
       </c>
     </row>
     <row r="561" spans="1:38" x14ac:dyDescent="0.25">
@@ -45791,40 +45802,40 @@
         <v>29</v>
       </c>
       <c r="B561" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C561">
-        <v>4560107</v>
+        <v>5142661</v>
       </c>
       <c r="D561" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E561" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F561" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="G561" t="s">
         <v>34</v>
       </c>
       <c r="H561" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I561" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="J561" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="K561" s="1">
-        <v>45163</v>
+        <v>45279</v>
       </c>
       <c r="M561" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="N561" s="2">
-        <v>1.2E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O561" t="s">
         <v>36</v>
@@ -45832,35 +45843,14 @@
       <c r="P561" s="3">
         <v>0</v>
       </c>
+      <c r="Q561" t="s">
+        <v>62</v>
+      </c>
       <c r="T561" t="s">
         <v>40</v>
       </c>
-      <c r="AD561" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE561" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF561" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG561" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH561" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI561" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ561" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK561" s="4">
-        <v>0</v>
-      </c>
       <c r="AL561" s="4">
-        <v>0</v>
+        <v>157507.54999999999</v>
       </c>
     </row>
     <row r="562" spans="1:38" x14ac:dyDescent="0.25">
@@ -45868,34 +45858,34 @@
         <v>29</v>
       </c>
       <c r="B562" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C562">
-        <v>4472760</v>
+        <v>4560107</v>
       </c>
       <c r="D562" t="s">
         <v>42</v>
       </c>
       <c r="E562" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F562" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="G562" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H562" t="s">
         <v>35</v>
       </c>
       <c r="I562" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="J562" t="s">
         <v>37</v>
       </c>
       <c r="K562" s="1">
-        <v>45014</v>
+        <v>45163</v>
       </c>
       <c r="M562" t="s">
         <v>45</v>
@@ -45912,35 +45902,32 @@
       <c r="T562" t="s">
         <v>40</v>
       </c>
-      <c r="AC562" s="4">
-        <v>58093.97</v>
-      </c>
       <c r="AD562" s="4">
-        <v>58552.2</v>
+        <v>0</v>
       </c>
       <c r="AE562" s="4">
-        <v>58477.42</v>
+        <v>0</v>
       </c>
       <c r="AF562" s="4">
-        <v>58966.85</v>
+        <v>0</v>
       </c>
       <c r="AG562" s="4">
-        <v>59456.92</v>
+        <v>0</v>
       </c>
       <c r="AH562" s="4">
-        <v>59914.65</v>
+        <v>0</v>
       </c>
       <c r="AI562" s="4">
-        <v>60378.23</v>
+        <v>0</v>
       </c>
       <c r="AJ562" s="4">
-        <v>60918.44</v>
+        <v>0</v>
       </c>
       <c r="AK562" s="4">
-        <v>61371.9</v>
+        <v>0</v>
       </c>
       <c r="AL562" s="4">
-        <v>61866.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:38" x14ac:dyDescent="0.25">
@@ -45948,10 +45935,10 @@
         <v>29</v>
       </c>
       <c r="B563" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C563">
-        <v>5147664</v>
+        <v>4472760</v>
       </c>
       <c r="D563" t="s">
         <v>42</v>
@@ -45960,19 +45947,22 @@
         <v>32</v>
       </c>
       <c r="F563" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="G563" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H563" t="s">
         <v>35</v>
       </c>
+      <c r="I563" t="s">
+        <v>36</v>
+      </c>
       <c r="J563" t="s">
         <v>37</v>
       </c>
       <c r="K563" s="1">
-        <v>45268</v>
+        <v>45014</v>
       </c>
       <c r="M563" t="s">
         <v>45</v>
@@ -45989,8 +45979,35 @@
       <c r="T563" t="s">
         <v>40</v>
       </c>
+      <c r="AC563" s="4">
+        <v>58093.97</v>
+      </c>
+      <c r="AD563" s="4">
+        <v>58552.2</v>
+      </c>
+      <c r="AE563" s="4">
+        <v>58477.42</v>
+      </c>
+      <c r="AF563" s="4">
+        <v>58966.85</v>
+      </c>
+      <c r="AG563" s="4">
+        <v>59456.92</v>
+      </c>
+      <c r="AH563" s="4">
+        <v>59914.65</v>
+      </c>
+      <c r="AI563" s="4">
+        <v>60378.23</v>
+      </c>
+      <c r="AJ563" s="4">
+        <v>60918.44</v>
+      </c>
+      <c r="AK563" s="4">
+        <v>61371.9</v>
+      </c>
       <c r="AL563" s="4">
-        <v>250198.79</v>
+        <v>61866.12</v>
       </c>
     </row>
     <row r="564" spans="1:38" x14ac:dyDescent="0.25">
@@ -45998,70 +46015,49 @@
         <v>29</v>
       </c>
       <c r="B564" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C564">
-        <v>4752494</v>
+        <v>5147664</v>
       </c>
       <c r="D564" t="s">
         <v>42</v>
       </c>
       <c r="E564" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F564" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G564" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H564" t="s">
         <v>35</v>
       </c>
-      <c r="I564" t="s">
-        <v>36</v>
-      </c>
       <c r="J564" t="s">
         <v>37</v>
       </c>
       <c r="K564" s="1">
-        <v>45106</v>
+        <v>45268</v>
       </c>
       <c r="M564" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="N564" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O564" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="P564" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T564" t="s">
         <v>40</v>
       </c>
-      <c r="AF564" s="4">
-        <v>33459.870000000003</v>
-      </c>
-      <c r="AG564" s="4">
-        <v>35253.69</v>
-      </c>
-      <c r="AH564" s="4">
-        <v>34553.64</v>
-      </c>
-      <c r="AI564" s="4">
-        <v>49122.52</v>
-      </c>
-      <c r="AJ564" s="4">
-        <v>47478.27</v>
-      </c>
-      <c r="AK564" s="4">
-        <v>51021.43</v>
-      </c>
       <c r="AL564" s="4">
-        <v>53462.13</v>
+        <v>250198.79</v>
       </c>
     </row>
     <row r="565" spans="1:38" x14ac:dyDescent="0.25">
@@ -46069,10 +46065,10 @@
         <v>29</v>
       </c>
       <c r="B565" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C565">
-        <v>4975924</v>
+        <v>4752494</v>
       </c>
       <c r="D565" t="s">
         <v>42</v>
@@ -46093,43 +46089,46 @@
         <v>36</v>
       </c>
       <c r="J565" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K565" s="1">
-        <v>45173</v>
+        <v>45106</v>
       </c>
       <c r="M565" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N565" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O565" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P565" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="Q565" t="s">
-        <v>831</v>
+        <v>0.2</v>
       </c>
       <c r="T565" t="s">
         <v>40</v>
       </c>
+      <c r="AF565" s="4">
+        <v>33459.870000000003</v>
+      </c>
+      <c r="AG565" s="4">
+        <v>35253.69</v>
+      </c>
       <c r="AH565" s="4">
-        <v>0</v>
+        <v>34553.64</v>
       </c>
       <c r="AI565" s="4">
-        <v>125546.41</v>
+        <v>49122.52</v>
       </c>
       <c r="AJ565" s="4">
-        <v>122333.01</v>
+        <v>47478.27</v>
       </c>
       <c r="AK565" s="4">
-        <v>123365.82</v>
+        <v>51021.43</v>
       </c>
       <c r="AL565" s="4">
-        <v>125412.83</v>
+        <v>53462.13</v>
       </c>
     </row>
     <row r="566" spans="1:38" x14ac:dyDescent="0.25">
@@ -46137,10 +46136,10 @@
         <v>29</v>
       </c>
       <c r="B566" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C566">
-        <v>4752461</v>
+        <v>4975924</v>
       </c>
       <c r="D566" t="s">
         <v>42</v>
@@ -46161,46 +46160,43 @@
         <v>36</v>
       </c>
       <c r="J566" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="K566" s="1">
-        <v>45096</v>
+        <v>45173</v>
       </c>
       <c r="M566" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="N566" s="2">
-        <v>1.2E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="O566" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="P566" s="3">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="Q566" t="s">
+        <v>833</v>
       </c>
       <c r="T566" t="s">
         <v>40</v>
       </c>
-      <c r="AF566" s="4">
-        <v>77435.25</v>
-      </c>
-      <c r="AG566" s="4">
-        <v>78226.19</v>
-      </c>
       <c r="AH566" s="4">
-        <v>79118.789999999994</v>
+        <v>0</v>
       </c>
       <c r="AI566" s="4">
-        <v>79569.850000000006</v>
+        <v>125546.41</v>
       </c>
       <c r="AJ566" s="4">
-        <v>80332.19</v>
+        <v>122333.01</v>
       </c>
       <c r="AK566" s="4">
-        <v>80968.479999999996</v>
+        <v>123365.82</v>
       </c>
       <c r="AL566" s="4">
-        <v>81640.100000000006</v>
+        <v>125412.83</v>
       </c>
     </row>
     <row r="567" spans="1:38" x14ac:dyDescent="0.25">
@@ -46211,19 +46207,19 @@
         <v>832</v>
       </c>
       <c r="C567">
-        <v>4207955</v>
+        <v>4752461</v>
       </c>
       <c r="D567" t="s">
         <v>42</v>
       </c>
       <c r="E567" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F567" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G567" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H567" t="s">
         <v>35</v>
@@ -46235,10 +46231,10 @@
         <v>37</v>
       </c>
       <c r="K567" s="1">
-        <v>45128</v>
+        <v>45096</v>
       </c>
       <c r="M567" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N567" s="2">
         <v>1.2E-2</v>
@@ -46252,41 +46248,26 @@
       <c r="T567" t="s">
         <v>40</v>
       </c>
-      <c r="AA567" s="4">
-        <v>149471.69</v>
-      </c>
-      <c r="AB567" s="4">
-        <v>68438.77</v>
-      </c>
-      <c r="AC567" s="4">
-        <v>77064.11</v>
-      </c>
-      <c r="AD567" s="4">
-        <v>77712.62</v>
-      </c>
-      <c r="AE567" s="4">
-        <v>47800.97</v>
-      </c>
       <c r="AF567" s="4">
-        <v>18</v>
+        <v>77435.25</v>
       </c>
       <c r="AG567" s="4">
-        <v>601397.66</v>
+        <v>78226.19</v>
       </c>
       <c r="AH567" s="4">
-        <v>607906.65</v>
+        <v>79118.789999999994</v>
       </c>
       <c r="AI567" s="4">
-        <v>612646.64</v>
+        <v>79569.850000000006</v>
       </c>
       <c r="AJ567" s="4">
-        <v>618147.01</v>
+        <v>80332.19</v>
       </c>
       <c r="AK567" s="4">
-        <v>622766.57999999996</v>
+        <v>80968.479999999996</v>
       </c>
       <c r="AL567" s="4">
-        <v>627726.75</v>
+        <v>81640.100000000006</v>
       </c>
     </row>
     <row r="568" spans="1:38" x14ac:dyDescent="0.25">
@@ -46294,22 +46275,22 @@
         <v>29</v>
       </c>
       <c r="B568" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C568">
-        <v>4450760</v>
+        <v>4207955</v>
       </c>
       <c r="D568" t="s">
         <v>42</v>
       </c>
       <c r="E568" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F568" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G568" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H568" t="s">
         <v>35</v>
@@ -46321,52 +46302,58 @@
         <v>37</v>
       </c>
       <c r="K568" s="1">
-        <v>45028</v>
+        <v>45128</v>
       </c>
       <c r="M568" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="N568" s="2">
-        <v>0.02</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O568" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P568" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T568" t="s">
         <v>40</v>
       </c>
+      <c r="AA568" s="4">
+        <v>149471.69</v>
+      </c>
+      <c r="AB568" s="4">
+        <v>68438.77</v>
+      </c>
       <c r="AC568" s="4">
-        <v>0</v>
+        <v>77064.11</v>
       </c>
       <c r="AD568" s="4">
-        <v>1051542.1100000001</v>
+        <v>77712.62</v>
       </c>
       <c r="AE568" s="4">
-        <v>1072991.8700000001</v>
+        <v>47800.97</v>
       </c>
       <c r="AF568" s="4">
-        <v>1108291.77</v>
+        <v>18</v>
       </c>
       <c r="AG568" s="4">
-        <v>1131931.21</v>
+        <v>601397.66</v>
       </c>
       <c r="AH568" s="4">
-        <v>1264482.79</v>
+        <v>607906.65</v>
       </c>
       <c r="AI568" s="4">
-        <v>1318461.24</v>
+        <v>612646.64</v>
       </c>
       <c r="AJ568" s="4">
-        <v>1302805.8</v>
+        <v>618147.01</v>
       </c>
       <c r="AK568" s="4">
-        <v>1345901.43</v>
+        <v>622766.57999999996</v>
       </c>
       <c r="AL568" s="4">
-        <v>1377518.79</v>
+        <v>627726.75</v>
       </c>
     </row>
     <row r="569" spans="1:38" x14ac:dyDescent="0.25">
@@ -46374,22 +46361,22 @@
         <v>29</v>
       </c>
       <c r="B569" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C569">
-        <v>4322549</v>
+        <v>4450760</v>
       </c>
       <c r="D569" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E569" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F569" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G569" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H569" t="s">
         <v>35</v>
@@ -46401,58 +46388,52 @@
         <v>37</v>
       </c>
       <c r="K569" s="1">
-        <v>44946</v>
+        <v>45028</v>
       </c>
       <c r="M569" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N569" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="O569" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P569" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T569" t="s">
         <v>40</v>
       </c>
-      <c r="AA569" s="4">
-        <v>591230.5</v>
-      </c>
-      <c r="AB569" s="4">
-        <v>596444.02</v>
-      </c>
       <c r="AC569" s="4">
-        <v>638672.4</v>
+        <v>0</v>
       </c>
       <c r="AD569" s="4">
-        <v>654204.68999999994</v>
+        <v>1051542.1100000001</v>
       </c>
       <c r="AE569" s="4">
-        <v>686212.09</v>
+        <v>1072991.8700000001</v>
       </c>
       <c r="AF569" s="4">
-        <v>731399.04</v>
+        <v>1108291.77</v>
       </c>
       <c r="AG569" s="4">
-        <v>737658.93</v>
+        <v>1131931.21</v>
       </c>
       <c r="AH569" s="4">
-        <v>763934.31</v>
+        <v>1264482.79</v>
       </c>
       <c r="AI569" s="4">
-        <v>787241.26</v>
+        <v>1318461.24</v>
       </c>
       <c r="AJ569" s="4">
-        <v>792816.03</v>
+        <v>1302805.8</v>
       </c>
       <c r="AK569" s="4">
-        <v>890006.33</v>
+        <v>1345901.43</v>
       </c>
       <c r="AL569" s="4">
-        <v>922848.65</v>
+        <v>1377518.79</v>
       </c>
     </row>
     <row r="570" spans="1:38" x14ac:dyDescent="0.25">
@@ -46460,22 +46441,22 @@
         <v>29</v>
       </c>
       <c r="B570" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C570">
-        <v>2823185</v>
+        <v>4322549</v>
       </c>
       <c r="D570" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E570" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F570" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="G570" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H570" t="s">
         <v>35</v>
@@ -46487,55 +46468,58 @@
         <v>37</v>
       </c>
       <c r="K570" s="1">
-        <v>44994</v>
+        <v>44946</v>
       </c>
       <c r="M570" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N570" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="O570" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P570" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T570" t="s">
         <v>40</v>
       </c>
+      <c r="AA570" s="4">
+        <v>591230.5</v>
+      </c>
       <c r="AB570" s="4">
-        <v>0</v>
+        <v>596444.02</v>
       </c>
       <c r="AC570" s="4">
-        <v>317061.28000000003</v>
+        <v>638672.4</v>
       </c>
       <c r="AD570" s="4">
-        <v>318570.65000000002</v>
+        <v>654204.68999999994</v>
       </c>
       <c r="AE570" s="4">
-        <v>324898.95</v>
+        <v>686212.09</v>
       </c>
       <c r="AF570" s="4">
-        <v>353373.86</v>
+        <v>731399.04</v>
       </c>
       <c r="AG570" s="4">
-        <v>363060.22</v>
+        <v>737658.93</v>
       </c>
       <c r="AH570" s="4">
-        <v>325564.92</v>
+        <v>763934.31</v>
       </c>
       <c r="AI570" s="4">
-        <v>315676.05</v>
+        <v>787241.26</v>
       </c>
       <c r="AJ570" s="4">
-        <v>263943.59000000003</v>
+        <v>792816.03</v>
       </c>
       <c r="AK570" s="4">
-        <v>218096.86</v>
+        <v>890006.33</v>
       </c>
       <c r="AL570" s="4">
-        <v>221499.27</v>
+        <v>922848.65</v>
       </c>
     </row>
     <row r="571" spans="1:38" x14ac:dyDescent="0.25">
@@ -46543,22 +46527,22 @@
         <v>29</v>
       </c>
       <c r="B571" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C571">
-        <v>4315417</v>
+        <v>2823185</v>
       </c>
       <c r="D571" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E571" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F571" t="s">
-        <v>532</v>
+        <v>44</v>
       </c>
       <c r="G571" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H571" t="s">
         <v>35</v>
@@ -46570,52 +46554,55 @@
         <v>37</v>
       </c>
       <c r="K571" s="1">
-        <v>45013</v>
+        <v>44994</v>
       </c>
       <c r="M571" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="N571" s="2">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O571" t="s">
         <v>39</v>
       </c>
       <c r="P571" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T571" t="s">
         <v>40</v>
       </c>
+      <c r="AB571" s="4">
+        <v>0</v>
+      </c>
       <c r="AC571" s="4">
-        <v>0</v>
+        <v>317061.28000000003</v>
       </c>
       <c r="AD571" s="4">
-        <v>499566.11</v>
+        <v>318570.65000000002</v>
       </c>
       <c r="AE571" s="4">
-        <v>509775.18</v>
+        <v>324898.95</v>
       </c>
       <c r="AF571" s="4">
-        <v>481161.13</v>
+        <v>353373.86</v>
       </c>
       <c r="AG571" s="4">
-        <v>447413.88</v>
+        <v>363060.22</v>
       </c>
       <c r="AH571" s="4">
-        <v>432606.19</v>
+        <v>325564.92</v>
       </c>
       <c r="AI571" s="4">
-        <v>430845.92</v>
+        <v>315676.05</v>
       </c>
       <c r="AJ571" s="4">
-        <v>417626.06</v>
+        <v>263943.59000000003</v>
       </c>
       <c r="AK571" s="4">
-        <v>435487.84</v>
+        <v>218096.86</v>
       </c>
       <c r="AL571" s="4">
-        <v>447652.59</v>
+        <v>221499.27</v>
       </c>
     </row>
     <row r="572" spans="1:38" x14ac:dyDescent="0.25">
@@ -46623,22 +46610,22 @@
         <v>29</v>
       </c>
       <c r="B572" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C572">
-        <v>4455489</v>
+        <v>4315417</v>
       </c>
       <c r="D572" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E572" t="s">
         <v>32</v>
       </c>
       <c r="F572" t="s">
-        <v>54</v>
+        <v>532</v>
       </c>
       <c r="G572" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H572" t="s">
         <v>35</v>
@@ -46650,22 +46637,19 @@
         <v>37</v>
       </c>
       <c r="K572" s="1">
-        <v>45070</v>
+        <v>45013</v>
       </c>
       <c r="M572" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="N572" s="2">
-        <v>1.2E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O572" t="s">
         <v>39</v>
       </c>
       <c r="P572" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="R572" t="s">
-        <v>838</v>
+        <v>0.2</v>
       </c>
       <c r="T572" t="s">
         <v>40</v>
@@ -46674,31 +46658,31 @@
         <v>0</v>
       </c>
       <c r="AD572" s="4">
-        <v>0</v>
+        <v>499566.11</v>
       </c>
       <c r="AE572" s="4">
-        <v>227605.23</v>
+        <v>509775.18</v>
       </c>
       <c r="AF572" s="4">
-        <v>231139.98</v>
+        <v>481161.13</v>
       </c>
       <c r="AG572" s="4">
-        <v>233533.56</v>
+        <v>447413.88</v>
       </c>
       <c r="AH572" s="4">
-        <v>232386.73</v>
+        <v>432606.19</v>
       </c>
       <c r="AI572" s="4">
-        <v>233018.77</v>
+        <v>430845.92</v>
       </c>
       <c r="AJ572" s="4">
-        <v>232632.7</v>
+        <v>417626.06</v>
       </c>
       <c r="AK572" s="4">
-        <v>238062.37</v>
+        <v>435487.84</v>
       </c>
       <c r="AL572" s="4">
-        <v>243018.83</v>
+        <v>447652.59</v>
       </c>
     </row>
     <row r="573" spans="1:38" x14ac:dyDescent="0.25">
@@ -46709,7 +46693,7 @@
         <v>839</v>
       </c>
       <c r="C573">
-        <v>1922009</v>
+        <v>4455489</v>
       </c>
       <c r="D573" t="s">
         <v>42</v>
@@ -46718,10 +46702,10 @@
         <v>32</v>
       </c>
       <c r="F573" t="s">
-        <v>321</v>
+        <v>54</v>
       </c>
       <c r="G573" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H573" t="s">
         <v>35</v>
@@ -46730,16 +46714,16 @@
         <v>36</v>
       </c>
       <c r="J573" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K573" s="1">
-        <v>45212</v>
+        <v>45070</v>
       </c>
       <c r="M573" t="s">
         <v>56</v>
       </c>
       <c r="N573" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O573" t="s">
         <v>39</v>
@@ -46747,20 +46731,41 @@
       <c r="P573" s="3">
         <v>0.1</v>
       </c>
-      <c r="S573" t="s">
+      <c r="R573" t="s">
         <v>840</v>
       </c>
       <c r="T573" t="s">
         <v>40</v>
       </c>
+      <c r="AC573" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD573" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE573" s="4">
+        <v>227605.23</v>
+      </c>
+      <c r="AF573" s="4">
+        <v>231139.98</v>
+      </c>
+      <c r="AG573" s="4">
+        <v>233533.56</v>
+      </c>
+      <c r="AH573" s="4">
+        <v>232386.73</v>
+      </c>
+      <c r="AI573" s="4">
+        <v>233018.77</v>
+      </c>
       <c r="AJ573" s="4">
-        <v>28009.08</v>
+        <v>232632.7</v>
       </c>
       <c r="AK573" s="4">
-        <v>28195.49</v>
+        <v>238062.37</v>
       </c>
       <c r="AL573" s="4">
-        <v>28455.38</v>
+        <v>243018.83</v>
       </c>
     </row>
     <row r="574" spans="1:38" x14ac:dyDescent="0.25">
@@ -46771,19 +46776,19 @@
         <v>841</v>
       </c>
       <c r="C574">
-        <v>4945203</v>
+        <v>1922009</v>
       </c>
       <c r="D574" t="s">
         <v>42</v>
       </c>
       <c r="E574" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F574" t="s">
-        <v>75</v>
+        <v>321</v>
       </c>
       <c r="G574" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H574" t="s">
         <v>35</v>
@@ -46792,22 +46797,22 @@
         <v>36</v>
       </c>
       <c r="J574" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="K574" s="1">
-        <v>45163</v>
+        <v>45212</v>
       </c>
       <c r="M574" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="N574" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O574" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="P574" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S574" t="s">
         <v>842</v>
@@ -46815,20 +46820,14 @@
       <c r="T574" t="s">
         <v>40</v>
       </c>
-      <c r="AH574" s="4">
-        <v>578158.38</v>
-      </c>
-      <c r="AI574" s="4">
-        <v>333331.19</v>
-      </c>
       <c r="AJ574" s="4">
-        <v>317180.27</v>
+        <v>28009.08</v>
       </c>
       <c r="AK574" s="4">
-        <v>327161.94</v>
+        <v>28195.49</v>
       </c>
       <c r="AL574" s="4">
-        <v>344757</v>
+        <v>28455.38</v>
       </c>
     </row>
     <row r="575" spans="1:38" x14ac:dyDescent="0.25">
@@ -46836,10 +46835,10 @@
         <v>29</v>
       </c>
       <c r="B575" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C575">
-        <v>4945161</v>
+        <v>4945203</v>
       </c>
       <c r="D575" t="s">
         <v>42</v>
@@ -46866,37 +46865,37 @@
         <v>45163</v>
       </c>
       <c r="M575" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="N575" s="2">
-        <v>1.2E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O575" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="P575" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S575" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="T575" t="s">
         <v>40</v>
       </c>
       <c r="AH575" s="4">
-        <v>342462.76</v>
+        <v>578158.38</v>
       </c>
       <c r="AI575" s="4">
-        <v>340811.61</v>
+        <v>333331.19</v>
       </c>
       <c r="AJ575" s="4">
-        <v>344200.37</v>
+        <v>317180.27</v>
       </c>
       <c r="AK575" s="4">
-        <v>303898.86</v>
+        <v>327161.94</v>
       </c>
       <c r="AL575" s="4">
-        <v>306622.99</v>
+        <v>344757</v>
       </c>
     </row>
     <row r="576" spans="1:38" x14ac:dyDescent="0.25">
@@ -46904,10 +46903,10 @@
         <v>29</v>
       </c>
       <c r="B576" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C576">
-        <v>4999410</v>
+        <v>4945161</v>
       </c>
       <c r="D576" t="s">
         <v>42</v>
@@ -46922,7 +46921,7 @@
         <v>48</v>
       </c>
       <c r="H576" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I576" t="s">
         <v>36</v>
@@ -46931,13 +46930,13 @@
         <v>37</v>
       </c>
       <c r="K576" s="1">
-        <v>45187</v>
+        <v>45163</v>
       </c>
       <c r="M576" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="N576" s="2">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O576" t="s">
         <v>36</v>
@@ -46945,20 +46944,26 @@
       <c r="P576" s="3">
         <v>0</v>
       </c>
+      <c r="S576" t="s">
+        <v>844</v>
+      </c>
       <c r="T576" t="s">
         <v>40</v>
       </c>
+      <c r="AH576" s="4">
+        <v>342462.76</v>
+      </c>
       <c r="AI576" s="4">
-        <v>271055.88</v>
+        <v>340811.61</v>
       </c>
       <c r="AJ576" s="4">
-        <v>268541.05</v>
+        <v>344200.37</v>
       </c>
       <c r="AK576" s="4">
-        <v>286445.02</v>
+        <v>303898.86</v>
       </c>
       <c r="AL576" s="4">
-        <v>302609.96000000002</v>
+        <v>306622.99</v>
       </c>
     </row>
     <row r="577" spans="1:38" x14ac:dyDescent="0.25">
@@ -46969,22 +46974,22 @@
         <v>843</v>
       </c>
       <c r="C577">
-        <v>5007114</v>
+        <v>4999410</v>
       </c>
       <c r="D577" t="s">
         <v>42</v>
       </c>
       <c r="E577" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F577" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G577" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H577" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I577" t="s">
         <v>36</v>
@@ -46993,13 +46998,13 @@
         <v>37</v>
       </c>
       <c r="K577" s="1">
-        <v>45189</v>
+        <v>45187</v>
       </c>
       <c r="M577" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="N577" s="2">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
       <c r="O577" t="s">
         <v>36</v>
@@ -47007,23 +47012,20 @@
       <c r="P577" s="3">
         <v>0</v>
       </c>
-      <c r="S577" t="s">
-        <v>844</v>
-      </c>
       <c r="T577" t="s">
         <v>40</v>
       </c>
       <c r="AI577" s="4">
-        <v>0</v>
+        <v>271055.88</v>
       </c>
       <c r="AJ577" s="4">
-        <v>0</v>
+        <v>268541.05</v>
       </c>
       <c r="AK577" s="4">
-        <v>0</v>
+        <v>286445.02</v>
       </c>
       <c r="AL577" s="4">
-        <v>51961.14</v>
+        <v>302609.96000000002</v>
       </c>
     </row>
     <row r="578" spans="1:38" x14ac:dyDescent="0.25">
@@ -47034,7 +47036,7 @@
         <v>845</v>
       </c>
       <c r="C578">
-        <v>5145205</v>
+        <v>5007114</v>
       </c>
       <c r="D578" t="s">
         <v>42</v>
@@ -47049,16 +47051,16 @@
         <v>34</v>
       </c>
       <c r="H578" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I578" t="s">
-        <v>483</v>
+        <v>36</v>
       </c>
       <c r="J578" t="s">
         <v>37</v>
       </c>
       <c r="K578" s="1">
-        <v>45266</v>
+        <v>45189</v>
       </c>
       <c r="M578" t="s">
         <v>45</v>
@@ -47072,11 +47074,23 @@
       <c r="P578" s="3">
         <v>0</v>
       </c>
+      <c r="S578" t="s">
+        <v>846</v>
+      </c>
       <c r="T578" t="s">
         <v>40</v>
       </c>
+      <c r="AI578" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ578" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK578" s="4">
+        <v>0</v>
+      </c>
       <c r="AL578" s="4">
-        <v>0</v>
+        <v>51961.14</v>
       </c>
     </row>
     <row r="579" spans="1:38" x14ac:dyDescent="0.25">
@@ -47084,34 +47098,34 @@
         <v>29</v>
       </c>
       <c r="B579" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C579">
-        <v>4243043</v>
+        <v>5145205</v>
       </c>
       <c r="D579" t="s">
         <v>42</v>
       </c>
       <c r="E579" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F579" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="G579" t="s">
         <v>34</v>
       </c>
       <c r="H579" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I579" t="s">
-        <v>36</v>
+        <v>483</v>
       </c>
       <c r="J579" t="s">
         <v>37</v>
       </c>
       <c r="K579" s="1">
-        <v>45036</v>
+        <v>45266</v>
       </c>
       <c r="M579" t="s">
         <v>45</v>
@@ -47128,35 +47142,8 @@
       <c r="T579" t="s">
         <v>40</v>
       </c>
-      <c r="AC579" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD579" s="4">
-        <v>85514.69</v>
-      </c>
-      <c r="AE579" s="4">
-        <v>86409.5</v>
-      </c>
-      <c r="AF579" s="4">
-        <v>87159.14</v>
-      </c>
-      <c r="AG579" s="4">
-        <v>82858.009999999995</v>
-      </c>
-      <c r="AH579" s="4">
-        <v>62827.66</v>
-      </c>
-      <c r="AI579" s="4">
-        <v>63325.05</v>
-      </c>
-      <c r="AJ579" s="4">
-        <v>63743.87</v>
-      </c>
-      <c r="AK579" s="4">
-        <v>64221.09</v>
-      </c>
       <c r="AL579" s="4">
-        <v>64717.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:38" x14ac:dyDescent="0.25">
@@ -47164,22 +47151,22 @@
         <v>29</v>
       </c>
       <c r="B580" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C580">
-        <v>4216401</v>
+        <v>4243043</v>
       </c>
       <c r="D580" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E580" t="s">
         <v>32</v>
       </c>
       <c r="F580" t="s">
-        <v>532</v>
+        <v>64</v>
       </c>
       <c r="G580" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H580" t="s">
         <v>35</v>
@@ -47191,13 +47178,13 @@
         <v>37</v>
       </c>
       <c r="K580" s="1">
-        <v>45007</v>
+        <v>45036</v>
       </c>
       <c r="M580" t="s">
         <v>45</v>
       </c>
       <c r="N580" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O580" t="s">
         <v>36</v>
@@ -47208,38 +47195,35 @@
       <c r="T580" t="s">
         <v>40</v>
       </c>
-      <c r="AB580" s="4">
-        <v>0</v>
-      </c>
       <c r="AC580" s="4">
-        <v>1114382.73</v>
+        <v>0</v>
       </c>
       <c r="AD580" s="4">
-        <v>1265154.49</v>
+        <v>85514.69</v>
       </c>
       <c r="AE580" s="4">
-        <v>1292029.3899999999</v>
+        <v>86409.5</v>
       </c>
       <c r="AF580" s="4">
-        <v>1318217.79</v>
+        <v>87159.14</v>
       </c>
       <c r="AG580" s="4">
-        <v>1335930.6000000001</v>
+        <v>82858.009999999995</v>
       </c>
       <c r="AH580" s="4">
-        <v>1353480.45</v>
+        <v>62827.66</v>
       </c>
       <c r="AI580" s="4">
-        <v>1357618.63</v>
+        <v>63325.05</v>
       </c>
       <c r="AJ580" s="4">
-        <v>1363068.73</v>
+        <v>63743.87</v>
       </c>
       <c r="AK580" s="4">
-        <v>1374316.22</v>
+        <v>64221.09</v>
       </c>
       <c r="AL580" s="4">
-        <v>1396649.65</v>
+        <v>64717.11</v>
       </c>
     </row>
     <row r="581" spans="1:38" x14ac:dyDescent="0.25">
@@ -47247,19 +47231,19 @@
         <v>29</v>
       </c>
       <c r="B581" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C581">
-        <v>4331477</v>
+        <v>4216401</v>
       </c>
       <c r="D581" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E581" t="s">
         <v>32</v>
       </c>
       <c r="F581" t="s">
-        <v>69</v>
+        <v>532</v>
       </c>
       <c r="G581" t="s">
         <v>52</v>
@@ -47274,13 +47258,13 @@
         <v>37</v>
       </c>
       <c r="K581" s="1">
-        <v>44973</v>
+        <v>45007</v>
       </c>
       <c r="M581" t="s">
         <v>45</v>
       </c>
       <c r="N581" s="2">
-        <v>1.2E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="O581" t="s">
         <v>36</v>
@@ -47291,41 +47275,38 @@
       <c r="T581" t="s">
         <v>40</v>
       </c>
-      <c r="AA581" s="4">
-        <v>300030.53000000003</v>
-      </c>
       <c r="AB581" s="4">
-        <v>594851.68999999994</v>
+        <v>0</v>
       </c>
       <c r="AC581" s="4">
-        <v>600854.27</v>
+        <v>1114382.73</v>
       </c>
       <c r="AD581" s="4">
-        <v>605246.44999999995</v>
+        <v>1265154.49</v>
       </c>
       <c r="AE581" s="4">
-        <v>611790</v>
+        <v>1292029.3899999999</v>
       </c>
       <c r="AF581" s="4">
-        <v>622860.35</v>
+        <v>1318217.79</v>
       </c>
       <c r="AG581" s="4">
-        <v>628230.14</v>
+        <v>1335930.6000000001</v>
       </c>
       <c r="AH581" s="4">
-        <v>604525.29</v>
+        <v>1353480.45</v>
       </c>
       <c r="AI581" s="4">
-        <v>609812.97</v>
+        <v>1357618.63</v>
       </c>
       <c r="AJ581" s="4">
-        <v>615699.79</v>
+        <v>1363068.73</v>
       </c>
       <c r="AK581" s="4">
-        <v>620481.31999999995</v>
+        <v>1374316.22</v>
       </c>
       <c r="AL581" s="4">
-        <v>500838.24</v>
+        <v>1396649.65</v>
       </c>
     </row>
     <row r="582" spans="1:38" x14ac:dyDescent="0.25">
@@ -47333,22 +47314,25 @@
         <v>29</v>
       </c>
       <c r="B582" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C582">
-        <v>4350101</v>
+        <v>4331477</v>
       </c>
       <c r="D582" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E582" t="s">
         <v>32</v>
       </c>
       <c r="F582" t="s">
-        <v>312</v>
+        <v>69</v>
+      </c>
+      <c r="G582" t="s">
+        <v>52</v>
       </c>
       <c r="H582" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="I582" t="s">
         <v>36</v>
@@ -47357,10 +47341,7 @@
         <v>37</v>
       </c>
       <c r="K582" s="1">
-        <v>45068</v>
-      </c>
-      <c r="L582" s="1">
-        <v>45126</v>
+        <v>44973</v>
       </c>
       <c r="M582" t="s">
         <v>45</v>
@@ -47377,32 +47358,41 @@
       <c r="T582" t="s">
         <v>40</v>
       </c>
+      <c r="AA582" s="4">
+        <v>300030.53000000003</v>
+      </c>
+      <c r="AB582" s="4">
+        <v>594851.68999999994</v>
+      </c>
+      <c r="AC582" s="4">
+        <v>600854.27</v>
+      </c>
       <c r="AD582" s="4">
-        <v>0</v>
+        <v>605246.44999999995</v>
       </c>
       <c r="AE582" s="4">
-        <v>2455150.2200000002</v>
+        <v>611790</v>
       </c>
       <c r="AF582" s="4">
-        <v>2474330.36</v>
+        <v>622860.35</v>
       </c>
       <c r="AG582" s="4">
-        <v>0</v>
+        <v>628230.14</v>
       </c>
       <c r="AH582" s="4">
-        <v>0</v>
+        <v>604525.29</v>
       </c>
       <c r="AI582" s="4">
-        <v>0</v>
+        <v>609812.97</v>
       </c>
       <c r="AJ582" s="4">
-        <v>0</v>
+        <v>615699.79</v>
       </c>
       <c r="AK582" s="4">
-        <v>0</v>
+        <v>620481.31999999995</v>
       </c>
       <c r="AL582" s="4">
-        <v>0</v>
+        <v>500838.24</v>
       </c>
     </row>
     <row r="583" spans="1:38" x14ac:dyDescent="0.25">
@@ -47410,25 +47400,22 @@
         <v>29</v>
       </c>
       <c r="B583" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C583">
-        <v>4517080</v>
+        <v>4350101</v>
       </c>
       <c r="D583" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E583" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F583" t="s">
-        <v>212</v>
-      </c>
-      <c r="G583" t="s">
-        <v>48</v>
+        <v>312</v>
       </c>
       <c r="H583" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="I583" t="s">
         <v>36</v>
@@ -47437,13 +47424,16 @@
         <v>37</v>
       </c>
       <c r="K583" s="1">
+        <v>45068</v>
+      </c>
+      <c r="L583" s="1">
         <v>45126</v>
       </c>
       <c r="M583" t="s">
         <v>45</v>
       </c>
       <c r="N583" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O583" t="s">
         <v>36</v>
@@ -47458,28 +47448,28 @@
         <v>0</v>
       </c>
       <c r="AE583" s="4">
-        <v>0</v>
+        <v>2455150.2200000002</v>
       </c>
       <c r="AF583" s="4">
-        <v>0</v>
+        <v>2474330.36</v>
       </c>
       <c r="AG583" s="4">
-        <v>86267.59</v>
+        <v>0</v>
       </c>
       <c r="AH583" s="4">
-        <v>87219.24</v>
+        <v>0</v>
       </c>
       <c r="AI583" s="4">
-        <v>88005.57</v>
+        <v>0</v>
       </c>
       <c r="AJ583" s="4">
-        <v>88869.13</v>
+        <v>0</v>
       </c>
       <c r="AK583" s="4">
-        <v>87191.79</v>
+        <v>0</v>
       </c>
       <c r="AL583" s="4">
-        <v>87854.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:38" x14ac:dyDescent="0.25">
@@ -47487,19 +47477,19 @@
         <v>29</v>
       </c>
       <c r="B584" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C584">
-        <v>4202332</v>
+        <v>4517080</v>
       </c>
       <c r="D584" t="s">
         <v>42</v>
       </c>
       <c r="E584" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F584" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="G584" t="s">
         <v>48</v>
@@ -47514,13 +47504,13 @@
         <v>37</v>
       </c>
       <c r="K584" s="1">
-        <v>44956</v>
+        <v>45126</v>
       </c>
       <c r="M584" t="s">
         <v>45</v>
       </c>
       <c r="N584" s="2">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O584" t="s">
         <v>36</v>
@@ -47531,41 +47521,32 @@
       <c r="T584" t="s">
         <v>40</v>
       </c>
-      <c r="AA584" s="4">
-        <v>13533.31</v>
-      </c>
-      <c r="AB584" s="4">
-        <v>176868.64</v>
-      </c>
-      <c r="AC584" s="4">
-        <v>178713.53</v>
-      </c>
       <c r="AD584" s="4">
-        <v>179798.22</v>
+        <v>0</v>
       </c>
       <c r="AE584" s="4">
-        <v>181860.56</v>
+        <v>0</v>
       </c>
       <c r="AF584" s="4">
-        <v>183302.19</v>
+        <v>0</v>
       </c>
       <c r="AG584" s="4">
-        <v>184796.44</v>
+        <v>86267.59</v>
       </c>
       <c r="AH584" s="4">
-        <v>186334.77</v>
+        <v>87219.24</v>
       </c>
       <c r="AI584" s="4">
-        <v>187400.52</v>
+        <v>88005.57</v>
       </c>
       <c r="AJ584" s="4">
-        <v>189010.76</v>
+        <v>88869.13</v>
       </c>
       <c r="AK584" s="4">
-        <v>190356.42</v>
+        <v>87191.79</v>
       </c>
       <c r="AL584" s="4">
-        <v>191855.37</v>
+        <v>87854.91</v>
       </c>
     </row>
     <row r="585" spans="1:38" x14ac:dyDescent="0.25">
@@ -47573,10 +47554,10 @@
         <v>29</v>
       </c>
       <c r="B585" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C585">
-        <v>4536602</v>
+        <v>4202332</v>
       </c>
       <c r="D585" t="s">
         <v>42</v>
@@ -47600,13 +47581,13 @@
         <v>37</v>
       </c>
       <c r="K585" s="1">
-        <v>45058</v>
+        <v>44956</v>
       </c>
       <c r="M585" t="s">
         <v>45</v>
       </c>
       <c r="N585" s="2">
-        <v>1.2E-2</v>
+        <v>0.01</v>
       </c>
       <c r="O585" t="s">
         <v>36</v>
@@ -47617,32 +47598,41 @@
       <c r="T585" t="s">
         <v>40</v>
       </c>
+      <c r="AA585" s="4">
+        <v>13533.31</v>
+      </c>
+      <c r="AB585" s="4">
+        <v>176868.64</v>
+      </c>
+      <c r="AC585" s="4">
+        <v>178713.53</v>
+      </c>
       <c r="AD585" s="4">
-        <v>0</v>
+        <v>179798.22</v>
       </c>
       <c r="AE585" s="4">
-        <v>6409.45</v>
+        <v>181860.56</v>
       </c>
       <c r="AF585" s="4">
-        <v>6480.83</v>
+        <v>183302.19</v>
       </c>
       <c r="AG585" s="4">
-        <v>6541.24</v>
+        <v>184796.44</v>
       </c>
       <c r="AH585" s="4">
-        <v>6607.98</v>
+        <v>186334.77</v>
       </c>
       <c r="AI585" s="4">
-        <v>6628.61</v>
+        <v>187400.52</v>
       </c>
       <c r="AJ585" s="4">
-        <v>6665.81</v>
+        <v>189010.76</v>
       </c>
       <c r="AK585" s="4">
-        <v>6712.71</v>
+        <v>190356.42</v>
       </c>
       <c r="AL585" s="4">
-        <v>6764.48</v>
+        <v>191855.37</v>
       </c>
     </row>
     <row r="586" spans="1:38" x14ac:dyDescent="0.25">
@@ -47650,25 +47640,25 @@
         <v>29</v>
       </c>
       <c r="B586" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C586">
-        <v>4260040</v>
+        <v>4536602</v>
       </c>
       <c r="D586" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E586" t="s">
         <v>32</v>
       </c>
       <c r="F586" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="G586" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H586" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="I586" t="s">
         <v>36</v>
@@ -47677,10 +47667,7 @@
         <v>37</v>
       </c>
       <c r="K586" s="1">
-        <v>44959</v>
-      </c>
-      <c r="L586" s="1">
-        <v>45021</v>
+        <v>45058</v>
       </c>
       <c r="M586" t="s">
         <v>45</v>
@@ -47697,41 +47684,32 @@
       <c r="T586" t="s">
         <v>40</v>
       </c>
-      <c r="AA586" s="4">
-        <v>50156.35</v>
-      </c>
-      <c r="AB586" s="4">
-        <v>90779.199999999997</v>
-      </c>
-      <c r="AC586" s="4">
-        <v>91750.46</v>
-      </c>
       <c r="AD586" s="4">
         <v>0</v>
       </c>
       <c r="AE586" s="4">
-        <v>0</v>
+        <v>6409.45</v>
       </c>
       <c r="AF586" s="4">
-        <v>0</v>
+        <v>6480.83</v>
       </c>
       <c r="AG586" s="4">
-        <v>0</v>
+        <v>6541.24</v>
       </c>
       <c r="AH586" s="4">
-        <v>0</v>
+        <v>6607.98</v>
       </c>
       <c r="AI586" s="4">
-        <v>0</v>
+        <v>6628.61</v>
       </c>
       <c r="AJ586" s="4">
-        <v>0</v>
+        <v>6665.81</v>
       </c>
       <c r="AK586" s="4">
-        <v>0</v>
+        <v>6712.71</v>
       </c>
       <c r="AL586" s="4">
-        <v>0</v>
+        <v>6764.48</v>
       </c>
     </row>
     <row r="587" spans="1:38" x14ac:dyDescent="0.25">
@@ -47739,25 +47717,25 @@
         <v>29</v>
       </c>
       <c r="B587" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C587">
-        <v>1879977</v>
+        <v>4260040</v>
       </c>
       <c r="D587" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E587" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F587" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G587" t="s">
         <v>34</v>
       </c>
       <c r="H587" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="I587" t="s">
         <v>36</v>
@@ -47766,13 +47744,16 @@
         <v>37</v>
       </c>
       <c r="K587" s="1">
-        <v>44895</v>
+        <v>44959</v>
+      </c>
+      <c r="L587" s="1">
+        <v>45021</v>
       </c>
       <c r="M587" t="s">
         <v>45</v>
       </c>
       <c r="N587" s="2">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O587" t="s">
         <v>36</v>
@@ -47783,44 +47764,41 @@
       <c r="T587" t="s">
         <v>40</v>
       </c>
-      <c r="Z587" s="4">
-        <v>101023.51</v>
-      </c>
       <c r="AA587" s="4">
-        <v>117061.16</v>
+        <v>50156.35</v>
       </c>
       <c r="AB587" s="4">
-        <v>118025.41</v>
+        <v>90779.199999999997</v>
       </c>
       <c r="AC587" s="4">
-        <v>119332.76</v>
+        <v>91750.46</v>
       </c>
       <c r="AD587" s="4">
-        <v>120271.08</v>
+        <v>0</v>
       </c>
       <c r="AE587" s="4">
-        <v>121542.65</v>
+        <v>0</v>
       </c>
       <c r="AF587" s="4">
-        <v>122676.85</v>
+        <v>0</v>
       </c>
       <c r="AG587" s="4">
-        <v>123793.05</v>
+        <v>0</v>
       </c>
       <c r="AH587" s="4">
-        <v>125031.02</v>
+        <v>0</v>
       </c>
       <c r="AI587" s="4">
-        <v>126098.17</v>
+        <v>0</v>
       </c>
       <c r="AJ587" s="4">
-        <v>127288</v>
+        <v>0</v>
       </c>
       <c r="AK587" s="4">
-        <v>138228.18</v>
+        <v>0</v>
       </c>
       <c r="AL587" s="4">
-        <v>139092.64000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:38" x14ac:dyDescent="0.25">
@@ -47828,10 +47806,10 @@
         <v>29</v>
       </c>
       <c r="B588" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C588">
-        <v>4550289</v>
+        <v>1879977</v>
       </c>
       <c r="D588" t="s">
         <v>42</v>
@@ -47846,22 +47824,22 @@
         <v>34</v>
       </c>
       <c r="H588" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I588" t="s">
-        <v>483</v>
+        <v>36</v>
       </c>
       <c r="J588" t="s">
         <v>37</v>
       </c>
       <c r="K588" s="1">
-        <v>45163</v>
+        <v>44895</v>
       </c>
       <c r="M588" t="s">
         <v>45</v>
       </c>
       <c r="N588" s="2">
-        <v>1.2E-2</v>
+        <v>0.01</v>
       </c>
       <c r="O588" t="s">
         <v>36</v>
@@ -47872,32 +47850,44 @@
       <c r="T588" t="s">
         <v>40</v>
       </c>
+      <c r="Z588" s="4">
+        <v>101023.51</v>
+      </c>
+      <c r="AA588" s="4">
+        <v>117061.16</v>
+      </c>
+      <c r="AB588" s="4">
+        <v>118025.41</v>
+      </c>
+      <c r="AC588" s="4">
+        <v>119332.76</v>
+      </c>
       <c r="AD588" s="4">
-        <v>0</v>
+        <v>120271.08</v>
       </c>
       <c r="AE588" s="4">
-        <v>0</v>
+        <v>121542.65</v>
       </c>
       <c r="AF588" s="4">
-        <v>0</v>
+        <v>122676.85</v>
       </c>
       <c r="AG588" s="4">
-        <v>0</v>
+        <v>123793.05</v>
       </c>
       <c r="AH588" s="4">
-        <v>0</v>
+        <v>125031.02</v>
       </c>
       <c r="AI588" s="4">
-        <v>0</v>
+        <v>126098.17</v>
       </c>
       <c r="AJ588" s="4">
-        <v>0</v>
+        <v>127288</v>
       </c>
       <c r="AK588" s="4">
-        <v>0</v>
+        <v>138228.18</v>
       </c>
       <c r="AL588" s="4">
-        <v>0</v>
+        <v>139092.64000000001</v>
       </c>
     </row>
     <row r="589" spans="1:38" x14ac:dyDescent="0.25">
@@ -47905,34 +47895,34 @@
         <v>29</v>
       </c>
       <c r="B589" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C589">
-        <v>4425261</v>
+        <v>4550289</v>
       </c>
       <c r="D589" t="s">
         <v>42</v>
       </c>
       <c r="E589" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F589" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="G589" t="s">
         <v>34</v>
       </c>
       <c r="H589" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I589" t="s">
-        <v>36</v>
+        <v>483</v>
       </c>
       <c r="J589" t="s">
         <v>37</v>
       </c>
       <c r="K589" s="1">
-        <v>44986</v>
+        <v>45163</v>
       </c>
       <c r="M589" t="s">
         <v>45</v>
@@ -47949,38 +47939,32 @@
       <c r="T589" t="s">
         <v>40</v>
       </c>
-      <c r="AB589" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC589" s="4">
-        <v>141660.29999999999</v>
-      </c>
       <c r="AD589" s="4">
-        <v>149651.12</v>
+        <v>0</v>
       </c>
       <c r="AE589" s="4">
-        <v>151242.98000000001</v>
+        <v>0</v>
       </c>
       <c r="AF589" s="4">
-        <v>152615.25</v>
+        <v>0</v>
       </c>
       <c r="AG589" s="4">
-        <v>154003.32</v>
+        <v>0</v>
       </c>
       <c r="AH589" s="4">
-        <v>155535.53</v>
+        <v>0</v>
       </c>
       <c r="AI589" s="4">
-        <v>156942.1</v>
+        <v>0</v>
       </c>
       <c r="AJ589" s="4">
-        <v>158432.57999999999</v>
+        <v>0</v>
       </c>
       <c r="AK589" s="4">
-        <v>159543.84</v>
+        <v>0</v>
       </c>
       <c r="AL589" s="4">
-        <v>160836.32999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:38" x14ac:dyDescent="0.25">
@@ -47988,19 +47972,19 @@
         <v>29</v>
       </c>
       <c r="B590" t="s">
-        <v>33</v>
+        <v>858</v>
       </c>
       <c r="C590">
-        <v>4550750</v>
+        <v>4425261</v>
       </c>
       <c r="D590" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E590" t="s">
         <v>32</v>
       </c>
       <c r="F590" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="G590" t="s">
         <v>34</v>
@@ -48015,13 +47999,13 @@
         <v>37</v>
       </c>
       <c r="K590" s="1">
-        <v>45140</v>
+        <v>44986</v>
       </c>
       <c r="M590" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N590" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O590" t="s">
         <v>36</v>
@@ -48032,20 +48016,38 @@
       <c r="T590" t="s">
         <v>40</v>
       </c>
+      <c r="AB590" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC590" s="4">
+        <v>141660.29999999999</v>
+      </c>
+      <c r="AD590" s="4">
+        <v>149651.12</v>
+      </c>
+      <c r="AE590" s="4">
+        <v>151242.98000000001</v>
+      </c>
+      <c r="AF590" s="4">
+        <v>152615.25</v>
+      </c>
+      <c r="AG590" s="4">
+        <v>154003.32</v>
+      </c>
       <c r="AH590" s="4">
-        <v>157315.26999999999</v>
+        <v>155535.53</v>
       </c>
       <c r="AI590" s="4">
-        <v>151570.12</v>
+        <v>156942.1</v>
       </c>
       <c r="AJ590" s="4">
-        <v>151948.12</v>
+        <v>158432.57999999999</v>
       </c>
       <c r="AK590" s="4">
-        <v>195432.93</v>
+        <v>159543.84</v>
       </c>
       <c r="AL590" s="4">
-        <v>198872.24</v>
+        <v>160836.32999999999</v>
       </c>
     </row>
     <row r="591" spans="1:38" x14ac:dyDescent="0.25">
@@ -48053,10 +48055,10 @@
         <v>29</v>
       </c>
       <c r="B591" t="s">
-        <v>857</v>
+        <v>33</v>
       </c>
       <c r="C591">
-        <v>4382374</v>
+        <v>4550750</v>
       </c>
       <c r="D591" t="s">
         <v>31</v>
@@ -48065,10 +48067,10 @@
         <v>32</v>
       </c>
       <c r="F591" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="G591" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H591" t="s">
         <v>35</v>
@@ -48080,52 +48082,37 @@
         <v>37</v>
       </c>
       <c r="K591" s="1">
-        <v>45042</v>
+        <v>45140</v>
       </c>
       <c r="M591" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="N591" s="2">
-        <v>0.02</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O591" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P591" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T591" t="s">
         <v>40</v>
       </c>
-      <c r="AC591" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD591" s="4">
-        <v>616485.77</v>
-      </c>
-      <c r="AE591" s="4">
-        <v>628636.38</v>
-      </c>
-      <c r="AF591" s="4">
-        <v>645478.28</v>
-      </c>
-      <c r="AG591" s="4">
-        <v>661276.44999999995</v>
-      </c>
       <c r="AH591" s="4">
-        <v>648264.31999999995</v>
+        <v>157315.26999999999</v>
       </c>
       <c r="AI591" s="4">
-        <v>648027.67000000004</v>
+        <v>151570.12</v>
       </c>
       <c r="AJ591" s="4">
-        <v>638633.81999999995</v>
+        <v>151948.12</v>
       </c>
       <c r="AK591" s="4">
-        <v>660375.26</v>
+        <v>195432.93</v>
       </c>
       <c r="AL591" s="4">
-        <v>679276.41</v>
+        <v>198872.24</v>
       </c>
     </row>
     <row r="592" spans="1:38" x14ac:dyDescent="0.25">
@@ -48133,10 +48120,10 @@
         <v>29</v>
       </c>
       <c r="B592" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C592">
-        <v>3189818</v>
+        <v>4382374</v>
       </c>
       <c r="D592" t="s">
         <v>31</v>
@@ -48148,10 +48135,10 @@
         <v>95</v>
       </c>
       <c r="G592" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H592" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="I592" t="s">
         <v>36</v>
@@ -48160,64 +48147,52 @@
         <v>37</v>
       </c>
       <c r="K592" s="1">
-        <v>44874</v>
+        <v>45042</v>
       </c>
       <c r="M592" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="N592" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>0.02</v>
       </c>
       <c r="O592" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P592" s="3">
-        <v>0</v>
-      </c>
-      <c r="S592" t="s">
-        <v>859</v>
+        <v>0.2</v>
       </c>
       <c r="T592" t="s">
         <v>40</v>
       </c>
-      <c r="Z592" s="4">
-        <v>673366.33</v>
-      </c>
-      <c r="AA592" s="4">
-        <v>663854.43000000005</v>
-      </c>
-      <c r="AB592" s="4">
-        <v>648209.98</v>
-      </c>
       <c r="AC592" s="4">
-        <v>639901.80000000005</v>
+        <v>0</v>
       </c>
       <c r="AD592" s="4">
-        <v>640706.5</v>
+        <v>616485.77</v>
       </c>
       <c r="AE592" s="4">
-        <v>667808.17000000004</v>
+        <v>628636.38</v>
       </c>
       <c r="AF592" s="4">
-        <v>0</v>
+        <v>645478.28</v>
       </c>
       <c r="AG592" s="4">
-        <v>0</v>
+        <v>661276.44999999995</v>
       </c>
       <c r="AH592" s="4">
-        <v>0</v>
+        <v>648264.31999999995</v>
       </c>
       <c r="AI592" s="4">
-        <v>0</v>
+        <v>648027.67000000004</v>
       </c>
       <c r="AJ592" s="4">
-        <v>0</v>
+        <v>638633.81999999995</v>
       </c>
       <c r="AK592" s="4">
-        <v>0</v>
+        <v>660375.26</v>
       </c>
       <c r="AL592" s="4">
-        <v>0</v>
+        <v>679276.41</v>
       </c>
     </row>
     <row r="593" spans="1:38" x14ac:dyDescent="0.25">
@@ -48228,22 +48203,22 @@
         <v>860</v>
       </c>
       <c r="C593">
-        <v>1368670</v>
+        <v>3189818</v>
       </c>
       <c r="D593" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E593" t="s">
         <v>32</v>
       </c>
       <c r="F593" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="G593" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H593" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="I593" t="s">
         <v>36</v>
@@ -48252,13 +48227,13 @@
         <v>37</v>
       </c>
       <c r="K593" s="1">
-        <v>44879</v>
+        <v>44874</v>
       </c>
       <c r="M593" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="N593" s="2">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="O593" t="s">
         <v>36</v>
@@ -48273,43 +48248,43 @@
         <v>40</v>
       </c>
       <c r="Z593" s="4">
-        <v>119680.47</v>
+        <v>673366.33</v>
       </c>
       <c r="AA593" s="4">
-        <v>102763.73</v>
+        <v>663854.43000000005</v>
       </c>
       <c r="AB593" s="4">
-        <v>97885.87</v>
+        <v>648209.98</v>
       </c>
       <c r="AC593" s="4">
-        <v>98175.52</v>
+        <v>639901.80000000005</v>
       </c>
       <c r="AD593" s="4">
-        <v>102305.34</v>
+        <v>640706.5</v>
       </c>
       <c r="AE593" s="4">
-        <v>87335.75</v>
+        <v>667808.17000000004</v>
       </c>
       <c r="AF593" s="4">
-        <v>83184.679999999993</v>
+        <v>0</v>
       </c>
       <c r="AG593" s="4">
-        <v>85646.080000000002</v>
+        <v>0</v>
       </c>
       <c r="AH593" s="4">
-        <v>85868.25</v>
+        <v>0</v>
       </c>
       <c r="AI593" s="4">
-        <v>8182.97</v>
+        <v>0</v>
       </c>
       <c r="AJ593" s="4">
-        <v>8255.6200000000008</v>
+        <v>0</v>
       </c>
       <c r="AK593" s="4">
-        <v>37.119999999999997</v>
+        <v>0</v>
       </c>
       <c r="AL593" s="4">
-        <v>2750.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:38" x14ac:dyDescent="0.25">
@@ -48320,22 +48295,22 @@
         <v>862</v>
       </c>
       <c r="C594">
-        <v>5064129</v>
+        <v>1368670</v>
       </c>
       <c r="D594" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E594" t="s">
         <v>32</v>
       </c>
       <c r="F594" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G594" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H594" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I594" t="s">
         <v>36</v>
@@ -48344,31 +48319,64 @@
         <v>37</v>
       </c>
       <c r="K594" s="1">
-        <v>45230</v>
+        <v>44879</v>
       </c>
       <c r="M594" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N594" s="2">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
       <c r="O594" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P594" s="3">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="S594" t="s">
+        <v>863</v>
       </c>
       <c r="T594" t="s">
         <v>40</v>
       </c>
+      <c r="Z594" s="4">
+        <v>119680.47</v>
+      </c>
+      <c r="AA594" s="4">
+        <v>102763.73</v>
+      </c>
+      <c r="AB594" s="4">
+        <v>97885.87</v>
+      </c>
+      <c r="AC594" s="4">
+        <v>98175.52</v>
+      </c>
+      <c r="AD594" s="4">
+        <v>102305.34</v>
+      </c>
+      <c r="AE594" s="4">
+        <v>87335.75</v>
+      </c>
+      <c r="AF594" s="4">
+        <v>83184.679999999993</v>
+      </c>
+      <c r="AG594" s="4">
+        <v>85646.080000000002</v>
+      </c>
+      <c r="AH594" s="4">
+        <v>85868.25</v>
+      </c>
+      <c r="AI594" s="4">
+        <v>8182.97</v>
+      </c>
       <c r="AJ594" s="4">
-        <v>0</v>
+        <v>8255.6200000000008</v>
       </c>
       <c r="AK594" s="4">
-        <v>17527.810000000001</v>
+        <v>37.119999999999997</v>
       </c>
       <c r="AL594" s="4">
-        <v>67908.850000000006</v>
+        <v>2750.49</v>
       </c>
     </row>
     <row r="595" spans="1:38" x14ac:dyDescent="0.25">
@@ -48376,22 +48384,22 @@
         <v>29</v>
       </c>
       <c r="B595" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C595">
-        <v>4381095</v>
+        <v>5064129</v>
       </c>
       <c r="D595" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E595" t="s">
         <v>32</v>
       </c>
       <c r="F595" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="G595" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H595" t="s">
         <v>35</v>
@@ -48403,58 +48411,31 @@
         <v>37</v>
       </c>
       <c r="K595" s="1">
-        <v>44973</v>
+        <v>45230</v>
       </c>
       <c r="M595" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="N595" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O595" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="P595" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T595" t="s">
         <v>40</v>
       </c>
-      <c r="AA595" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB595" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC595" s="4">
-        <v>452250.65</v>
-      </c>
-      <c r="AD595" s="4">
-        <v>448793.99</v>
-      </c>
-      <c r="AE595" s="4">
-        <v>468483.92</v>
-      </c>
-      <c r="AF595" s="4">
-        <v>507653.15</v>
-      </c>
-      <c r="AG595" s="4">
-        <v>534109.97</v>
-      </c>
-      <c r="AH595" s="4">
-        <v>510876.26</v>
-      </c>
-      <c r="AI595" s="4">
-        <v>509020.56</v>
-      </c>
       <c r="AJ595" s="4">
-        <v>455605.43</v>
+        <v>0</v>
       </c>
       <c r="AK595" s="4">
-        <v>489699.46</v>
+        <v>17527.810000000001</v>
       </c>
       <c r="AL595" s="4">
-        <v>513079.42</v>
+        <v>67908.850000000006</v>
       </c>
     </row>
     <row r="596" spans="1:38" x14ac:dyDescent="0.25">
@@ -48462,22 +48443,22 @@
         <v>29</v>
       </c>
       <c r="B596" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C596">
-        <v>4224011</v>
+        <v>4381095</v>
       </c>
       <c r="D596" t="s">
         <v>42</v>
       </c>
       <c r="E596" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F596" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="G596" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H596" t="s">
         <v>35</v>
@@ -48489,19 +48470,19 @@
         <v>37</v>
       </c>
       <c r="K596" s="1">
-        <v>44999</v>
+        <v>44973</v>
       </c>
       <c r="M596" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="N596" s="2">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O596" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="P596" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T596" t="s">
         <v>40</v>
@@ -48513,34 +48494,34 @@
         <v>0</v>
       </c>
       <c r="AC596" s="4">
-        <v>62447.48</v>
+        <v>452250.65</v>
       </c>
       <c r="AD596" s="4">
-        <v>62942.91</v>
+        <v>448793.99</v>
       </c>
       <c r="AE596" s="4">
-        <v>63991.85</v>
+        <v>468483.92</v>
       </c>
       <c r="AF596" s="4">
-        <v>64634.52</v>
+        <v>507653.15</v>
       </c>
       <c r="AG596" s="4">
-        <v>80567.8</v>
+        <v>534109.97</v>
       </c>
       <c r="AH596" s="4">
-        <v>105473.89</v>
+        <v>510876.26</v>
       </c>
       <c r="AI596" s="4">
-        <v>110320</v>
+        <v>509020.56</v>
       </c>
       <c r="AJ596" s="4">
-        <v>111815.67</v>
+        <v>455605.43</v>
       </c>
       <c r="AK596" s="4">
-        <v>77587.7</v>
+        <v>489699.46</v>
       </c>
       <c r="AL596" s="4">
-        <v>116259.59</v>
+        <v>513079.42</v>
       </c>
     </row>
     <row r="597" spans="1:38" x14ac:dyDescent="0.25">
@@ -48548,22 +48529,22 @@
         <v>29</v>
       </c>
       <c r="B597" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C597">
-        <v>4346716</v>
+        <v>4224011</v>
       </c>
       <c r="D597" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E597" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F597" t="s">
-        <v>607</v>
+        <v>100</v>
       </c>
       <c r="G597" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H597" t="s">
         <v>35</v>
@@ -48575,19 +48556,19 @@
         <v>37</v>
       </c>
       <c r="K597" s="1">
-        <v>44973</v>
+        <v>44999</v>
       </c>
       <c r="M597" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="N597" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="O597" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="P597" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T597" t="s">
         <v>40</v>
@@ -48599,34 +48580,34 @@
         <v>0</v>
       </c>
       <c r="AC597" s="4">
-        <v>0</v>
+        <v>62447.48</v>
       </c>
       <c r="AD597" s="4">
-        <v>289978.59000000003</v>
+        <v>62942.91</v>
       </c>
       <c r="AE597" s="4">
-        <v>306493.43</v>
+        <v>63991.85</v>
       </c>
       <c r="AF597" s="4">
-        <v>328944.06</v>
+        <v>64634.52</v>
       </c>
       <c r="AG597" s="4">
-        <v>341722.93</v>
+        <v>80567.8</v>
       </c>
       <c r="AH597" s="4">
-        <v>348232.2</v>
+        <v>105473.89</v>
       </c>
       <c r="AI597" s="4">
-        <v>353899.78</v>
+        <v>110320</v>
       </c>
       <c r="AJ597" s="4">
-        <v>350742.28</v>
+        <v>111815.67</v>
       </c>
       <c r="AK597" s="4">
-        <v>357997.75</v>
+        <v>77587.7</v>
       </c>
       <c r="AL597" s="4">
-        <v>366779.82</v>
+        <v>116259.59</v>
       </c>
     </row>
     <row r="598" spans="1:38" x14ac:dyDescent="0.25">
@@ -48634,22 +48615,22 @@
         <v>29</v>
       </c>
       <c r="B598" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C598">
-        <v>4498637</v>
+        <v>4346716</v>
       </c>
       <c r="D598" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E598" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F598" t="s">
-        <v>75</v>
+        <v>607</v>
       </c>
       <c r="G598" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H598" t="s">
         <v>35</v>
@@ -48661,49 +48642,58 @@
         <v>37</v>
       </c>
       <c r="K598" s="1">
-        <v>45096</v>
+        <v>44973</v>
       </c>
       <c r="M598" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="N598" s="2">
-        <v>1.2E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="O598" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="P598" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T598" t="s">
         <v>40</v>
       </c>
+      <c r="AA598" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB598" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC598" s="4">
+        <v>0</v>
+      </c>
       <c r="AD598" s="4">
-        <v>0</v>
+        <v>289978.59000000003</v>
       </c>
       <c r="AE598" s="4">
-        <v>98581.04</v>
+        <v>306493.43</v>
       </c>
       <c r="AF598" s="4">
-        <v>111588.77</v>
+        <v>328944.06</v>
       </c>
       <c r="AG598" s="4">
-        <v>112674.22</v>
+        <v>341722.93</v>
       </c>
       <c r="AH598" s="4">
-        <v>113054.22</v>
+        <v>348232.2</v>
       </c>
       <c r="AI598" s="4">
-        <v>113905.94</v>
+        <v>353899.78</v>
       </c>
       <c r="AJ598" s="4">
-        <v>114841.84</v>
+        <v>350742.28</v>
       </c>
       <c r="AK598" s="4">
-        <v>115658.22</v>
+        <v>357997.75</v>
       </c>
       <c r="AL598" s="4">
-        <v>116571.81</v>
+        <v>366779.82</v>
       </c>
     </row>
     <row r="599" spans="1:38" x14ac:dyDescent="0.25">
@@ -48711,22 +48701,22 @@
         <v>29</v>
       </c>
       <c r="B599" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C599">
-        <v>4911541</v>
+        <v>4498637</v>
       </c>
       <c r="D599" t="s">
         <v>42</v>
       </c>
       <c r="E599" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F599" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G599" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H599" t="s">
         <v>35</v>
@@ -48738,7 +48728,7 @@
         <v>37</v>
       </c>
       <c r="K599" s="1">
-        <v>44979</v>
+        <v>45096</v>
       </c>
       <c r="M599" t="s">
         <v>45</v>
@@ -48755,38 +48745,32 @@
       <c r="T599" t="s">
         <v>40</v>
       </c>
-      <c r="AB599" s="4">
-        <v>473873.6</v>
-      </c>
-      <c r="AC599" s="4">
-        <v>481691.48</v>
-      </c>
       <c r="AD599" s="4">
-        <v>485613.74</v>
+        <v>0</v>
       </c>
       <c r="AE599" s="4">
-        <v>493663.84</v>
+        <v>98581.04</v>
       </c>
       <c r="AF599" s="4">
-        <v>500079.13</v>
+        <v>111588.77</v>
       </c>
       <c r="AG599" s="4">
-        <v>503634.65</v>
+        <v>112674.22</v>
       </c>
       <c r="AH599" s="4">
-        <v>506892.03</v>
+        <v>113054.22</v>
       </c>
       <c r="AI599" s="4">
-        <v>505887.98</v>
+        <v>113905.94</v>
       </c>
       <c r="AJ599" s="4">
-        <v>509208.33</v>
+        <v>114841.84</v>
       </c>
       <c r="AK599" s="4">
-        <v>511261.68</v>
+        <v>115658.22</v>
       </c>
       <c r="AL599" s="4">
-        <v>517830.29</v>
+        <v>116571.81</v>
       </c>
     </row>
     <row r="600" spans="1:38" x14ac:dyDescent="0.25">
@@ -48794,19 +48778,19 @@
         <v>29</v>
       </c>
       <c r="B600" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C600">
-        <v>4848927</v>
+        <v>4911541</v>
       </c>
       <c r="D600" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E600" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F600" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="G600" t="s">
         <v>52</v>
@@ -48821,13 +48805,13 @@
         <v>37</v>
       </c>
       <c r="K600" s="1">
-        <v>45168</v>
+        <v>44979</v>
       </c>
       <c r="M600" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="N600" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O600" t="s">
         <v>36</v>
@@ -48838,20 +48822,38 @@
       <c r="T600" t="s">
         <v>40</v>
       </c>
+      <c r="AB600" s="4">
+        <v>473873.6</v>
+      </c>
+      <c r="AC600" s="4">
+        <v>481691.48</v>
+      </c>
+      <c r="AD600" s="4">
+        <v>485613.74</v>
+      </c>
+      <c r="AE600" s="4">
+        <v>493663.84</v>
+      </c>
+      <c r="AF600" s="4">
+        <v>500079.13</v>
+      </c>
+      <c r="AG600" s="4">
+        <v>503634.65</v>
+      </c>
       <c r="AH600" s="4">
-        <v>1967966.43</v>
+        <v>506892.03</v>
       </c>
       <c r="AI600" s="4">
-        <v>1988281</v>
+        <v>505887.98</v>
       </c>
       <c r="AJ600" s="4">
-        <v>3881924.48</v>
+        <v>509208.33</v>
       </c>
       <c r="AK600" s="4">
-        <v>3904486.3</v>
+        <v>511261.68</v>
       </c>
       <c r="AL600" s="4">
-        <v>3938265.36</v>
+        <v>517830.29</v>
       </c>
     </row>
     <row r="601" spans="1:38" x14ac:dyDescent="0.25">
@@ -48859,37 +48861,37 @@
         <v>29</v>
       </c>
       <c r="B601" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C601">
-        <v>4238126</v>
+        <v>4848927</v>
       </c>
       <c r="D601" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E601" t="s">
         <v>32</v>
       </c>
       <c r="F601" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="G601" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H601" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I601" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="J601" t="s">
         <v>37</v>
       </c>
       <c r="K601" s="1">
-        <v>45163</v>
+        <v>45168</v>
       </c>
       <c r="M601" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="N601" s="2">
         <v>5.0000000000000001E-3</v>
@@ -48900,47 +48902,23 @@
       <c r="P601" s="3">
         <v>0</v>
       </c>
-      <c r="S601" t="s">
-        <v>870</v>
-      </c>
       <c r="T601" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA601" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB601" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC601" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD601" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE601" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF601" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG601" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AH601" s="4">
-        <v>0</v>
+        <v>1967966.43</v>
       </c>
       <c r="AI601" s="4">
-        <v>0</v>
+        <v>1988281</v>
       </c>
       <c r="AJ601" s="4">
-        <v>0</v>
+        <v>3881924.48</v>
       </c>
       <c r="AK601" s="4">
-        <v>0</v>
+        <v>3904486.3</v>
       </c>
       <c r="AL601" s="4">
-        <v>0</v>
+        <v>3938265.36</v>
       </c>
     </row>
     <row r="602" spans="1:38" x14ac:dyDescent="0.25">
@@ -48951,37 +48929,37 @@
         <v>871</v>
       </c>
       <c r="C602">
-        <v>5105172</v>
+        <v>4238126</v>
       </c>
       <c r="D602" t="s">
-        <v>366</v>
+        <v>42</v>
       </c>
       <c r="E602" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F602" t="s">
-        <v>367</v>
+        <v>54</v>
       </c>
       <c r="G602" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H602" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I602" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="J602" t="s">
         <v>37</v>
       </c>
       <c r="K602" s="1">
-        <v>45252</v>
+        <v>45163</v>
       </c>
       <c r="M602" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="N602" s="2">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O602" t="s">
         <v>36</v>
@@ -48989,14 +48967,47 @@
       <c r="P602" s="3">
         <v>0</v>
       </c>
+      <c r="S602" t="s">
+        <v>872</v>
+      </c>
       <c r="T602" t="s">
-        <v>40</v>
+        <v>154</v>
+      </c>
+      <c r="AA602" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB602" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC602" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD602" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE602" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF602" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG602" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH602" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI602" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ602" s="4">
+        <v>0</v>
       </c>
       <c r="AK602" s="4">
-        <v>480118.49</v>
+        <v>0</v>
       </c>
       <c r="AL602" s="4">
-        <v>483878.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:38" x14ac:dyDescent="0.25">
@@ -49004,19 +49015,19 @@
         <v>29</v>
       </c>
       <c r="B603" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C603">
-        <v>4328934</v>
+        <v>5105172</v>
       </c>
       <c r="D603" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="E603" t="s">
         <v>43</v>
       </c>
       <c r="F603" t="s">
-        <v>44</v>
+        <v>367</v>
       </c>
       <c r="G603" t="s">
         <v>52</v>
@@ -49028,16 +49039,16 @@
         <v>36</v>
       </c>
       <c r="J603" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K603" s="1">
-        <v>44945</v>
+        <v>45252</v>
       </c>
       <c r="M603" t="s">
         <v>45</v>
       </c>
       <c r="N603" s="2">
-        <v>1.2E-2</v>
+        <v>0.01</v>
       </c>
       <c r="O603" t="s">
         <v>36</v>
@@ -49045,47 +49056,14 @@
       <c r="P603" s="3">
         <v>0</v>
       </c>
-      <c r="Q603" t="s">
-        <v>873</v>
-      </c>
       <c r="T603" t="s">
         <v>40</v>
       </c>
-      <c r="AA603" s="4">
-        <v>788175.45</v>
-      </c>
-      <c r="AB603" s="4">
-        <v>794794.76</v>
-      </c>
-      <c r="AC603" s="4">
-        <v>803301.69</v>
-      </c>
-      <c r="AD603" s="4">
-        <v>808932.47</v>
-      </c>
-      <c r="AE603" s="4">
-        <v>817587.84</v>
-      </c>
-      <c r="AF603" s="4">
-        <v>824932.72</v>
-      </c>
-      <c r="AG603" s="4">
-        <v>831994.21</v>
-      </c>
-      <c r="AH603" s="4">
-        <v>840143.99</v>
-      </c>
-      <c r="AI603" s="4">
-        <v>846924.5</v>
-      </c>
-      <c r="AJ603" s="4">
-        <v>854397.79</v>
-      </c>
       <c r="AK603" s="4">
-        <v>860467.18</v>
+        <v>480118.49</v>
       </c>
       <c r="AL603" s="4">
-        <v>866851.66</v>
+        <v>483878.05</v>
       </c>
     </row>
     <row r="604" spans="1:38" x14ac:dyDescent="0.25">
@@ -49096,19 +49074,19 @@
         <v>874</v>
       </c>
       <c r="C604">
-        <v>4487140</v>
+        <v>4328934</v>
       </c>
       <c r="D604" t="s">
         <v>42</v>
       </c>
       <c r="E604" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F604" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="G604" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H604" t="s">
         <v>35</v>
@@ -49117,10 +49095,10 @@
         <v>36</v>
       </c>
       <c r="J604" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="K604" s="1">
-        <v>45029</v>
+        <v>44945</v>
       </c>
       <c r="M604" t="s">
         <v>45</v>
@@ -49134,38 +49112,47 @@
       <c r="P604" s="3">
         <v>0</v>
       </c>
+      <c r="Q604" t="s">
+        <v>875</v>
+      </c>
       <c r="T604" t="s">
         <v>40</v>
       </c>
+      <c r="AA604" s="4">
+        <v>788175.45</v>
+      </c>
+      <c r="AB604" s="4">
+        <v>794794.76</v>
+      </c>
       <c r="AC604" s="4">
-        <v>0</v>
+        <v>803301.69</v>
       </c>
       <c r="AD604" s="4">
-        <v>134455.91</v>
+        <v>808932.47</v>
       </c>
       <c r="AE604" s="4">
-        <v>76467.350000000006</v>
+        <v>817587.84</v>
       </c>
       <c r="AF604" s="4">
-        <v>82627.98</v>
+        <v>824932.72</v>
       </c>
       <c r="AG604" s="4">
-        <v>83258.8</v>
+        <v>831994.21</v>
       </c>
       <c r="AH604" s="4">
-        <v>90781.64</v>
+        <v>840143.99</v>
       </c>
       <c r="AI604" s="4">
-        <v>91587.3</v>
+        <v>846924.5</v>
       </c>
       <c r="AJ604" s="4">
-        <v>92396.3</v>
+        <v>854397.79</v>
       </c>
       <c r="AK604" s="4">
-        <v>120183.45</v>
+        <v>860467.18</v>
       </c>
       <c r="AL604" s="4">
-        <v>121206.67</v>
+        <v>866851.66</v>
       </c>
     </row>
     <row r="605" spans="1:38" x14ac:dyDescent="0.25">
@@ -49173,22 +49160,22 @@
         <v>29</v>
       </c>
       <c r="B605" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C605">
-        <v>4918709</v>
+        <v>4487140</v>
       </c>
       <c r="D605" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E605" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F605" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="G605" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H605" t="s">
         <v>35</v>
@@ -49200,37 +49187,52 @@
         <v>37</v>
       </c>
       <c r="K605" s="1">
-        <v>45145</v>
+        <v>45029</v>
       </c>
       <c r="M605" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N605" s="2">
         <v>1.2E-2</v>
       </c>
       <c r="O605" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P605" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T605" t="s">
         <v>40</v>
       </c>
+      <c r="AC605" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD605" s="4">
+        <v>134455.91</v>
+      </c>
+      <c r="AE605" s="4">
+        <v>76467.350000000006</v>
+      </c>
+      <c r="AF605" s="4">
+        <v>82627.98</v>
+      </c>
+      <c r="AG605" s="4">
+        <v>83258.8</v>
+      </c>
       <c r="AH605" s="4">
-        <v>847092.01</v>
+        <v>90781.64</v>
       </c>
       <c r="AI605" s="4">
-        <v>1054776.97</v>
+        <v>91587.3</v>
       </c>
       <c r="AJ605" s="4">
-        <v>1054650.81</v>
+        <v>92396.3</v>
       </c>
       <c r="AK605" s="4">
-        <v>1072685.68</v>
+        <v>120183.45</v>
       </c>
       <c r="AL605" s="4">
-        <v>1099271.98</v>
+        <v>121206.67</v>
       </c>
     </row>
     <row r="606" spans="1:38" x14ac:dyDescent="0.25">
@@ -49238,10 +49240,10 @@
         <v>29</v>
       </c>
       <c r="B606" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C606">
-        <v>5000090</v>
+        <v>4918709</v>
       </c>
       <c r="D606" t="s">
         <v>31</v>
@@ -49253,25 +49255,25 @@
         <v>33</v>
       </c>
       <c r="G606" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H606" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I606" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="J606" t="s">
         <v>37</v>
       </c>
       <c r="K606" s="1">
-        <v>45187</v>
+        <v>45145</v>
       </c>
       <c r="M606" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="N606" s="2">
-        <v>1.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O606" t="s">
         <v>39</v>
@@ -49282,17 +49284,20 @@
       <c r="T606" t="s">
         <v>40</v>
       </c>
+      <c r="AH606" s="4">
+        <v>847092.01</v>
+      </c>
       <c r="AI606" s="4">
-        <v>0</v>
+        <v>1054776.97</v>
       </c>
       <c r="AJ606" s="4">
-        <v>0</v>
+        <v>1054650.81</v>
       </c>
       <c r="AK606" s="4">
-        <v>0</v>
+        <v>1072685.68</v>
       </c>
       <c r="AL606" s="4">
-        <v>0</v>
+        <v>1099271.98</v>
       </c>
     </row>
     <row r="607" spans="1:38" x14ac:dyDescent="0.25">
@@ -49300,73 +49305,61 @@
         <v>29</v>
       </c>
       <c r="B607" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C607">
-        <v>4813166</v>
+        <v>5000090</v>
       </c>
       <c r="D607" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E607" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F607" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G607" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H607" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I607" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="J607" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K607" s="1">
-        <v>45127</v>
+        <v>45187</v>
       </c>
       <c r="M607" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="N607" s="2">
-        <v>1.2E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="O607" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P607" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q607" t="s">
-        <v>877</v>
+        <v>0.1</v>
       </c>
       <c r="T607" t="s">
         <v>40</v>
       </c>
-      <c r="AF607" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG607" s="4">
-        <v>1875447.01</v>
-      </c>
-      <c r="AH607" s="4">
-        <v>1896446.3</v>
-      </c>
       <c r="AI607" s="4">
-        <v>1503271.83</v>
+        <v>0</v>
       </c>
       <c r="AJ607" s="4">
-        <v>1516384.23</v>
+        <v>0</v>
       </c>
       <c r="AK607" s="4">
-        <v>1527561.79</v>
+        <v>0</v>
       </c>
       <c r="AL607" s="4">
-        <v>1800247.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:38" x14ac:dyDescent="0.25">
@@ -49374,10 +49367,10 @@
         <v>29</v>
       </c>
       <c r="B608" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C608">
-        <v>5173958</v>
+        <v>4813166</v>
       </c>
       <c r="D608" t="s">
         <v>42</v>
@@ -49389,22 +49382,25 @@
         <v>100</v>
       </c>
       <c r="G608" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H608" t="s">
         <v>35</v>
       </c>
+      <c r="I608" t="s">
+        <v>36</v>
+      </c>
       <c r="J608" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="K608" s="1">
-        <v>45282</v>
+        <v>45127</v>
       </c>
       <c r="M608" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="N608" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O608" t="s">
         <v>36</v>
@@ -49412,11 +49408,32 @@
       <c r="P608" s="3">
         <v>0</v>
       </c>
+      <c r="Q608" t="s">
+        <v>879</v>
+      </c>
       <c r="T608" t="s">
         <v>40</v>
       </c>
+      <c r="AF608" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG608" s="4">
+        <v>1875447.01</v>
+      </c>
+      <c r="AH608" s="4">
+        <v>1896446.3</v>
+      </c>
+      <c r="AI608" s="4">
+        <v>1503271.83</v>
+      </c>
+      <c r="AJ608" s="4">
+        <v>1516384.23</v>
+      </c>
+      <c r="AK608" s="4">
+        <v>1527561.79</v>
+      </c>
       <c r="AL608" s="4">
-        <v>100024.17</v>
+        <v>1800247.93</v>
       </c>
     </row>
     <row r="609" spans="1:38" x14ac:dyDescent="0.25">
@@ -49427,7 +49444,7 @@
         <v>878</v>
       </c>
       <c r="C609">
-        <v>5105970</v>
+        <v>5173958</v>
       </c>
       <c r="D609" t="s">
         <v>42</v>
@@ -49436,7 +49453,7 @@
         <v>43</v>
       </c>
       <c r="F609" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="G609" t="s">
         <v>34</v>
@@ -49444,38 +49461,29 @@
       <c r="H609" t="s">
         <v>35</v>
       </c>
-      <c r="I609" t="s">
-        <v>36</v>
-      </c>
       <c r="J609" t="s">
         <v>37</v>
       </c>
       <c r="K609" s="1">
-        <v>45246</v>
+        <v>45282</v>
       </c>
       <c r="M609" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="N609" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O609" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P609" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="S609" t="s">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="T609" t="s">
         <v>40</v>
       </c>
-      <c r="AK609" s="4">
-        <v>0</v>
-      </c>
       <c r="AL609" s="4">
-        <v>191604.91</v>
+        <v>100024.17</v>
       </c>
     </row>
     <row r="610" spans="1:38" x14ac:dyDescent="0.25">
@@ -49486,19 +49494,19 @@
         <v>880</v>
       </c>
       <c r="C610">
-        <v>4806286</v>
+        <v>5105970</v>
       </c>
       <c r="D610" t="s">
         <v>42</v>
       </c>
       <c r="E610" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F610" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="G610" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H610" t="s">
         <v>35</v>
@@ -49510,43 +49518,31 @@
         <v>37</v>
       </c>
       <c r="K610" s="1">
-        <v>45163</v>
+        <v>45246</v>
       </c>
       <c r="M610" t="s">
-        <v>301</v>
+        <v>56</v>
       </c>
       <c r="N610" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O610" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P610" s="3">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="S610" t="s">
+        <v>881</v>
       </c>
       <c r="T610" t="s">
         <v>40</v>
       </c>
-      <c r="AF610" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG610" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH610" s="4">
-        <v>232512.44</v>
-      </c>
-      <c r="AI610" s="4">
-        <v>234923.98</v>
-      </c>
-      <c r="AJ610" s="4">
-        <v>237389.47</v>
-      </c>
       <c r="AK610" s="4">
-        <v>239009.45</v>
+        <v>0</v>
       </c>
       <c r="AL610" s="4">
-        <v>241044.65</v>
+        <v>191604.91</v>
       </c>
     </row>
     <row r="611" spans="1:38" x14ac:dyDescent="0.25">
@@ -49554,10 +49550,10 @@
         <v>29</v>
       </c>
       <c r="B611" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C611">
-        <v>5009947</v>
+        <v>4806286</v>
       </c>
       <c r="D611" t="s">
         <v>42</v>
@@ -49566,10 +49562,10 @@
         <v>74</v>
       </c>
       <c r="F611" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G611" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H611" t="s">
         <v>35</v>
@@ -49581,13 +49577,13 @@
         <v>37</v>
       </c>
       <c r="K611" s="1">
-        <v>45190</v>
+        <v>45163</v>
       </c>
       <c r="M611" t="s">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="N611" s="2">
-        <v>1.2E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O611" t="s">
         <v>36</v>
@@ -49598,17 +49594,26 @@
       <c r="T611" t="s">
         <v>40</v>
       </c>
+      <c r="AF611" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG611" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH611" s="4">
+        <v>232512.44</v>
+      </c>
       <c r="AI611" s="4">
-        <v>50021.25</v>
+        <v>234923.98</v>
       </c>
       <c r="AJ611" s="4">
-        <v>450886.23</v>
+        <v>237389.47</v>
       </c>
       <c r="AK611" s="4">
-        <v>454556.5</v>
+        <v>239009.45</v>
       </c>
       <c r="AL611" s="4">
-        <v>456141.06</v>
+        <v>241044.65</v>
       </c>
     </row>
     <row r="612" spans="1:38" x14ac:dyDescent="0.25">
@@ -49616,22 +49621,22 @@
         <v>29</v>
       </c>
       <c r="B612" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C612">
-        <v>3115072</v>
+        <v>5009947</v>
       </c>
       <c r="D612" t="s">
         <v>42</v>
       </c>
       <c r="E612" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F612" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="G612" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H612" t="s">
         <v>35</v>
@@ -49643,49 +49648,34 @@
         <v>37</v>
       </c>
       <c r="K612" s="1">
-        <v>45042</v>
+        <v>45190</v>
       </c>
       <c r="M612" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N612" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O612" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P612" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T612" t="s">
         <v>40</v>
       </c>
-      <c r="AD612" s="4">
-        <v>112366.37</v>
-      </c>
-      <c r="AE612" s="4">
-        <v>113918.96</v>
-      </c>
-      <c r="AF612" s="4">
-        <v>200612.93</v>
-      </c>
-      <c r="AG612" s="4">
-        <v>282738</v>
-      </c>
-      <c r="AH612" s="4">
-        <v>231160.19</v>
-      </c>
       <c r="AI612" s="4">
-        <v>181973.47</v>
+        <v>50021.25</v>
       </c>
       <c r="AJ612" s="4">
-        <v>181576.12</v>
+        <v>450886.23</v>
       </c>
       <c r="AK612" s="4">
-        <v>134747.78</v>
+        <v>454556.5</v>
       </c>
       <c r="AL612" s="4">
-        <v>87143.73</v>
+        <v>456141.06</v>
       </c>
     </row>
     <row r="613" spans="1:38" x14ac:dyDescent="0.25">
@@ -49693,22 +49683,25 @@
         <v>29</v>
       </c>
       <c r="B613" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C613">
-        <v>4400000</v>
+        <v>3115072</v>
       </c>
       <c r="D613" t="s">
         <v>42</v>
       </c>
       <c r="E613" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F613" t="s">
-        <v>667</v>
+        <v>64</v>
+      </c>
+      <c r="G613" t="s">
+        <v>34</v>
       </c>
       <c r="H613" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="I613" t="s">
         <v>36</v>
@@ -49717,7 +49710,7 @@
         <v>37</v>
       </c>
       <c r="K613" s="1">
-        <v>45099</v>
+        <v>45042</v>
       </c>
       <c r="M613" t="s">
         <v>56</v>
@@ -49734,38 +49727,32 @@
       <c r="T613" t="s">
         <v>40</v>
       </c>
-      <c r="AB613" s="4">
-        <v>15000</v>
-      </c>
-      <c r="AC613" s="4">
-        <v>15000</v>
-      </c>
       <c r="AD613" s="4">
-        <v>15000</v>
+        <v>112366.37</v>
       </c>
       <c r="AE613" s="4">
-        <v>15000</v>
+        <v>113918.96</v>
       </c>
       <c r="AF613" s="4">
-        <v>15046.9</v>
+        <v>200612.93</v>
       </c>
       <c r="AG613" s="4">
-        <v>0.01</v>
+        <v>282738</v>
       </c>
       <c r="AH613" s="4">
-        <v>0</v>
+        <v>231160.19</v>
       </c>
       <c r="AI613" s="4">
-        <v>0</v>
+        <v>181973.47</v>
       </c>
       <c r="AJ613" s="4">
-        <v>0</v>
+        <v>181576.12</v>
       </c>
       <c r="AK613" s="4">
-        <v>0.01</v>
+        <v>134747.78</v>
       </c>
       <c r="AL613" s="4">
-        <v>0.01</v>
+        <v>87143.73</v>
       </c>
     </row>
     <row r="614" spans="1:38" x14ac:dyDescent="0.25">
@@ -49773,25 +49760,22 @@
         <v>29</v>
       </c>
       <c r="B614" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C614">
-        <v>4967702</v>
+        <v>4400000</v>
       </c>
       <c r="D614" t="s">
         <v>42</v>
       </c>
       <c r="E614" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F614" t="s">
-        <v>54</v>
-      </c>
-      <c r="G614" t="s">
-        <v>48</v>
+        <v>667</v>
       </c>
       <c r="H614" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="I614" t="s">
         <v>36</v>
@@ -49800,16 +49784,16 @@
         <v>37</v>
       </c>
       <c r="K614" s="1">
-        <v>45175</v>
+        <v>45099</v>
       </c>
       <c r="M614" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="N614" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O614" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="P614" s="3">
         <v>0.1</v>
@@ -49817,20 +49801,38 @@
       <c r="T614" t="s">
         <v>40</v>
       </c>
+      <c r="AB614" s="4">
+        <v>15000</v>
+      </c>
+      <c r="AC614" s="4">
+        <v>15000</v>
+      </c>
+      <c r="AD614" s="4">
+        <v>15000</v>
+      </c>
+      <c r="AE614" s="4">
+        <v>15000</v>
+      </c>
+      <c r="AF614" s="4">
+        <v>15046.9</v>
+      </c>
+      <c r="AG614" s="4">
+        <v>0.01</v>
+      </c>
       <c r="AH614" s="4">
         <v>0</v>
       </c>
       <c r="AI614" s="4">
-        <v>193844.4</v>
+        <v>0</v>
       </c>
       <c r="AJ614" s="4">
-        <v>201445.17</v>
+        <v>0</v>
       </c>
       <c r="AK614" s="4">
-        <v>205170</v>
+        <v>0.01</v>
       </c>
       <c r="AL614" s="4">
-        <v>209842.97</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="615" spans="1:38" x14ac:dyDescent="0.25">
@@ -49838,22 +49840,22 @@
         <v>29</v>
       </c>
       <c r="B615" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C615">
-        <v>4360430</v>
+        <v>4967702</v>
       </c>
       <c r="D615" t="s">
         <v>42</v>
       </c>
       <c r="E615" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F615" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="G615" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H615" t="s">
         <v>35</v>
@@ -49865,58 +49867,37 @@
         <v>37</v>
       </c>
       <c r="K615" s="1">
-        <v>44959</v>
+        <v>45175</v>
       </c>
       <c r="M615" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="N615" s="2">
-        <v>1.2E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="O615" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="P615" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T615" t="s">
         <v>40</v>
       </c>
-      <c r="AA615" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB615" s="4">
-        <v>2010017.61</v>
-      </c>
-      <c r="AC615" s="4">
-        <v>2031340.41</v>
-      </c>
-      <c r="AD615" s="4">
-        <v>2045094.56</v>
-      </c>
-      <c r="AE615" s="4">
-        <v>2066995.05</v>
-      </c>
-      <c r="AF615" s="4">
-        <v>2086021.94</v>
-      </c>
-      <c r="AG615" s="4">
-        <v>2104306.92</v>
-      </c>
       <c r="AH615" s="4">
-        <v>2124517.67</v>
+        <v>0</v>
       </c>
       <c r="AI615" s="4">
-        <v>2141809.61</v>
+        <v>193844.4</v>
       </c>
       <c r="AJ615" s="4">
-        <v>2160907.4900000002</v>
+        <v>201445.17</v>
       </c>
       <c r="AK615" s="4">
-        <v>2176880.2599999998</v>
+        <v>205170</v>
       </c>
       <c r="AL615" s="4">
-        <v>2193936.2200000002</v>
+        <v>209842.97</v>
       </c>
     </row>
     <row r="616" spans="1:38" x14ac:dyDescent="0.25">
@@ -49924,10 +49905,10 @@
         <v>29</v>
       </c>
       <c r="B616" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C616">
-        <v>2694089</v>
+        <v>4360430</v>
       </c>
       <c r="D616" t="s">
         <v>42</v>
@@ -49936,7 +49917,7 @@
         <v>43</v>
       </c>
       <c r="F616" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="G616" t="s">
         <v>52</v>
@@ -49951,13 +49932,13 @@
         <v>37</v>
       </c>
       <c r="K616" s="1">
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="M616" t="s">
         <v>45</v>
       </c>
       <c r="N616" s="2">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O616" t="s">
         <v>36</v>
@@ -49969,40 +49950,40 @@
         <v>40</v>
       </c>
       <c r="AA616" s="4">
-        <v>367453.7</v>
+        <v>0</v>
       </c>
       <c r="AB616" s="4">
-        <v>371328.96</v>
+        <v>2010017.61</v>
       </c>
       <c r="AC616" s="4">
-        <v>376736.61</v>
+        <v>2031340.41</v>
       </c>
       <c r="AD616" s="4">
-        <v>377025.32</v>
+        <v>2045094.56</v>
       </c>
       <c r="AE616" s="4">
-        <v>378013.16</v>
+        <v>2066995.05</v>
       </c>
       <c r="AF616" s="4">
-        <v>375411.82</v>
+        <v>2086021.94</v>
       </c>
       <c r="AG616" s="4">
-        <v>376086.9</v>
+        <v>2104306.92</v>
       </c>
       <c r="AH616" s="4">
-        <v>375895.74</v>
+        <v>2124517.67</v>
       </c>
       <c r="AI616" s="4">
-        <v>373156.75</v>
+        <v>2141809.61</v>
       </c>
       <c r="AJ616" s="4">
-        <v>369535.58</v>
+        <v>2160907.4900000002</v>
       </c>
       <c r="AK616" s="4">
-        <v>368890.63</v>
+        <v>2176880.2599999998</v>
       </c>
       <c r="AL616" s="4">
-        <v>370566.31</v>
+        <v>2193936.2200000002</v>
       </c>
     </row>
     <row r="617" spans="1:38" x14ac:dyDescent="0.25">
@@ -50010,10 +49991,10 @@
         <v>29</v>
       </c>
       <c r="B617" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C617">
-        <v>1294033</v>
+        <v>2694089</v>
       </c>
       <c r="D617" t="s">
         <v>42</v>
@@ -50025,7 +50006,7 @@
         <v>44</v>
       </c>
       <c r="G617" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H617" t="s">
         <v>35</v>
@@ -50037,13 +50018,13 @@
         <v>37</v>
       </c>
       <c r="K617" s="1">
-        <v>45163</v>
+        <v>44957</v>
       </c>
       <c r="M617" t="s">
         <v>45</v>
       </c>
       <c r="N617" s="2">
-        <v>1.2E-2</v>
+        <v>0.01</v>
       </c>
       <c r="O617" t="s">
         <v>36</v>
@@ -50054,23 +50035,41 @@
       <c r="T617" t="s">
         <v>40</v>
       </c>
+      <c r="AA617" s="4">
+        <v>367453.7</v>
+      </c>
+      <c r="AB617" s="4">
+        <v>371328.96</v>
+      </c>
+      <c r="AC617" s="4">
+        <v>376736.61</v>
+      </c>
+      <c r="AD617" s="4">
+        <v>377025.32</v>
+      </c>
+      <c r="AE617" s="4">
+        <v>378013.16</v>
+      </c>
+      <c r="AF617" s="4">
+        <v>375411.82</v>
+      </c>
       <c r="AG617" s="4">
-        <v>0</v>
+        <v>376086.9</v>
       </c>
       <c r="AH617" s="4">
-        <v>47901.55</v>
+        <v>375895.74</v>
       </c>
       <c r="AI617" s="4">
-        <v>48256.88</v>
+        <v>373156.75</v>
       </c>
       <c r="AJ617" s="4">
-        <v>48591.25</v>
+        <v>369535.58</v>
       </c>
       <c r="AK617" s="4">
-        <v>48964.38</v>
+        <v>368890.63</v>
       </c>
       <c r="AL617" s="4">
-        <v>49359</v>
+        <v>370566.31</v>
       </c>
     </row>
     <row r="618" spans="1:38" x14ac:dyDescent="0.25">
@@ -50078,19 +50077,19 @@
         <v>29</v>
       </c>
       <c r="B618" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C618">
-        <v>1804114</v>
+        <v>1294033</v>
       </c>
       <c r="D618" t="s">
         <v>42</v>
       </c>
       <c r="E618" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="F618" t="s">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="G618" t="s">
         <v>34</v>
@@ -50105,55 +50104,40 @@
         <v>37</v>
       </c>
       <c r="K618" s="1">
-        <v>44998</v>
+        <v>45163</v>
       </c>
       <c r="M618" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N618" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O618" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P618" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T618" t="s">
         <v>40</v>
       </c>
-      <c r="AB618" s="4">
-        <v>4066.02</v>
-      </c>
-      <c r="AC618" s="4">
-        <v>119885.32</v>
-      </c>
-      <c r="AD618" s="4">
-        <v>120387.26</v>
-      </c>
-      <c r="AE618" s="4">
-        <v>122550.79</v>
-      </c>
-      <c r="AF618" s="4">
-        <v>124736.01</v>
-      </c>
       <c r="AG618" s="4">
-        <v>126205.58</v>
+        <v>0</v>
       </c>
       <c r="AH618" s="4">
-        <v>126009.64</v>
+        <v>47901.55</v>
       </c>
       <c r="AI618" s="4">
-        <v>238439.05</v>
+        <v>48256.88</v>
       </c>
       <c r="AJ618" s="4">
-        <v>238416.3</v>
+        <v>48591.25</v>
       </c>
       <c r="AK618" s="4">
-        <v>243583.02</v>
+        <v>48964.38</v>
       </c>
       <c r="AL618" s="4">
-        <v>248332.55</v>
+        <v>49359</v>
       </c>
     </row>
     <row r="619" spans="1:38" x14ac:dyDescent="0.25">
@@ -50161,19 +50145,19 @@
         <v>29</v>
       </c>
       <c r="B619" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C619">
-        <v>5103059</v>
+        <v>1804114</v>
       </c>
       <c r="D619" t="s">
-        <v>366</v>
+        <v>42</v>
       </c>
       <c r="E619" t="s">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="F619" t="s">
-        <v>367</v>
+        <v>223</v>
       </c>
       <c r="G619" t="s">
         <v>34</v>
@@ -50188,28 +50172,55 @@
         <v>37</v>
       </c>
       <c r="K619" s="1">
-        <v>45253</v>
+        <v>44998</v>
       </c>
       <c r="M619" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N619" s="2">
-        <v>1.2E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O619" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P619" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T619" t="s">
         <v>40</v>
       </c>
+      <c r="AB619" s="4">
+        <v>4066.02</v>
+      </c>
+      <c r="AC619" s="4">
+        <v>119885.32</v>
+      </c>
+      <c r="AD619" s="4">
+        <v>120387.26</v>
+      </c>
+      <c r="AE619" s="4">
+        <v>122550.79</v>
+      </c>
+      <c r="AF619" s="4">
+        <v>124736.01</v>
+      </c>
+      <c r="AG619" s="4">
+        <v>126205.58</v>
+      </c>
+      <c r="AH619" s="4">
+        <v>126009.64</v>
+      </c>
+      <c r="AI619" s="4">
+        <v>238439.05</v>
+      </c>
+      <c r="AJ619" s="4">
+        <v>238416.3</v>
+      </c>
       <c r="AK619" s="4">
-        <v>170070.52</v>
+        <v>243583.02</v>
       </c>
       <c r="AL619" s="4">
-        <v>171445.43</v>
+        <v>248332.55</v>
       </c>
     </row>
     <row r="620" spans="1:38" x14ac:dyDescent="0.25">
@@ -50217,22 +50228,22 @@
         <v>29</v>
       </c>
       <c r="B620" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C620">
-        <v>4462930</v>
+        <v>5103059</v>
       </c>
       <c r="D620" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="E620" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F620" t="s">
-        <v>75</v>
+        <v>367</v>
       </c>
       <c r="G620" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H620" t="s">
         <v>35</v>
@@ -50241,58 +50252,31 @@
         <v>36</v>
       </c>
       <c r="J620" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K620" s="1">
-        <v>45065</v>
+        <v>45253</v>
       </c>
       <c r="M620" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="N620" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O620" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="P620" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="Q620" t="s">
-        <v>891</v>
+        <v>0</v>
       </c>
       <c r="T620" t="s">
         <v>40</v>
       </c>
-      <c r="AC620" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD620" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE620" s="4">
-        <v>36143.78</v>
-      </c>
-      <c r="AF620" s="4">
-        <v>149606.67000000001</v>
-      </c>
-      <c r="AG620" s="4">
-        <v>196044.31</v>
-      </c>
-      <c r="AH620" s="4">
-        <v>200551.99</v>
-      </c>
-      <c r="AI620" s="4">
-        <v>200139.34</v>
-      </c>
-      <c r="AJ620" s="4">
-        <v>191279.63</v>
-      </c>
       <c r="AK620" s="4">
-        <v>205527</v>
+        <v>170070.52</v>
       </c>
       <c r="AL620" s="4">
-        <v>215348.53</v>
+        <v>171445.43</v>
       </c>
     </row>
     <row r="621" spans="1:38" x14ac:dyDescent="0.25">
@@ -50300,10 +50284,10 @@
         <v>29</v>
       </c>
       <c r="B621" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C621">
-        <v>4466221</v>
+        <v>4462930</v>
       </c>
       <c r="D621" t="s">
         <v>42</v>
@@ -50327,55 +50311,55 @@
         <v>60</v>
       </c>
       <c r="K621" s="1">
-        <v>45008</v>
+        <v>45065</v>
       </c>
       <c r="M621" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N621" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O621" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P621" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q621" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="T621" t="s">
         <v>40</v>
       </c>
       <c r="AC621" s="4">
-        <v>163277.32999999999</v>
+        <v>0</v>
       </c>
       <c r="AD621" s="4">
-        <v>169594.56</v>
+        <v>0</v>
       </c>
       <c r="AE621" s="4">
-        <v>180521.59</v>
+        <v>36143.78</v>
       </c>
       <c r="AF621" s="4">
-        <v>184229.48</v>
+        <v>149606.67000000001</v>
       </c>
       <c r="AG621" s="4">
-        <v>191310.25</v>
+        <v>196044.31</v>
       </c>
       <c r="AH621" s="4">
-        <v>207176.92</v>
+        <v>200551.99</v>
       </c>
       <c r="AI621" s="4">
-        <v>205472.06</v>
+        <v>200139.34</v>
       </c>
       <c r="AJ621" s="4">
-        <v>200959.98</v>
+        <v>191279.63</v>
       </c>
       <c r="AK621" s="4">
-        <v>204814.37</v>
+        <v>205527</v>
       </c>
       <c r="AL621" s="4">
-        <v>213492.69</v>
+        <v>215348.53</v>
       </c>
     </row>
     <row r="622" spans="1:38" x14ac:dyDescent="0.25">
@@ -50383,10 +50367,10 @@
         <v>29</v>
       </c>
       <c r="B622" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C622">
-        <v>4419765</v>
+        <v>4466221</v>
       </c>
       <c r="D622" t="s">
         <v>42</v>
@@ -50398,7 +50382,7 @@
         <v>75</v>
       </c>
       <c r="G622" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H622" t="s">
         <v>35</v>
@@ -50413,52 +50397,52 @@
         <v>45008</v>
       </c>
       <c r="M622" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="N622" s="2">
-        <v>1.2E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="O622" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="P622" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q622" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="T622" t="s">
         <v>40</v>
       </c>
       <c r="AC622" s="4">
-        <v>521621.68</v>
+        <v>163277.32999999999</v>
       </c>
       <c r="AD622" s="4">
-        <v>532518.37</v>
+        <v>169594.56</v>
       </c>
       <c r="AE622" s="4">
-        <v>507006.42</v>
+        <v>180521.59</v>
       </c>
       <c r="AF622" s="4">
-        <v>431627.77</v>
+        <v>184229.48</v>
       </c>
       <c r="AG622" s="4">
-        <v>435468.55</v>
+        <v>191310.25</v>
       </c>
       <c r="AH622" s="4">
-        <v>439899.37</v>
+        <v>207176.92</v>
       </c>
       <c r="AI622" s="4">
-        <v>442964.55</v>
+        <v>205472.06</v>
       </c>
       <c r="AJ622" s="4">
-        <v>446342.96</v>
+        <v>200959.98</v>
       </c>
       <c r="AK622" s="4">
-        <v>449986.5</v>
+        <v>204814.37</v>
       </c>
       <c r="AL622" s="4">
-        <v>453760.24</v>
+        <v>213492.69</v>
       </c>
     </row>
     <row r="623" spans="1:38" x14ac:dyDescent="0.25">
@@ -50466,22 +50450,22 @@
         <v>29</v>
       </c>
       <c r="B623" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C623">
-        <v>4216504</v>
+        <v>4419765</v>
       </c>
       <c r="D623" t="s">
         <v>42</v>
       </c>
       <c r="E623" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F623" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G623" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H623" t="s">
         <v>35</v>
@@ -50493,7 +50477,7 @@
         <v>60</v>
       </c>
       <c r="K623" s="1">
-        <v>44952</v>
+        <v>45008</v>
       </c>
       <c r="M623" t="s">
         <v>45</v>
@@ -50507,47 +50491,41 @@
       <c r="P623" s="3">
         <v>0</v>
       </c>
-      <c r="S623" t="s">
+      <c r="Q623" t="s">
         <v>895</v>
       </c>
       <c r="T623" t="s">
         <v>40</v>
       </c>
-      <c r="AA623" s="4">
-        <v>579196.03</v>
-      </c>
-      <c r="AB623" s="4">
-        <v>798318.68</v>
-      </c>
       <c r="AC623" s="4">
-        <v>807877.6</v>
+        <v>521621.68</v>
       </c>
       <c r="AD623" s="4">
-        <v>813726.89</v>
+        <v>532518.37</v>
       </c>
       <c r="AE623" s="4">
-        <v>887588.24</v>
+        <v>507006.42</v>
       </c>
       <c r="AF623" s="4">
-        <v>843575.38</v>
+        <v>431627.77</v>
       </c>
       <c r="AG623" s="4">
-        <v>832895.88</v>
+        <v>435468.55</v>
       </c>
       <c r="AH623" s="4">
-        <v>839324.22</v>
+        <v>439899.37</v>
       </c>
       <c r="AI623" s="4">
-        <v>793669.27</v>
+        <v>442964.55</v>
       </c>
       <c r="AJ623" s="4">
-        <v>798873.52</v>
+        <v>446342.96</v>
       </c>
       <c r="AK623" s="4">
-        <v>804218.39</v>
+        <v>449986.5</v>
       </c>
       <c r="AL623" s="4">
-        <v>799945.06</v>
+        <v>453760.24</v>
       </c>
     </row>
     <row r="624" spans="1:38" x14ac:dyDescent="0.25">
@@ -50558,7 +50536,7 @@
         <v>896</v>
       </c>
       <c r="C624">
-        <v>4422594</v>
+        <v>4216504</v>
       </c>
       <c r="D624" t="s">
         <v>42</v>
@@ -50567,22 +50545,22 @@
         <v>43</v>
       </c>
       <c r="F624" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="G624" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H624" t="s">
         <v>35</v>
       </c>
       <c r="I624" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="J624" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="K624" s="1">
-        <v>44986</v>
+        <v>44952</v>
       </c>
       <c r="M624" t="s">
         <v>45</v>
@@ -50596,41 +50574,47 @@
       <c r="P624" s="3">
         <v>0</v>
       </c>
+      <c r="S624" t="s">
+        <v>897</v>
+      </c>
       <c r="T624" t="s">
         <v>40</v>
       </c>
+      <c r="AA624" s="4">
+        <v>579196.03</v>
+      </c>
       <c r="AB624" s="4">
-        <v>0</v>
+        <v>798318.68</v>
       </c>
       <c r="AC624" s="4">
-        <v>302924.14</v>
+        <v>807877.6</v>
       </c>
       <c r="AD624" s="4">
-        <v>305070.15000000002</v>
+        <v>813726.89</v>
       </c>
       <c r="AE624" s="4">
-        <v>308282</v>
+        <v>887588.24</v>
       </c>
       <c r="AF624" s="4">
-        <v>277.8</v>
+        <v>843575.38</v>
       </c>
       <c r="AG624" s="4">
-        <v>14.67</v>
+        <v>832895.88</v>
       </c>
       <c r="AH624" s="4">
-        <v>14.67</v>
+        <v>839324.22</v>
       </c>
       <c r="AI624" s="4">
-        <v>14.67</v>
+        <v>793669.27</v>
       </c>
       <c r="AJ624" s="4">
-        <v>14.67</v>
+        <v>798873.52</v>
       </c>
       <c r="AK624" s="4">
-        <v>14.67</v>
+        <v>804218.39</v>
       </c>
       <c r="AL624" s="4">
-        <v>14.67</v>
+        <v>799945.06</v>
       </c>
     </row>
     <row r="625" spans="1:38" x14ac:dyDescent="0.25">
@@ -50638,19 +50622,19 @@
         <v>29</v>
       </c>
       <c r="B625" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C625">
-        <v>5231126</v>
+        <v>4422594</v>
       </c>
       <c r="D625" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E625" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F625" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="G625" t="s">
         <v>34</v>
@@ -50659,28 +50643,61 @@
         <v>35</v>
       </c>
       <c r="I625" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="J625" t="s">
         <v>37</v>
       </c>
       <c r="K625" s="1">
-        <v>45315</v>
+        <v>44986</v>
       </c>
       <c r="M625" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N625" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O625" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P625" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T625" t="s">
         <v>40</v>
+      </c>
+      <c r="AB625" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC625" s="4">
+        <v>302924.14</v>
+      </c>
+      <c r="AD625" s="4">
+        <v>305070.15000000002</v>
+      </c>
+      <c r="AE625" s="4">
+        <v>308282</v>
+      </c>
+      <c r="AF625" s="4">
+        <v>277.8</v>
+      </c>
+      <c r="AG625" s="4">
+        <v>14.67</v>
+      </c>
+      <c r="AH625" s="4">
+        <v>14.67</v>
+      </c>
+      <c r="AI625" s="4">
+        <v>14.67</v>
+      </c>
+      <c r="AJ625" s="4">
+        <v>14.67</v>
+      </c>
+      <c r="AK625" s="4">
+        <v>14.67</v>
+      </c>
+      <c r="AL625" s="4">
+        <v>14.67</v>
       </c>
     </row>
     <row r="626" spans="1:38" x14ac:dyDescent="0.25">
@@ -50688,22 +50705,22 @@
         <v>29</v>
       </c>
       <c r="B626" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C626">
-        <v>4981655</v>
+        <v>5231126</v>
       </c>
       <c r="D626" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E626" t="s">
         <v>32</v>
       </c>
       <c r="F626" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G626" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H626" t="s">
         <v>35</v>
@@ -50715,34 +50732,22 @@
         <v>37</v>
       </c>
       <c r="K626" s="1">
-        <v>45182</v>
+        <v>45315</v>
       </c>
       <c r="M626" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N626" s="2">
-        <v>1.2E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O626" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P626" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T626" t="s">
         <v>40</v>
-      </c>
-      <c r="AI626" s="4">
-        <v>131676.6</v>
-      </c>
-      <c r="AJ626" s="4">
-        <v>142546.85</v>
-      </c>
-      <c r="AK626" s="4">
-        <v>144758.67000000001</v>
-      </c>
-      <c r="AL626" s="4">
-        <v>146016.85999999999</v>
       </c>
     </row>
     <row r="627" spans="1:38" x14ac:dyDescent="0.25">
@@ -50750,10 +50755,10 @@
         <v>29</v>
       </c>
       <c r="B627" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C627">
-        <v>2886520</v>
+        <v>4981655</v>
       </c>
       <c r="D627" t="s">
         <v>42</v>
@@ -50762,28 +50767,28 @@
         <v>32</v>
       </c>
       <c r="F627" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G627" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H627" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I627" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="J627" t="s">
         <v>37</v>
       </c>
       <c r="K627" s="1">
-        <v>45051</v>
+        <v>45182</v>
       </c>
       <c r="M627" t="s">
         <v>45</v>
       </c>
       <c r="N627" s="2">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O627" t="s">
         <v>36</v>
@@ -50794,32 +50799,17 @@
       <c r="T627" t="s">
         <v>40</v>
       </c>
-      <c r="AD627" s="4">
-        <v>1689189.64</v>
-      </c>
-      <c r="AE627" s="4">
-        <v>1696169.83</v>
-      </c>
-      <c r="AF627" s="4">
-        <v>1715562.2</v>
-      </c>
-      <c r="AG627" s="4">
-        <v>1374140.03</v>
-      </c>
-      <c r="AH627" s="4">
-        <v>0</v>
-      </c>
       <c r="AI627" s="4">
-        <v>0</v>
+        <v>131676.6</v>
       </c>
       <c r="AJ627" s="4">
-        <v>0</v>
+        <v>142546.85</v>
       </c>
       <c r="AK627" s="4">
-        <v>0</v>
+        <v>144758.67000000001</v>
       </c>
       <c r="AL627" s="4">
-        <v>0</v>
+        <v>146016.85999999999</v>
       </c>
     </row>
     <row r="628" spans="1:38" x14ac:dyDescent="0.25">
@@ -50827,34 +50817,34 @@
         <v>29</v>
       </c>
       <c r="B628" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C628">
-        <v>4388077</v>
+        <v>2886520</v>
       </c>
       <c r="D628" t="s">
         <v>42</v>
       </c>
       <c r="E628" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F628" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G628" t="s">
         <v>34</v>
       </c>
       <c r="H628" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I628" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="J628" t="s">
         <v>37</v>
       </c>
       <c r="K628" s="1">
-        <v>44992</v>
+        <v>45051</v>
       </c>
       <c r="M628" t="s">
         <v>45</v>
@@ -50871,38 +50861,32 @@
       <c r="T628" t="s">
         <v>40</v>
       </c>
-      <c r="AB628" s="4">
-        <v>68740.039999999994</v>
-      </c>
-      <c r="AC628" s="4">
-        <v>69255.53</v>
-      </c>
       <c r="AD628" s="4">
-        <v>69786.2</v>
+        <v>1689189.64</v>
       </c>
       <c r="AE628" s="4">
-        <v>70572.13</v>
+        <v>1696169.83</v>
       </c>
       <c r="AF628" s="4">
-        <v>71251.350000000006</v>
+        <v>1715562.2</v>
       </c>
       <c r="AG628" s="4">
-        <v>61652.23</v>
+        <v>1374140.03</v>
       </c>
       <c r="AH628" s="4">
-        <v>62276.69</v>
+        <v>0</v>
       </c>
       <c r="AI628" s="4">
-        <v>62797.85</v>
+        <v>0</v>
       </c>
       <c r="AJ628" s="4">
-        <v>63368.38</v>
+        <v>0</v>
       </c>
       <c r="AK628" s="4">
-        <v>63801.15</v>
+        <v>0</v>
       </c>
       <c r="AL628" s="4">
-        <v>64203.199999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:38" x14ac:dyDescent="0.25">
@@ -50910,22 +50894,22 @@
         <v>29</v>
       </c>
       <c r="B629" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C629">
-        <v>4223226</v>
+        <v>4388077</v>
       </c>
       <c r="D629" t="s">
         <v>42</v>
       </c>
       <c r="E629" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F629" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G629" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H629" t="s">
         <v>35</v>
@@ -50937,13 +50921,13 @@
         <v>37</v>
       </c>
       <c r="K629" s="1">
-        <v>44894</v>
+        <v>44992</v>
       </c>
       <c r="M629" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="N629" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="O629" t="s">
         <v>36</v>
@@ -50952,46 +50936,40 @@
         <v>0</v>
       </c>
       <c r="T629" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z629" s="4">
-        <v>2655155.41</v>
-      </c>
-      <c r="AA629" s="4">
-        <v>2675570.11</v>
+        <v>40</v>
       </c>
       <c r="AB629" s="4">
-        <v>2699231.96</v>
+        <v>68740.039999999994</v>
       </c>
       <c r="AC629" s="4">
-        <v>2728008.19</v>
+        <v>69255.53</v>
       </c>
       <c r="AD629" s="4">
-        <v>2738653.68</v>
+        <v>69786.2</v>
       </c>
       <c r="AE629" s="4">
-        <v>2770866.74</v>
+        <v>70572.13</v>
       </c>
       <c r="AF629" s="4">
-        <v>2798261.37</v>
+        <v>71251.350000000006</v>
       </c>
       <c r="AG629" s="4">
-        <v>2825569.34</v>
+        <v>61652.23</v>
       </c>
       <c r="AH629" s="4">
-        <v>2851375.93</v>
+        <v>62276.69</v>
       </c>
       <c r="AI629" s="4">
-        <v>2873474.15</v>
+        <v>62797.85</v>
       </c>
       <c r="AJ629" s="4">
-        <v>2892360.45</v>
+        <v>63368.38</v>
       </c>
       <c r="AK629" s="4">
-        <v>360671.84</v>
+        <v>63801.15</v>
       </c>
       <c r="AL629" s="4">
-        <v>362643.08</v>
+        <v>64203.199999999997</v>
       </c>
     </row>
     <row r="630" spans="1:38" x14ac:dyDescent="0.25">
@@ -50999,22 +50977,22 @@
         <v>29</v>
       </c>
       <c r="B630" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C630">
-        <v>4552944</v>
+        <v>4223226</v>
       </c>
       <c r="D630" t="s">
         <v>42</v>
       </c>
       <c r="E630" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F630" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="G630" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H630" t="s">
         <v>35</v>
@@ -51026,52 +51004,218 @@
         <v>37</v>
       </c>
       <c r="K630" s="1">
+        <v>44894</v>
+      </c>
+      <c r="M630" t="s">
+        <v>169</v>
+      </c>
+      <c r="N630" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O630" t="s">
+        <v>36</v>
+      </c>
+      <c r="P630" s="3">
+        <v>0</v>
+      </c>
+      <c r="T630" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z630" s="4">
+        <v>2655155.41</v>
+      </c>
+      <c r="AA630" s="4">
+        <v>2675570.11</v>
+      </c>
+      <c r="AB630" s="4">
+        <v>2699231.96</v>
+      </c>
+      <c r="AC630" s="4">
+        <v>2728008.19</v>
+      </c>
+      <c r="AD630" s="4">
+        <v>2738653.68</v>
+      </c>
+      <c r="AE630" s="4">
+        <v>2770866.74</v>
+      </c>
+      <c r="AF630" s="4">
+        <v>2798261.37</v>
+      </c>
+      <c r="AG630" s="4">
+        <v>2825569.34</v>
+      </c>
+      <c r="AH630" s="4">
+        <v>2851375.93</v>
+      </c>
+      <c r="AI630" s="4">
+        <v>2873474.15</v>
+      </c>
+      <c r="AJ630" s="4">
+        <v>2892360.45</v>
+      </c>
+      <c r="AK630" s="4">
+        <v>360671.84</v>
+      </c>
+      <c r="AL630" s="4">
+        <v>362643.08</v>
+      </c>
+    </row>
+    <row r="631" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>29</v>
+      </c>
+      <c r="B631" t="s">
+        <v>904</v>
+      </c>
+      <c r="C631">
+        <v>4552944</v>
+      </c>
+      <c r="D631" t="s">
+        <v>42</v>
+      </c>
+      <c r="E631" t="s">
+        <v>74</v>
+      </c>
+      <c r="F631" t="s">
+        <v>86</v>
+      </c>
+      <c r="G631" t="s">
+        <v>48</v>
+      </c>
+      <c r="H631" t="s">
+        <v>35</v>
+      </c>
+      <c r="I631" t="s">
+        <v>36</v>
+      </c>
+      <c r="J631" t="s">
+        <v>37</v>
+      </c>
+      <c r="K631" s="1">
         <v>45159</v>
       </c>
-      <c r="M630" t="s">
+      <c r="M631" t="s">
         <v>45</v>
       </c>
-      <c r="N630" s="2">
+      <c r="N631" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="O630" t="s">
-        <v>36</v>
-      </c>
-      <c r="P630" s="3">
-        <v>0</v>
-      </c>
-      <c r="S630" t="s">
+      <c r="O631" t="s">
+        <v>36</v>
+      </c>
+      <c r="P631" s="3">
+        <v>0</v>
+      </c>
+      <c r="S631" t="s">
         <v>751</v>
       </c>
-      <c r="T630" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD630" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE630" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF630" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG630" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH630" s="4">
+      <c r="T631" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD631" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE631" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF631" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG631" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH631" s="4">
         <v>211510.28</v>
       </c>
-      <c r="AI630" s="4">
+      <c r="AI631" s="4">
         <v>213108.31</v>
       </c>
-      <c r="AJ630" s="4">
+      <c r="AJ631" s="4">
         <v>214818.17</v>
       </c>
-      <c r="AK630" s="4">
+      <c r="AK631" s="4">
         <v>233600.15</v>
       </c>
-      <c r="AL630" s="4">
+      <c r="AL631" s="4">
         <v>234755.16</v>
+      </c>
+    </row>
+    <row r="633" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B633" t="s">
+        <v>905</v>
+      </c>
+      <c r="C633">
+        <v>496</v>
+      </c>
+      <c r="X633" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y633" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z633" s="4">
+        <v>11487265.99</v>
+      </c>
+      <c r="AA633" s="4">
+        <v>27095720.27</v>
+      </c>
+      <c r="AB633" s="4">
+        <v>67316998.840000004</v>
+      </c>
+      <c r="AC633" s="4">
+        <v>121282813.76000001</v>
+      </c>
+      <c r="AD633" s="4">
+        <v>158453126.59</v>
+      </c>
+      <c r="AE633" s="4">
+        <v>176485810.25</v>
+      </c>
+      <c r="AF633" s="4">
+        <v>202593773.99000001</v>
+      </c>
+      <c r="AG633" s="4">
+        <v>228180045.97</v>
+      </c>
+      <c r="AH633" s="4">
+        <v>259049544</v>
+      </c>
+      <c r="AI633" s="4">
+        <v>265467295.56</v>
+      </c>
+      <c r="AJ633" s="4">
+        <v>275948183.42000002</v>
+      </c>
+      <c r="AK633" s="4">
+        <v>284547379.31</v>
+      </c>
+      <c r="AL633" s="4">
+        <v>293007518.69999999</v>
+      </c>
+    </row>
+    <row r="634" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B634" t="s">
+        <v>906</v>
+      </c>
+      <c r="C634">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="635" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B635" t="s">
+        <v>907</v>
+      </c>
+      <c r="C635">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="636" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B636" t="s">
+        <v>908</v>
+      </c>
+      <c r="C636">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/controle.xlsx
+++ b/controle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRUNO.SILVA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93A2D48A-15E9-4F0D-8FFF-A6EA0A55B390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DADF7D95-7DB7-41E3-9EE4-8D7FFC075803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28845" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B0BB174-B0D2-4FC1-9568-147B71E716A9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{158933A9-B74A-4A66-8D76-0F42669B8C78}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7806" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7802" uniqueCount="905">
   <si>
     <t>Backoffice</t>
   </si>
@@ -2752,18 +2752,6 @@
   </si>
   <si>
     <t>Yuri David Lechineswski</t>
-  </si>
-  <si>
-    <t>Contas Ativas</t>
-  </si>
-  <si>
-    <t>Contas Invativas</t>
-  </si>
-  <si>
-    <t>Contas Encerradas</t>
-  </si>
-  <si>
-    <t>Contas Pode Operar</t>
   </si>
 </sst>
 </file>
@@ -3124,12 +3112,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F88246-18CD-4586-9B52-AA006BB5DCA2}">
-  <dimension ref="A1:AL636"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F797624-7869-4CFC-9C91-7B4667CB7349}">
+  <dimension ref="A1:AL631"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AL1027"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -51141,83 +51127,6 @@
         <v>234755.16</v>
       </c>
     </row>
-    <row r="633" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B633" t="s">
-        <v>905</v>
-      </c>
-      <c r="C633">
-        <v>496</v>
-      </c>
-      <c r="X633" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y633" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z633" s="4">
-        <v>11487265.99</v>
-      </c>
-      <c r="AA633" s="4">
-        <v>27095720.27</v>
-      </c>
-      <c r="AB633" s="4">
-        <v>67316998.840000004</v>
-      </c>
-      <c r="AC633" s="4">
-        <v>121282813.76000001</v>
-      </c>
-      <c r="AD633" s="4">
-        <v>158453126.59</v>
-      </c>
-      <c r="AE633" s="4">
-        <v>176485810.25</v>
-      </c>
-      <c r="AF633" s="4">
-        <v>202593773.99000001</v>
-      </c>
-      <c r="AG633" s="4">
-        <v>228180045.97</v>
-      </c>
-      <c r="AH633" s="4">
-        <v>259049544</v>
-      </c>
-      <c r="AI633" s="4">
-        <v>265467295.56</v>
-      </c>
-      <c r="AJ633" s="4">
-        <v>275948183.42000002</v>
-      </c>
-      <c r="AK633" s="4">
-        <v>284547379.31</v>
-      </c>
-      <c r="AL633" s="4">
-        <v>293007518.69999999</v>
-      </c>
-    </row>
-    <row r="634" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B634" t="s">
-        <v>906</v>
-      </c>
-      <c r="C634">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="635" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B635" t="s">
-        <v>907</v>
-      </c>
-      <c r="C635">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="636" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B636" t="s">
-        <v>908</v>
-      </c>
-      <c r="C636">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/controle.xlsx
+++ b/controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B0D224B-DCF6-458B-8C20-EEAFD773AFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE7F58B9-A255-46C9-B091-79515F41BE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0782C1B5-0D25-4DBA-986D-00B6380FB438}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DEB84A44-1B91-4DE1-A334-D9CA2990B415}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7826" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7827" uniqueCount="909">
   <si>
     <t>Backoffice</t>
   </si>
@@ -828,6 +828,9 @@
   </si>
   <si>
     <t>Cristina Flavia Silva Andrada Batista</t>
+  </si>
+  <si>
+    <t>01/02/2024 - Liquidez de 300k até a cliente resgatar esse valor</t>
   </si>
   <si>
     <t>Cristina Vieira de Souza</t>
@@ -2286,7 +2289,7 @@
     <t>Pedro Ernesto Gonçalves Pessoa</t>
   </si>
   <si>
-    <t>Observação Deixar 5% no RF Ativo / Alt. de carteira inic. 01/02/2024</t>
+    <t>Deixar 5% no RF Ativo / Alt. de carteira inic. 01/02/2024</t>
   </si>
   <si>
     <t>Pedro Guilherme Ramos Goya</t>
@@ -3121,10 +3124,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240CF0D2-70AF-4AE9-BCC3-D11295EEC8E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711EEB6F-783F-4CBA-A9B8-1387B35CCB91}">
   <dimension ref="A1:AL633"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AL633"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -13207,7 +13212,7 @@
         <v>36</v>
       </c>
       <c r="J136" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K136" s="1">
         <v>45175</v>
@@ -13224,6 +13229,9 @@
       <c r="P136" s="3">
         <v>0</v>
       </c>
+      <c r="Q136" t="s">
+        <v>264</v>
+      </c>
       <c r="T136" t="s">
         <v>40</v>
       </c>
@@ -13248,7 +13256,7 @@
         <v>29</v>
       </c>
       <c r="B137" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C137">
         <v>4368994</v>
@@ -13334,7 +13342,7 @@
         <v>29</v>
       </c>
       <c r="B138" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C138">
         <v>4473942</v>
@@ -13414,7 +13422,7 @@
         <v>29</v>
       </c>
       <c r="B139" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C139">
         <v>4278033</v>
@@ -13426,7 +13434,7 @@
         <v>32</v>
       </c>
       <c r="F139" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G139" t="s">
         <v>34</v>
@@ -13503,7 +13511,7 @@
         <v>29</v>
       </c>
       <c r="B140" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C140">
         <v>4321092</v>
@@ -13515,7 +13523,7 @@
         <v>32</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G140" t="s">
         <v>34</v>
@@ -13589,7 +13597,7 @@
         <v>29</v>
       </c>
       <c r="B141" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C141">
         <v>4273239</v>
@@ -13631,7 +13639,7 @@
         <v>0.1</v>
       </c>
       <c r="Q141" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T141" t="s">
         <v>40</v>
@@ -13681,7 +13689,7 @@
         <v>29</v>
       </c>
       <c r="B142" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C142">
         <v>4493324</v>
@@ -13758,7 +13766,7 @@
         <v>29</v>
       </c>
       <c r="B143" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C143">
         <v>4329030</v>
@@ -13770,7 +13778,7 @@
         <v>32</v>
       </c>
       <c r="F143" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G143" t="s">
         <v>51</v>
@@ -13844,7 +13852,7 @@
         <v>29</v>
       </c>
       <c r="B144" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C144">
         <v>4001621</v>
@@ -13856,7 +13864,7 @@
         <v>32</v>
       </c>
       <c r="F144" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G144" t="s">
         <v>51</v>
@@ -13886,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="S144" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="T144" t="s">
         <v>40</v>
@@ -13936,7 +13944,7 @@
         <v>29</v>
       </c>
       <c r="B145" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C145">
         <v>4452507</v>
@@ -13948,7 +13956,7 @@
         <v>32</v>
       </c>
       <c r="F145" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G145" t="s">
         <v>34</v>
@@ -13986,7 +13994,7 @@
         <v>29</v>
       </c>
       <c r="B146" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C146">
         <v>4186541</v>
@@ -14028,7 +14036,7 @@
         <v>0</v>
       </c>
       <c r="R146" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="T146" t="s">
         <v>40</v>
@@ -14078,7 +14086,7 @@
         <v>29</v>
       </c>
       <c r="B147" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C147">
         <v>4238164</v>
@@ -14167,7 +14175,7 @@
         <v>29</v>
       </c>
       <c r="B148" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C148">
         <v>4398174</v>
@@ -14250,7 +14258,7 @@
         <v>29</v>
       </c>
       <c r="B149" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C149">
         <v>4756968</v>
@@ -14262,7 +14270,7 @@
         <v>32</v>
       </c>
       <c r="F149" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G149" t="s">
         <v>34</v>
@@ -14321,7 +14329,7 @@
         <v>29</v>
       </c>
       <c r="B150" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C150">
         <v>5084112</v>
@@ -14380,7 +14388,7 @@
         <v>29</v>
       </c>
       <c r="B151" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C151">
         <v>2277249</v>
@@ -14410,7 +14418,7 @@
         <v>45145</v>
       </c>
       <c r="M151" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N151" s="2">
         <v>1.4E-2</v>
@@ -14422,7 +14430,7 @@
         <v>0.2</v>
       </c>
       <c r="Q151" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="T151" t="s">
         <v>40</v>
@@ -14448,7 +14456,7 @@
         <v>29</v>
       </c>
       <c r="B152" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C152">
         <v>5055226</v>
@@ -14490,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="Q152" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T152" t="s">
         <v>40</v>
@@ -14510,7 +14518,7 @@
         <v>29</v>
       </c>
       <c r="B153" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C153">
         <v>4276856</v>
@@ -14590,7 +14598,7 @@
         <v>29</v>
       </c>
       <c r="B154" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C154">
         <v>4475395</v>
@@ -14667,7 +14675,7 @@
         <v>29</v>
       </c>
       <c r="B155" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C155">
         <v>5228239</v>
@@ -14717,7 +14725,7 @@
         <v>29</v>
       </c>
       <c r="B156" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C156">
         <v>4491730</v>
@@ -14797,7 +14805,7 @@
         <v>29</v>
       </c>
       <c r="B157" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C157">
         <v>4479965</v>
@@ -14877,7 +14885,7 @@
         <v>29</v>
       </c>
       <c r="B158" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C158">
         <v>4477812</v>
@@ -14957,7 +14965,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C159">
         <v>4551472</v>
@@ -15034,7 +15042,7 @@
         <v>29</v>
       </c>
       <c r="B160" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C160">
         <v>4238436</v>
@@ -15123,7 +15131,7 @@
         <v>29</v>
       </c>
       <c r="B161" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C161">
         <v>4371991</v>
@@ -15209,7 +15217,7 @@
         <v>29</v>
       </c>
       <c r="B162" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C162">
         <v>5110867</v>
@@ -15265,7 +15273,7 @@
         <v>29</v>
       </c>
       <c r="B163" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C163">
         <v>4751770</v>
@@ -15336,7 +15344,7 @@
         <v>29</v>
       </c>
       <c r="B164" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C164">
         <v>4472404</v>
@@ -15416,7 +15424,7 @@
         <v>29</v>
       </c>
       <c r="B165" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C165">
         <v>4550415</v>
@@ -15493,7 +15501,7 @@
         <v>29</v>
       </c>
       <c r="B166" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C166">
         <v>4490636</v>
@@ -15526,7 +15534,7 @@
         <v>45061</v>
       </c>
       <c r="M166" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N166" s="2">
         <v>0.02</v>
@@ -15576,7 +15584,7 @@
         <v>29</v>
       </c>
       <c r="B167" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C167">
         <v>4467773</v>
@@ -15659,7 +15667,7 @@
         <v>29</v>
       </c>
       <c r="B168" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C168">
         <v>5077648</v>
@@ -15718,7 +15726,7 @@
         <v>29</v>
       </c>
       <c r="B169" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C169">
         <v>4497894</v>
@@ -15748,7 +15756,7 @@
         <v>45026</v>
       </c>
       <c r="M169" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N169" s="2">
         <v>7.0000000000000001E-3</v>
@@ -15798,7 +15806,7 @@
         <v>29</v>
       </c>
       <c r="B170" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C170">
         <v>4748803</v>
@@ -15828,7 +15836,7 @@
         <v>45155</v>
       </c>
       <c r="M170" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N170" s="2">
         <v>7.0000000000000001E-3</v>
@@ -15869,7 +15877,7 @@
         <v>29</v>
       </c>
       <c r="B171" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C171">
         <v>4267976</v>
@@ -15911,7 +15919,7 @@
         <v>0</v>
       </c>
       <c r="R171" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T171" t="s">
         <v>157</v>
@@ -15958,7 +15966,7 @@
         <v>29</v>
       </c>
       <c r="B172" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C172">
         <v>4211807</v>
@@ -16038,7 +16046,7 @@
         <v>29</v>
       </c>
       <c r="B173" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C173">
         <v>4335251</v>
@@ -16068,13 +16076,13 @@
         <v>45022</v>
       </c>
       <c r="M173" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N173" s="2">
         <v>0.01</v>
       </c>
       <c r="O173" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P173" s="3">
         <v>0.2</v>
@@ -16124,7 +16132,7 @@
         <v>29</v>
       </c>
       <c r="B174" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C174">
         <v>4335144</v>
@@ -16210,7 +16218,7 @@
         <v>29</v>
       </c>
       <c r="B175" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C175">
         <v>4335031</v>
@@ -16252,7 +16260,7 @@
         <v>0</v>
       </c>
       <c r="S175" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T175" t="s">
         <v>40</v>
@@ -16299,7 +16307,7 @@
         <v>29</v>
       </c>
       <c r="B176" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C176">
         <v>3301389</v>
@@ -16379,7 +16387,7 @@
         <v>29</v>
       </c>
       <c r="B177" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C177">
         <v>4337021</v>
@@ -16391,7 +16399,7 @@
         <v>32</v>
       </c>
       <c r="F177" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H177" t="s">
         <v>86</v>
@@ -16456,7 +16464,7 @@
         <v>29</v>
       </c>
       <c r="B178" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C178">
         <v>5034522</v>
@@ -16498,7 +16506,7 @@
         <v>0</v>
       </c>
       <c r="Q178" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T178" t="s">
         <v>40</v>
@@ -16521,7 +16529,7 @@
         <v>29</v>
       </c>
       <c r="B179" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C179">
         <v>4229526</v>
@@ -16607,7 +16615,7 @@
         <v>29</v>
       </c>
       <c r="B180" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C180">
         <v>4999434</v>
@@ -16669,7 +16677,7 @@
         <v>29</v>
       </c>
       <c r="B181" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C181">
         <v>4508516</v>
@@ -16711,7 +16719,7 @@
         <v>0</v>
       </c>
       <c r="S181" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T181" t="s">
         <v>40</v>
@@ -16752,7 +16760,7 @@
         <v>29</v>
       </c>
       <c r="B182" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C182">
         <v>4461070</v>
@@ -16832,7 +16840,7 @@
         <v>29</v>
       </c>
       <c r="B183" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C183">
         <v>5169333</v>
@@ -16844,7 +16852,7 @@
         <v>32</v>
       </c>
       <c r="F183" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G183" t="s">
         <v>34</v>
@@ -16882,7 +16890,7 @@
         <v>29</v>
       </c>
       <c r="B184" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C184">
         <v>4804125</v>
@@ -16953,7 +16961,7 @@
         <v>29</v>
       </c>
       <c r="B185" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C185">
         <v>4946997</v>
@@ -17018,7 +17026,7 @@
         <v>29</v>
       </c>
       <c r="B186" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C186">
         <v>4204500</v>
@@ -17030,7 +17038,7 @@
         <v>32</v>
       </c>
       <c r="F186" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G186" t="s">
         <v>51</v>
@@ -17107,7 +17115,7 @@
         <v>29</v>
       </c>
       <c r="B187" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C187">
         <v>5064544</v>
@@ -17166,7 +17174,7 @@
         <v>29</v>
       </c>
       <c r="B188" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C188">
         <v>4921978</v>
@@ -17208,7 +17216,7 @@
         <v>0</v>
       </c>
       <c r="Q188" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T188" t="s">
         <v>40</v>
@@ -17234,7 +17242,7 @@
         <v>29</v>
       </c>
       <c r="B189" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C189">
         <v>5018038</v>
@@ -17246,7 +17254,7 @@
         <v>32</v>
       </c>
       <c r="F189" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G189" t="s">
         <v>34</v>
@@ -17276,7 +17284,7 @@
         <v>0</v>
       </c>
       <c r="Q189" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="T189" t="s">
         <v>40</v>
@@ -17299,7 +17307,7 @@
         <v>29</v>
       </c>
       <c r="B190" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C190">
         <v>4486497</v>
@@ -17379,7 +17387,7 @@
         <v>29</v>
       </c>
       <c r="B191" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C191">
         <v>4908680</v>
@@ -17447,7 +17455,7 @@
         <v>29</v>
       </c>
       <c r="B192" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C192">
         <v>5101676</v>
@@ -17503,7 +17511,7 @@
         <v>29</v>
       </c>
       <c r="B193" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C193">
         <v>4380749</v>
@@ -17580,7 +17588,7 @@
         <v>29</v>
       </c>
       <c r="B194" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C194">
         <v>3987275</v>
@@ -17592,7 +17600,7 @@
         <v>32</v>
       </c>
       <c r="F194" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G194" t="s">
         <v>51</v>
@@ -17651,7 +17659,7 @@
         <v>29</v>
       </c>
       <c r="B195" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C195">
         <v>4213943</v>
@@ -17740,7 +17748,7 @@
         <v>29</v>
       </c>
       <c r="B196" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C196">
         <v>3497496</v>
@@ -17829,7 +17837,7 @@
         <v>29</v>
       </c>
       <c r="B197" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C197">
         <v>4855073</v>
@@ -17859,7 +17867,7 @@
         <v>45148</v>
       </c>
       <c r="M197" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N197" s="2">
         <v>1.4E-2</v>
@@ -17894,7 +17902,7 @@
         <v>29</v>
       </c>
       <c r="B198" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C198">
         <v>4206790</v>
@@ -17983,7 +17991,7 @@
         <v>29</v>
       </c>
       <c r="B199" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C199">
         <v>4896132</v>
@@ -18051,7 +18059,7 @@
         <v>29</v>
       </c>
       <c r="B200" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C200">
         <v>4971783</v>
@@ -18104,7 +18112,7 @@
         <v>29</v>
       </c>
       <c r="B201" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C201">
         <v>4924605</v>
@@ -18146,7 +18154,7 @@
         <v>0</v>
       </c>
       <c r="S201" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="T201" t="s">
         <v>40</v>
@@ -18172,7 +18180,7 @@
         <v>29</v>
       </c>
       <c r="B202" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C202">
         <v>4587320</v>
@@ -18237,7 +18245,7 @@
         <v>29</v>
       </c>
       <c r="B203" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C203">
         <v>4398253</v>
@@ -18279,7 +18287,7 @@
         <v>0.1</v>
       </c>
       <c r="S203" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="T203" t="s">
         <v>40</v>
@@ -18323,7 +18331,7 @@
         <v>29</v>
       </c>
       <c r="B204" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C204">
         <v>4399832</v>
@@ -18365,7 +18373,7 @@
         <v>0</v>
       </c>
       <c r="S204" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="T204" t="s">
         <v>40</v>
@@ -18409,7 +18417,7 @@
         <v>29</v>
       </c>
       <c r="B205" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C205">
         <v>4755204</v>
@@ -18477,7 +18485,7 @@
         <v>29</v>
       </c>
       <c r="B206" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C206">
         <v>4499920</v>
@@ -18519,7 +18527,7 @@
         <v>0.1</v>
       </c>
       <c r="S206" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="T206" t="s">
         <v>40</v>
@@ -18557,7 +18565,7 @@
         <v>29</v>
       </c>
       <c r="B207" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C207">
         <v>4458604</v>
@@ -18637,7 +18645,7 @@
         <v>29</v>
       </c>
       <c r="B208" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C208">
         <v>4912314</v>
@@ -18649,7 +18657,7 @@
         <v>32</v>
       </c>
       <c r="F208" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G208" t="s">
         <v>54</v>
@@ -18679,7 +18687,7 @@
         <v>0.2</v>
       </c>
       <c r="S208" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="T208" t="s">
         <v>40</v>
@@ -18705,7 +18713,7 @@
         <v>29</v>
       </c>
       <c r="B209" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C209">
         <v>4893911</v>
@@ -18770,7 +18778,7 @@
         <v>29</v>
       </c>
       <c r="B210" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C210">
         <v>4570632</v>
@@ -18812,7 +18820,7 @@
         <v>0.1</v>
       </c>
       <c r="S210" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T210" t="s">
         <v>40</v>
@@ -18850,7 +18858,7 @@
         <v>29</v>
       </c>
       <c r="B211" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C211">
         <v>2592340</v>
@@ -18912,7 +18920,7 @@
         <v>29</v>
       </c>
       <c r="B212" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C212">
         <v>4508159</v>
@@ -18924,7 +18932,7 @@
         <v>32</v>
       </c>
       <c r="F212" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G212" t="s">
         <v>34</v>
@@ -18954,7 +18962,7 @@
         <v>0.2</v>
       </c>
       <c r="S212" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="T212" t="s">
         <v>40</v>
@@ -18992,7 +19000,7 @@
         <v>29</v>
       </c>
       <c r="B213" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C213">
         <v>4400640</v>
@@ -19075,7 +19083,7 @@
         <v>29</v>
       </c>
       <c r="B214" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C214">
         <v>4400969</v>
@@ -19158,19 +19166,19 @@
         <v>29</v>
       </c>
       <c r="B215" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C215">
         <v>626491</v>
       </c>
       <c r="D215" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E215" t="s">
         <v>43</v>
       </c>
       <c r="F215" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G215" t="s">
         <v>51</v>
@@ -19200,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="Q215" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="T215" t="s">
         <v>40</v>
@@ -19217,19 +19225,19 @@
         <v>29</v>
       </c>
       <c r="B216" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C216">
         <v>5135532</v>
       </c>
       <c r="D216" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E216" t="s">
         <v>43</v>
       </c>
       <c r="F216" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G216" t="s">
         <v>34</v>
@@ -19259,7 +19267,7 @@
         <v>0</v>
       </c>
       <c r="Q216" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="T216" t="s">
         <v>40</v>
@@ -19276,7 +19284,7 @@
         <v>29</v>
       </c>
       <c r="B217" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C217">
         <v>4895776</v>
@@ -19329,7 +19337,7 @@
         <v>29</v>
       </c>
       <c r="B218" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C218">
         <v>4508504</v>
@@ -19371,7 +19379,7 @@
         <v>0</v>
       </c>
       <c r="S218" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="T218" t="s">
         <v>40</v>
@@ -19412,7 +19420,7 @@
         <v>29</v>
       </c>
       <c r="B219" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C219">
         <v>4563252</v>
@@ -19492,7 +19500,7 @@
         <v>29</v>
       </c>
       <c r="B220" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C220">
         <v>4563237</v>
@@ -19534,7 +19542,7 @@
         <v>0</v>
       </c>
       <c r="S220" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="T220" t="s">
         <v>40</v>
@@ -19572,7 +19580,7 @@
         <v>29</v>
       </c>
       <c r="B221" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C221">
         <v>4415557</v>
@@ -19584,7 +19592,7 @@
         <v>32</v>
       </c>
       <c r="F221" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G221" t="s">
         <v>51</v>
@@ -19614,7 +19622,7 @@
         <v>0</v>
       </c>
       <c r="Q221" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T221" t="s">
         <v>40</v>
@@ -19658,7 +19666,7 @@
         <v>29</v>
       </c>
       <c r="B222" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C222">
         <v>4228456</v>
@@ -19700,7 +19708,7 @@
         <v>0</v>
       </c>
       <c r="S222" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="T222" t="s">
         <v>157</v>
@@ -19747,7 +19755,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C223">
         <v>4515548</v>
@@ -19789,7 +19797,7 @@
         <v>0.1</v>
       </c>
       <c r="S223" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="T223" t="s">
         <v>40</v>
@@ -19827,7 +19835,7 @@
         <v>29</v>
       </c>
       <c r="B224" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C224">
         <v>4484207</v>
@@ -19869,7 +19877,7 @@
         <v>0.1</v>
       </c>
       <c r="S224" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T224" t="s">
         <v>40</v>
@@ -19910,7 +19918,7 @@
         <v>29</v>
       </c>
       <c r="B225" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C225">
         <v>4216298</v>
@@ -19952,7 +19960,7 @@
         <v>0</v>
       </c>
       <c r="S225" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="T225" t="s">
         <v>40</v>
@@ -20002,7 +20010,7 @@
         <v>29</v>
       </c>
       <c r="B226" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C226">
         <v>4104365</v>
@@ -20091,7 +20099,7 @@
         <v>29</v>
       </c>
       <c r="B227" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C227">
         <v>4281300</v>
@@ -20180,7 +20188,7 @@
         <v>29</v>
       </c>
       <c r="B228" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C228">
         <v>4503381</v>
@@ -20222,7 +20230,7 @@
         <v>0</v>
       </c>
       <c r="S228" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="T228" t="s">
         <v>40</v>
@@ -20260,7 +20268,7 @@
         <v>29</v>
       </c>
       <c r="B229" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C229">
         <v>4329229</v>
@@ -20343,7 +20351,7 @@
         <v>29</v>
       </c>
       <c r="B230" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C230">
         <v>4638738</v>
@@ -20385,7 +20393,7 @@
         <v>0.1</v>
       </c>
       <c r="S230" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="T230" t="s">
         <v>40</v>
@@ -20420,7 +20428,7 @@
         <v>29</v>
       </c>
       <c r="B231" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C231">
         <v>5047946</v>
@@ -20479,7 +20487,7 @@
         <v>29</v>
       </c>
       <c r="B232" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C232">
         <v>4643880</v>
@@ -20550,7 +20558,7 @@
         <v>29</v>
       </c>
       <c r="B233" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C233">
         <v>4950193</v>
@@ -20615,7 +20623,7 @@
         <v>29</v>
       </c>
       <c r="B234" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C234">
         <v>4431546</v>
@@ -20695,7 +20703,7 @@
         <v>29</v>
       </c>
       <c r="B235" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C235">
         <v>5143579</v>
@@ -20751,7 +20759,7 @@
         <v>29</v>
       </c>
       <c r="B236" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C236">
         <v>4472386</v>
@@ -20831,7 +20839,7 @@
         <v>29</v>
       </c>
       <c r="B237" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C237">
         <v>4426743</v>
@@ -20911,7 +20919,7 @@
         <v>29</v>
       </c>
       <c r="B238" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C238">
         <v>3921139</v>
@@ -20967,7 +20975,7 @@
         <v>29</v>
       </c>
       <c r="B239" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C239">
         <v>4866753</v>
@@ -21035,7 +21043,7 @@
         <v>29</v>
       </c>
       <c r="B240" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C240">
         <v>4839302</v>
@@ -21077,7 +21085,7 @@
         <v>0.1</v>
       </c>
       <c r="S240" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="T240" t="s">
         <v>40</v>
@@ -21106,7 +21114,7 @@
         <v>29</v>
       </c>
       <c r="B241" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C241">
         <v>4474776</v>
@@ -21136,7 +21144,7 @@
         <v>45013</v>
       </c>
       <c r="M241" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N241" s="2">
         <v>1.2E-2</v>
@@ -21148,10 +21156,10 @@
         <v>0.1</v>
       </c>
       <c r="Q241" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S241" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="T241" t="s">
         <v>40</v>
@@ -21192,19 +21200,19 @@
         <v>29</v>
       </c>
       <c r="B242" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C242">
         <v>4827315</v>
       </c>
       <c r="D242" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E242" t="s">
         <v>43</v>
       </c>
       <c r="F242" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G242" t="s">
         <v>34</v>
@@ -21242,7 +21250,7 @@
         <v>29</v>
       </c>
       <c r="B243" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C243">
         <v>4998717</v>
@@ -21284,7 +21292,7 @@
         <v>0</v>
       </c>
       <c r="S243" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="T243" t="s">
         <v>40</v>
@@ -21307,7 +21315,7 @@
         <v>29</v>
       </c>
       <c r="B244" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C244">
         <v>4350197</v>
@@ -21393,7 +21401,7 @@
         <v>29</v>
       </c>
       <c r="B245" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C245">
         <v>5056185</v>
@@ -21435,7 +21443,7 @@
         <v>0</v>
       </c>
       <c r="Q245" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="T245" t="s">
         <v>40</v>
@@ -21455,7 +21463,7 @@
         <v>29</v>
       </c>
       <c r="B246" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C246">
         <v>5221565</v>
@@ -21502,7 +21510,7 @@
         <v>29</v>
       </c>
       <c r="B247" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C247">
         <v>4224815</v>
@@ -21588,7 +21596,7 @@
         <v>29</v>
       </c>
       <c r="B248" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C248">
         <v>1731007</v>
@@ -21665,7 +21673,7 @@
         <v>29</v>
       </c>
       <c r="B249" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C249">
         <v>4948033</v>
@@ -21727,7 +21735,7 @@
         <v>29</v>
       </c>
       <c r="B250" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C250">
         <v>5142611</v>
@@ -21783,7 +21791,7 @@
         <v>29</v>
       </c>
       <c r="B251" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C251">
         <v>5087681</v>
@@ -21825,7 +21833,7 @@
         <v>0</v>
       </c>
       <c r="S251" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="T251" t="s">
         <v>40</v>
@@ -21842,7 +21850,7 @@
         <v>29</v>
       </c>
       <c r="B252" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C252">
         <v>4574428</v>
@@ -21884,7 +21892,7 @@
         <v>0.1</v>
       </c>
       <c r="R252" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="T252" t="s">
         <v>40</v>
@@ -21999,7 +22007,7 @@
         <v>29</v>
       </c>
       <c r="B254" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C254">
         <v>2350362</v>
@@ -22085,7 +22093,7 @@
         <v>29</v>
       </c>
       <c r="B255" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C255">
         <v>4452790</v>
@@ -22127,7 +22135,7 @@
         <v>0.1</v>
       </c>
       <c r="S255" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="T255" t="s">
         <v>40</v>
@@ -22168,7 +22176,7 @@
         <v>29</v>
       </c>
       <c r="B256" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C256">
         <v>4444605</v>
@@ -22248,7 +22256,7 @@
         <v>29</v>
       </c>
       <c r="B257" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C257">
         <v>4565146</v>
@@ -22328,7 +22336,7 @@
         <v>29</v>
       </c>
       <c r="B258" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C258">
         <v>4565108</v>
@@ -22405,7 +22413,7 @@
         <v>29</v>
       </c>
       <c r="B259" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C259">
         <v>4830355</v>
@@ -22476,7 +22484,7 @@
         <v>29</v>
       </c>
       <c r="B260" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C260">
         <v>5055865</v>
@@ -22535,7 +22543,7 @@
         <v>29</v>
       </c>
       <c r="B261" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C261">
         <v>4115403</v>
@@ -22577,7 +22585,7 @@
         <v>0</v>
       </c>
       <c r="Q261" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="T261" t="s">
         <v>40</v>
@@ -22627,7 +22635,7 @@
         <v>29</v>
       </c>
       <c r="B262" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C262">
         <v>3435941</v>
@@ -22707,7 +22715,7 @@
         <v>29</v>
       </c>
       <c r="B263" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C263">
         <v>4907688</v>
@@ -22775,7 +22783,7 @@
         <v>29</v>
       </c>
       <c r="B264" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C264">
         <v>4329441</v>
@@ -22817,10 +22825,10 @@
         <v>0</v>
       </c>
       <c r="Q264" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R264" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="T264" t="s">
         <v>40</v>
@@ -22867,7 +22875,7 @@
         <v>29</v>
       </c>
       <c r="B265" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C265">
         <v>4363250</v>
@@ -22953,7 +22961,7 @@
         <v>29</v>
       </c>
       <c r="B266" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C266">
         <v>4468717</v>
@@ -23033,7 +23041,7 @@
         <v>29</v>
       </c>
       <c r="B267" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C267">
         <v>4459875</v>
@@ -23113,7 +23121,7 @@
         <v>29</v>
       </c>
       <c r="B268" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C268">
         <v>4119016</v>
@@ -23202,7 +23210,7 @@
         <v>29</v>
       </c>
       <c r="B269" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C269">
         <v>4479464</v>
@@ -23285,7 +23293,7 @@
         <v>29</v>
       </c>
       <c r="B270" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C270">
         <v>4497875</v>
@@ -23365,7 +23373,7 @@
         <v>29</v>
       </c>
       <c r="B271" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C271">
         <v>4479463</v>
@@ -23445,7 +23453,7 @@
         <v>29</v>
       </c>
       <c r="B272" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C272">
         <v>4359408</v>
@@ -23522,7 +23530,7 @@
         <v>29</v>
       </c>
       <c r="B273" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C273">
         <v>4870976</v>
@@ -23564,7 +23572,7 @@
         <v>0</v>
       </c>
       <c r="Q273" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="T273" t="s">
         <v>157</v>
@@ -23593,7 +23601,7 @@
         <v>29</v>
       </c>
       <c r="B274" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C274">
         <v>4361159</v>
@@ -23635,7 +23643,7 @@
         <v>0</v>
       </c>
       <c r="Q274" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T274" t="s">
         <v>157</v>
@@ -23682,7 +23690,7 @@
         <v>29</v>
       </c>
       <c r="B275" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C275">
         <v>4381180</v>
@@ -23768,7 +23776,7 @@
         <v>29</v>
       </c>
       <c r="B276" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C276">
         <v>4996634</v>
@@ -23827,7 +23835,7 @@
         <v>29</v>
       </c>
       <c r="B277" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C277">
         <v>4211368</v>
@@ -23857,7 +23865,7 @@
         <v>44607</v>
       </c>
       <c r="M277" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N277" s="2">
         <v>1.2E-2</v>
@@ -23869,10 +23877,10 @@
         <v>0.1</v>
       </c>
       <c r="Q277" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="S277" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="T277" t="s">
         <v>40</v>
@@ -23919,7 +23927,7 @@
         <v>29</v>
       </c>
       <c r="B278" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C278">
         <v>4459461</v>
@@ -23999,7 +24007,7 @@
         <v>29</v>
       </c>
       <c r="B279" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C279">
         <v>4332207</v>
@@ -24085,7 +24093,7 @@
         <v>29</v>
       </c>
       <c r="B280" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C280">
         <v>4332783</v>
@@ -24171,7 +24179,7 @@
         <v>29</v>
       </c>
       <c r="B281" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C281">
         <v>4467016</v>
@@ -24251,7 +24259,7 @@
         <v>29</v>
       </c>
       <c r="B282" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C282">
         <v>4240014</v>
@@ -24340,7 +24348,7 @@
         <v>29</v>
       </c>
       <c r="B283" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C283">
         <v>4767746</v>
@@ -24411,7 +24419,7 @@
         <v>29</v>
       </c>
       <c r="B284" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C284">
         <v>4453302</v>
@@ -24453,7 +24461,7 @@
         <v>0.1</v>
       </c>
       <c r="Q284" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="T284" t="s">
         <v>40</v>
@@ -24494,7 +24502,7 @@
         <v>29</v>
       </c>
       <c r="B285" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C285">
         <v>4973881</v>
@@ -24547,7 +24555,7 @@
         <v>29</v>
       </c>
       <c r="B286" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C286">
         <v>3836362</v>
@@ -24589,7 +24597,7 @@
         <v>0</v>
       </c>
       <c r="S286" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="T286" t="s">
         <v>40</v>
@@ -24627,7 +24635,7 @@
         <v>29</v>
       </c>
       <c r="B287" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C287">
         <v>4452476</v>
@@ -24707,7 +24715,7 @@
         <v>29</v>
       </c>
       <c r="B288" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C288">
         <v>4245232</v>
@@ -24749,7 +24757,7 @@
         <v>0</v>
       </c>
       <c r="S288" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="T288" t="s">
         <v>157</v>
@@ -24796,7 +24804,7 @@
         <v>29</v>
       </c>
       <c r="B289" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C289">
         <v>4587525</v>
@@ -24826,7 +24834,7 @@
         <v>45125</v>
       </c>
       <c r="M289" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N289" s="2">
         <v>0.01</v>
@@ -24838,7 +24846,7 @@
         <v>0.1</v>
       </c>
       <c r="R289" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="T289" t="s">
         <v>40</v>
@@ -24867,7 +24875,7 @@
         <v>29</v>
       </c>
       <c r="B290" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C290">
         <v>4216434</v>
@@ -24953,7 +24961,7 @@
         <v>29</v>
       </c>
       <c r="B291" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C291">
         <v>5224125</v>
@@ -25000,7 +25008,7 @@
         <v>29</v>
       </c>
       <c r="B292" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C292">
         <v>4339183</v>
@@ -25042,7 +25050,7 @@
         <v>0.2</v>
       </c>
       <c r="S292" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="T292" t="s">
         <v>40</v>
@@ -25089,7 +25097,7 @@
         <v>29</v>
       </c>
       <c r="B293" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C293">
         <v>4500087</v>
@@ -25169,7 +25177,7 @@
         <v>29</v>
       </c>
       <c r="B294" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C294">
         <v>4212132</v>
@@ -25211,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="R294" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T294" t="s">
         <v>40</v>
@@ -25258,7 +25266,7 @@
         <v>29</v>
       </c>
       <c r="B295" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C295">
         <v>4381415</v>
@@ -25288,7 +25296,7 @@
         <v>45043</v>
       </c>
       <c r="M295" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N295" s="2">
         <v>0.02</v>
@@ -25300,7 +25308,7 @@
         <v>0.2</v>
       </c>
       <c r="Q295" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T295" t="s">
         <v>40</v>
@@ -25347,7 +25355,7 @@
         <v>29</v>
       </c>
       <c r="B296" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C296">
         <v>4381328</v>
@@ -25433,7 +25441,7 @@
         <v>29</v>
       </c>
       <c r="B297" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C297">
         <v>4357159</v>
@@ -25475,7 +25483,7 @@
         <v>0</v>
       </c>
       <c r="S297" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T297" t="s">
         <v>40</v>
@@ -25522,7 +25530,7 @@
         <v>29</v>
       </c>
       <c r="B298" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C298">
         <v>4216657</v>
@@ -25608,7 +25616,7 @@
         <v>29</v>
       </c>
       <c r="B299" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C299">
         <v>4448501</v>
@@ -25650,7 +25658,7 @@
         <v>0</v>
       </c>
       <c r="S299" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T299" t="s">
         <v>40</v>
@@ -25691,7 +25699,7 @@
         <v>29</v>
       </c>
       <c r="B300" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C300">
         <v>4321016</v>
@@ -25777,7 +25785,7 @@
         <v>29</v>
       </c>
       <c r="B301" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C301">
         <v>5079458</v>
@@ -25836,7 +25844,7 @@
         <v>29</v>
       </c>
       <c r="B302" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C302">
         <v>4532148</v>
@@ -25857,7 +25865,7 @@
         <v>58</v>
       </c>
       <c r="I302" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J302" t="s">
         <v>37</v>
@@ -25913,7 +25921,7 @@
         <v>29</v>
       </c>
       <c r="B303" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C303">
         <v>5121919</v>
@@ -25969,7 +25977,7 @@
         <v>29</v>
       </c>
       <c r="B304" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C304">
         <v>4432935</v>
@@ -26049,7 +26057,7 @@
         <v>29</v>
       </c>
       <c r="B305" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C305">
         <v>4212933</v>
@@ -26061,7 +26069,7 @@
         <v>32</v>
       </c>
       <c r="F305" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G305" t="s">
         <v>51</v>
@@ -26091,7 +26099,7 @@
         <v>0</v>
       </c>
       <c r="Q305" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T305" t="s">
         <v>40</v>
@@ -26141,7 +26149,7 @@
         <v>29</v>
       </c>
       <c r="B306" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C306">
         <v>4480134</v>
@@ -26218,7 +26226,7 @@
         <v>29</v>
       </c>
       <c r="B307" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C307">
         <v>4854496</v>
@@ -26283,7 +26291,7 @@
         <v>29</v>
       </c>
       <c r="B308" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C308">
         <v>5146441</v>
@@ -26336,7 +26344,7 @@
         <v>29</v>
       </c>
       <c r="B309" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C309">
         <v>4639776</v>
@@ -26413,7 +26421,7 @@
         <v>29</v>
       </c>
       <c r="B310" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C310">
         <v>2687737</v>
@@ -26496,7 +26504,7 @@
         <v>29</v>
       </c>
       <c r="B311" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C311">
         <v>4218542</v>
@@ -26538,7 +26546,7 @@
         <v>0</v>
       </c>
       <c r="S311" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="T311" t="s">
         <v>40</v>
@@ -26585,7 +26593,7 @@
         <v>29</v>
       </c>
       <c r="B312" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C312">
         <v>4453157</v>
@@ -26665,7 +26673,7 @@
         <v>29</v>
       </c>
       <c r="B313" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C313">
         <v>5035754</v>
@@ -26707,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="Q313" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="T313" t="s">
         <v>40</v>
@@ -26730,7 +26738,7 @@
         <v>29</v>
       </c>
       <c r="B314" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C314">
         <v>4332237</v>
@@ -26816,7 +26824,7 @@
         <v>29</v>
       </c>
       <c r="B315" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C315">
         <v>4332103</v>
@@ -26858,7 +26866,7 @@
         <v>0</v>
       </c>
       <c r="R315" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="T315" t="s">
         <v>40</v>
@@ -26905,7 +26913,7 @@
         <v>29</v>
       </c>
       <c r="B316" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C316">
         <v>5079311</v>
@@ -26947,7 +26955,7 @@
         <v>0</v>
       </c>
       <c r="S316" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="T316" t="s">
         <v>40</v>
@@ -26967,7 +26975,7 @@
         <v>29</v>
       </c>
       <c r="B317" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C317">
         <v>4265173</v>
@@ -27009,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="S317" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="T317" t="s">
         <v>40</v>
@@ -27059,7 +27067,7 @@
         <v>29</v>
       </c>
       <c r="B318" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C318">
         <v>4453045</v>
@@ -27139,7 +27147,7 @@
         <v>29</v>
       </c>
       <c r="B319" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C319">
         <v>4813088</v>
@@ -27151,7 +27159,7 @@
         <v>32</v>
       </c>
       <c r="F319" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G319" t="s">
         <v>51</v>
@@ -27169,7 +27177,7 @@
         <v>45121</v>
       </c>
       <c r="M319" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N319" s="2">
         <v>0.01</v>
@@ -27207,7 +27215,7 @@
         <v>29</v>
       </c>
       <c r="B320" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C320">
         <v>4803348</v>
@@ -27272,7 +27280,7 @@
         <v>29</v>
       </c>
       <c r="B321" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C321">
         <v>2401479</v>
@@ -27355,7 +27363,7 @@
         <v>29</v>
       </c>
       <c r="B322" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C322">
         <v>4405234</v>
@@ -27438,7 +27446,7 @@
         <v>29</v>
       </c>
       <c r="B323" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C323">
         <v>5210220</v>
@@ -27480,7 +27488,7 @@
         <v>0</v>
       </c>
       <c r="Q323" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="T323" t="s">
         <v>40</v>
@@ -27491,7 +27499,7 @@
         <v>29</v>
       </c>
       <c r="B324" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C324">
         <v>4208869</v>
@@ -27536,10 +27544,10 @@
         <v>0.1</v>
       </c>
       <c r="Q324" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="R324" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="T324" t="s">
         <v>40</v>
@@ -27586,7 +27594,7 @@
         <v>29</v>
       </c>
       <c r="B325" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C325">
         <v>4342617</v>
@@ -27598,7 +27606,7 @@
         <v>32</v>
       </c>
       <c r="F325" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G325" t="s">
         <v>34</v>
@@ -27666,7 +27674,7 @@
         <v>29</v>
       </c>
       <c r="B326" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C326">
         <v>5070742</v>
@@ -27687,7 +27695,7 @@
         <v>100</v>
       </c>
       <c r="I326" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J326" t="s">
         <v>59</v>
@@ -27708,7 +27716,7 @@
         <v>0</v>
       </c>
       <c r="Q326" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="T326" t="s">
         <v>40</v>
@@ -27728,7 +27736,7 @@
         <v>29</v>
       </c>
       <c r="B327" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C327">
         <v>5141215</v>
@@ -27781,7 +27789,7 @@
         <v>29</v>
       </c>
       <c r="B328" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C328">
         <v>4527497</v>
@@ -27793,7 +27801,7 @@
         <v>32</v>
       </c>
       <c r="F328" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H328" t="s">
         <v>58</v>
@@ -27855,7 +27863,7 @@
         <v>29</v>
       </c>
       <c r="B329" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C329">
         <v>4556974</v>
@@ -27935,7 +27943,7 @@
         <v>29</v>
       </c>
       <c r="B330" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C330">
         <v>4504449</v>
@@ -27977,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="S330" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="T330" t="s">
         <v>40</v>
@@ -28003,7 +28011,7 @@
         <v>29</v>
       </c>
       <c r="B331" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C331">
         <v>4212438</v>
@@ -28045,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q331" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="R331" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="T331" t="s">
         <v>40</v>
@@ -28095,7 +28103,7 @@
         <v>29</v>
       </c>
       <c r="B332" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C332">
         <v>4505257</v>
@@ -28137,7 +28145,7 @@
         <v>0</v>
       </c>
       <c r="S332" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="T332" t="s">
         <v>40</v>
@@ -28175,7 +28183,7 @@
         <v>29</v>
       </c>
       <c r="B333" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C333">
         <v>4511696</v>
@@ -28217,7 +28225,7 @@
         <v>0</v>
       </c>
       <c r="S333" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T333" t="s">
         <v>40</v>
@@ -28255,7 +28263,7 @@
         <v>29</v>
       </c>
       <c r="B334" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C334">
         <v>1882235</v>
@@ -28267,7 +28275,7 @@
         <v>32</v>
       </c>
       <c r="F334" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G334" t="s">
         <v>51</v>
@@ -28297,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="S334" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="T334" t="s">
         <v>157</v>
@@ -28335,7 +28343,7 @@
         <v>29</v>
       </c>
       <c r="B335" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C335">
         <v>4641487</v>
@@ -28377,7 +28385,7 @@
         <v>0</v>
       </c>
       <c r="R335" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T335" t="s">
         <v>40</v>
@@ -28406,7 +28414,7 @@
         <v>29</v>
       </c>
       <c r="B336" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C336">
         <v>4230529</v>
@@ -28448,7 +28456,7 @@
         <v>0.1</v>
       </c>
       <c r="S336" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="T336" t="s">
         <v>40</v>
@@ -28498,7 +28506,7 @@
         <v>29</v>
       </c>
       <c r="B337" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C337">
         <v>4452597</v>
@@ -28540,7 +28548,7 @@
         <v>0.1</v>
       </c>
       <c r="Q337" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="T337" t="s">
         <v>40</v>
@@ -28581,7 +28589,7 @@
         <v>29</v>
       </c>
       <c r="B338" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C338">
         <v>4450405</v>
@@ -28661,7 +28669,7 @@
         <v>29</v>
       </c>
       <c r="B339" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C339">
         <v>4643737</v>
@@ -28703,10 +28711,10 @@
         <v>0</v>
       </c>
       <c r="Q339" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="R339" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T339" t="s">
         <v>40</v>
@@ -28735,7 +28743,7 @@
         <v>29</v>
       </c>
       <c r="B340" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C340">
         <v>4277637</v>
@@ -28777,10 +28785,10 @@
         <v>0</v>
       </c>
       <c r="Q340" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="R340" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="T340" t="s">
         <v>40</v>
@@ -28830,7 +28838,7 @@
         <v>29</v>
       </c>
       <c r="B341" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C341">
         <v>4846293</v>
@@ -28895,7 +28903,7 @@
         <v>29</v>
       </c>
       <c r="B342" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C342">
         <v>4290978</v>
@@ -28981,7 +28989,7 @@
         <v>29</v>
       </c>
       <c r="B343" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C343">
         <v>4289402</v>
@@ -29067,7 +29075,7 @@
         <v>29</v>
       </c>
       <c r="B344" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C344">
         <v>4580355</v>
@@ -29097,7 +29105,7 @@
         <v>45125</v>
       </c>
       <c r="M344" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N344" s="2">
         <v>8.5000000000000006E-3</v>
@@ -29109,10 +29117,10 @@
         <v>0</v>
       </c>
       <c r="Q344" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="R344" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="T344" t="s">
         <v>40</v>
@@ -29141,7 +29149,7 @@
         <v>29</v>
       </c>
       <c r="B345" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C345">
         <v>4363260</v>
@@ -29227,7 +29235,7 @@
         <v>29</v>
       </c>
       <c r="B346" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C346">
         <v>4693308</v>
@@ -29301,7 +29309,7 @@
         <v>29</v>
       </c>
       <c r="B347" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C347">
         <v>4404724</v>
@@ -29384,7 +29392,7 @@
         <v>29</v>
       </c>
       <c r="B348" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C348">
         <v>4382902</v>
@@ -29426,7 +29434,7 @@
         <v>0</v>
       </c>
       <c r="Q348" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="T348" t="s">
         <v>40</v>
@@ -29473,7 +29481,7 @@
         <v>29</v>
       </c>
       <c r="B349" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C349">
         <v>4848279</v>
@@ -29541,7 +29549,7 @@
         <v>29</v>
       </c>
       <c r="B350" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C350">
         <v>5076418</v>
@@ -29553,7 +29561,7 @@
         <v>32</v>
       </c>
       <c r="F350" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G350" t="s">
         <v>34</v>
@@ -29600,7 +29608,7 @@
         <v>29</v>
       </c>
       <c r="B351" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C351">
         <v>4221506</v>
@@ -29645,7 +29653,7 @@
         <v>0</v>
       </c>
       <c r="S351" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="T351" t="s">
         <v>40</v>
@@ -29692,7 +29700,7 @@
         <v>29</v>
       </c>
       <c r="B352" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C352">
         <v>4221536</v>
@@ -29737,7 +29745,7 @@
         <v>0</v>
       </c>
       <c r="S352" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="T352" t="s">
         <v>40</v>
@@ -29784,7 +29792,7 @@
         <v>29</v>
       </c>
       <c r="B353" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C353">
         <v>4936634</v>
@@ -29796,7 +29804,7 @@
         <v>32</v>
       </c>
       <c r="F353" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G353" t="s">
         <v>34</v>
@@ -29849,7 +29857,7 @@
         <v>29</v>
       </c>
       <c r="B354" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C354">
         <v>4374943</v>
@@ -29935,7 +29943,7 @@
         <v>29</v>
       </c>
       <c r="B355" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C355">
         <v>4278212</v>
@@ -30021,7 +30029,7 @@
         <v>29</v>
       </c>
       <c r="B356" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C356">
         <v>4334158</v>
@@ -30107,7 +30115,7 @@
         <v>29</v>
       </c>
       <c r="B357" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C357">
         <v>5247042</v>
@@ -30154,19 +30162,19 @@
         <v>29</v>
       </c>
       <c r="B358" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C358">
         <v>5206566</v>
       </c>
       <c r="D358" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E358" t="s">
         <v>43</v>
       </c>
       <c r="F358" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G358" t="s">
         <v>34</v>
@@ -30204,7 +30212,7 @@
         <v>29</v>
       </c>
       <c r="B359" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C359">
         <v>4403674</v>
@@ -30284,7 +30292,7 @@
         <v>29</v>
       </c>
       <c r="B360" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C360">
         <v>4332747</v>
@@ -30370,7 +30378,7 @@
         <v>29</v>
       </c>
       <c r="B361" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C361">
         <v>4547073</v>
@@ -30447,7 +30455,7 @@
         <v>29</v>
       </c>
       <c r="B362" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C362">
         <v>4766708</v>
@@ -30468,7 +30476,7 @@
         <v>58</v>
       </c>
       <c r="I362" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J362" t="s">
         <v>37</v>
@@ -30489,7 +30497,7 @@
         <v>0</v>
       </c>
       <c r="S362" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="T362" t="s">
         <v>40</v>
@@ -30521,7 +30529,7 @@
         <v>29</v>
       </c>
       <c r="B363" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C363">
         <v>4567880</v>
@@ -30598,7 +30606,7 @@
         <v>29</v>
       </c>
       <c r="B364" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C364">
         <v>4431689</v>
@@ -30678,7 +30686,7 @@
         <v>29</v>
       </c>
       <c r="B365" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C365">
         <v>5242683</v>
@@ -30728,7 +30736,7 @@
         <v>29</v>
       </c>
       <c r="B366" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C366">
         <v>4914070</v>
@@ -30770,7 +30778,7 @@
         <v>0.1</v>
       </c>
       <c r="S366" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="T366" t="s">
         <v>40</v>
@@ -30796,7 +30804,7 @@
         <v>29</v>
       </c>
       <c r="B367" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C367">
         <v>4473829</v>
@@ -30876,7 +30884,7 @@
         <v>29</v>
       </c>
       <c r="B368" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C368">
         <v>5122672</v>
@@ -30929,7 +30937,7 @@
         <v>29</v>
       </c>
       <c r="B369" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C369">
         <v>4490955</v>
@@ -31009,7 +31017,7 @@
         <v>29</v>
       </c>
       <c r="B370" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C370">
         <v>4432455</v>
@@ -31051,7 +31059,7 @@
         <v>0</v>
       </c>
       <c r="Q370" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="T370" t="s">
         <v>40</v>
@@ -31092,7 +31100,7 @@
         <v>29</v>
       </c>
       <c r="B371" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C371">
         <v>4804036</v>
@@ -31163,7 +31171,7 @@
         <v>29</v>
       </c>
       <c r="B372" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C372">
         <v>827730</v>
@@ -31205,7 +31213,7 @@
         <v>0</v>
       </c>
       <c r="R372" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T372" t="s">
         <v>40</v>
@@ -31237,7 +31245,7 @@
         <v>29</v>
       </c>
       <c r="B373" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C373">
         <v>4544289</v>
@@ -31308,7 +31316,7 @@
         <v>29</v>
       </c>
       <c r="B374" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C374">
         <v>5002390</v>
@@ -31350,7 +31358,7 @@
         <v>0.1</v>
       </c>
       <c r="S374" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="T374" t="s">
         <v>40</v>
@@ -31373,7 +31381,7 @@
         <v>29</v>
       </c>
       <c r="B375" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C375">
         <v>4376145</v>
@@ -31459,7 +31467,7 @@
         <v>29</v>
       </c>
       <c r="B376" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C376">
         <v>1719494</v>
@@ -31545,7 +31553,7 @@
         <v>29</v>
       </c>
       <c r="B377" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C377">
         <v>4754920</v>
@@ -31616,7 +31624,7 @@
         <v>29</v>
       </c>
       <c r="B378" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C378">
         <v>4472431</v>
@@ -31696,7 +31704,7 @@
         <v>29</v>
       </c>
       <c r="B379" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C379">
         <v>4546050</v>
@@ -31738,7 +31746,7 @@
         <v>0</v>
       </c>
       <c r="S379" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="T379" t="s">
         <v>40</v>
@@ -31776,7 +31784,7 @@
         <v>29</v>
       </c>
       <c r="B380" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C380">
         <v>4568300</v>
@@ -31818,7 +31826,7 @@
         <v>0.1</v>
       </c>
       <c r="S380" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="T380" t="s">
         <v>40</v>
@@ -31856,7 +31864,7 @@
         <v>29</v>
       </c>
       <c r="B381" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C381">
         <v>4380948</v>
@@ -31898,7 +31906,7 @@
         <v>0</v>
       </c>
       <c r="S381" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="T381" t="s">
         <v>40</v>
@@ -31942,7 +31950,7 @@
         <v>29</v>
       </c>
       <c r="B382" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C382">
         <v>4298042</v>
@@ -31984,7 +31992,7 @@
         <v>0.1</v>
       </c>
       <c r="R382" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="T382" t="s">
         <v>40</v>
@@ -32031,7 +32039,7 @@
         <v>29</v>
       </c>
       <c r="B383" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C383">
         <v>4239387</v>
@@ -32108,7 +32116,7 @@
         <v>29</v>
       </c>
       <c r="B384" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C384">
         <v>4458563</v>
@@ -32188,7 +32196,7 @@
         <v>29</v>
       </c>
       <c r="B385" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C385">
         <v>4348479</v>
@@ -32200,7 +32208,7 @@
         <v>32</v>
       </c>
       <c r="F385" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H385" t="s">
         <v>86</v>
@@ -32265,7 +32273,7 @@
         <v>29</v>
       </c>
       <c r="B386" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C386">
         <v>4877741</v>
@@ -32330,7 +32338,7 @@
         <v>29</v>
       </c>
       <c r="B387" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C387">
         <v>4554411</v>
@@ -32398,7 +32406,7 @@
         <v>29</v>
       </c>
       <c r="B388" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C388">
         <v>4517506</v>
@@ -32475,7 +32483,7 @@
         <v>29</v>
       </c>
       <c r="B389" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C389">
         <v>4369172</v>
@@ -32561,7 +32569,7 @@
         <v>29</v>
       </c>
       <c r="B390" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C390">
         <v>5121756</v>
@@ -32582,7 +32590,7 @@
         <v>100</v>
       </c>
       <c r="I390" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J390" t="s">
         <v>37</v>
@@ -32617,7 +32625,7 @@
         <v>29</v>
       </c>
       <c r="B391" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C391">
         <v>4752615</v>
@@ -32688,7 +32696,7 @@
         <v>29</v>
       </c>
       <c r="B392" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C392">
         <v>4383190</v>
@@ -32700,7 +32708,7 @@
         <v>32</v>
       </c>
       <c r="F392" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G392" t="s">
         <v>51</v>
@@ -32718,7 +32726,7 @@
         <v>44973</v>
       </c>
       <c r="M392" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N392" s="2">
         <v>1.2E-2</v>
@@ -32730,7 +32738,7 @@
         <v>0</v>
       </c>
       <c r="Q392" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="T392" t="s">
         <v>40</v>
@@ -32777,7 +32785,7 @@
         <v>29</v>
       </c>
       <c r="B393" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C393">
         <v>4481463</v>
@@ -32857,7 +32865,7 @@
         <v>29</v>
       </c>
       <c r="B394" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C394">
         <v>4556853</v>
@@ -32887,7 +32895,7 @@
         <v>45070</v>
       </c>
       <c r="M394" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N394" s="2">
         <v>0.02</v>
@@ -32899,10 +32907,10 @@
         <v>0.2</v>
       </c>
       <c r="Q394" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R394" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="T394" t="s">
         <v>40</v>
@@ -32940,7 +32948,7 @@
         <v>29</v>
       </c>
       <c r="B395" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C395">
         <v>4264780</v>
@@ -32982,7 +32990,7 @@
         <v>0.2</v>
       </c>
       <c r="S395" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="T395" t="s">
         <v>40</v>
@@ -33032,7 +33040,7 @@
         <v>29</v>
       </c>
       <c r="B396" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C396">
         <v>772433</v>
@@ -33074,7 +33082,7 @@
         <v>0.1</v>
       </c>
       <c r="Q396" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="T396" t="s">
         <v>40</v>
@@ -33124,7 +33132,7 @@
         <v>29</v>
       </c>
       <c r="B397" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C397">
         <v>4983378</v>
@@ -33136,7 +33144,7 @@
         <v>32</v>
       </c>
       <c r="F397" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G397" t="s">
         <v>34</v>
@@ -33145,7 +33153,7 @@
         <v>100</v>
       </c>
       <c r="I397" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J397" t="s">
         <v>37</v>
@@ -33189,7 +33197,7 @@
         <v>29</v>
       </c>
       <c r="B398" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C398">
         <v>4983395</v>
@@ -33201,7 +33209,7 @@
         <v>32</v>
       </c>
       <c r="F398" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G398" t="s">
         <v>34</v>
@@ -33210,7 +33218,7 @@
         <v>100</v>
       </c>
       <c r="I398" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J398" t="s">
         <v>37</v>
@@ -33254,7 +33262,7 @@
         <v>29</v>
       </c>
       <c r="B399" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C399">
         <v>4455356</v>
@@ -33334,7 +33342,7 @@
         <v>29</v>
       </c>
       <c r="B400" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C400">
         <v>4444380</v>
@@ -33414,7 +33422,7 @@
         <v>29</v>
       </c>
       <c r="B401" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C401">
         <v>4748761</v>
@@ -33444,7 +33452,7 @@
         <v>45104</v>
       </c>
       <c r="M401" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N401" s="2">
         <v>1.2E-2</v>
@@ -33485,7 +33493,7 @@
         <v>29</v>
       </c>
       <c r="B402" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C402">
         <v>2950732</v>
@@ -33527,7 +33535,7 @@
         <v>0.1</v>
       </c>
       <c r="S402" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="T402" t="s">
         <v>40</v>
@@ -33565,7 +33573,7 @@
         <v>29</v>
       </c>
       <c r="B403" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C403">
         <v>4502767</v>
@@ -33645,7 +33653,7 @@
         <v>29</v>
       </c>
       <c r="B404" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C404">
         <v>4854514</v>
@@ -33710,7 +33718,7 @@
         <v>29</v>
       </c>
       <c r="B405" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C405">
         <v>4547722</v>
@@ -33752,7 +33760,7 @@
         <v>0</v>
       </c>
       <c r="Q405" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="T405" t="s">
         <v>40</v>
@@ -33790,7 +33798,7 @@
         <v>29</v>
       </c>
       <c r="B406" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C406">
         <v>4527606</v>
@@ -33832,7 +33840,7 @@
         <v>0</v>
       </c>
       <c r="Q406" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="T406" t="s">
         <v>40</v>
@@ -33870,7 +33878,7 @@
         <v>29</v>
       </c>
       <c r="B407" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C407">
         <v>4415248</v>
@@ -33953,7 +33961,7 @@
         <v>29</v>
       </c>
       <c r="B408" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C408">
         <v>4463586</v>
@@ -34033,7 +34041,7 @@
         <v>29</v>
       </c>
       <c r="B409" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C409">
         <v>5042222</v>
@@ -34095,7 +34103,7 @@
         <v>29</v>
       </c>
       <c r="B410" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C410">
         <v>4240292</v>
@@ -34181,7 +34189,7 @@
         <v>29</v>
       </c>
       <c r="B411" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C411">
         <v>4435987</v>
@@ -34193,7 +34201,7 @@
         <v>32</v>
       </c>
       <c r="F411" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G411" t="s">
         <v>54</v>
@@ -34261,7 +34269,7 @@
         <v>29</v>
       </c>
       <c r="B412" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C412">
         <v>4436055</v>
@@ -34273,7 +34281,7 @@
         <v>32</v>
       </c>
       <c r="F412" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G412" t="s">
         <v>48</v>
@@ -34341,7 +34349,7 @@
         <v>29</v>
       </c>
       <c r="B413" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C413">
         <v>4454491</v>
@@ -34421,7 +34429,7 @@
         <v>29</v>
       </c>
       <c r="B414" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C414">
         <v>4254210</v>
@@ -34463,13 +34471,13 @@
         <v>0.2</v>
       </c>
       <c r="Q414" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="R414" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="S414" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="T414" t="s">
         <v>40</v>
@@ -34519,7 +34527,7 @@
         <v>29</v>
       </c>
       <c r="B415" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C415">
         <v>4853111</v>
@@ -34590,7 +34598,7 @@
         <v>29</v>
       </c>
       <c r="B416" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C416">
         <v>4752519</v>
@@ -34661,7 +34669,7 @@
         <v>29</v>
       </c>
       <c r="B417" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C417">
         <v>834301</v>
@@ -34741,7 +34749,7 @@
         <v>29</v>
       </c>
       <c r="B418" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C418">
         <v>4575621</v>
@@ -34783,7 +34791,7 @@
         <v>0.1</v>
       </c>
       <c r="Q418" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="T418" t="s">
         <v>40</v>
@@ -34815,7 +34823,7 @@
         <v>29</v>
       </c>
       <c r="B419" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C419">
         <v>2738211</v>
@@ -34857,7 +34865,7 @@
         <v>0</v>
       </c>
       <c r="R419" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T419" t="s">
         <v>40</v>
@@ -34886,7 +34894,7 @@
         <v>29</v>
       </c>
       <c r="B420" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C420">
         <v>4811224</v>
@@ -34928,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="R420" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T420" t="s">
         <v>40</v>
@@ -34957,7 +34965,7 @@
         <v>29</v>
       </c>
       <c r="B421" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C421">
         <v>4807944</v>
@@ -34999,10 +35007,10 @@
         <v>0</v>
       </c>
       <c r="R421" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="S421" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="T421" t="s">
         <v>40</v>
@@ -35034,7 +35042,7 @@
         <v>29</v>
       </c>
       <c r="B422" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C422">
         <v>4552021</v>
@@ -35064,7 +35072,7 @@
         <v>45158</v>
       </c>
       <c r="M422" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N422" s="2">
         <v>8.0000000000000002E-3</v>
@@ -35111,7 +35119,7 @@
         <v>29</v>
       </c>
       <c r="B423" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C423">
         <v>4212476</v>
@@ -35153,7 +35161,7 @@
         <v>0</v>
       </c>
       <c r="S423" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="T423" t="s">
         <v>40</v>
@@ -35200,7 +35208,7 @@
         <v>29</v>
       </c>
       <c r="B424" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C424">
         <v>4214460</v>
@@ -35230,7 +35238,7 @@
         <v>44957</v>
       </c>
       <c r="M424" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N424" s="2">
         <v>0.01</v>
@@ -35286,7 +35294,7 @@
         <v>29</v>
       </c>
       <c r="B425" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C425">
         <v>4893523</v>
@@ -35328,7 +35336,7 @@
         <v>0</v>
       </c>
       <c r="Q425" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="T425" t="s">
         <v>40</v>
@@ -35357,7 +35365,7 @@
         <v>29</v>
       </c>
       <c r="B426" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C426">
         <v>4541022</v>
@@ -35399,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="S426" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="T426" t="s">
         <v>40</v>
@@ -35437,7 +35445,7 @@
         <v>29</v>
       </c>
       <c r="B427" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C427">
         <v>4972070</v>
@@ -35479,7 +35487,7 @@
         <v>0</v>
       </c>
       <c r="S427" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="T427" t="s">
         <v>40</v>
@@ -35505,7 +35513,7 @@
         <v>29</v>
       </c>
       <c r="B428" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C428">
         <v>4870019</v>
@@ -35567,7 +35575,7 @@
         <v>29</v>
       </c>
       <c r="B429" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C429">
         <v>4395314</v>
@@ -35579,7 +35587,7 @@
         <v>32</v>
       </c>
       <c r="F429" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G429" t="s">
         <v>51</v>
@@ -35650,7 +35658,7 @@
         <v>29</v>
       </c>
       <c r="B430" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C430">
         <v>4214604</v>
@@ -35736,7 +35744,7 @@
         <v>29</v>
       </c>
       <c r="B431" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C431">
         <v>4212581</v>
@@ -35778,7 +35786,7 @@
         <v>0</v>
       </c>
       <c r="S431" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="T431" t="s">
         <v>40</v>
@@ -35825,7 +35833,7 @@
         <v>29</v>
       </c>
       <c r="B432" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C432">
         <v>4242237</v>
@@ -35867,7 +35875,7 @@
         <v>0</v>
       </c>
       <c r="Q432" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="T432" t="s">
         <v>40</v>
@@ -35914,7 +35922,7 @@
         <v>29</v>
       </c>
       <c r="B433" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C433">
         <v>4525587</v>
@@ -35956,7 +35964,7 @@
         <v>0</v>
       </c>
       <c r="S433" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="T433" t="s">
         <v>40</v>
@@ -35994,7 +36002,7 @@
         <v>29</v>
       </c>
       <c r="B434" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C434">
         <v>4920447</v>
@@ -36059,7 +36067,7 @@
         <v>29</v>
       </c>
       <c r="B435" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C435">
         <v>5000460</v>
@@ -36121,7 +36129,7 @@
         <v>29</v>
       </c>
       <c r="B436" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C436">
         <v>5046919</v>
@@ -36180,7 +36188,7 @@
         <v>29</v>
       </c>
       <c r="B437" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C437">
         <v>4371913</v>
@@ -36269,7 +36277,7 @@
         <v>29</v>
       </c>
       <c r="B438" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C438">
         <v>4556150</v>
@@ -36346,7 +36354,7 @@
         <v>29</v>
       </c>
       <c r="B439" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C439">
         <v>3249855</v>
@@ -36417,7 +36425,7 @@
         <v>29</v>
       </c>
       <c r="B440" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C440">
         <v>4405702</v>
@@ -36429,7 +36437,7 @@
         <v>43</v>
       </c>
       <c r="F440" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H440" t="s">
         <v>58</v>
@@ -36497,7 +36505,7 @@
         <v>29</v>
       </c>
       <c r="B441" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C441">
         <v>4428935</v>
@@ -36577,7 +36585,7 @@
         <v>29</v>
       </c>
       <c r="B442" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C442">
         <v>4431591</v>
@@ -36619,7 +36627,7 @@
         <v>0</v>
       </c>
       <c r="S442" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="T442" t="s">
         <v>40</v>
@@ -36660,7 +36668,7 @@
         <v>29</v>
       </c>
       <c r="B443" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C443">
         <v>4643746</v>
@@ -36702,10 +36710,10 @@
         <v>0.1</v>
       </c>
       <c r="Q443" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="R443" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="T443" t="s">
         <v>40</v>
@@ -36743,7 +36751,7 @@
         <v>29</v>
       </c>
       <c r="B444" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C444">
         <v>4395599</v>
@@ -36826,7 +36834,7 @@
         <v>29</v>
       </c>
       <c r="B445" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C445">
         <v>5140667</v>
@@ -36882,7 +36890,7 @@
         <v>29</v>
       </c>
       <c r="B446" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C446">
         <v>4756981</v>
@@ -36953,7 +36961,7 @@
         <v>29</v>
       </c>
       <c r="B447" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C447">
         <v>4451652</v>
@@ -37033,7 +37041,7 @@
         <v>29</v>
       </c>
       <c r="B448" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C448">
         <v>4115381</v>
@@ -37122,7 +37130,7 @@
         <v>29</v>
       </c>
       <c r="B449" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C449">
         <v>4255049</v>
@@ -37208,7 +37216,7 @@
         <v>29</v>
       </c>
       <c r="B450" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C450">
         <v>4472459</v>
@@ -37229,7 +37237,7 @@
         <v>58</v>
       </c>
       <c r="I450" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J450" t="s">
         <v>37</v>
@@ -37288,7 +37296,7 @@
         <v>29</v>
       </c>
       <c r="B451" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C451">
         <v>4165515</v>
@@ -37368,7 +37376,7 @@
         <v>29</v>
       </c>
       <c r="B452" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C452">
         <v>4355790</v>
@@ -37445,7 +37453,7 @@
         <v>29</v>
       </c>
       <c r="B453" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C453">
         <v>5170415</v>
@@ -37498,7 +37506,7 @@
         <v>29</v>
       </c>
       <c r="B454" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C454">
         <v>4813134</v>
@@ -37569,7 +37577,7 @@
         <v>29</v>
       </c>
       <c r="B455" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C455">
         <v>4387250</v>
@@ -37652,7 +37660,7 @@
         <v>29</v>
       </c>
       <c r="B456" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C456">
         <v>4526450</v>
@@ -37729,7 +37737,7 @@
         <v>29</v>
       </c>
       <c r="B457" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C457">
         <v>4397124</v>
@@ -37771,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="Q457" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="T457" t="s">
         <v>40</v>
@@ -37815,7 +37823,7 @@
         <v>29</v>
       </c>
       <c r="B458" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C458">
         <v>4630773</v>
@@ -37857,7 +37865,7 @@
         <v>0.1</v>
       </c>
       <c r="S458" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="T458" t="s">
         <v>40</v>
@@ -37895,7 +37903,7 @@
         <v>29</v>
       </c>
       <c r="B459" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C459">
         <v>4419782</v>
@@ -37975,7 +37983,7 @@
         <v>29</v>
       </c>
       <c r="B460" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C460">
         <v>4749928</v>
@@ -38046,7 +38054,7 @@
         <v>29</v>
       </c>
       <c r="B461" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C461">
         <v>4448303</v>
@@ -38076,7 +38084,7 @@
         <v>45022</v>
       </c>
       <c r="M461" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N461" s="2">
         <v>1.2E-2</v>
@@ -38088,10 +38096,10 @@
         <v>0.1</v>
       </c>
       <c r="Q461" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="S461" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="T461" t="s">
         <v>40</v>
@@ -38132,7 +38140,7 @@
         <v>29</v>
       </c>
       <c r="B462" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C462">
         <v>1759765</v>
@@ -38144,7 +38152,7 @@
         <v>32</v>
       </c>
       <c r="F462" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G462" t="s">
         <v>48</v>
@@ -38212,7 +38220,7 @@
         <v>29</v>
       </c>
       <c r="B463" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C463">
         <v>4320840</v>
@@ -38254,10 +38262,10 @@
         <v>0</v>
       </c>
       <c r="Q463" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="R463" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="T463" t="s">
         <v>40</v>
@@ -38304,7 +38312,7 @@
         <v>29</v>
       </c>
       <c r="B464" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C464">
         <v>4327758</v>
@@ -38390,7 +38398,7 @@
         <v>29</v>
       </c>
       <c r="B465" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C465">
         <v>4482102</v>
@@ -38432,7 +38440,7 @@
         <v>0.1</v>
       </c>
       <c r="S465" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="T465" t="s">
         <v>40</v>
@@ -38473,7 +38481,7 @@
         <v>29</v>
       </c>
       <c r="B466" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C466">
         <v>4479450</v>
@@ -38556,7 +38564,7 @@
         <v>29</v>
       </c>
       <c r="B467" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C467">
         <v>5063749</v>
@@ -38615,7 +38623,7 @@
         <v>29</v>
       </c>
       <c r="B468" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C468">
         <v>5075382</v>
@@ -38671,7 +38679,7 @@
         <v>29</v>
       </c>
       <c r="B469" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C469">
         <v>4371857</v>
@@ -38757,7 +38765,7 @@
         <v>29</v>
       </c>
       <c r="B470" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C470">
         <v>4693631</v>
@@ -38828,7 +38836,7 @@
         <v>29</v>
       </c>
       <c r="B471" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C471">
         <v>5073033</v>
@@ -38870,7 +38878,7 @@
         <v>0</v>
       </c>
       <c r="S471" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="T471" t="s">
         <v>157</v>
@@ -38890,7 +38898,7 @@
         <v>29</v>
       </c>
       <c r="B472" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C472">
         <v>4239624</v>
@@ -38932,7 +38940,7 @@
         <v>0</v>
       </c>
       <c r="Q472" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="T472" t="s">
         <v>40</v>
@@ -38979,7 +38987,7 @@
         <v>29</v>
       </c>
       <c r="B473" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C473">
         <v>5055239</v>
@@ -39000,7 +39008,7 @@
         <v>100</v>
       </c>
       <c r="I473" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J473" t="s">
         <v>37</v>
@@ -39038,7 +39046,7 @@
         <v>29</v>
       </c>
       <c r="B474" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C474">
         <v>4935287</v>
@@ -39080,7 +39088,7 @@
         <v>0</v>
       </c>
       <c r="Q474" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="T474" t="s">
         <v>40</v>
@@ -39106,7 +39114,7 @@
         <v>29</v>
       </c>
       <c r="B475" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C475">
         <v>4010232</v>
@@ -39186,7 +39194,7 @@
         <v>29</v>
       </c>
       <c r="B476" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C476">
         <v>4214592</v>
@@ -39272,7 +39280,7 @@
         <v>29</v>
       </c>
       <c r="B477" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C477">
         <v>4334062</v>
@@ -39358,7 +39366,7 @@
         <v>29</v>
       </c>
       <c r="B478" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C478">
         <v>4749680</v>
@@ -39388,7 +39396,7 @@
         <v>45097</v>
       </c>
       <c r="M478" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N478" s="2">
         <v>0.01</v>
@@ -39426,7 +39434,7 @@
         <v>29</v>
       </c>
       <c r="B479" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C479">
         <v>4452946</v>
@@ -39506,7 +39514,7 @@
         <v>29</v>
       </c>
       <c r="B480" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C480">
         <v>4451725</v>
@@ -39586,7 +39594,7 @@
         <v>29</v>
       </c>
       <c r="B481" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C481">
         <v>4268684</v>
@@ -39598,7 +39606,7 @@
         <v>32</v>
       </c>
       <c r="F481" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G481" t="s">
         <v>51</v>
@@ -39672,7 +39680,7 @@
         <v>29</v>
       </c>
       <c r="B482" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C482">
         <v>4421636</v>
@@ -39684,7 +39692,7 @@
         <v>32</v>
       </c>
       <c r="F482" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G482" t="s">
         <v>34</v>
@@ -39755,7 +39763,7 @@
         <v>29</v>
       </c>
       <c r="B483" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C483">
         <v>4805133</v>
@@ -39797,7 +39805,7 @@
         <v>0</v>
       </c>
       <c r="R483" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="T483" t="s">
         <v>40</v>
@@ -39829,7 +39837,7 @@
         <v>29</v>
       </c>
       <c r="B484" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C484">
         <v>4267044</v>
@@ -39918,7 +39926,7 @@
         <v>29</v>
       </c>
       <c r="B485" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C485">
         <v>4471893</v>
@@ -39960,7 +39968,7 @@
         <v>0.1</v>
       </c>
       <c r="S485" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="T485" t="s">
         <v>40</v>
@@ -40001,7 +40009,7 @@
         <v>29</v>
       </c>
       <c r="B486" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C486">
         <v>4479429</v>
@@ -40046,10 +40054,10 @@
         <v>0</v>
       </c>
       <c r="Q486" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="S486" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="T486" t="s">
         <v>40</v>
@@ -40090,7 +40098,7 @@
         <v>29</v>
       </c>
       <c r="B487" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C487">
         <v>4503374</v>
@@ -40132,7 +40140,7 @@
         <v>0</v>
       </c>
       <c r="S487" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="T487" t="s">
         <v>40</v>
@@ -40170,7 +40178,7 @@
         <v>29</v>
       </c>
       <c r="B488" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C488">
         <v>4500057</v>
@@ -40212,7 +40220,7 @@
         <v>0</v>
       </c>
       <c r="S488" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T488" t="s">
         <v>40</v>
@@ -40253,7 +40261,7 @@
         <v>29</v>
       </c>
       <c r="B489" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C489">
         <v>4572740</v>
@@ -40330,7 +40338,7 @@
         <v>29</v>
       </c>
       <c r="B490" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C490">
         <v>4419141</v>
@@ -40372,7 +40380,7 @@
         <v>0.1</v>
       </c>
       <c r="Q490" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="T490" t="s">
         <v>40</v>
@@ -40416,7 +40424,7 @@
         <v>29</v>
       </c>
       <c r="B491" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C491">
         <v>4644524</v>
@@ -40458,7 +40466,7 @@
         <v>0</v>
       </c>
       <c r="R491" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="T491" t="s">
         <v>40</v>
@@ -40496,7 +40504,7 @@
         <v>29</v>
       </c>
       <c r="B492" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C492">
         <v>4404248</v>
@@ -40579,7 +40587,7 @@
         <v>29</v>
       </c>
       <c r="B493" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C493">
         <v>2786022</v>
@@ -40665,7 +40673,7 @@
         <v>29</v>
       </c>
       <c r="B494" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C494">
         <v>5133039</v>
@@ -40704,7 +40712,7 @@
         <v>0</v>
       </c>
       <c r="S494" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="T494" t="s">
         <v>40</v>
@@ -40721,7 +40729,7 @@
         <v>29</v>
       </c>
       <c r="B495" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C495">
         <v>4482439</v>
@@ -40763,7 +40771,7 @@
         <v>0.2</v>
       </c>
       <c r="Q495" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="T495" t="s">
         <v>40</v>
@@ -40804,7 +40812,7 @@
         <v>29</v>
       </c>
       <c r="B496" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C496">
         <v>4480336</v>
@@ -40884,7 +40892,7 @@
         <v>29</v>
       </c>
       <c r="B497" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C497">
         <v>4809902</v>
@@ -40955,7 +40963,7 @@
         <v>29</v>
       </c>
       <c r="B498" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C498">
         <v>5232019</v>
@@ -41002,7 +41010,7 @@
         <v>29</v>
       </c>
       <c r="B499" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C499">
         <v>5081833</v>
@@ -41044,7 +41052,7 @@
         <v>0</v>
       </c>
       <c r="Q499" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="T499" t="s">
         <v>40</v>
@@ -41064,7 +41072,7 @@
         <v>29</v>
       </c>
       <c r="B500" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C500">
         <v>4460491</v>
@@ -41144,7 +41152,7 @@
         <v>29</v>
       </c>
       <c r="B501" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C501">
         <v>4458624</v>
@@ -41186,7 +41194,7 @@
         <v>0</v>
       </c>
       <c r="Q501" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="T501" t="s">
         <v>40</v>
@@ -41227,7 +41235,7 @@
         <v>29</v>
       </c>
       <c r="B502" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C502">
         <v>4460487</v>
@@ -41269,7 +41277,7 @@
         <v>0</v>
       </c>
       <c r="S502" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="T502" t="s">
         <v>40</v>
@@ -41310,7 +41318,7 @@
         <v>29</v>
       </c>
       <c r="B503" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C503">
         <v>4381359</v>
@@ -41352,7 +41360,7 @@
         <v>0.1</v>
       </c>
       <c r="S503" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="T503" t="s">
         <v>40</v>
@@ -41399,7 +41407,7 @@
         <v>29</v>
       </c>
       <c r="B504" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C504">
         <v>4561369</v>
@@ -41441,7 +41449,7 @@
         <v>0</v>
       </c>
       <c r="Q504" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="T504" t="s">
         <v>40</v>
@@ -41467,7 +41475,7 @@
         <v>29</v>
       </c>
       <c r="B505" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C505">
         <v>4690692</v>
@@ -41544,7 +41552,7 @@
         <v>29</v>
       </c>
       <c r="B506" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C506">
         <v>4915243</v>
@@ -41609,7 +41617,7 @@
         <v>29</v>
       </c>
       <c r="B507" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C507">
         <v>4389994</v>
@@ -41651,7 +41659,7 @@
         <v>0.1</v>
       </c>
       <c r="Q507" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="T507" t="s">
         <v>40</v>
@@ -41692,7 +41700,7 @@
         <v>29</v>
       </c>
       <c r="B508" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C508">
         <v>4224771</v>
@@ -41704,7 +41712,7 @@
         <v>32</v>
       </c>
       <c r="F508" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G508" t="s">
         <v>34</v>
@@ -41778,7 +41786,7 @@
         <v>29</v>
       </c>
       <c r="B509" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C509">
         <v>4224284</v>
@@ -41864,7 +41872,7 @@
         <v>29</v>
       </c>
       <c r="B510" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C510">
         <v>4497825</v>
@@ -41944,7 +41952,7 @@
         <v>29</v>
       </c>
       <c r="B511" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C511">
         <v>4588677</v>
@@ -42021,7 +42029,7 @@
         <v>29</v>
       </c>
       <c r="B512" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C512">
         <v>4222784</v>
@@ -42063,7 +42071,7 @@
         <v>0</v>
       </c>
       <c r="Q512" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="T512" t="s">
         <v>40</v>
@@ -42107,7 +42115,7 @@
         <v>29</v>
       </c>
       <c r="B513" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C513">
         <v>4500804</v>
@@ -42149,7 +42157,7 @@
         <v>0</v>
       </c>
       <c r="S513" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="T513" t="s">
         <v>40</v>
@@ -42190,7 +42198,7 @@
         <v>29</v>
       </c>
       <c r="B514" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C514">
         <v>5135281</v>
@@ -42246,7 +42254,7 @@
         <v>29</v>
       </c>
       <c r="B515" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C515">
         <v>4212409</v>
@@ -42335,7 +42343,7 @@
         <v>29</v>
       </c>
       <c r="B516" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C516">
         <v>4457389</v>
@@ -42412,7 +42420,7 @@
         <v>29</v>
       </c>
       <c r="B517" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C517">
         <v>4454365</v>
@@ -42424,7 +42432,7 @@
         <v>32</v>
       </c>
       <c r="F517" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G517" t="s">
         <v>34</v>
@@ -42492,7 +42500,7 @@
         <v>29</v>
       </c>
       <c r="B518" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C518">
         <v>2064834</v>
@@ -42572,7 +42580,7 @@
         <v>29</v>
       </c>
       <c r="B519" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C519">
         <v>5058141</v>
@@ -42593,7 +42601,7 @@
         <v>35</v>
       </c>
       <c r="I519" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J519" t="s">
         <v>37</v>
@@ -42631,7 +42639,7 @@
         <v>29</v>
       </c>
       <c r="B520" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C520">
         <v>4466350</v>
@@ -42673,7 +42681,7 @@
         <v>0</v>
       </c>
       <c r="S520" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="T520" t="s">
         <v>40</v>
@@ -42714,7 +42722,7 @@
         <v>29</v>
       </c>
       <c r="B521" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C521">
         <v>4879113</v>
@@ -42756,7 +42764,7 @@
         <v>0</v>
       </c>
       <c r="S521" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="T521" t="s">
         <v>157</v>
@@ -42785,7 +42793,7 @@
         <v>29</v>
       </c>
       <c r="B522" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C522">
         <v>4208733</v>
@@ -42827,7 +42835,7 @@
         <v>0</v>
       </c>
       <c r="S522" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="T522" t="s">
         <v>40</v>
@@ -42874,7 +42882,7 @@
         <v>29</v>
       </c>
       <c r="B523" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C523">
         <v>4550605</v>
@@ -42954,7 +42962,7 @@
         <v>29</v>
       </c>
       <c r="B524" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C524">
         <v>5216881</v>
@@ -43004,7 +43012,7 @@
         <v>29</v>
       </c>
       <c r="B525" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C525">
         <v>2828327</v>
@@ -43090,7 +43098,7 @@
         <v>29</v>
       </c>
       <c r="B526" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C526">
         <v>4318604</v>
@@ -43132,7 +43140,7 @@
         <v>0.1</v>
       </c>
       <c r="S526" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="T526" t="s">
         <v>40</v>
@@ -43179,7 +43187,7 @@
         <v>29</v>
       </c>
       <c r="B527" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C527">
         <v>4340984</v>
@@ -43221,7 +43229,7 @@
         <v>0.1</v>
       </c>
       <c r="Q527" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="T527" t="s">
         <v>40</v>
@@ -43268,7 +43276,7 @@
         <v>29</v>
       </c>
       <c r="B528" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C528">
         <v>4646727</v>
@@ -43333,7 +43341,7 @@
         <v>29</v>
       </c>
       <c r="B529" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C529">
         <v>4850070</v>
@@ -43375,7 +43383,7 @@
         <v>0</v>
       </c>
       <c r="Q529" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="T529" t="s">
         <v>40</v>
@@ -43404,7 +43412,7 @@
         <v>29</v>
       </c>
       <c r="B530" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C530">
         <v>4862677</v>
@@ -43472,7 +43480,7 @@
         <v>29</v>
       </c>
       <c r="B531" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C531">
         <v>4862672</v>
@@ -43540,7 +43548,7 @@
         <v>29</v>
       </c>
       <c r="B532" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C532">
         <v>4886366</v>
@@ -43608,7 +43616,7 @@
         <v>29</v>
       </c>
       <c r="B533" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C533">
         <v>4237325</v>
@@ -43638,7 +43646,7 @@
         <v>44949</v>
       </c>
       <c r="M533" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N533" s="2">
         <v>1.4999999999999999E-2</v>
@@ -43650,10 +43658,10 @@
         <v>0.1</v>
       </c>
       <c r="Q533" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="S533" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="T533" t="s">
         <v>40</v>
@@ -43700,7 +43708,7 @@
         <v>29</v>
       </c>
       <c r="B534" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C534">
         <v>4539779</v>
@@ -43777,7 +43785,7 @@
         <v>29</v>
       </c>
       <c r="B535" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C535">
         <v>4505474</v>
@@ -43854,7 +43862,7 @@
         <v>29</v>
       </c>
       <c r="B536" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C536">
         <v>4497963</v>
@@ -43896,7 +43904,7 @@
         <v>0</v>
       </c>
       <c r="S536" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="T536" t="s">
         <v>40</v>
@@ -43937,7 +43945,7 @@
         <v>29</v>
       </c>
       <c r="B537" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C537">
         <v>4482262</v>
@@ -44017,7 +44025,7 @@
         <v>29</v>
       </c>
       <c r="B538" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C538">
         <v>4586209</v>
@@ -44047,7 +44055,7 @@
         <v>45124</v>
       </c>
       <c r="M538" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="N538" s="2">
         <v>1.4E-2</v>
@@ -44088,7 +44096,7 @@
         <v>29</v>
       </c>
       <c r="B539" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C539">
         <v>4207658</v>
@@ -44174,7 +44182,7 @@
         <v>29</v>
       </c>
       <c r="B540" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C540">
         <v>4462543</v>
@@ -44254,7 +44262,7 @@
         <v>29</v>
       </c>
       <c r="B541" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C541">
         <v>4470679</v>
@@ -44296,7 +44304,7 @@
         <v>0</v>
       </c>
       <c r="S541" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="T541" t="s">
         <v>40</v>
@@ -44337,7 +44345,7 @@
         <v>29</v>
       </c>
       <c r="B542" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C542">
         <v>4472538</v>
@@ -44379,7 +44387,7 @@
         <v>0.1</v>
       </c>
       <c r="S542" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="T542" t="s">
         <v>40</v>
@@ -44420,7 +44428,7 @@
         <v>29</v>
       </c>
       <c r="B543" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C543">
         <v>4465646</v>
@@ -44441,7 +44449,7 @@
         <v>58</v>
       </c>
       <c r="I543" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J543" t="s">
         <v>37</v>
@@ -44500,7 +44508,7 @@
         <v>29</v>
       </c>
       <c r="B544" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C544">
         <v>5152037</v>
@@ -44550,7 +44558,7 @@
         <v>29</v>
       </c>
       <c r="B545" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C545">
         <v>4532856</v>
@@ -44592,7 +44600,7 @@
         <v>0</v>
       </c>
       <c r="Q545" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="T545" t="s">
         <v>40</v>
@@ -44630,7 +44638,7 @@
         <v>29</v>
       </c>
       <c r="B546" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C546">
         <v>4538384</v>
@@ -44707,7 +44715,7 @@
         <v>29</v>
       </c>
       <c r="B547" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C547">
         <v>4541149</v>
@@ -44784,7 +44792,7 @@
         <v>29</v>
       </c>
       <c r="B548" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C548">
         <v>4374891</v>
@@ -44870,7 +44878,7 @@
         <v>29</v>
       </c>
       <c r="B549" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C549">
         <v>4479734</v>
@@ -44950,7 +44958,7 @@
         <v>29</v>
       </c>
       <c r="B550" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C550">
         <v>5142624</v>
@@ -45006,7 +45014,7 @@
         <v>29</v>
       </c>
       <c r="B551" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C551">
         <v>4392159</v>
@@ -45018,7 +45026,7 @@
         <v>32</v>
       </c>
       <c r="F551" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G551" t="s">
         <v>34</v>
@@ -45089,7 +45097,7 @@
         <v>29</v>
       </c>
       <c r="B552" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C552">
         <v>1813259</v>
@@ -45160,7 +45168,7 @@
         <v>29</v>
       </c>
       <c r="B553" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C553">
         <v>4487016</v>
@@ -45240,7 +45248,7 @@
         <v>29</v>
       </c>
       <c r="B554" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C554">
         <v>4475145</v>
@@ -45282,7 +45290,7 @@
         <v>0</v>
       </c>
       <c r="S554" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="T554" t="s">
         <v>40</v>
@@ -45323,7 +45331,7 @@
         <v>29</v>
       </c>
       <c r="B555" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C555">
         <v>5245032</v>
@@ -45370,7 +45378,7 @@
         <v>29</v>
       </c>
       <c r="B556" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C556">
         <v>4805333</v>
@@ -45412,7 +45420,7 @@
         <v>0</v>
       </c>
       <c r="Q556" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="T556" t="s">
         <v>40</v>
@@ -45444,7 +45452,7 @@
         <v>29</v>
       </c>
       <c r="B557" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C557">
         <v>4392004</v>
@@ -45527,7 +45535,7 @@
         <v>29</v>
       </c>
       <c r="B558" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C558">
         <v>4924222</v>
@@ -45592,7 +45600,7 @@
         <v>29</v>
       </c>
       <c r="B559" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C559">
         <v>4413523</v>
@@ -45604,7 +45612,7 @@
         <v>32</v>
       </c>
       <c r="F559" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G559" t="s">
         <v>34</v>
@@ -45672,7 +45680,7 @@
         <v>29</v>
       </c>
       <c r="B560" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C560">
         <v>5002457</v>
@@ -45714,7 +45722,7 @@
         <v>0.1</v>
       </c>
       <c r="S560" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="T560" t="s">
         <v>40</v>
@@ -45737,7 +45745,7 @@
         <v>29</v>
       </c>
       <c r="B561" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C561">
         <v>4530494</v>
@@ -45779,7 +45787,7 @@
         <v>0</v>
       </c>
       <c r="Q561" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="T561" t="s">
         <v>40</v>
@@ -45817,7 +45825,7 @@
         <v>29</v>
       </c>
       <c r="B562" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C562">
         <v>4472076</v>
@@ -45897,7 +45905,7 @@
         <v>29</v>
       </c>
       <c r="B563" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C563">
         <v>5142661</v>
@@ -45953,7 +45961,7 @@
         <v>29</v>
       </c>
       <c r="B564" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C564">
         <v>4560107</v>
@@ -46030,7 +46038,7 @@
         <v>29</v>
       </c>
       <c r="B565" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C565">
         <v>4472760</v>
@@ -46110,7 +46118,7 @@
         <v>29</v>
       </c>
       <c r="B566" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C566">
         <v>5147664</v>
@@ -46160,7 +46168,7 @@
         <v>29</v>
       </c>
       <c r="B567" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C567">
         <v>4752494</v>
@@ -46231,7 +46239,7 @@
         <v>29</v>
       </c>
       <c r="B568" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C568">
         <v>4975924</v>
@@ -46273,7 +46281,7 @@
         <v>0.1</v>
       </c>
       <c r="Q568" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="T568" t="s">
         <v>40</v>
@@ -46299,7 +46307,7 @@
         <v>29</v>
       </c>
       <c r="B569" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C569">
         <v>4752461</v>
@@ -46370,7 +46378,7 @@
         <v>29</v>
       </c>
       <c r="B570" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C570">
         <v>4207955</v>
@@ -46456,7 +46464,7 @@
         <v>29</v>
       </c>
       <c r="B571" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C571">
         <v>4450760</v>
@@ -46536,7 +46544,7 @@
         <v>29</v>
       </c>
       <c r="B572" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C572">
         <v>4322549</v>
@@ -46622,7 +46630,7 @@
         <v>29</v>
       </c>
       <c r="B573" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C573">
         <v>2823185</v>
@@ -46705,7 +46713,7 @@
         <v>29</v>
       </c>
       <c r="B574" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C574">
         <v>4315417</v>
@@ -46717,7 +46725,7 @@
         <v>32</v>
       </c>
       <c r="F574" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G574" t="s">
         <v>51</v>
@@ -46785,7 +46793,7 @@
         <v>29</v>
       </c>
       <c r="B575" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C575">
         <v>4455489</v>
@@ -46827,7 +46835,7 @@
         <v>0.1</v>
       </c>
       <c r="R575" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="T575" t="s">
         <v>40</v>
@@ -46868,7 +46876,7 @@
         <v>29</v>
       </c>
       <c r="B576" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C576">
         <v>1922009</v>
@@ -46880,7 +46888,7 @@
         <v>32</v>
       </c>
       <c r="F576" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G576" t="s">
         <v>34</v>
@@ -46910,7 +46918,7 @@
         <v>0.1</v>
       </c>
       <c r="S576" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="T576" t="s">
         <v>40</v>
@@ -46930,7 +46938,7 @@
         <v>29</v>
       </c>
       <c r="B577" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C577">
         <v>4945203</v>
@@ -46972,7 +46980,7 @@
         <v>0.2</v>
       </c>
       <c r="S577" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="T577" t="s">
         <v>40</v>
@@ -46998,7 +47006,7 @@
         <v>29</v>
       </c>
       <c r="B578" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C578">
         <v>4945161</v>
@@ -47040,7 +47048,7 @@
         <v>0</v>
       </c>
       <c r="S578" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="T578" t="s">
         <v>40</v>
@@ -47066,7 +47074,7 @@
         <v>29</v>
       </c>
       <c r="B579" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C579">
         <v>4999410</v>
@@ -47128,7 +47136,7 @@
         <v>29</v>
       </c>
       <c r="B580" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C580">
         <v>5007114</v>
@@ -47170,7 +47178,7 @@
         <v>0</v>
       </c>
       <c r="S580" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="T580" t="s">
         <v>40</v>
@@ -47193,7 +47201,7 @@
         <v>29</v>
       </c>
       <c r="B581" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C581">
         <v>5145205</v>
@@ -47214,7 +47222,7 @@
         <v>100</v>
       </c>
       <c r="I581" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J581" t="s">
         <v>37</v>
@@ -47246,7 +47254,7 @@
         <v>29</v>
       </c>
       <c r="B582" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C582">
         <v>4243043</v>
@@ -47326,7 +47334,7 @@
         <v>29</v>
       </c>
       <c r="B583" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C583">
         <v>4216401</v>
@@ -47338,7 +47346,7 @@
         <v>32</v>
       </c>
       <c r="F583" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G583" t="s">
         <v>51</v>
@@ -47409,7 +47417,7 @@
         <v>29</v>
       </c>
       <c r="B584" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C584">
         <v>4331477</v>
@@ -47495,7 +47503,7 @@
         <v>29</v>
       </c>
       <c r="B585" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C585">
         <v>4350101</v>
@@ -47507,7 +47515,7 @@
         <v>32</v>
       </c>
       <c r="F585" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H585" t="s">
         <v>86</v>
@@ -47572,7 +47580,7 @@
         <v>29</v>
       </c>
       <c r="B586" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C586">
         <v>4517080</v>
@@ -47649,7 +47657,7 @@
         <v>29</v>
       </c>
       <c r="B587" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C587">
         <v>4202332</v>
@@ -47735,7 +47743,7 @@
         <v>29</v>
       </c>
       <c r="B588" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C588">
         <v>4536602</v>
@@ -47812,7 +47820,7 @@
         <v>29</v>
       </c>
       <c r="B589" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C589">
         <v>4260040</v>
@@ -47901,7 +47909,7 @@
         <v>29</v>
       </c>
       <c r="B590" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C590">
         <v>1879977</v>
@@ -47990,7 +47998,7 @@
         <v>29</v>
       </c>
       <c r="B591" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C591">
         <v>4550289</v>
@@ -48011,7 +48019,7 @@
         <v>58</v>
       </c>
       <c r="I591" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J591" t="s">
         <v>37</v>
@@ -48067,7 +48075,7 @@
         <v>29</v>
       </c>
       <c r="B592" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C592">
         <v>4425261</v>
@@ -48215,7 +48223,7 @@
         <v>29</v>
       </c>
       <c r="B594" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C594">
         <v>4382374</v>
@@ -48295,7 +48303,7 @@
         <v>29</v>
       </c>
       <c r="B595" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C595">
         <v>3189818</v>
@@ -48337,7 +48345,7 @@
         <v>0</v>
       </c>
       <c r="S595" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="T595" t="s">
         <v>40</v>
@@ -48387,7 +48395,7 @@
         <v>29</v>
       </c>
       <c r="B596" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C596">
         <v>1368670</v>
@@ -48429,7 +48437,7 @@
         <v>0</v>
       </c>
       <c r="S596" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="T596" t="s">
         <v>40</v>
@@ -48479,7 +48487,7 @@
         <v>29</v>
       </c>
       <c r="B597" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C597">
         <v>5064129</v>
@@ -48538,7 +48546,7 @@
         <v>29</v>
       </c>
       <c r="B598" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C598">
         <v>4381095</v>
@@ -48624,7 +48632,7 @@
         <v>29</v>
       </c>
       <c r="B599" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C599">
         <v>4224011</v>
@@ -48710,7 +48718,7 @@
         <v>29</v>
       </c>
       <c r="B600" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C600">
         <v>4346716</v>
@@ -48722,7 +48730,7 @@
         <v>32</v>
       </c>
       <c r="F600" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G600" t="s">
         <v>51</v>
@@ -48796,7 +48804,7 @@
         <v>29</v>
       </c>
       <c r="B601" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C601">
         <v>4498637</v>
@@ -48873,7 +48881,7 @@
         <v>29</v>
       </c>
       <c r="B602" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C602">
         <v>4911541</v>
@@ -48956,7 +48964,7 @@
         <v>29</v>
       </c>
       <c r="B603" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C603">
         <v>4848927</v>
@@ -49021,7 +49029,7 @@
         <v>29</v>
       </c>
       <c r="B604" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C604">
         <v>4238126</v>
@@ -49063,7 +49071,7 @@
         <v>0</v>
       </c>
       <c r="S604" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="T604" t="s">
         <v>157</v>
@@ -49110,19 +49118,19 @@
         <v>29</v>
       </c>
       <c r="B605" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C605">
         <v>5105172</v>
       </c>
       <c r="D605" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E605" t="s">
         <v>43</v>
       </c>
       <c r="F605" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G605" t="s">
         <v>51</v>
@@ -49166,7 +49174,7 @@
         <v>29</v>
       </c>
       <c r="B606" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C606">
         <v>4328934</v>
@@ -49208,7 +49216,7 @@
         <v>0</v>
       </c>
       <c r="Q606" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="T606" t="s">
         <v>40</v>
@@ -49255,7 +49263,7 @@
         <v>29</v>
       </c>
       <c r="B607" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C607">
         <v>4487140</v>
@@ -49335,7 +49343,7 @@
         <v>29</v>
       </c>
       <c r="B608" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C608">
         <v>4918709</v>
@@ -49400,7 +49408,7 @@
         <v>29</v>
       </c>
       <c r="B609" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C609">
         <v>5000090</v>
@@ -49462,7 +49470,7 @@
         <v>29</v>
       </c>
       <c r="B610" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C610">
         <v>4813166</v>
@@ -49504,7 +49512,7 @@
         <v>0</v>
       </c>
       <c r="Q610" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="T610" t="s">
         <v>40</v>
@@ -49536,7 +49544,7 @@
         <v>29</v>
       </c>
       <c r="B611" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C611">
         <v>5173958</v>
@@ -49586,7 +49594,7 @@
         <v>29</v>
       </c>
       <c r="B612" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C612">
         <v>5105970</v>
@@ -49628,7 +49636,7 @@
         <v>0.1</v>
       </c>
       <c r="S612" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="T612" t="s">
         <v>40</v>
@@ -49645,7 +49653,7 @@
         <v>29</v>
       </c>
       <c r="B613" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C613">
         <v>4806286</v>
@@ -49675,7 +49683,7 @@
         <v>45163</v>
       </c>
       <c r="M613" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N613" s="2">
         <v>7.0000000000000001E-3</v>
@@ -49716,7 +49724,7 @@
         <v>29</v>
       </c>
       <c r="B614" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C614">
         <v>5009947</v>
@@ -49778,7 +49786,7 @@
         <v>29</v>
       </c>
       <c r="B615" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C615">
         <v>3115072</v>
@@ -49855,7 +49863,7 @@
         <v>29</v>
       </c>
       <c r="B616" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C616">
         <v>4400000</v>
@@ -49867,7 +49875,7 @@
         <v>43</v>
       </c>
       <c r="F616" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H616" t="s">
         <v>86</v>
@@ -49935,7 +49943,7 @@
         <v>29</v>
       </c>
       <c r="B617" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C617">
         <v>4967702</v>
@@ -50000,7 +50008,7 @@
         <v>29</v>
       </c>
       <c r="B618" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C618">
         <v>4360430</v>
@@ -50086,7 +50094,7 @@
         <v>29</v>
       </c>
       <c r="B619" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C619">
         <v>2694089</v>
@@ -50172,7 +50180,7 @@
         <v>29</v>
       </c>
       <c r="B620" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C620">
         <v>1294033</v>
@@ -50240,7 +50248,7 @@
         <v>29</v>
       </c>
       <c r="B621" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C621">
         <v>1804114</v>
@@ -50323,19 +50331,19 @@
         <v>29</v>
       </c>
       <c r="B622" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C622">
         <v>5103059</v>
       </c>
       <c r="D622" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E622" t="s">
         <v>43</v>
       </c>
       <c r="F622" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G622" t="s">
         <v>34</v>
@@ -50379,7 +50387,7 @@
         <v>29</v>
       </c>
       <c r="B623" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C623">
         <v>4462930</v>
@@ -50421,7 +50429,7 @@
         <v>0.2</v>
       </c>
       <c r="Q623" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="T623" t="s">
         <v>40</v>
@@ -50462,7 +50470,7 @@
         <v>29</v>
       </c>
       <c r="B624" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C624">
         <v>4466221</v>
@@ -50504,7 +50512,7 @@
         <v>0.1</v>
       </c>
       <c r="Q624" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="T624" t="s">
         <v>40</v>
@@ -50545,7 +50553,7 @@
         <v>29</v>
       </c>
       <c r="B625" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C625">
         <v>4419765</v>
@@ -50587,7 +50595,7 @@
         <v>0</v>
       </c>
       <c r="Q625" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="T625" t="s">
         <v>40</v>
@@ -50628,7 +50636,7 @@
         <v>29</v>
       </c>
       <c r="B626" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C626">
         <v>4216504</v>
@@ -50670,7 +50678,7 @@
         <v>0</v>
       </c>
       <c r="S626" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="T626" t="s">
         <v>40</v>
@@ -50717,7 +50725,7 @@
         <v>29</v>
       </c>
       <c r="B627" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C627">
         <v>4422594</v>
@@ -50800,7 +50808,7 @@
         <v>29</v>
       </c>
       <c r="B628" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C628">
         <v>5231126</v>
@@ -50850,7 +50858,7 @@
         <v>29</v>
       </c>
       <c r="B629" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C629">
         <v>4981655</v>
@@ -50912,7 +50920,7 @@
         <v>29</v>
       </c>
       <c r="B630" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C630">
         <v>2886520</v>
@@ -50989,7 +50997,7 @@
         <v>29</v>
       </c>
       <c r="B631" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C631">
         <v>4388077</v>
@@ -51072,7 +51080,7 @@
         <v>29</v>
       </c>
       <c r="B632" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C632">
         <v>4223226</v>
@@ -51161,7 +51169,7 @@
         <v>29</v>
       </c>
       <c r="B633" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C633">
         <v>4552944</v>
@@ -51203,7 +51211,7 @@
         <v>0</v>
       </c>
       <c r="S633" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="T633" t="s">
         <v>40</v>

--- a/controle.xlsx
+++ b/controle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRUNO.SILVA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA06BB93-1939-45DB-9115-FFCFEAA6D6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A98854A-2943-4D11-A817-C96D2E738EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{81E94717-DDF1-451C-AE18-A5F8AC9BB510}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66C8D708-2896-4428-A831-1F7F63C66A50}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7831" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7827" uniqueCount="909">
   <si>
     <t>Backoffice</t>
   </si>
@@ -2764,18 +2764,6 @@
   </si>
   <si>
     <t>Yuri David Lechineswski</t>
-  </si>
-  <si>
-    <t>Contas Ativas</t>
-  </si>
-  <si>
-    <t>Contas Invativas</t>
-  </si>
-  <si>
-    <t>Contas Encerradas</t>
-  </si>
-  <si>
-    <t>Contas Pode Operar</t>
   </si>
 </sst>
 </file>
@@ -3136,11 +3124,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77CC23E-088B-4765-A9EC-87937EAA53A2}">
-  <dimension ref="A1:AL638"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD910BB0-77A0-44E5-97AC-5121C29727A7}">
+  <dimension ref="A1:AL633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AL1029"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51256,83 +51244,6 @@
         <v>234755.16</v>
       </c>
     </row>
-    <row r="635" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B635" t="s">
-        <v>909</v>
-      </c>
-      <c r="C635">
-        <v>495</v>
-      </c>
-      <c r="X635" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y635" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z635" s="4">
-        <v>11487265.99</v>
-      </c>
-      <c r="AA635" s="4">
-        <v>27095720.27</v>
-      </c>
-      <c r="AB635" s="4">
-        <v>67316998.840000004</v>
-      </c>
-      <c r="AC635" s="4">
-        <v>121282813.76000001</v>
-      </c>
-      <c r="AD635" s="4">
-        <v>158453126.59</v>
-      </c>
-      <c r="AE635" s="4">
-        <v>176485810.25</v>
-      </c>
-      <c r="AF635" s="4">
-        <v>202593773.99000001</v>
-      </c>
-      <c r="AG635" s="4">
-        <v>228180045.97</v>
-      </c>
-      <c r="AH635" s="4">
-        <v>259049544</v>
-      </c>
-      <c r="AI635" s="4">
-        <v>265467295.56</v>
-      </c>
-      <c r="AJ635" s="4">
-        <v>275948183.42000002</v>
-      </c>
-      <c r="AK635" s="4">
-        <v>284547379.31</v>
-      </c>
-      <c r="AL635" s="4">
-        <v>293007518.69999999</v>
-      </c>
-    </row>
-    <row r="636" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B636" t="s">
-        <v>910</v>
-      </c>
-      <c r="C636">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="637" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B637" t="s">
-        <v>911</v>
-      </c>
-      <c r="C637">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="638" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B638" t="s">
-        <v>912</v>
-      </c>
-      <c r="C638">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/controle.xlsx
+++ b/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRUNO.SILVA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DD3E03-62B8-4F09-98C2-13FF0C8A9622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D245980-468A-40CF-BDB9-3BE6E05A32DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28815" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{F7273A1F-E785-48A3-98E6-93110AE82A16}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9925" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9924" uniqueCount="1492">
   <si>
     <t>Backoffice</t>
   </si>
@@ -4503,13 +4503,16 @@
     <t>04.229.856/0001-94</t>
   </si>
   <si>
-    <t>100K em D+0</t>
-  </si>
-  <si>
     <t>Renda variável na carteira será em FIIs</t>
   </si>
   <si>
     <t xml:space="preserve">Não aplicar 100k / Em contato com FA para alteração de carteira </t>
+  </si>
+  <si>
+    <t>Augusto</t>
+  </si>
+  <si>
+    <t>100K em D+0 (04/03/2024)</t>
   </si>
 </sst>
 </file>
@@ -4874,7 +4877,7 @@
   <dimension ref="A1:AP651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A61" sqref="A1:AP662"/>
+      <selection sqref="A1:AP662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5059,7 +5062,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>30</v>
@@ -5154,7 +5157,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>30</v>
@@ -5255,7 +5258,7 @@
         <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>30</v>
@@ -5535,7 +5538,7 @@
         <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>50</v>
@@ -5618,7 +5621,7 @@
         <v>55</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>30</v>
@@ -5717,7 +5720,7 @@
         <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>30</v>
@@ -5995,7 +5998,7 @@
         <v>125</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>30</v>
@@ -6737,7 +6740,7 @@
         <v>81</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>30</v>
@@ -6838,7 +6841,7 @@
         <v>28</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>87</v>
@@ -6917,7 +6920,7 @@
         <v>83</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>50</v>
@@ -7102,7 +7105,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>30</v>
@@ -7207,7 +7210,7 @@
         <v>86</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>87</v>
@@ -7382,7 +7385,7 @@
         <v>55</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>50</v>
@@ -7674,7 +7677,7 @@
         <v>65</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>30</v>
@@ -7879,7 +7882,7 @@
         <v>95</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>50</v>
@@ -8186,7 +8189,7 @@
         <v>28</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>50</v>
@@ -8283,7 +8286,7 @@
         <v>55</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>50</v>
@@ -8362,7 +8365,7 @@
         <v>86</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>30</v>
@@ -8667,7 +8670,7 @@
         <v>65</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>30</v>
@@ -8877,7 +8880,7 @@
         <v>41</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>30</v>
@@ -8963,7 +8966,7 @@
         <v>41</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>50</v>
@@ -9136,7 +9139,7 @@
         <v>115</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>30</v>
@@ -9244,7 +9247,7 @@
         <v>81</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>30</v>
@@ -9349,7 +9352,7 @@
         <v>38</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>76</v>
@@ -9568,7 +9571,7 @@
         <v>86</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>30</v>
@@ -9663,7 +9666,7 @@
         <v>86</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>30</v>
@@ -9765,7 +9768,7 @@
         <v>125</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>30</v>
@@ -10449,7 +10452,7 @@
         <v>38</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>30</v>
@@ -10654,7 +10657,7 @@
         <v>38</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>30</v>
@@ -10759,7 +10762,7 @@
         <v>38</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>30</v>
@@ -10864,7 +10867,7 @@
         <v>38</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>30</v>
@@ -11581,7 +11584,7 @@
         <v>115</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>30</v>
@@ -11688,7 +11691,7 @@
         <v>115</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>50</v>
@@ -11796,7 +11799,7 @@
         <v>115</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>30</v>
@@ -11902,7 +11905,7 @@
         <v>115</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>30</v>
@@ -12009,7 +12012,7 @@
         <v>115</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>30</v>
@@ -12114,7 +12117,7 @@
         <v>115</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>30</v>
@@ -12484,7 +12487,7 @@
         <v>38</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>30</v>
@@ -12688,7 +12691,7 @@
         <v>41</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>50</v>
@@ -12768,7 +12771,7 @@
         <v>65</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>30</v>
@@ -13341,7 +13344,7 @@
         <v>75</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>30</v>
@@ -13544,7 +13547,7 @@
         <v>115</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>30</v>
@@ -13719,7 +13722,7 @@
         <v>115</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>30</v>
@@ -13822,7 +13825,7 @@
         <v>38</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>30</v>
@@ -13920,7 +13923,7 @@
         <v>28</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>30</v>
@@ -14120,7 +14123,7 @@
         <v>28</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>30</v>
@@ -14215,7 +14218,7 @@
         <v>28</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>30</v>
@@ -14421,7 +14424,7 @@
         <v>115</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>30</v>
@@ -14628,7 +14631,7 @@
         <v>115</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>30</v>
@@ -14723,7 +14726,7 @@
         <v>95</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>30</v>
@@ -15128,7 +15131,7 @@
         <v>65</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>30</v>
@@ -15306,7 +15309,7 @@
         <v>28</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>30</v>
@@ -15395,7 +15398,7 @@
         <v>184</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>30</v>
@@ -15500,7 +15503,7 @@
         <v>86</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>30</v>
@@ -15706,7 +15709,7 @@
         <v>75</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>30</v>
@@ -15802,7 +15805,7 @@
         <v>65</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>30</v>
@@ -16009,7 +16012,7 @@
         <v>38</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>50</v>
@@ -16116,7 +16119,7 @@
         <v>95</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>30</v>
@@ -16215,7 +16218,7 @@
         <v>95</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>30</v>
@@ -16402,7 +16405,7 @@
         <v>38</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>76</v>
@@ -16512,7 +16515,7 @@
         <v>95</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>30</v>
@@ -16706,7 +16709,7 @@
         <v>28</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>30</v>
@@ -16902,7 +16905,7 @@
         <v>38</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>30</v>
@@ -16989,7 +16992,7 @@
         <v>115</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>30</v>
@@ -17094,9 +17097,7 @@
       <c r="F127" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="G127" s="1"/>
       <c r="H127" s="1" t="s">
         <v>30</v>
       </c>
@@ -17390,7 +17391,7 @@
         <v>65</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>30</v>
@@ -17890,7 +17891,7 @@
         <v>28</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>30</v>
@@ -18077,7 +18078,7 @@
         <v>60</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>30</v>
@@ -18183,7 +18184,7 @@
         <v>38</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>30</v>
@@ -18284,7 +18285,7 @@
         <v>215</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>30</v>
@@ -18392,7 +18393,7 @@
         <v>216</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>30</v>
@@ -18497,7 +18498,7 @@
         <v>115</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>30</v>
@@ -18607,7 +18608,7 @@
         <v>46</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>30</v>
@@ -18922,7 +18923,7 @@
         <v>224</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>30</v>
@@ -19004,7 +19005,7 @@
         <v>60</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>30</v>
@@ -19114,7 +19115,7 @@
         <v>60</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>30</v>
@@ -19324,7 +19325,7 @@
         <v>224</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>30</v>
@@ -19503,7 +19504,7 @@
         <v>28</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>30</v>
@@ -19596,7 +19597,7 @@
         <v>86</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>30</v>
@@ -19786,7 +19787,7 @@
         <v>86</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>30</v>
@@ -19814,7 +19815,7 @@
         <v>0</v>
       </c>
       <c r="Q154" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="T154" s="4" t="s">
         <v>889</v>
@@ -19888,7 +19889,7 @@
         <v>28</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>30</v>
@@ -19969,7 +19970,7 @@
         <v>65</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>30</v>
@@ -20070,7 +20071,7 @@
         <v>55</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>30</v>
@@ -20171,7 +20172,7 @@
         <v>38</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>30</v>
@@ -20372,7 +20373,7 @@
         <v>65</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>30</v>
@@ -20479,7 +20480,7 @@
         <v>38</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>30</v>
@@ -20584,7 +20585,7 @@
         <v>41</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>30</v>
@@ -21170,7 +21171,7 @@
         <v>141</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>87</v>
@@ -21257,7 +21258,7 @@
         <v>38</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>30</v>
@@ -21358,7 +21359,7 @@
         <v>28</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>30</v>
@@ -21561,7 +21562,7 @@
         <v>81</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>30</v>
@@ -21662,7 +21663,7 @@
         <v>60</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>30</v>
@@ -21872,7 +21873,7 @@
         <v>60</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>30</v>
@@ -22081,7 +22082,7 @@
         <v>125</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>30</v>
@@ -22161,7 +22162,7 @@
         <v>259</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>76</v>
@@ -22262,7 +22263,7 @@
         <v>38</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>87</v>
@@ -22354,7 +22355,7 @@
         <v>86</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>30</v>
@@ -22459,7 +22460,7 @@
         <v>28</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>30</v>
@@ -22753,7 +22754,7 @@
         <v>265</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>30</v>
@@ -22835,7 +22836,7 @@
         <v>28</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>30</v>
@@ -22930,7 +22931,7 @@
         <v>184</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>30</v>
@@ -23128,7 +23129,7 @@
         <v>38</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>87</v>
@@ -23381,7 +23382,7 @@
         <v>273</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>30</v>
@@ -23473,7 +23474,7 @@
         <v>38</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>30</v>
@@ -23574,7 +23575,7 @@
         <v>81</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>30</v>
@@ -23667,7 +23668,7 @@
         <v>115</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>30</v>
@@ -23948,7 +23949,7 @@
         <v>75</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>30</v>
@@ -24056,7 +24057,7 @@
         <v>38</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>30</v>
@@ -24163,7 +24164,7 @@
         <v>28</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>30</v>
@@ -24361,7 +24362,7 @@
         <v>38</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>30</v>
@@ -24454,7 +24455,7 @@
         <v>125</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>30</v>
@@ -24720,7 +24721,7 @@
         <v>60</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>30</v>
@@ -24932,7 +24933,7 @@
         <v>28</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>30</v>
@@ -25127,7 +25128,7 @@
         <v>38</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>30</v>
@@ -25321,7 +25322,7 @@
         <v>28</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>30</v>
@@ -25514,7 +25515,7 @@
         <v>55</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>30</v>
@@ -25603,7 +25604,7 @@
         <v>265</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>30</v>
@@ -25705,7 +25706,7 @@
         <v>60</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>30</v>
@@ -25808,7 +25809,7 @@
         <v>60</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>30</v>
@@ -25911,7 +25912,7 @@
         <v>304</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>50</v>
@@ -25992,7 +25993,7 @@
         <v>304</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>30</v>
@@ -26076,7 +26077,7 @@
         <v>41</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>30</v>
@@ -26362,7 +26363,7 @@
         <v>65</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>30</v>
@@ -26570,7 +26571,7 @@
         <v>38</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>30</v>
@@ -26678,7 +26679,7 @@
         <v>75</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>30</v>
@@ -26780,7 +26781,7 @@
         <v>65</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>30</v>
@@ -26884,7 +26885,7 @@
         <v>95</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>50</v>
@@ -26994,7 +26995,7 @@
         <v>38</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>76</v>
@@ -27310,7 +27311,7 @@
         <v>38</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>30</v>
@@ -27413,7 +27414,7 @@
         <v>115</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>30</v>
@@ -27598,7 +27599,7 @@
         <v>86</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>30</v>
@@ -27693,7 +27694,7 @@
         <v>28</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>30</v>
@@ -28072,7 +28073,7 @@
         <v>115</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>30</v>
@@ -28173,7 +28174,7 @@
         <v>28</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>30</v>
@@ -28554,7 +28555,7 @@
         <v>304</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>30</v>
@@ -28724,7 +28725,7 @@
         <v>115</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>30</v>
@@ -28829,7 +28830,7 @@
         <v>38</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>87</v>
@@ -28916,7 +28917,7 @@
         <v>86</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>87</v>
@@ -28997,7 +28998,7 @@
         <v>38</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>30</v>
@@ -29025,7 +29026,7 @@
         <v>0.1</v>
       </c>
       <c r="Q249" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="S249" t="s">
         <v>838</v>
@@ -29207,7 +29208,7 @@
         <v>86</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>30</v>
@@ -29294,7 +29295,7 @@
         <v>49</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>50</v>
@@ -29560,7 +29561,7 @@
         <v>184</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>30</v>
@@ -29665,7 +29666,7 @@
         <v>184</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>30</v>
@@ -29975,7 +29976,7 @@
         <v>65</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>30</v>
@@ -30076,7 +30077,7 @@
         <v>65</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>30</v>
@@ -30271,7 +30272,7 @@
         <v>38</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>30</v>
@@ -30358,7 +30359,7 @@
         <v>81</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>30</v>
@@ -30569,7 +30570,7 @@
         <v>55</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>30</v>
@@ -30879,7 +30880,7 @@
         <v>65</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>30</v>
@@ -30980,7 +30981,7 @@
         <v>115</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>30</v>
@@ -31901,7 +31902,7 @@
         <v>28</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>30</v>
@@ -32099,7 +32100,7 @@
         <v>60</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>30</v>
@@ -32200,7 +32201,7 @@
         <v>60</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>30</v>
@@ -32306,7 +32307,7 @@
         <v>86</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>30</v>
@@ -32714,7 +32715,7 @@
         <v>115</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>50</v>
@@ -32818,7 +32819,7 @@
         <v>28</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>30</v>
@@ -32901,7 +32902,7 @@
         <v>38</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>30</v>
@@ -33308,7 +33309,7 @@
         <v>86</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>30</v>
@@ -33494,7 +33495,7 @@
         <v>38</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>50</v>
@@ -33602,7 +33603,7 @@
         <v>65</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>30</v>
@@ -33703,7 +33704,7 @@
         <v>95</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>30</v>
@@ -34024,7 +34025,7 @@
         <v>115</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>30</v>
@@ -34132,7 +34133,7 @@
         <v>86</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>30</v>
@@ -34237,7 +34238,7 @@
         <v>115</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>50</v>
@@ -34341,7 +34342,7 @@
         <v>125</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>30</v>
@@ -34533,7 +34534,7 @@
         <v>38</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>50</v>
@@ -35103,7 +35104,7 @@
         <v>28</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>30</v>
@@ -35196,7 +35197,7 @@
         <v>115</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>30</v>
@@ -35279,7 +35280,7 @@
         <v>28</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>30</v>
@@ -35378,7 +35379,7 @@
         <v>184</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>30</v>
@@ -35481,7 +35482,7 @@
         <v>95</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>50</v>
@@ -35783,7 +35784,7 @@
         <v>60</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>30</v>
@@ -36086,7 +36087,7 @@
         <v>38</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>30</v>
@@ -36687,7 +36688,7 @@
         <v>86</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>87</v>
@@ -36771,7 +36772,7 @@
         <v>38</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>76</v>
@@ -36985,7 +36986,7 @@
         <v>38</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H329" s="1" t="s">
         <v>30</v>
@@ -37072,7 +37073,7 @@
         <v>95</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>30</v>
@@ -37155,7 +37156,7 @@
         <v>259</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H331" s="1" t="s">
         <v>50</v>
@@ -37864,7 +37865,7 @@
         <v>81</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>30</v>
@@ -38176,7 +38177,7 @@
         <v>115</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H341" s="1" t="s">
         <v>30</v>
@@ -38380,7 +38381,7 @@
         <v>115</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H343" s="1" t="s">
         <v>30</v>
@@ -38485,7 +38486,7 @@
         <v>115</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H344" s="1" t="s">
         <v>30</v>
@@ -38590,7 +38591,7 @@
         <v>146</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H345" s="1" t="s">
         <v>30</v>
@@ -38891,7 +38892,7 @@
         <v>38</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H348" s="1" t="s">
         <v>30</v>
@@ -38994,7 +38995,7 @@
         <v>95</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H349" s="1" t="s">
         <v>30</v>
@@ -39102,7 +39103,7 @@
         <v>28</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H350" s="1" t="s">
         <v>30</v>
@@ -39195,7 +39196,7 @@
         <v>224</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H351" s="1" t="s">
         <v>30</v>
@@ -39282,7 +39283,7 @@
         <v>86</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H352" s="1" t="s">
         <v>76</v>
@@ -39392,7 +39393,7 @@
         <v>86</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H353" s="1" t="s">
         <v>76</v>
@@ -39502,7 +39503,7 @@
         <v>265</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H354" s="1" t="s">
         <v>30</v>
@@ -39593,7 +39594,7 @@
         <v>115</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H355" s="1" t="s">
         <v>30</v>
@@ -39803,7 +39804,7 @@
         <v>60</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H357" s="1" t="s">
         <v>30</v>
@@ -39981,7 +39982,7 @@
         <v>1228</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H359" s="1" t="s">
         <v>87</v>
@@ -40054,7 +40055,7 @@
         <v>304</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H360" s="1" t="s">
         <v>30</v>
@@ -40135,7 +40136,7 @@
         <v>49</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H361" s="1" t="s">
         <v>30</v>
@@ -40341,7 +40342,7 @@
         <v>38</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H363" s="1" t="s">
         <v>30</v>
@@ -40440,7 +40441,7 @@
         <v>95</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H364" s="1" t="s">
         <v>50</v>
@@ -40538,7 +40539,7 @@
         <v>46</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H365" s="1" t="s">
         <v>30</v>
@@ -40637,7 +40638,7 @@
         <v>115</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H366" s="1" t="s">
         <v>30</v>
@@ -40738,7 +40739,7 @@
         <v>766</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H367" s="1" t="s">
         <v>30</v>
@@ -40818,7 +40819,7 @@
         <v>28</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H368" s="1" t="s">
         <v>30</v>
@@ -40912,7 +40913,7 @@
         <v>46</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H369" s="1" t="s">
         <v>30</v>
@@ -41013,7 +41014,7 @@
         <v>55</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H370" s="1" t="s">
         <v>30</v>
@@ -41197,7 +41198,7 @@
         <v>60</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H372" s="1" t="s">
         <v>30</v>
@@ -41301,7 +41302,7 @@
         <v>60</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H373" s="1" t="s">
         <v>30</v>
@@ -41399,7 +41400,7 @@
         <v>60</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H374" s="1" t="s">
         <v>30</v>
@@ -41498,7 +41499,7 @@
         <v>55</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H375" s="1" t="s">
         <v>50</v>
@@ -41593,7 +41594,7 @@
         <v>65</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H376" s="1" t="s">
         <v>30</v>
@@ -41790,7 +41791,7 @@
         <v>86</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H378" s="1" t="s">
         <v>30</v>
@@ -42091,7 +42092,7 @@
         <v>115</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H381" s="1" t="s">
         <v>50</v>
@@ -42193,7 +42194,7 @@
         <v>115</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H382" s="1" t="s">
         <v>50</v>
@@ -42295,7 +42296,7 @@
         <v>115</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H383" s="1" t="s">
         <v>30</v>
@@ -42401,7 +42402,7 @@
         <v>115</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H384" s="1" t="s">
         <v>30</v>
@@ -42509,7 +42510,7 @@
         <v>55</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H385" s="1" t="s">
         <v>30</v>
@@ -42709,7 +42710,7 @@
         <v>259</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H387" s="1" t="s">
         <v>76</v>
@@ -42810,7 +42811,7 @@
         <v>28</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H388" s="1" t="s">
         <v>30</v>
@@ -42901,7 +42902,7 @@
         <v>28</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H389" s="1" t="s">
         <v>30</v>
@@ -42994,7 +42995,7 @@
         <v>803</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H390" s="1" t="s">
         <v>30</v>
@@ -43073,7 +43074,7 @@
         <v>115</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H391" s="1" t="s">
         <v>30</v>
@@ -43172,7 +43173,7 @@
         <v>184</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H392" s="1" t="s">
         <v>30</v>
@@ -43278,7 +43279,7 @@
         <v>38</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H393" s="1" t="s">
         <v>30</v>
@@ -43364,7 +43365,7 @@
         <v>38</v>
       </c>
       <c r="G394" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H394" s="1" t="s">
         <v>30</v>
@@ -43567,7 +43568,7 @@
         <v>38</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H396" s="1" t="s">
         <v>30</v>
@@ -43773,7 +43774,7 @@
         <v>115</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H398" s="1" t="s">
         <v>50</v>
@@ -43883,7 +43884,7 @@
         <v>115</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H399" s="1" t="s">
         <v>30</v>
@@ -43993,7 +43994,7 @@
         <v>224</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H400" s="1" t="s">
         <v>30</v>
@@ -44083,7 +44084,7 @@
         <v>224</v>
       </c>
       <c r="G401" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H401" s="1" t="s">
         <v>30</v>
@@ -44174,7 +44175,7 @@
         <v>60</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H402" s="1" t="s">
         <v>30</v>
@@ -44376,7 +44377,7 @@
         <v>28</v>
       </c>
       <c r="G404" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H404" s="1" t="s">
         <v>30</v>
@@ -44573,7 +44574,7 @@
         <v>95</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H406" s="1" t="s">
         <v>30</v>
@@ -44674,7 +44675,7 @@
         <v>28</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H407" s="1" t="s">
         <v>30</v>
@@ -44765,7 +44766,7 @@
         <v>95</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H408" s="1" t="s">
         <v>30</v>
@@ -44867,7 +44868,7 @@
         <v>60</v>
       </c>
       <c r="G409" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H409" s="1" t="s">
         <v>30</v>
@@ -44969,7 +44970,7 @@
         <v>38</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H410" s="1" t="s">
         <v>30</v>
@@ -45173,7 +45174,7 @@
         <v>523</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H412" s="1" t="s">
         <v>30</v>
@@ -45451,7 +45452,7 @@
         <v>294</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H415" s="1" t="s">
         <v>30</v>
@@ -45754,7 +45755,7 @@
         <v>115</v>
       </c>
       <c r="G418" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H418" s="1" t="s">
         <v>50</v>
@@ -45870,7 +45871,7 @@
         <v>115</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H419" s="1" t="s">
         <v>87</v>
@@ -46341,7 +46342,7 @@
         <v>28</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H424" s="1" t="s">
         <v>87</v>
@@ -46516,7 +46517,7 @@
         <v>28</v>
       </c>
       <c r="G426" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H426" s="1" t="s">
         <v>30</v>
@@ -46612,7 +46613,7 @@
         <v>115</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H427" s="1" t="s">
         <v>50</v>
@@ -46713,7 +46714,7 @@
         <v>115</v>
       </c>
       <c r="G428" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H428" s="1" t="s">
         <v>30</v>
@@ -46921,7 +46922,7 @@
         <v>86</v>
       </c>
       <c r="G430" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H430" s="1" t="s">
         <v>30</v>
@@ -47026,7 +47027,7 @@
         <v>38</v>
       </c>
       <c r="G431" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H431" s="1" t="s">
         <v>30</v>
@@ -47224,7 +47225,7 @@
         <v>38</v>
       </c>
       <c r="G433" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H433" s="1" t="s">
         <v>30</v>
@@ -47314,7 +47315,7 @@
         <v>28</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H434" s="1" t="s">
         <v>30</v>
@@ -47506,7 +47507,7 @@
         <v>86</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H436" s="1" t="s">
         <v>30</v>
@@ -47719,7 +47720,7 @@
         <v>38</v>
       </c>
       <c r="G438" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H438" s="1" t="s">
         <v>30</v>
@@ -48192,7 +48193,7 @@
         <v>38</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H443" s="1" t="s">
         <v>76</v>
@@ -48299,7 +48300,7 @@
         <v>86</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H444" s="1" t="s">
         <v>30</v>
@@ -48398,7 +48399,7 @@
         <v>86</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H445" s="1" t="s">
         <v>30</v>
@@ -48595,7 +48596,7 @@
         <v>60</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H447" s="1" t="s">
         <v>50</v>
@@ -48696,7 +48697,7 @@
         <v>60</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H448" s="1" t="s">
         <v>50</v>
@@ -48905,7 +48906,7 @@
         <v>86</v>
       </c>
       <c r="G450" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H450" s="1" t="s">
         <v>30</v>
@@ -49186,7 +49187,7 @@
         <v>81</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H453" s="1" t="s">
         <v>30</v>
@@ -49293,7 +49294,7 @@
         <v>81</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H454" s="1" t="s">
         <v>30</v>
@@ -49398,7 +49399,7 @@
         <v>95</v>
       </c>
       <c r="G455" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H455" s="1" t="s">
         <v>50</v>
@@ -50079,7 +50080,7 @@
         <v>38</v>
       </c>
       <c r="G462" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H462" s="1" t="s">
         <v>30</v>
@@ -50185,7 +50186,7 @@
         <v>304</v>
       </c>
       <c r="G463" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H463" s="1" t="s">
         <v>87</v>
@@ -50770,7 +50771,7 @@
         <v>81</v>
       </c>
       <c r="G469" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H469" s="1" t="s">
         <v>30</v>
@@ -50881,7 +50882,7 @@
         <v>81</v>
       </c>
       <c r="G470" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H470" s="1" t="s">
         <v>30</v>
@@ -51193,7 +51194,7 @@
         <v>28</v>
       </c>
       <c r="G473" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H473" s="1" t="s">
         <v>30</v>
@@ -51277,7 +51278,7 @@
         <v>41</v>
       </c>
       <c r="G474" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H474" s="1" t="s">
         <v>30</v>
@@ -51362,7 +51363,7 @@
         <v>86</v>
       </c>
       <c r="G475" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H475" s="1" t="s">
         <v>30</v>
@@ -51467,7 +51468,7 @@
         <v>28</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H476" s="1" t="s">
         <v>30</v>
@@ -51760,7 +51761,7 @@
         <v>304</v>
       </c>
       <c r="G479" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H479" s="1" t="s">
         <v>30</v>
@@ -52016,7 +52017,7 @@
         <v>38</v>
       </c>
       <c r="G482" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H482" s="1" t="s">
         <v>30</v>
@@ -52523,7 +52524,7 @@
         <v>115</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H487" s="1" t="s">
         <v>30</v>
@@ -52729,7 +52730,7 @@
         <v>115</v>
       </c>
       <c r="G489" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H489" s="1" t="s">
         <v>30</v>
@@ -52811,7 +52812,7 @@
         <v>603</v>
       </c>
       <c r="G490" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H490" s="1" t="s">
         <v>30</v>
@@ -52914,7 +52915,7 @@
         <v>304</v>
       </c>
       <c r="G491" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H491" s="1" t="s">
         <v>30</v>
@@ -53616,7 +53617,7 @@
         <v>28</v>
       </c>
       <c r="G498" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H498" s="1" t="s">
         <v>30</v>
@@ -53715,7 +53716,7 @@
         <v>38</v>
       </c>
       <c r="G499" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H499" s="1" t="s">
         <v>50</v>
@@ -53821,7 +53822,7 @@
         <v>28</v>
       </c>
       <c r="G500" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H500" s="1" t="s">
         <v>30</v>
@@ -54026,7 +54027,7 @@
         <v>60</v>
       </c>
       <c r="G502" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H502" s="1" t="s">
         <v>30</v>
@@ -54131,7 +54132,7 @@
         <v>41</v>
       </c>
       <c r="G503" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H503" s="1" t="s">
         <v>30</v>
@@ -54418,7 +54419,7 @@
         <v>38</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H506" s="1" t="s">
         <v>30</v>
@@ -54887,7 +54888,7 @@
         <v>65</v>
       </c>
       <c r="G511" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H511" s="1" t="s">
         <v>30</v>
@@ -55099,7 +55100,7 @@
         <v>146</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H513" s="1" t="s">
         <v>30</v>
@@ -55193,7 +55194,7 @@
         <v>28</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H514" s="1" t="s">
         <v>30</v>
@@ -55384,7 +55385,7 @@
         <v>38</v>
       </c>
       <c r="G516" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H516" s="1" t="s">
         <v>50</v>
@@ -55489,7 +55490,7 @@
         <v>440</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H517" s="1" t="s">
         <v>76</v>
@@ -55699,7 +55700,7 @@
         <v>86</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H519" s="1" t="s">
         <v>30</v>
@@ -56194,7 +56195,7 @@
         <v>95</v>
       </c>
       <c r="G524" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H524" s="1" t="s">
         <v>30</v>
@@ -56400,7 +56401,7 @@
         <v>643</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H526" s="1" t="s">
         <v>30</v>
@@ -56504,7 +56505,7 @@
         <v>41</v>
       </c>
       <c r="G527" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H527" s="1" t="s">
         <v>30</v>
@@ -56684,7 +56685,7 @@
         <v>115</v>
       </c>
       <c r="G529" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H529" s="1" t="s">
         <v>30</v>
@@ -56875,7 +56876,7 @@
         <v>115</v>
       </c>
       <c r="G531" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H531" s="1" t="s">
         <v>50</v>
@@ -57079,7 +57080,7 @@
         <v>75</v>
       </c>
       <c r="G533" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H533" s="1" t="s">
         <v>30</v>
@@ -57474,7 +57475,7 @@
         <v>115</v>
       </c>
       <c r="G537" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H537" s="1" t="s">
         <v>30</v>
@@ -57673,7 +57674,7 @@
         <v>115</v>
       </c>
       <c r="G539" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H539" s="1" t="s">
         <v>50</v>
@@ -57768,7 +57769,7 @@
         <v>115</v>
       </c>
       <c r="G540" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H540" s="1" t="s">
         <v>50</v>
@@ -57861,7 +57862,7 @@
         <v>115</v>
       </c>
       <c r="G541" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H541" s="1" t="s">
         <v>30</v>
@@ -58356,7 +58357,7 @@
         <v>95</v>
       </c>
       <c r="G546" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H546" s="1" t="s">
         <v>50</v>
@@ -58561,7 +58562,7 @@
         <v>28</v>
       </c>
       <c r="G548" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H548" s="1" t="s">
         <v>30</v>
@@ -58656,7 +58657,7 @@
         <v>95</v>
       </c>
       <c r="G549" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H549" s="1" t="s">
         <v>30</v>
@@ -59070,7 +59071,7 @@
         <v>81</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H553" s="1" t="s">
         <v>50</v>
@@ -59252,7 +59253,7 @@
         <v>115</v>
       </c>
       <c r="G555" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H555" s="1" t="s">
         <v>30</v>
@@ -59354,7 +59355,7 @@
         <v>115</v>
       </c>
       <c r="G556" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H556" s="1" t="s">
         <v>30</v>
@@ -59453,7 +59454,7 @@
         <v>115</v>
       </c>
       <c r="G557" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H557" s="1" t="s">
         <v>30</v>
@@ -59552,7 +59553,7 @@
         <v>115</v>
       </c>
       <c r="G558" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H558" s="1" t="s">
         <v>30</v>
@@ -59657,7 +59658,7 @@
         <v>95</v>
       </c>
       <c r="G559" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H559" s="1" t="s">
         <v>30</v>
@@ -59758,7 +59759,7 @@
         <v>49</v>
       </c>
       <c r="G560" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H560" s="1" t="s">
         <v>50</v>
@@ -59844,7 +59845,7 @@
         <v>679</v>
       </c>
       <c r="G561" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H561" s="1" t="s">
         <v>30</v>
@@ -59947,7 +59948,7 @@
         <v>95</v>
       </c>
       <c r="G562" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H562" s="1" t="s">
         <v>30</v>
@@ -60143,7 +60144,7 @@
         <v>95</v>
       </c>
       <c r="G564" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H564" s="1" t="s">
         <v>50</v>
@@ -60247,7 +60248,7 @@
         <v>81</v>
       </c>
       <c r="G565" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H565" s="1" t="s">
         <v>30</v>
@@ -60426,7 +60427,7 @@
         <v>115</v>
       </c>
       <c r="G567" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H567" s="1" t="s">
         <v>50</v>
@@ -60620,7 +60621,7 @@
         <v>220</v>
       </c>
       <c r="G569" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H569" s="1" t="s">
         <v>30</v>
@@ -60915,7 +60916,7 @@
         <v>60</v>
       </c>
       <c r="G572" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H572" s="1" t="s">
         <v>30</v>
@@ -61016,7 +61017,7 @@
         <v>49</v>
       </c>
       <c r="G573" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H573" s="1" t="s">
         <v>50</v>
@@ -61102,7 +61103,7 @@
         <v>81</v>
       </c>
       <c r="G574" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H574" s="1" t="s">
         <v>30</v>
@@ -61201,7 +61202,7 @@
         <v>115</v>
       </c>
       <c r="G575" s="1" t="s">
-        <v>42</v>
+        <v>1490</v>
       </c>
       <c r="H575" s="1" t="s">
         <v>30</v>
@@ -61302,7 +61303,7 @@
         <v>265</v>
       </c>
       <c r="G576" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H576" s="1" t="s">
         <v>30</v>
@@ -61376,7 +61377,7 @@
         <v>55</v>
       </c>
       <c r="G577" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H577" s="1" t="s">
         <v>30</v>
@@ -61846,7 +61847,7 @@
         <v>86</v>
       </c>
       <c r="G582" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H582" s="1" t="s">
         <v>87</v>
@@ -62129,7 +62130,7 @@
         <v>38</v>
       </c>
       <c r="G585" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H585" s="1" t="s">
         <v>30</v>
@@ -62437,7 +62438,7 @@
         <v>265</v>
       </c>
       <c r="G588" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H588" s="1" t="s">
         <v>30</v>
@@ -62526,7 +62527,7 @@
         <v>65</v>
       </c>
       <c r="G589" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H589" s="1" t="s">
         <v>30</v>
@@ -62619,7 +62620,7 @@
         <v>65</v>
       </c>
       <c r="G590" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H590" s="1" t="s">
         <v>50</v>
@@ -62710,7 +62711,7 @@
         <v>65</v>
       </c>
       <c r="G591" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H591" s="1" t="s">
         <v>50</v>
@@ -62797,7 +62798,7 @@
         <v>81</v>
       </c>
       <c r="G592" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H592" s="1" t="s">
         <v>30</v>
@@ -62887,7 +62888,7 @@
         <v>81</v>
       </c>
       <c r="G593" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H593" s="1" t="s">
         <v>87</v>
@@ -62970,7 +62971,7 @@
         <v>55</v>
       </c>
       <c r="G594" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H594" s="1" t="s">
         <v>30</v>
@@ -63281,7 +63282,7 @@
         <v>259</v>
       </c>
       <c r="G597" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H597" s="1" t="s">
         <v>76</v>
@@ -63687,7 +63688,7 @@
         <v>79</v>
       </c>
       <c r="G601" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H601" s="1" t="s">
         <v>76</v>
@@ -63794,7 +63795,7 @@
         <v>86</v>
       </c>
       <c r="G602" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H602" s="1" t="s">
         <v>30</v>
@@ -63901,7 +63902,7 @@
         <v>86</v>
       </c>
       <c r="G603" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H603" s="1" t="s">
         <v>50</v>
@@ -64000,7 +64001,7 @@
         <v>60</v>
       </c>
       <c r="G604" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H604" s="1" t="s">
         <v>30</v>
@@ -64295,7 +64296,7 @@
         <v>83</v>
       </c>
       <c r="G607" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H607" s="1" t="s">
         <v>76</v>
@@ -64515,7 +64516,7 @@
         <v>28</v>
       </c>
       <c r="G609" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H609" s="1" t="s">
         <v>30</v>
@@ -64602,7 +64603,7 @@
         <v>115</v>
       </c>
       <c r="G610" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H610" s="1" t="s">
         <v>30</v>
@@ -64707,7 +64708,7 @@
         <v>86</v>
       </c>
       <c r="G611" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H611" s="1" t="s">
         <v>30</v>
@@ -65318,7 +65319,7 @@
         <v>304</v>
       </c>
       <c r="G617" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H617" s="1" t="s">
         <v>30</v>
@@ -65612,7 +65613,7 @@
         <v>28</v>
       </c>
       <c r="G620" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H620" s="1" t="s">
         <v>76</v>
@@ -65704,7 +65705,7 @@
         <v>28</v>
       </c>
       <c r="G621" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H621" s="1" t="s">
         <v>50</v>
@@ -65891,7 +65892,7 @@
         <v>86</v>
       </c>
       <c r="G623" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H623" s="1" t="s">
         <v>30</v>
@@ -65968,7 +65969,7 @@
         <v>38</v>
       </c>
       <c r="G624" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H624" s="1" t="s">
         <v>30</v>
@@ -66238,7 +66239,7 @@
         <v>55</v>
       </c>
       <c r="G627" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H627" s="1" t="s">
         <v>30</v>
@@ -66739,7 +66740,7 @@
         <v>38</v>
       </c>
       <c r="G632" s="1" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H632" s="1" t="s">
         <v>30</v>
@@ -66833,7 +66834,7 @@
         <v>184</v>
       </c>
       <c r="G633" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H633" s="1" t="s">
         <v>50</v>
@@ -66861,7 +66862,7 @@
         <v>0.1</v>
       </c>
       <c r="Q633" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="S633" t="s">
         <v>878</v>
@@ -66942,7 +66943,7 @@
         <v>184</v>
       </c>
       <c r="G634" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H634" s="1" t="s">
         <v>30</v>
@@ -67017,7 +67018,7 @@
         <v>304</v>
       </c>
       <c r="G635" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H635" s="1" t="s">
         <v>30</v>
@@ -67527,7 +67528,7 @@
         <v>95</v>
       </c>
       <c r="G640" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H640" t="s">
         <v>30</v>
@@ -67629,7 +67630,7 @@
         <v>28</v>
       </c>
       <c r="G641" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H641" t="s">
         <v>30</v>
@@ -67792,7 +67793,7 @@
         <v>55</v>
       </c>
       <c r="G643" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H643" t="s">
         <v>50</v>
@@ -67890,7 +67891,7 @@
         <v>38</v>
       </c>
       <c r="G644" t="s">
-        <v>29</v>
+        <v>1490</v>
       </c>
       <c r="H644" t="s">
         <v>30</v>

--- a/controle.xlsx
+++ b/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRUNO.SILVA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E5A526-E83B-4DE6-AD2B-9168C080324B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6686676-3C8A-48DA-B9DE-286FA1E7608D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28815" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{1F63DE79-F0C3-4E1B-ACF1-76854CDBA0CF}"/>
   </bookViews>
@@ -4942,7 +4942,7 @@
   <dimension ref="A1:AQ659"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AQ670"/>
+      <selection sqref="A1:AQ200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43947,7 +43947,7 @@
         <v>1264467.51</v>
       </c>
     </row>
-    <row r="434" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:43" ht="345" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>32</v>
       </c>
